--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -193,6 +193,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -4380,10 +4413,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -4490,10 +4523,10 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -4506,84 +4539,84 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>660568306</v>
+        <v>2929244710</v>
       </c>
       <c r="AA2" t="n">
-        <v>1255193652</v>
+        <v>3593094018</v>
       </c>
       <c r="AB2" t="n">
-        <v>1117734282</v>
+        <v>4246686727</v>
       </c>
       <c r="AC2" t="n">
-        <v>619128853</v>
+        <v>4748712467.6601</v>
       </c>
       <c r="AD2" t="n">
-        <v>917858096.9375</v>
+        <v>5371395489.2227</v>
       </c>
       <c r="AE2" t="n">
-        <v>1624622988.5</v>
+        <v>5785723647.2656</v>
       </c>
       <c r="AF2" t="n">
-        <v>839071169.8445</v>
+        <v>7380482189.8882</v>
       </c>
       <c r="AG2" t="n">
-        <v>577754852.5959</v>
+        <v>7551341426.3594</v>
       </c>
       <c r="AH2" t="n">
-        <v>755447169.4419</v>
+        <v>8654047890.7439</v>
       </c>
       <c r="AI2" t="n">
-        <v>1150320037.0268</v>
+        <v>9613301432.866</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2322720827.1855</v>
+        <v>8072988204.8084</v>
       </c>
       <c r="AK2" t="n">
-        <v>3348348304.6468</v>
+        <v>9575766614.535</v>
       </c>
       <c r="AL2" t="n">
-        <v>3004863253.0893</v>
+        <v>9321612297.8177</v>
       </c>
       <c r="AM2" t="n">
-        <v>2361852362.8104</v>
+        <v>6861138826.0051</v>
       </c>
       <c r="AN2" t="n">
-        <v>2212894814.1546</v>
+        <v>7511088989.0387</v>
       </c>
       <c r="AO2" t="n">
-        <v>1622250690.0788</v>
+        <v>5604032857.7569</v>
       </c>
       <c r="AP2" t="n">
-        <v>1152593832.1133</v>
+        <v>5726535657.4099</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1625730571.0706</v>
+        <v>5621746270.1064</v>
       </c>
       <c r="AR2" t="n">
-        <v>1223990106.7078</v>
+        <v>5328489030.8624</v>
       </c>
       <c r="AS2" t="n">
-        <v>1920860256.8976</v>
+        <v>6465802439.6925</v>
       </c>
       <c r="AT2" t="n">
-        <v>2486062479.5483</v>
+        <v>5983338451.6949</v>
       </c>
       <c r="AU2" t="n">
-        <v>1498709632.4256</v>
+        <v>2659503046.2681</v>
       </c>
       <c r="AV2" t="n">
-        <v>1845506486.5984</v>
+        <v>3139360053.2428</v>
       </c>
       <c r="AW2" t="n">
-        <v>342063428.681</v>
+        <v>2326489419.3368</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -4596,82 +4629,84 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>50867488</v>
+        <v>2746911</v>
       </c>
       <c r="AA3" t="n">
-        <v>44451176</v>
+        <v>3941884</v>
       </c>
       <c r="AB3" t="n">
-        <v>38065170</v>
+        <v>3749025</v>
       </c>
       <c r="AC3" t="n">
-        <v>13189917</v>
+        <v>16809462</v>
       </c>
       <c r="AD3" t="n">
-        <v>816632</v>
+        <v>16266497</v>
       </c>
       <c r="AE3" t="n">
-        <v>74337045</v>
+        <v>16471041</v>
       </c>
       <c r="AF3" t="n">
-        <v>3568079</v>
+        <v>11620145</v>
       </c>
       <c r="AG3" t="n">
-        <v>-117149</v>
+        <v>13220806.7762</v>
       </c>
       <c r="AH3" t="n">
-        <v>-182452.2969</v>
+        <v>14159994.0288</v>
       </c>
       <c r="AI3" t="n">
-        <v>-775437.125</v>
+        <v>14903232.1958</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1995733</v>
+        <v>18135284.5837</v>
       </c>
       <c r="AK3" t="n">
-        <v>3188451.1899</v>
+        <v>15028409.0642</v>
       </c>
       <c r="AL3" t="n">
-        <v>-38309.8789</v>
+        <v>30219532.7448</v>
       </c>
       <c r="AM3" t="n">
-        <v>-304973.85</v>
-      </c>
-      <c r="AN3"/>
+        <v>25152024.7</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>34552124.64</v>
+      </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>21511607.5867</v>
       </c>
       <c r="AP3" t="n">
-        <v>55404.1707</v>
+        <v>20269077.4434</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>19009075.8613</v>
       </c>
       <c r="AR3" t="n">
-        <v>9839846</v>
+        <v>8026539.1409</v>
       </c>
       <c r="AS3" t="n">
-        <v>332379309.0234</v>
+        <v>22724990.4934</v>
       </c>
       <c r="AT3" t="n">
-        <v>302087828.4492</v>
+        <v>1442757.3984</v>
       </c>
       <c r="AU3" t="n">
-        <v>240810422.66</v>
+        <v>1416485.9096</v>
       </c>
       <c r="AV3" t="n">
-        <v>302908854.0313</v>
+        <v>1238514.3926</v>
       </c>
       <c r="AW3" t="n">
-        <v>50728874</v>
+        <v>2462361.2812</v>
       </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4683,85 +4718,63 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4" t="n">
-        <v>7232135</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11989370</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4892070</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17522856</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>35578117</v>
-      </c>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
       <c r="AE4" t="n">
-        <v>42478443</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>52699731</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>44945586.5066</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>47763138.9275</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>31557043.6605</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>59754399.5352</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>37554990.2104</v>
-      </c>
+        <v>-8990</v>
+      </c>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
       <c r="AL4" t="n">
-        <v>46437871.1566</v>
+        <v>3801.12</v>
       </c>
       <c r="AM4" t="n">
-        <v>48014626.7009</v>
+        <v>631424.1</v>
       </c>
       <c r="AN4" t="n">
-        <v>37832921.3988</v>
+        <v>18016.7902</v>
       </c>
       <c r="AO4" t="n">
-        <v>71208970.0455</v>
+        <v>936877.2</v>
       </c>
       <c r="AP4" t="n">
-        <v>89906384.0068</v>
+        <v>13076623.2109</v>
       </c>
       <c r="AQ4" t="n">
-        <v>91827386.448</v>
+        <v>3171330.6641</v>
       </c>
       <c r="AR4" t="n">
-        <v>53948223.7761</v>
+        <v>1557946.1904</v>
       </c>
       <c r="AS4" t="n">
-        <v>49098720.5044</v>
+        <v>7339874.48</v>
       </c>
       <c r="AT4" t="n">
-        <v>52191945.0264</v>
+        <v>1339871</v>
       </c>
       <c r="AU4" t="n">
-        <v>-699074.3672</v>
+        <v>245418</v>
       </c>
       <c r="AV4" t="n">
-        <v>3842652.875</v>
+        <v>3697414.5234</v>
       </c>
       <c r="AW4" t="n">
-        <v>562000</v>
+        <v>1859469</v>
       </c>
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -4774,84 +4787,80 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>142126379</v>
+        <v>5387765</v>
       </c>
       <c r="AA5" t="n">
-        <v>84925188</v>
+        <v>3484273</v>
       </c>
       <c r="AB5" t="n">
-        <v>151641248</v>
+        <v>13430151</v>
       </c>
       <c r="AC5" t="n">
-        <v>706106012</v>
+        <v>11924872</v>
       </c>
       <c r="AD5" t="n">
-        <v>883972087</v>
+        <v>27711504</v>
       </c>
       <c r="AE5" t="n">
-        <v>502235052</v>
+        <v>29715201</v>
       </c>
       <c r="AF5" t="n">
-        <v>763339154</v>
+        <v>23051849</v>
       </c>
       <c r="AG5" t="n">
-        <v>989242230.875</v>
+        <v>28381830.2364</v>
       </c>
       <c r="AH5" t="n">
-        <v>751531103.7705</v>
+        <v>48133935.8389</v>
       </c>
       <c r="AI5" t="n">
-        <v>884082480.0027</v>
+        <v>25681037.0773</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1709704072.0279</v>
+        <v>45130096.6892</v>
       </c>
       <c r="AK5" t="n">
-        <v>2497030829.4912</v>
+        <v>18708592.6554</v>
       </c>
       <c r="AL5" t="n">
-        <v>2630248457.4023</v>
+        <v>18721760.7503</v>
       </c>
       <c r="AM5" t="n">
-        <v>2585533770.8901</v>
+        <v>22289346.6809</v>
       </c>
       <c r="AN5" t="n">
-        <v>3395222451.0736</v>
+        <v>846488.3687</v>
       </c>
       <c r="AO5" t="n">
-        <v>2141174887.2238</v>
+        <v>-171183.5012</v>
       </c>
       <c r="AP5" t="n">
-        <v>1972087563.7815</v>
+        <v>-219671.1015</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1884329025.6903</v>
+        <v>-344970.4034</v>
       </c>
       <c r="AR5" t="n">
-        <v>1888201468.605</v>
+        <v>-77013.6016</v>
       </c>
       <c r="AS5" t="n">
-        <v>2148001423.4643</v>
+        <v>1495616.338</v>
       </c>
       <c r="AT5" t="n">
-        <v>2091721352.527</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1399164931.6664</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>1857568522.1803</v>
-      </c>
+        <v>4762040.8364</v>
+      </c>
+      <c r="AU5"/>
+      <c r="AV5"/>
       <c r="AW5" t="n">
-        <v>1906988458.2657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -4864,84 +4873,84 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>2161469493</v>
+        <v>114826157</v>
       </c>
       <c r="AA6" t="n">
-        <v>2279862272</v>
+        <v>417793085</v>
       </c>
       <c r="AB6" t="n">
-        <v>2600195782</v>
+        <v>10274049</v>
       </c>
       <c r="AC6" t="n">
-        <v>3076776464.6601</v>
+        <v>180840769</v>
       </c>
       <c r="AD6" t="n">
-        <v>3329314204.2227</v>
+        <v>642827161.9375</v>
       </c>
       <c r="AE6" t="n">
-        <v>3257780997.7656</v>
+        <v>472444461</v>
       </c>
       <c r="AF6" t="n">
-        <v>4820257444.7234</v>
+        <v>142571387.6797</v>
       </c>
       <c r="AG6" t="n">
-        <v>4938626475.8685</v>
+        <v>100777326.2937</v>
       </c>
       <c r="AH6" t="n">
-        <v>5422282115.8575</v>
+        <v>196008740.809</v>
       </c>
       <c r="AI6" t="n">
-        <v>6147279635.1446</v>
+        <v>335543751.417</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4558077296.9564</v>
+        <v>364760431.2007</v>
       </c>
       <c r="AK6" t="n">
-        <v>3754352033.8076</v>
+        <v>316707870.6605</v>
       </c>
       <c r="AL6" t="n">
-        <v>2321510944.0609</v>
+        <v>269018571.0573</v>
       </c>
       <c r="AM6" t="n">
-        <v>2009322633.618</v>
+        <v>446702176.8734</v>
       </c>
       <c r="AN6" t="n">
-        <v>1821472651.4881</v>
+        <v>139835359.5394</v>
       </c>
       <c r="AO6" t="n">
-        <v>1937444693.0404</v>
+        <v>162166524.7043</v>
       </c>
       <c r="AP6" t="n">
-        <v>1734827328.6473</v>
+        <v>165592358.502</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1770294955.4252</v>
+        <v>186738681.579</v>
       </c>
       <c r="AR6" t="n">
-        <v>2259684994.2863</v>
+        <v>379030910.2695</v>
       </c>
       <c r="AS6" t="n">
-        <v>1893631478.9228</v>
+        <v>409219407.9667</v>
       </c>
       <c r="AT6" t="n">
-        <v>1932681746.7133</v>
+        <v>473398283.9077</v>
       </c>
       <c r="AU6" t="n">
-        <v>478155631.9928</v>
+        <v>136913607.2687</v>
       </c>
       <c r="AV6" t="n">
-        <v>626919395.0152</v>
+        <v>140460649.3183</v>
       </c>
       <c r="AW6" t="n">
-        <v>279295707.6704</v>
+        <v>62817073.4815</v>
       </c>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -4954,84 +4963,84 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>153274049</v>
+        <v>106510072</v>
       </c>
       <c r="AA7" t="n">
-        <v>473017358</v>
+        <v>125956007</v>
       </c>
       <c r="AB7" t="n">
-        <v>572574573</v>
+        <v>216574576</v>
       </c>
       <c r="AC7" t="n">
-        <v>854680578</v>
+        <v>331067150</v>
       </c>
       <c r="AD7" t="n">
-        <v>1107264125</v>
+        <v>220497864</v>
       </c>
       <c r="AE7" t="n">
-        <v>1015410325</v>
+        <v>217898600</v>
       </c>
       <c r="AF7" t="n">
-        <v>1490691604</v>
+        <v>452809014</v>
       </c>
       <c r="AG7" t="n">
-        <v>1465268241.3877</v>
+        <v>516687037.568</v>
       </c>
       <c r="AH7" t="n">
-        <v>1842174702.1836</v>
+        <v>665157508.1462</v>
       </c>
       <c r="AI7" t="n">
-        <v>993400053.5157</v>
+        <v>391607301.0968</v>
       </c>
       <c r="AJ7" t="n">
-        <v>437791993.8982</v>
+        <v>588321932.6913</v>
       </c>
       <c r="AK7" t="n">
-        <v>658829581.793</v>
+        <v>372190223.0874</v>
       </c>
       <c r="AL7" t="n">
-        <v>1944537862.8029</v>
+        <v>309754413.0037</v>
       </c>
       <c r="AM7" t="n">
-        <v>566425464.98</v>
+        <v>215200988.57</v>
       </c>
       <c r="AN7" t="n">
-        <v>379325195.75</v>
+        <v>163087962.4881</v>
       </c>
       <c r="AO7" t="n">
-        <v>192710059.67</v>
+        <v>174585835.7518</v>
       </c>
       <c r="AP7" t="n">
-        <v>1123350417.3733</v>
+        <v>150611668.8175</v>
       </c>
       <c r="AQ7" t="n">
-        <v>678451945.7423</v>
+        <v>220257990.9669</v>
       </c>
       <c r="AR7" t="n">
-        <v>509859970.7774</v>
+        <v>228497197.291</v>
       </c>
       <c r="AS7" t="n">
-        <v>872474091.3234</v>
+        <v>309862951.1653</v>
       </c>
       <c r="AT7" t="n">
-        <v>482012049.1838</v>
+        <v>882475996.6106</v>
       </c>
       <c r="AU7" t="n">
-        <v>8926237</v>
+        <v>826989223.9312</v>
       </c>
       <c r="AV7" t="n">
-        <v>6310225</v>
+        <v>1358299504.2231</v>
       </c>
       <c r="AW7" t="n">
-        <v>2397211</v>
+        <v>188407356.5176</v>
       </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -5043,40 +5052,38 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
+      <c r="Z8" t="n">
+        <v>24036509</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10046446</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3061000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>129417</v>
+      </c>
       <c r="AD8"/>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>51912</v>
       </c>
       <c r="AF8" t="n">
-        <v>38902563</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>193615861</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>736952733.6329</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1154896843.4053</v>
-      </c>
+        <v>-49649</v>
+      </c>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
       <c r="AJ8" t="n">
-        <v>-701265.21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>-821630.9967</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1926650.5795</v>
-      </c>
+        <v>31457.4199</v>
+      </c>
+      <c r="AK8"/>
+      <c r="AL8"/>
       <c r="AM8" t="n">
-        <v>335784.2</v>
+        <v>64882.42</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>56593</v>
       </c>
       <c r="AO8"/>
       <c r="AP8"/>
@@ -5089,9 +5096,7 @@
       <c r="AW8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>57</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
         <v>5109318000</v>
@@ -5124,82 +5129,64 @@
         <v>3510240138</v>
       </c>
       <c r="Z9" t="n">
-        <v>7214274</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>4876697</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8672403</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2079457</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>3895254</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>5431021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
       <c r="AF9" t="n">
-        <v>1955191</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1072328</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>21539558.0498</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>20276099.0223</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24350</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-80850.1397</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-156352.7188</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>2737500</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-1726780.56</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>3044784.1893</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-55505.6021</v>
-      </c>
-      <c r="AR9" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9"/>
+      <c r="AS9"/>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU9"/>
+      <c r="AV9"/>
       <c r="AW9"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -5306,10 +5293,10 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5322,84 +5309,84 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="n">
-        <v>1067300061.92932</v>
+        <v>4732868701.07438</v>
       </c>
       <c r="AA14" t="n">
-        <v>1980039292.05299</v>
+        <v>5668023674.54976</v>
       </c>
       <c r="AB14" t="n">
-        <v>1735803158.61046</v>
+        <v>6594959421.98872</v>
       </c>
       <c r="AC14" t="n">
-        <v>943452280.923279</v>
+        <v>7236270103.31359</v>
       </c>
       <c r="AD14" t="n">
-        <v>1365294945.86133</v>
+        <v>7989839756.4144</v>
       </c>
       <c r="AE14" t="n">
-        <v>2345394623.03558</v>
+        <v>8352587171.74463</v>
       </c>
       <c r="AF14" t="n">
-        <v>1173134588.25647</v>
+        <v>10318908867.4961</v>
       </c>
       <c r="AG14" t="n">
-        <v>786218592.842857</v>
+        <v>10275993362.2934</v>
       </c>
       <c r="AH14" t="n">
-        <v>1007022991.51598</v>
+        <v>11535982326.9941</v>
       </c>
       <c r="AI14" t="n">
-        <v>1517969216.7233</v>
+        <v>12685770199.9958</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3038647762.85663</v>
+        <v>10561306921.1739</v>
       </c>
       <c r="AK14" t="n">
-        <v>4293864580.56261</v>
+        <v>12279799279.1921</v>
       </c>
       <c r="AL14" t="n">
-        <v>3784024293.89336</v>
+        <v>11738706364.4021</v>
       </c>
       <c r="AM14" t="n">
-        <v>2920829499.32719</v>
+        <v>8484957399.33918</v>
       </c>
       <c r="AN14" t="n">
-        <v>2684680578.07523</v>
+        <v>9112441585.60271</v>
       </c>
       <c r="AO14" t="n">
-        <v>1945804643.4017</v>
+        <v>6721743577.04812</v>
       </c>
       <c r="AP14" t="n">
-        <v>1371114125.80448</v>
+        <v>6812229697.08372</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1900030170.9237</v>
+        <v>6570269217.14696</v>
       </c>
       <c r="AR14" t="n">
-        <v>1397688376.15</v>
+        <v>6084662890.70837</v>
       </c>
       <c r="AS14" t="n">
-        <v>2151315654.51252</v>
+        <v>7241537721.20929</v>
       </c>
       <c r="AT14" t="n">
-        <v>2747672882.39747</v>
+        <v>6612970086.30098</v>
       </c>
       <c r="AU14" t="n">
-        <v>1602551618.34624</v>
+        <v>2843773616.03785</v>
       </c>
       <c r="AV14" t="n">
-        <v>1845506486.5984</v>
+        <v>3139360053.2428</v>
       </c>
       <c r="AW14" t="n">
-        <v>326259543.940027</v>
+        <v>2219001837.93686</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5412,82 +5399,84 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="n">
-        <v>82188128.9178727</v>
+        <v>4438266.64674148</v>
       </c>
       <c r="AA15" t="n">
-        <v>70120713.9772589</v>
+        <v>6218231.89774627</v>
       </c>
       <c r="AB15" t="n">
-        <v>59113908.7197148</v>
+        <v>5822107.75987415</v>
       </c>
       <c r="AC15" t="n">
-        <v>20099301.1689583</v>
+        <v>25614902.5976555</v>
       </c>
       <c r="AD15" t="n">
-        <v>1214723.21914326</v>
+        <v>24196078.037628</v>
       </c>
       <c r="AE15" t="n">
-        <v>107317024.854073</v>
+        <v>23778495.8545159</v>
       </c>
       <c r="AF15" t="n">
-        <v>4988655.35960114</v>
+        <v>16246528.9119418</v>
       </c>
       <c r="AG15" t="n">
-        <v>-159418.34416295</v>
+        <v>17991097.8733077</v>
       </c>
       <c r="AH15" t="n">
-        <v>-243211.789341849</v>
+        <v>18875495.3668897</v>
       </c>
       <c r="AI15" t="n">
-        <v>-1023271.47868937</v>
+        <v>19666394.5464918</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2610873.22450948</v>
+        <v>23725081.9315219</v>
       </c>
       <c r="AK15" t="n">
-        <v>4088815.25621585</v>
+        <v>19272174.6699471</v>
       </c>
       <c r="AL15" t="n">
-        <v>-48243.6304895651</v>
+        <v>38055457.5782657</v>
       </c>
       <c r="AM15" t="n">
-        <v>-377151.693149625</v>
-      </c>
-      <c r="AN15"/>
+        <v>31104728.1652056</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>41918584.3623935</v>
+      </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>25802045.3837519</v>
       </c>
       <c r="AP15" t="n">
-        <v>65908.248819941</v>
+        <v>24111892.3469467</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>22216361.2474006</v>
       </c>
       <c r="AR15" t="n">
-        <v>11236233.2848408</v>
+        <v>9165597.33323653</v>
       </c>
       <c r="AS15" t="n">
-        <v>372256549.20519</v>
+        <v>25451423.4554783</v>
       </c>
       <c r="AT15" t="n">
-        <v>333876779.50999</v>
+        <v>1594579.94803987</v>
       </c>
       <c r="AU15" t="n">
-        <v>257495597.678814</v>
+        <v>1514630.81152034</v>
       </c>
       <c r="AV15" t="n">
-        <v>302908854.0313</v>
+        <v>1238514.3926</v>
       </c>
       <c r="AW15" t="n">
-        <v>48385117.8117785</v>
+        <v>2348596.19959284</v>
       </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5499,85 +5488,63 @@
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
-      <c r="Z16" t="n">
-        <v>11685177.8434874</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>18912957.0956127</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7597217.59893507</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>26701999.7232953</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>52921713.5910614</v>
-      </c>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
       <c r="AE16" t="n">
-        <v>61324204.1460397</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>73681326.9837042</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>61162715.6724754</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>63669017.4939671</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41642863.9904812</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>78172361.6300856</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>48159876.9351512</v>
-      </c>
+        <v>-12978.4558081118</v>
+      </c>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
       <c r="AL16" t="n">
-        <v>58479211.1363485</v>
+        <v>4786.75041508669</v>
       </c>
       <c r="AM16" t="n">
-        <v>59378198.3477982</v>
+        <v>780862.583498481</v>
       </c>
       <c r="AN16" t="n">
-        <v>45898841.9338893</v>
+        <v>21857.9421036218</v>
       </c>
       <c r="AO16" t="n">
-        <v>85411425.8750328</v>
+        <v>1123735.07818858</v>
       </c>
       <c r="AP16" t="n">
-        <v>106951737.617496</v>
+        <v>15555820.5351608</v>
       </c>
       <c r="AQ16" t="n">
-        <v>107320861.078089</v>
+        <v>3706409.93716283</v>
       </c>
       <c r="AR16" t="n">
-        <v>61604097.0205281</v>
+        <v>1779036.66790755</v>
       </c>
       <c r="AS16" t="n">
-        <v>54989344.3098509</v>
+        <v>8220476.64023419</v>
       </c>
       <c r="AT16" t="n">
-        <v>57684146.3995204</v>
+        <v>1480866.72917395</v>
       </c>
       <c r="AU16" t="n">
-        <v>-747511.548776512</v>
+        <v>262422.422971131</v>
       </c>
       <c r="AV16" t="n">
-        <v>3842652.875</v>
+        <v>3697414.5234</v>
       </c>
       <c r="AW16" t="n">
-        <v>536034.689242649</v>
+        <v>1773558.51881021</v>
       </c>
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5590,84 +5557,80 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="n">
-        <v>229637861.415182</v>
+        <v>8705173.8115946</v>
       </c>
       <c r="AA17" t="n">
-        <v>133967542.663279</v>
+        <v>5496361.00632491</v>
       </c>
       <c r="AB17" t="n">
-        <v>235493678.142397</v>
+        <v>20856565.7346594</v>
       </c>
       <c r="AC17" t="n">
-        <v>1075991410.13549</v>
+        <v>18171577.1016056</v>
       </c>
       <c r="AD17" t="n">
-        <v>1314890206.54766</v>
+        <v>41220289.3667912</v>
       </c>
       <c r="AE17" t="n">
-        <v>725053996.40342</v>
+        <v>42898489.7672592</v>
       </c>
       <c r="AF17" t="n">
-        <v>1067251022.6919</v>
+        <v>32229591.9071764</v>
       </c>
       <c r="AG17" t="n">
-        <v>1346177589.4131</v>
+        <v>38622475.4850733</v>
       </c>
       <c r="AH17" t="n">
-        <v>1001802814.21318</v>
+        <v>64163295.6249432</v>
       </c>
       <c r="AI17" t="n">
-        <v>1166640540.45094</v>
+        <v>33888850.4781935</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2236682253.33373</v>
+        <v>59040443.3184982</v>
       </c>
       <c r="AK17" t="n">
-        <v>3202149615.21338</v>
+        <v>23991579.1447717</v>
       </c>
       <c r="AL17" t="n">
-        <v>3312271881.77473</v>
+        <v>23576313.3083544</v>
       </c>
       <c r="AM17" t="n">
-        <v>3197449353.07318</v>
+        <v>27564543.1236167</v>
       </c>
       <c r="AN17" t="n">
-        <v>4119078645.01213</v>
+        <v>1026958.38432053</v>
       </c>
       <c r="AO17" t="n">
-        <v>2568227009.16391</v>
+        <v>-205325.63403782</v>
       </c>
       <c r="AP17" t="n">
-        <v>2345975694.72188</v>
+        <v>-261318.551172042</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2202260364.95154</v>
+        <v>-403175.154726948</v>
       </c>
       <c r="AR17" t="n">
-        <v>2156158967.32782</v>
+        <v>-87942.7171607553</v>
       </c>
       <c r="AS17" t="n">
-        <v>2405708104.80373</v>
+        <v>1675053.05476036</v>
       </c>
       <c r="AT17" t="n">
-        <v>2311834913.70436</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>1496109704.68398</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>1857568522.1803</v>
-      </c>
+        <v>5263154.31679055</v>
+      </c>
+      <c r="AU17"/>
+      <c r="AV17"/>
       <c r="AW17" t="n">
-        <v>1818882501.09568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5680,84 +5643,84 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18" t="n">
-        <v>3492351211.49943</v>
+        <v>185528072.364413</v>
       </c>
       <c r="AA18" t="n">
-        <v>3596430615.97416</v>
+        <v>659059040.754324</v>
       </c>
       <c r="AB18" t="n">
-        <v>4038015227.8457</v>
+        <v>15955247.1397836</v>
       </c>
       <c r="AC18" t="n">
-        <v>4688509927.14861</v>
+        <v>275572096.454968</v>
       </c>
       <c r="AD18" t="n">
-        <v>4952286057.48096</v>
+        <v>956192115.299729</v>
       </c>
       <c r="AE18" t="n">
-        <v>4703110868.96633</v>
+        <v>682046669.507866</v>
       </c>
       <c r="AF18" t="n">
-        <v>6739369598.11615</v>
+        <v>199334016.223886</v>
       </c>
       <c r="AG18" t="n">
-        <v>6720566588.03971</v>
+        <v>137139493.183134</v>
       </c>
       <c r="AH18" t="n">
-        <v>7227987578.78508</v>
+        <v>261282742.880062</v>
       </c>
       <c r="AI18" t="n">
-        <v>8111987057.8436</v>
+        <v>442785545.865438</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5963003051.94534</v>
+        <v>477189705.828606</v>
       </c>
       <c r="AK18" t="n">
-        <v>4814516816.71156</v>
+        <v>406140754.929011</v>
       </c>
       <c r="AL18" t="n">
-        <v>2923478731.29809</v>
+        <v>338775086.46782</v>
       </c>
       <c r="AM18" t="n">
-        <v>2484866926.63287</v>
+        <v>552422715.394865</v>
       </c>
       <c r="AN18" t="n">
-        <v>2209807813.5781</v>
+        <v>169648042.682506</v>
       </c>
       <c r="AO18" t="n">
-        <v>2323863323.4108</v>
+        <v>194510243.517674</v>
       </c>
       <c r="AP18" t="n">
-        <v>2063733285.62645</v>
+        <v>196987017.925542</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2068986021.7901</v>
+        <v>218245959.934775</v>
       </c>
       <c r="AR18" t="n">
-        <v>2580360276.57903</v>
+        <v>432819754.491449</v>
       </c>
       <c r="AS18" t="n">
-        <v>2120820101.23108</v>
+        <v>458315546.551516</v>
       </c>
       <c r="AT18" t="n">
-        <v>2136059439.14715</v>
+        <v>523214375.329385</v>
       </c>
       <c r="AU18" t="n">
-        <v>511285885.733088</v>
+        <v>146400021.828758</v>
       </c>
       <c r="AV18" t="n">
-        <v>626919395.0152</v>
+        <v>140460649.3183</v>
       </c>
       <c r="AW18" t="n">
-        <v>266391793.359268</v>
+        <v>59914822.8875241</v>
       </c>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -5770,84 +5733,84 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19" t="n">
-        <v>247649486.819092</v>
+        <v>172091523.933478</v>
       </c>
       <c r="AA19" t="n">
-        <v>746174068.973939</v>
+        <v>198692721.663081</v>
       </c>
       <c r="AB19" t="n">
-        <v>889188752.961085</v>
+        <v>336332918.431073</v>
       </c>
       <c r="AC19" t="n">
-        <v>1302395029.51242</v>
+        <v>504492814.852338</v>
       </c>
       <c r="AD19" t="n">
-        <v>1647032497.33276</v>
+        <v>327986014.719352</v>
       </c>
       <c r="AE19" t="n">
-        <v>1465901894.3396</v>
+        <v>314570339.349214</v>
       </c>
       <c r="AF19" t="n">
-        <v>2084187782.78368</v>
+        <v>633088032.682799</v>
       </c>
       <c r="AG19" t="n">
-        <v>1993961850.26407</v>
+        <v>703116475.424892</v>
       </c>
       <c r="AH19" t="n">
-        <v>2455647932.14922</v>
+        <v>886665448.991684</v>
       </c>
       <c r="AI19" t="n">
-        <v>1310896665.78848</v>
+        <v>516767342.108975</v>
       </c>
       <c r="AJ19" t="n">
-        <v>572731620.298622</v>
+        <v>769659058.328637</v>
       </c>
       <c r="AK19" t="n">
-        <v>844871784.08587</v>
+        <v>477290374.459792</v>
       </c>
       <c r="AL19" t="n">
-        <v>2448756530.16047</v>
+        <v>390073732.221133</v>
       </c>
       <c r="AM19" t="n">
-        <v>700480789.288232</v>
+        <v>266132382.191616</v>
       </c>
       <c r="AN19" t="n">
-        <v>460196742.87757</v>
+        <v>197858064.743549</v>
       </c>
       <c r="AO19" t="n">
-        <v>231145612.222171</v>
+        <v>209406555.938353</v>
       </c>
       <c r="AP19" t="n">
-        <v>1336326451.3266</v>
+        <v>179166138.906043</v>
       </c>
       <c r="AQ19" t="n">
-        <v>792923002.969276</v>
+        <v>257420777.877453</v>
       </c>
       <c r="AR19" t="n">
-        <v>582214962.943219</v>
+        <v>260923576.821626</v>
       </c>
       <c r="AS19" t="n">
-        <v>977149255.954791</v>
+        <v>347038789.105884</v>
       </c>
       <c r="AT19" t="n">
-        <v>532734574.221883</v>
+        <v>975339672.756007</v>
       </c>
       <c r="AU19" t="n">
-        <v>9544714.49345426</v>
+        <v>884289318.285702</v>
       </c>
       <c r="AV19" t="n">
-        <v>6310225</v>
+        <v>1358299504.2231</v>
       </c>
       <c r="AW19" t="n">
-        <v>2286455.96696452</v>
+        <v>179702631.320179</v>
       </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -5859,40 +5822,38 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
+      <c r="Z20" t="n">
+        <v>38836509.8828471</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15848038.9012425</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>4753628.43752037</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>197210.585887923</v>
+      </c>
       <c r="AD20"/>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>74943.0031046386</v>
       </c>
       <c r="AF20" t="n">
-        <v>54391026.4913336</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>263475744.259908</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>982369616.894773</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1524008797.85711</v>
-      </c>
+        <v>-69415.9938579939</v>
+      </c>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
       <c r="AJ20" t="n">
-        <v>-917414.58404958</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>-1053645.53326976</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>2426231.07430142</v>
-      </c>
+        <v>41153.4685897672</v>
+      </c>
+      <c r="AK20"/>
+      <c r="AL20"/>
       <c r="AM20" t="n">
-        <v>415253.896564877</v>
+        <v>80238.0747026183</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>68658.5403803098</v>
       </c>
       <c r="AO20"/>
       <c r="AP20"/>
@@ -5905,9 +5866,7 @@
       <c r="AW20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>57</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>10154930808.5306</v>
@@ -5940,74 +5899,56 @@
         <v>5789712387.55746</v>
       </c>
       <c r="Z21" t="n">
-        <v>11656319.2890684</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>7692878.03523481</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>13467945.613341</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>3168756.29398567</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>5794109.8049803</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>7840519.02574275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
       <c r="AF21" t="n">
-        <v>2733620.5451712</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>1459242.11183679</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>28712570.594799</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>26756461.8196491</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>31855.3448867188</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>-103680.835924263</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>-196894.978747272</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>3321130.78103472</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>-2071182.74156541</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>3622044.90051877</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-64870.7236746093</v>
-      </c>
-      <c r="AR21" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21"/>
+      <c r="AS21"/>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU21"/>
+      <c r="AV21"/>
       <c r="AW21"/>
     </row>
   </sheetData>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -232,14 +233,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,8 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2831,88 +2844,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="n">
         <v>660568306</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>1255193652</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>1117734282</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>619128853</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>917858096.9375</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>1624622988.5</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>839071169.8445</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>577754852.5959</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>755447169.4419</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>1150320037.0268</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>2322720827.1855</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>3348348304.6468</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>3004863253.0893</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="1" t="n">
         <v>2361852362.8104</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="1" t="n">
         <v>2212894814.1546</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="1" t="n">
         <v>1622250690.0788</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="1" t="n">
         <v>1152593832.1133</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>1625730571.0706</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="1" t="n">
         <v>1223990106.7078</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="1" t="n">
         <v>1920860256.8976</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="1" t="n">
         <v>2486062479.5483</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="1" t="n">
         <v>1498709632.4256</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="1" t="n">
         <v>1845506486.5984</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="1" t="n">
         <v>342063428.681</v>
       </c>
+      <c r="AX2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -2924,86 +2938,87 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="n">
         <v>50867488</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>44451176</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>38065170</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>13189917</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>816632</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>74337045</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>3568079</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>-117149</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>-182452.2969</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>-775437.125</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>1995733</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="1" t="n">
         <v>3188451.1899</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="1" t="n">
         <v>-38309.8789</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="1" t="n">
         <v>-304973.85</v>
       </c>
-      <c r="AN3"/>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1" t="n">
         <v>55404.1707</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AQ3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1" t="n">
         <v>9839846</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="1" t="n">
         <v>332379309.0234</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="1" t="n">
         <v>302087828.4492</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="1" t="n">
         <v>240810422.66</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="1" t="n">
         <v>302908854.0313</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="1" t="n">
         <v>50728874</v>
       </c>
+      <c r="AX3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -3015,88 +3030,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>7232135</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>11989370</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>4892070</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>17522856</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>35578117</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>42478443</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>52699731</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>44945586.5066</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>47763138.9275</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>31557043.6605</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>59754399.5352</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="1" t="n">
         <v>37554990.2104</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="1" t="n">
         <v>46437871.1566</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="1" t="n">
         <v>48014626.7009</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="1" t="n">
         <v>37832921.3988</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="1" t="n">
         <v>71208970.0455</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="1" t="n">
         <v>89906384.0068</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>91827386.448</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="1" t="n">
         <v>53948223.7761</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="1" t="n">
         <v>49098720.5044</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="1" t="n">
         <v>52191945.0264</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="1" t="n">
         <v>-699074.3672</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="1" t="n">
         <v>3842652.875</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="1" t="n">
         <v>562000</v>
       </c>
+      <c r="AX4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -3108,88 +3124,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="n">
         <v>142126379</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="1" t="n">
         <v>84925188</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="1" t="n">
         <v>151641248</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="1" t="n">
         <v>706106012</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="1" t="n">
         <v>883972087</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="1" t="n">
         <v>502235052</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="1" t="n">
         <v>763339154</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="1" t="n">
         <v>989242230.875</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="1" t="n">
         <v>751531103.7705</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="1" t="n">
         <v>884082480.0027</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>1709704072.0279</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="1" t="n">
         <v>2497030829.4912</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="1" t="n">
         <v>2630248457.4023</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="1" t="n">
         <v>2585533770.8901</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="1" t="n">
         <v>3395222451.0736</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="1" t="n">
         <v>2141174887.2238</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="1" t="n">
         <v>1972087563.7815</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>1884329025.6903</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="1" t="n">
         <v>1888201468.605</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="1" t="n">
         <v>2148001423.4643</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="1" t="n">
         <v>2091721352.527</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="1" t="n">
         <v>1399164931.6664</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="1" t="n">
         <v>1857568522.1803</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="1" t="n">
         <v>1906988458.2657</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -3201,88 +3218,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="n">
         <v>2161469493</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="1" t="n">
         <v>2279862272</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="1" t="n">
         <v>2600195782</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="1" t="n">
         <v>3076776464.6601</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="1" t="n">
         <v>3329314204.2227</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="1" t="n">
         <v>3257780997.7656</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="1" t="n">
         <v>4820257444.7234</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="1" t="n">
         <v>4938626475.8685</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="1" t="n">
         <v>5422282115.8575</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="1" t="n">
         <v>6147279635.1446</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>4558077296.9564</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="1" t="n">
         <v>3754352033.8076</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="1" t="n">
         <v>2321510944.0609</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="1" t="n">
         <v>2009322633.618</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="1" t="n">
         <v>1821472651.4881</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="1" t="n">
         <v>1937444693.0404</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="1" t="n">
         <v>1734827328.6473</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="1" t="n">
         <v>1770294955.4252</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="1" t="n">
         <v>2259684994.2863</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="1" t="n">
         <v>1893631478.9228</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="1" t="n">
         <v>1932681746.7133</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="1" t="n">
         <v>478155631.9928</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="1" t="n">
         <v>626919395.0152</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="1" t="n">
         <v>279295707.6704</v>
       </c>
+      <c r="AX6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -3294,88 +3312,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>153274049</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="1" t="n">
         <v>473017358</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="1" t="n">
         <v>572574573</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="1" t="n">
         <v>854680578</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="1" t="n">
         <v>1107264125</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="1" t="n">
         <v>1015410325</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="1" t="n">
         <v>1490691604</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="1" t="n">
         <v>1465268241.3877</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="1" t="n">
         <v>1842174702.1836</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="1" t="n">
         <v>993400053.5157</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>437791993.8982</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="1" t="n">
         <v>658829581.793</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="1" t="n">
         <v>1944537862.8029</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="1" t="n">
         <v>566425464.98</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="1" t="n">
         <v>379325195.75</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="1" t="n">
         <v>192710059.67</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="1" t="n">
         <v>1123350417.3733</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>678451945.7423</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="1" t="n">
         <v>509859970.7774</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="1" t="n">
         <v>872474091.3234</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="1" t="n">
         <v>482012049.1838</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="1" t="n">
         <v>8926237</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="1" t="n">
         <v>6310225</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="1" t="n">
         <v>2397211</v>
       </c>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -3387,60 +3406,61 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="n">
         <v>38902563</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="1" t="n">
         <v>193615861</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="1" t="n">
         <v>736952733.6329</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="1" t="n">
         <v>1154896843.4053</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>-701265.21</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="1" t="n">
         <v>-821630.9967</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="1" t="n">
         <v>1926650.5795</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="1" t="n">
         <v>335784.2</v>
       </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AN8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -3450,106 +3470,107 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>5109318000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>4536041000</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>3207056007</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>3775896266</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>3704627729</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>3449312820</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>2950138142</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>3180065599</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>3551481726</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>3510240138</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>7214274</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>4876697</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>8672403</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>2079457</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>3895254</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>5431021</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>1955191</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>1072328</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>21539558.0498</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="1" t="n">
         <v>20276099.0223</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>24350</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="1" t="n">
         <v>-80850.1397</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="1" t="n">
         <v>-156352.7188</v>
       </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="n">
         <v>2737500</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="1" t="n">
         <v>-1726780.56</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="1" t="n">
         <v>3044784.1893</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>-55505.6021</v>
       </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9"/>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -3674,88 +3695,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>1067300061.92932</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>1980039292.05299</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>1735803158.61046</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>943452280.923279</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="1" t="n">
         <v>1365294945.86133</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="1" t="n">
         <v>2345394623.03558</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>1173134588.25647</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>786218592.842857</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>1007022991.51598</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="1" t="n">
         <v>1517969216.7233</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>3038647762.85663</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>4293864580.56261</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>3784024293.89336</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="1" t="n">
         <v>2920829499.32719</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="1" t="n">
         <v>2684680578.07523</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="1" t="n">
         <v>1945804643.4017</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="1" t="n">
         <v>1371114125.80448</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="1" t="n">
         <v>1900030170.9237</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="1" t="n">
         <v>1397688376.15</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="1" t="n">
         <v>2151315654.51252</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="1" t="n">
         <v>2747672882.39747</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="1" t="n">
         <v>1602551618.34624</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="1" t="n">
         <v>1845506486.5984</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="1" t="n">
         <v>326259543.940027</v>
       </c>
+      <c r="AX14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -3767,86 +3789,87 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
         <v>82188128.9178727</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="1" t="n">
         <v>70120713.9772589</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="1" t="n">
         <v>59113908.7197148</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="1" t="n">
         <v>20099301.1689583</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="1" t="n">
         <v>1214723.21914326</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="1" t="n">
         <v>107317024.854073</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="1" t="n">
         <v>4988655.35960114</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="1" t="n">
         <v>-159418.34416295</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="1" t="n">
         <v>-243211.789341849</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="1" t="n">
         <v>-1023271.47868937</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>2610873.22450948</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="1" t="n">
         <v>4088815.25621585</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="1" t="n">
         <v>-48243.6304895651</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="1" t="n">
         <v>-377151.693149625</v>
       </c>
-      <c r="AN15"/>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1" t="n">
         <v>65908.248819941</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AQ15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1" t="n">
         <v>11236233.2848408</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="1" t="n">
         <v>372256549.20519</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="1" t="n">
         <v>333876779.50999</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="1" t="n">
         <v>257495597.678814</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="1" t="n">
         <v>302908854.0313</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="1" t="n">
         <v>48385117.8117785</v>
       </c>
+      <c r="AX15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -3858,88 +3881,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="n">
         <v>11685177.8434874</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>18912957.0956127</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>7597217.59893507</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>26701999.7232953</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="1" t="n">
         <v>52921713.5910614</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="1" t="n">
         <v>61324204.1460397</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="1" t="n">
         <v>73681326.9837042</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="1" t="n">
         <v>61162715.6724754</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="1" t="n">
         <v>63669017.4939671</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="1" t="n">
         <v>41642863.9904812</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>78172361.6300856</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="1" t="n">
         <v>48159876.9351512</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="1" t="n">
         <v>58479211.1363485</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="1" t="n">
         <v>59378198.3477982</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="1" t="n">
         <v>45898841.9338893</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="1" t="n">
         <v>85411425.8750328</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="1" t="n">
         <v>106951737.617496</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="1" t="n">
         <v>107320861.078089</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="1" t="n">
         <v>61604097.0205281</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="1" t="n">
         <v>54989344.3098509</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="1" t="n">
         <v>57684146.3995204</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="1" t="n">
         <v>-747511.548776512</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="1" t="n">
         <v>3842652.875</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="1" t="n">
         <v>536034.689242649</v>
       </c>
+      <c r="AX16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -3951,88 +3975,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="n">
         <v>229637861.415182</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="1" t="n">
         <v>133967542.663279</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="1" t="n">
         <v>235493678.142397</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="1" t="n">
         <v>1075991410.13549</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="1" t="n">
         <v>1314890206.54766</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="1" t="n">
         <v>725053996.40342</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="1" t="n">
         <v>1067251022.6919</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="1" t="n">
         <v>1346177589.4131</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="1" t="n">
         <v>1001802814.21318</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="1" t="n">
         <v>1166640540.45094</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>2236682253.33373</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="1" t="n">
         <v>3202149615.21338</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="1" t="n">
         <v>3312271881.77473</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="1" t="n">
         <v>3197449353.07318</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="1" t="n">
         <v>4119078645.01213</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="1" t="n">
         <v>2568227009.16391</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="1" t="n">
         <v>2345975694.72188</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="1" t="n">
         <v>2202260364.95154</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="1" t="n">
         <v>2156158967.32782</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="1" t="n">
         <v>2405708104.80373</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="1" t="n">
         <v>2311834913.70436</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="1" t="n">
         <v>1496109704.68398</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="1" t="n">
         <v>1857568522.1803</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="1" t="n">
         <v>1818882501.09568</v>
       </c>
+      <c r="AX17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -4044,88 +4069,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="n">
         <v>3492351211.49943</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="1" t="n">
         <v>3596430615.97416</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="1" t="n">
         <v>4038015227.8457</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="1" t="n">
         <v>4688509927.14861</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="1" t="n">
         <v>4952286057.48096</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="1" t="n">
         <v>4703110868.96633</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="1" t="n">
         <v>6739369598.11615</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="1" t="n">
         <v>6720566588.03971</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="1" t="n">
         <v>7227987578.78508</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="1" t="n">
         <v>8111987057.8436</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>5963003051.94534</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="1" t="n">
         <v>4814516816.71156</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="1" t="n">
         <v>2923478731.29809</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="1" t="n">
         <v>2484866926.63287</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="1" t="n">
         <v>2209807813.5781</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="1" t="n">
         <v>2323863323.4108</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="1" t="n">
         <v>2063733285.62645</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="1" t="n">
         <v>2068986021.7901</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="1" t="n">
         <v>2580360276.57903</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="1" t="n">
         <v>2120820101.23108</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="1" t="n">
         <v>2136059439.14715</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="1" t="n">
         <v>511285885.733088</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="1" t="n">
         <v>626919395.0152</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="1" t="n">
         <v>266391793.359268</v>
       </c>
+      <c r="AX18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -4137,88 +4163,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>247649486.819092</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="1" t="n">
         <v>746174068.973939</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="1" t="n">
         <v>889188752.961085</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="1" t="n">
         <v>1302395029.51242</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="1" t="n">
         <v>1647032497.33276</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="1" t="n">
         <v>1465901894.3396</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="1" t="n">
         <v>2084187782.78368</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="1" t="n">
         <v>1993961850.26407</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="1" t="n">
         <v>2455647932.14922</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="1" t="n">
         <v>1310896665.78848</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>572731620.298622</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="1" t="n">
         <v>844871784.08587</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="1" t="n">
         <v>2448756530.16047</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="1" t="n">
         <v>700480789.288232</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="1" t="n">
         <v>460196742.87757</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="1" t="n">
         <v>231145612.222171</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="1" t="n">
         <v>1336326451.3266</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="1" t="n">
         <v>792923002.969276</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="1" t="n">
         <v>582214962.943219</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="1" t="n">
         <v>977149255.954791</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="1" t="n">
         <v>532734574.221883</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="1" t="n">
         <v>9544714.49345426</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="1" t="n">
         <v>6310225</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="1" t="n">
         <v>2286455.96696452</v>
       </c>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -4230,60 +4257,61 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1" t="n">
         <v>54391026.4913336</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="1" t="n">
         <v>263475744.259908</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="1" t="n">
         <v>982369616.894773</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="1" t="n">
         <v>1524008797.85711</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>-917414.58404958</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="1" t="n">
         <v>-1053645.53326976</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="1" t="n">
         <v>2426231.07430142</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="1" t="n">
         <v>415253.896564877</v>
       </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AN20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -4293,106 +4321,107 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>10154930808.5306</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>8705023523.2999</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>6004528138.36198</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>6907301236.64467</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>6632410715.084</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>6047222098.50706</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>5076672539.04631</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="1" t="n">
         <v>5376821437.83218</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="1" t="n">
         <v>5930753132.00485</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>5789712387.55746</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>11656319.2890684</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>7692878.03523481</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="1" t="n">
         <v>13467945.613341</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="1" t="n">
         <v>3168756.29398567</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="1" t="n">
         <v>5794109.8049803</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>7840519.02574275</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>2733620.5451712</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>1459242.11183679</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="1" t="n">
         <v>28712570.594799</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="1" t="n">
         <v>26756461.8196491</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>31855.3448867188</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="1" t="n">
         <v>-103680.835924263</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="1" t="n">
         <v>-196894.978747272</v>
       </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
+      <c r="AM21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1" t="n">
         <v>3321130.78103472</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="1" t="n">
         <v>-2071182.74156541</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="1" t="n">
         <v>3622044.90051877</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="1" t="n">
         <v>-64870.7236746093</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21"/>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4528,88 +4557,89 @@
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>2929244710</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>3593094018</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>4246686727</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>4748712467.6601</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>5371395489.2227</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>5785723647.2656</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>7380482189.8882</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>7551341426.3594</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>8654047890.7439</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>9613301432.866</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>8072988204.8084</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>9575766614.535</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>9321612297.8177</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>6861138826.0051</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>7511088989.0387</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>5604032857.7569</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>5726535657.4099</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>5621746270.1064</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>5328489030.8624</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>6465802439.6925</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>5983338451.6949</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>2659503046.2681</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>3139360053.2428</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>2326489419.3368</v>
       </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -4618,88 +4648,89 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>2746911</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>3941884</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>3749025</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>16809462</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="2" t="n">
         <v>16266497</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="2" t="n">
         <v>16471041</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>11620145</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>13220806.7762</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>14159994.0288</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>14903232.1958</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>18135284.5837</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>15028409.0642</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>30219532.7448</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="2" t="n">
         <v>25152024.7</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="2" t="n">
         <v>34552124.64</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="2" t="n">
         <v>21511607.5867</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="2" t="n">
         <v>20269077.4434</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>19009075.8613</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="2" t="n">
         <v>8026539.1409</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="2" t="n">
         <v>22724990.4934</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="2" t="n">
         <v>1442757.3984</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="2" t="n">
         <v>1416485.9096</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="2" t="n">
         <v>1238514.3926</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="2" t="n">
         <v>2462361.2812</v>
       </c>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -4708,66 +4739,67 @@
       <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2" t="n">
         <v>-8990</v>
       </c>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4" t="n">
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2" t="n">
         <v>3801.12</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>631424.1</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>18016.7902</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>936877.2</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="2" t="n">
         <v>13076623.2109</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>3171330.6641</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="2" t="n">
         <v>1557946.1904</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="2" t="n">
         <v>7339874.48</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="2" t="n">
         <v>1339871</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="2" t="n">
         <v>245418</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="2" t="n">
         <v>3697414.5234</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="2" t="n">
         <v>1859469</v>
       </c>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -4776,84 +4808,85 @@
       <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>5387765</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>3484273</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>13430151</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>11924872</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="2" t="n">
         <v>27711504</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="2" t="n">
         <v>29715201</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>23051849</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>28381830.2364</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>48133935.8389</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>25681037.0773</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>45130096.6892</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>18708592.6554</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="2" t="n">
         <v>18721760.7503</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="2" t="n">
         <v>22289346.6809</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="2" t="n">
         <v>846488.3687</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="2" t="n">
         <v>-171183.5012</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="2" t="n">
         <v>-219671.1015</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>-344970.4034</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="2" t="n">
         <v>-77013.6016</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="2" t="n">
         <v>1495616.338</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="2" t="n">
         <v>4762040.8364</v>
       </c>
-      <c r="AU5"/>
-      <c r="AV5"/>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -4862,88 +4895,89 @@
       <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>114826157</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>417793085</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="2" t="n">
         <v>10274049</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="2" t="n">
         <v>180840769</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="2" t="n">
         <v>642827161.9375</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="2" t="n">
         <v>472444461</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>142571387.6797</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>100777326.2937</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>196008740.809</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>335543751.417</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>364760431.2007</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>316707870.6605</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="2" t="n">
         <v>269018571.0573</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="2" t="n">
         <v>446702176.8734</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="2" t="n">
         <v>139835359.5394</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="2" t="n">
         <v>162166524.7043</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="2" t="n">
         <v>165592358.502</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>186738681.579</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="2" t="n">
         <v>379030910.2695</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="2" t="n">
         <v>409219407.9667</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="2" t="n">
         <v>473398283.9077</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="2" t="n">
         <v>136913607.2687</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="2" t="n">
         <v>140460649.3183</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="2" t="n">
         <v>62817073.4815</v>
       </c>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -4952,88 +4986,89 @@
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>106510072</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="2" t="n">
         <v>125956007</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>216574576</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>331067150</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="2" t="n">
         <v>220497864</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="2" t="n">
         <v>217898600</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>452809014</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>516687037.568</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>665157508.1462</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>391607301.0968</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>588321932.6913</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>372190223.0874</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>309754413.0037</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="2" t="n">
         <v>215200988.57</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="2" t="n">
         <v>163087962.4881</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="2" t="n">
         <v>174585835.7518</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="2" t="n">
         <v>150611668.8175</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>220257990.9669</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="2" t="n">
         <v>228497197.291</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="2" t="n">
         <v>309862951.1653</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="2" t="n">
         <v>882475996.6106</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="2" t="n">
         <v>826989223.9312</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="2" t="n">
         <v>1358299504.2231</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="2" t="n">
         <v>188407356.5176</v>
       </c>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -5042,144 +5077,146 @@
       <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>24036509</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>10046446</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="2" t="n">
         <v>3061000</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="2" t="n">
         <v>129417</v>
       </c>
-      <c r="AD8"/>
-      <c r="AE8" t="n">
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2" t="n">
         <v>51912</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="2" t="n">
         <v>-49649</v>
       </c>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8" t="n">
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2" t="n">
         <v>31457.4199</v>
       </c>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8" t="n">
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2" t="n">
         <v>64882.42</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="2" t="n">
         <v>56593</v>
       </c>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>5109318000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>4536041000</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>3207056007</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>3775896266</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>3704627729</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>3449312820</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="2" t="n">
         <v>2950138142</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>3180065599</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>3551481726</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>3510240138</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -5298,88 +5335,89 @@
       <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>4732868701.07438</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="2" t="n">
         <v>5668023674.54976</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="2" t="n">
         <v>6594959421.98872</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="2" t="n">
         <v>7236270103.31359</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="2" t="n">
         <v>7989839756.4144</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>8352587171.74463</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>10318908867.4961</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>10275993362.2934</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="2" t="n">
         <v>11535982326.9941</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="2" t="n">
         <v>12685770199.9958</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>10561306921.1739</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="2" t="n">
         <v>12279799279.1921</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="2" t="n">
         <v>11738706364.4021</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="2" t="n">
         <v>8484957399.33918</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="2" t="n">
         <v>9112441585.60271</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="2" t="n">
         <v>6721743577.04812</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="2" t="n">
         <v>6812229697.08372</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>6570269217.14696</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="2" t="n">
         <v>6084662890.70837</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="2" t="n">
         <v>7241537721.20929</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="2" t="n">
         <v>6612970086.30098</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="2" t="n">
         <v>2843773616.03785</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="2" t="n">
         <v>3139360053.2428</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="2" t="n">
         <v>2219001837.93686</v>
       </c>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -5388,88 +5426,89 @@
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>4438266.64674148</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>6218231.89774627</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>5822107.75987415</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>25614902.5976555</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="2" t="n">
         <v>24196078.037628</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="2" t="n">
         <v>23778495.8545159</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="2" t="n">
         <v>16246528.9119418</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="2" t="n">
         <v>17991097.8733077</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="2" t="n">
         <v>18875495.3668897</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="2" t="n">
         <v>19666394.5464918</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>23725081.9315219</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="2" t="n">
         <v>19272174.6699471</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>38055457.5782657</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="2" t="n">
         <v>31104728.1652056</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="2" t="n">
         <v>41918584.3623935</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="2" t="n">
         <v>25802045.3837519</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="2" t="n">
         <v>24111892.3469467</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>22216361.2474006</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="2" t="n">
         <v>9165597.33323653</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="2" t="n">
         <v>25451423.4554783</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="2" t="n">
         <v>1594579.94803987</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="2" t="n">
         <v>1514630.81152034</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="2" t="n">
         <v>1238514.3926</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="2" t="n">
         <v>2348596.19959284</v>
       </c>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -5478,66 +5517,67 @@
       <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2" t="n">
         <v>-12978.4558081118</v>
       </c>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
-      <c r="AL16" t="n">
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2" t="n">
         <v>4786.75041508669</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="2" t="n">
         <v>780862.583498481</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="2" t="n">
         <v>21857.9421036218</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="2" t="n">
         <v>1123735.07818858</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="2" t="n">
         <v>15555820.5351608</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>3706409.93716283</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="2" t="n">
         <v>1779036.66790755</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="2" t="n">
         <v>8220476.64023419</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="2" t="n">
         <v>1480866.72917395</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="2" t="n">
         <v>262422.422971131</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="2" t="n">
         <v>3697414.5234</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="2" t="n">
         <v>1773558.51881021</v>
       </c>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -5546,84 +5586,85 @@
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>8705173.8115946</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>5496361.00632491</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>20856565.7346594</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>18171577.1016056</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="2" t="n">
         <v>41220289.3667912</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="2" t="n">
         <v>42898489.7672592</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="2" t="n">
         <v>32229591.9071764</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="2" t="n">
         <v>38622475.4850733</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="2" t="n">
         <v>64163295.6249432</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="2" t="n">
         <v>33888850.4781935</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>59040443.3184982</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="2" t="n">
         <v>23991579.1447717</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="2" t="n">
         <v>23576313.3083544</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="2" t="n">
         <v>27564543.1236167</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="2" t="n">
         <v>1026958.38432053</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="2" t="n">
         <v>-205325.63403782</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="2" t="n">
         <v>-261318.551172042</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>-403175.154726948</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="2" t="n">
         <v>-87942.7171607553</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="2" t="n">
         <v>1675053.05476036</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="2" t="n">
         <v>5263154.31679055</v>
       </c>
-      <c r="AU17"/>
-      <c r="AV17"/>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -5632,88 +5673,89 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>185528072.364413</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>659059040.754324</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="2" t="n">
         <v>15955247.1397836</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="2" t="n">
         <v>275572096.454968</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="2" t="n">
         <v>956192115.299729</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="2" t="n">
         <v>682046669.507866</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="2" t="n">
         <v>199334016.223886</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="2" t="n">
         <v>137139493.183134</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="2" t="n">
         <v>261282742.880062</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="2" t="n">
         <v>442785545.865438</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>477189705.828606</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>406140754.929011</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="2" t="n">
         <v>338775086.46782</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="2" t="n">
         <v>552422715.394865</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="2" t="n">
         <v>169648042.682506</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="2" t="n">
         <v>194510243.517674</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="2" t="n">
         <v>196987017.925542</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>218245959.934775</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="2" t="n">
         <v>432819754.491449</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="2" t="n">
         <v>458315546.551516</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="2" t="n">
         <v>523214375.329385</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="2" t="n">
         <v>146400021.828758</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="2" t="n">
         <v>140460649.3183</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="2" t="n">
         <v>59914822.8875241</v>
       </c>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -5722,88 +5764,89 @@
       <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>172091523.933478</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="2" t="n">
         <v>198692721.663081</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>336332918.431073</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>504492814.852338</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="2" t="n">
         <v>327986014.719352</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="2" t="n">
         <v>314570339.349214</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="2" t="n">
         <v>633088032.682799</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="2" t="n">
         <v>703116475.424892</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="2" t="n">
         <v>886665448.991684</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="2" t="n">
         <v>516767342.108975</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>769659058.328637</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="2" t="n">
         <v>477290374.459792</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="2" t="n">
         <v>390073732.221133</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="2" t="n">
         <v>266132382.191616</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="2" t="n">
         <v>197858064.743549</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="2" t="n">
         <v>209406555.938353</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="2" t="n">
         <v>179166138.906043</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>257420777.877453</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="2" t="n">
         <v>260923576.821626</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="2" t="n">
         <v>347038789.105884</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="2" t="n">
         <v>975339672.756007</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="2" t="n">
         <v>884289318.285702</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="2" t="n">
         <v>1358299504.2231</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="2" t="n">
         <v>179702631.320179</v>
       </c>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -5812,144 +5855,1719 @@
       <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>38836509.8828471</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>15848038.9012425</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="2" t="n">
         <v>4753628.43752037</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="2" t="n">
         <v>197210.585887923</v>
       </c>
-      <c r="AD20"/>
-      <c r="AE20" t="n">
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2" t="n">
         <v>74943.0031046386</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="2" t="n">
         <v>-69415.9938579939</v>
       </c>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20" t="n">
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2" t="n">
         <v>41153.4685897672</v>
       </c>
-      <c r="AK20"/>
-      <c r="AL20"/>
-      <c r="AM20" t="n">
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2" t="n">
         <v>80238.0747026183</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="2" t="n">
         <v>68658.5403803098</v>
       </c>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>10154930808.5306</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>8705023523.2999</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>6004528138.36198</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>6907301236.64467</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>6632410715.084</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>6047222098.50706</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>5076672539.04631</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>5376821437.83218</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>5930753132.00485</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>5789712387.55746</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21"/>
-      <c r="AS21"/>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21"/>
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>2929244710</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>3593094018</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>4246686727</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>4748712467.6601</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>5371395489.2227</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>5785723647.2656</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>7380482189.8882</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>7551341426.3594</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>8654047890.7439</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>9613301432.866</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>8072988204.8084</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>9575766614.535</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>9321612297.8177</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>6861138826.0051</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>7511088989.0387</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>5604032857.7569</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>5726535657.4099</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>5621746270.1064</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>5328489030.8624</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>6465802439.6925</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>5983338451.6949</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>2659503046.2681</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>3139360053.2428</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>2326489419.3368</v>
+      </c>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>2746911</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>3941884</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>3749025</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>16809462</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>16266497</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>16471041</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>11620145</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>13220806.7762</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>14159994.0288</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>14903232.1958</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>18135284.5837</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>15028409.0642</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>30219532.7448</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>25152024.7</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>34552124.64</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>21511607.5867</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>20269077.4434</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>19009075.8613</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>8026539.1409</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>22724990.4934</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>1442757.3984</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1416485.9096</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>1238514.3926</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>2462361.2812</v>
+      </c>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3" t="n">
+        <v>-8990</v>
+      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3" t="n">
+        <v>3801.12</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>631424.1</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>18016.7902</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>936877.2</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>13076623.2109</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>3171330.6641</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>1557946.1904</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>7339874.48</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>1339871</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>245418</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>3697414.5234</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>1859469</v>
+      </c>
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="n">
+        <v>5387765</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>3484273</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>13430151</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>11924872</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>27711504</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>29715201</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>23051849</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>28381830.2364</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>48133935.8389</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>25681037.0773</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>45130096.6892</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>18708592.6554</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>18721760.7503</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>22289346.6809</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>846488.3687</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>-171183.5012</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>-219671.1015</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>-344970.4034</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>-77013.6016</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>1495616.338</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>4762040.8364</v>
+      </c>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>114826157</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>417793085</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>10274049</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>180840769</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>642827161.9375</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>472444461</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>142571387.6797</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>100777326.2937</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>196008740.809</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>335543751.417</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>364760431.2007</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>316707870.6605</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>269018571.0573</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>446702176.8734</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>139835359.5394</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>162166524.7043</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>165592358.502</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>186738681.579</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>379030910.2695</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>409219407.9667</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>473398283.9077</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>136913607.2687</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>140460649.3183</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>62817073.4815</v>
+      </c>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>106510072</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>125956007</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>216574576</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>331067150</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>220497864</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>217898600</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>452809014</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>516687037.568</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>665157508.1462</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>391607301.0968</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>588321932.6913</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>372190223.0874</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>309754413.0037</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>215200988.57</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>163087962.4881</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>174585835.7518</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>150611668.8175</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>220257990.9669</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>228497197.291</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>309862951.1653</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>882475996.6106</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>826989223.9312</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>1358299504.2231</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>188407356.5176</v>
+      </c>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>24036509</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>10046446</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>3061000</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>129417</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3" t="n">
+        <v>51912</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>-49649</v>
+      </c>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3" t="n">
+        <v>31457.4199</v>
+      </c>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3" t="n">
+        <v>64882.42</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>56593</v>
+      </c>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>5109318000</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>4536041000</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>3207056007</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>3775896266</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>3704627729</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>3449312820</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>2950138142</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>3180065599</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>3551481726</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>3510240138</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>4732868701.07438</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>5668023674.54976</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>6594959421.98872</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>7236270103.31359</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>7989839756.4144</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>8352587171.74463</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>10318908867.4961</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>10275993362.2934</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>11535982326.9941</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>12685770199.9958</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>10561306921.1739</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>12279799279.1921</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>11738706364.4021</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>8484957399.33918</v>
+      </c>
+      <c r="AM14" s="3" t="n">
+        <v>9112441585.60271</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>6721743577.04812</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>6812229697.08372</v>
+      </c>
+      <c r="AP14" s="3" t="n">
+        <v>6570269217.14696</v>
+      </c>
+      <c r="AQ14" s="3" t="n">
+        <v>6084662890.70837</v>
+      </c>
+      <c r="AR14" s="3" t="n">
+        <v>7241537721.20929</v>
+      </c>
+      <c r="AS14" s="3" t="n">
+        <v>6612970086.30098</v>
+      </c>
+      <c r="AT14" s="3" t="n">
+        <v>2843773616.03785</v>
+      </c>
+      <c r="AU14" s="3" t="n">
+        <v>3139360053.2428</v>
+      </c>
+      <c r="AV14" s="3" t="n">
+        <v>2219001837.93686</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>4438266.64674148</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>6218231.89774627</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>5822107.75987415</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>25614902.5976555</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>24196078.037628</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>23778495.8545159</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>16246528.9119418</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>17991097.8733077</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>18875495.3668897</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>19666394.5464918</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>23725081.9315219</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>19272174.6699471</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>38055457.5782657</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>31104728.1652056</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>41918584.3623935</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>25802045.3837519</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>24111892.3469467</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>22216361.2474006</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
+        <v>9165597.33323653</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>25451423.4554783</v>
+      </c>
+      <c r="AS15" s="3" t="n">
+        <v>1594579.94803987</v>
+      </c>
+      <c r="AT15" s="3" t="n">
+        <v>1514630.81152034</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>1238514.3926</v>
+      </c>
+      <c r="AV15" s="3" t="n">
+        <v>2348596.19959284</v>
+      </c>
+      <c r="AW15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3" t="n">
+        <v>-12978.4558081118</v>
+      </c>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3" t="n">
+        <v>4786.75041508669</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>780862.583498481</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>21857.9421036218</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>1123735.07818858</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>15555820.5351608</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>3706409.93716283</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>1779036.66790755</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>8220476.64023419</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>1480866.72917395</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>262422.422971131</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>3697414.5234</v>
+      </c>
+      <c r="AV16" s="3" t="n">
+        <v>1773558.51881021</v>
+      </c>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="n">
+        <v>8705173.8115946</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>5496361.00632491</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>20856565.7346594</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>18171577.1016056</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>41220289.3667912</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>42898489.7672592</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>32229591.9071764</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>38622475.4850733</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>64163295.6249432</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>33888850.4781935</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>59040443.3184982</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>23991579.1447717</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>23576313.3083544</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>27564543.1236167</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>1026958.38432053</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>-205325.63403782</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <v>-261318.551172042</v>
+      </c>
+      <c r="AP17" s="3" t="n">
+        <v>-403175.154726948</v>
+      </c>
+      <c r="AQ17" s="3" t="n">
+        <v>-87942.7171607553</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>1675053.05476036</v>
+      </c>
+      <c r="AS17" s="3" t="n">
+        <v>5263154.31679055</v>
+      </c>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="n">
+        <v>185528072.364413</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>659059040.754324</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>15955247.1397836</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>275572096.454968</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>956192115.299729</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>682046669.507866</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>199334016.223886</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>137139493.183134</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>261282742.880062</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>442785545.865438</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>477189705.828606</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>406140754.929011</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>338775086.46782</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>552422715.394865</v>
+      </c>
+      <c r="AM18" s="3" t="n">
+        <v>169648042.682506</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>194510243.517674</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <v>196987017.925542</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>218245959.934775</v>
+      </c>
+      <c r="AQ18" s="3" t="n">
+        <v>432819754.491449</v>
+      </c>
+      <c r="AR18" s="3" t="n">
+        <v>458315546.551516</v>
+      </c>
+      <c r="AS18" s="3" t="n">
+        <v>523214375.329385</v>
+      </c>
+      <c r="AT18" s="3" t="n">
+        <v>146400021.828758</v>
+      </c>
+      <c r="AU18" s="3" t="n">
+        <v>140460649.3183</v>
+      </c>
+      <c r="AV18" s="3" t="n">
+        <v>59914822.8875241</v>
+      </c>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>172091523.933478</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>198692721.663081</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>336332918.431073</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>504492814.852338</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>327986014.719352</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>314570339.349214</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>633088032.682799</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>703116475.424892</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>886665448.991684</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>516767342.108975</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>769659058.328637</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>477290374.459792</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>390073732.221133</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>266132382.191616</v>
+      </c>
+      <c r="AM19" s="3" t="n">
+        <v>197858064.743549</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>209406555.938353</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <v>179166138.906043</v>
+      </c>
+      <c r="AP19" s="3" t="n">
+        <v>257420777.877453</v>
+      </c>
+      <c r="AQ19" s="3" t="n">
+        <v>260923576.821626</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>347038789.105884</v>
+      </c>
+      <c r="AS19" s="3" t="n">
+        <v>975339672.756007</v>
+      </c>
+      <c r="AT19" s="3" t="n">
+        <v>884289318.285702</v>
+      </c>
+      <c r="AU19" s="3" t="n">
+        <v>1358299504.2231</v>
+      </c>
+      <c r="AV19" s="3" t="n">
+        <v>179702631.320179</v>
+      </c>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>38836509.8828471</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>15848038.9012425</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>4753628.43752037</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>197210.585887923</v>
+      </c>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3" t="n">
+        <v>74943.0031046386</v>
+      </c>
+      <c r="AE20" s="3" t="n">
+        <v>-69415.9938579939</v>
+      </c>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3" t="n">
+        <v>41153.4685897672</v>
+      </c>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3" t="n">
+        <v>80238.0747026183</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>68658.5403803098</v>
+      </c>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>10154930808.5306</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>8705023523.2999</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>6004528138.36198</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>6907301236.64467</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>6632410715.084</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>6047222098.50706</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>5076672539.04631</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>5376821437.83218</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>5930753132.00485</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>5789712387.55746</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -228,15 +230,116 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEHF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EELV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILSTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVSTAR GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBIRS HIGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITAN IV LAUNCH VEH PROGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDEBAND GAPFILLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINEERING AND
+TECHNICAL SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled PSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- DEFENSE
+SYSTEM:
+MISSILE/SPACE
+SYSTEMS (ADVANCED
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- DEFENSE
+SYSTEM:
+MISSILE/SPACE
+SYSTEMS (APPLIED
+RESEARCH/EXPLORATORY
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- DEFENSE
+SYSTEM:
+MISSILE/SPACE
+SYSTEMS
+(ENGINEERING
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- DEFENSE
+SYSTEM:
+MISSILE/SPACE
+SYSTEMS
+(MANAGEMENT/SUPPORT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- DEFENSE
+SYSTEM:
+MISSILE/SPACE
+SYSTEMS
+(OPERATIONAL
+SYSTEMS
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- SPACE: OTHER
+(APPLIED
+RESEARCH/EXPLORATORY
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- SPACE:
+SCIENCE/APPLICATIONS
+(OPERATIONAL
+SYSTEMS
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPACE TRANSP &amp;
+LAUNCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPACE VEHICLES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -272,11 +375,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7573,4 +7678,3448 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="n">
+        <v>1301064</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>2064362</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>22669147.5</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>29821767.25</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>23213687.4719</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>17655783.9345</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>13925704.3359</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>257017479.9208</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>737956607.2</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>340571748.19</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>314915404.2618</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>297738836.2032</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>534122877.6797</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>134496690.2868</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>199152993.0385</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>185877325.723</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>63044278.26</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>30680273.4291</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>9820311.25</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="n">
+        <v>1188918</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>940864</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>887502610.6101</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>309254818.8501</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1452836014.0667</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1408366777.7144</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1309035292.8859</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1675661578.3354</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2460436023.9666</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1295284212.66</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>2574970473.8961</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1769915183.1825</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1617007977.7999</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>2094715754.5127</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>1553999439.0235</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>1276084913.7849</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>578227435.8985</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>400110589.9015</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>478920083.1773</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>212819465.5391</v>
+      </c>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>352723493</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>358942381</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>137521314</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>58006794</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>156953983</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>236022787</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>228589758</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>370051876.4043</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>357654800.9502</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>257906420.9344</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>97106121.1456</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>106445139.7824</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>90147962.2618</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>108986164.0209</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>81052687.0587</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>34977120.6919</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>-33686.6484</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>20078.2998</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>-16706.3105</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>-1269.08</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>-696607.0625</v>
+      </c>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="n">
+        <v>47000000</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>362286363</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>422510715</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>599440734.4375</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>631666388.25</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>868280428.3848</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>428605488.4688</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>769640648.711</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>295655263.2396</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>560169225.375</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>95428554.6852</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>85777054.2987</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>90135204.5507</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>68150674.836</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>77988821.3254</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>102773489.1406</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>21312163.0088</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>494693.3501</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>6013449.3887</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>1750276.5501</v>
+      </c>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="n">
+        <v>223719545</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>233039169</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>250051053</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>361930826.6172</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>687510417.1691</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>911017190.1799</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1043143690.2457</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>982302281.8416</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1240424995.444</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>894775969.045</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1359417460.3782</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>683197110.1984</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1017002072.4655</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>626910598.1056</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>709494739.4825</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>553340072.3239</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>489031560.4714</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>368299916.9922</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>362597635.0343</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>179566379.6875</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>434679955</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>863275362</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>687696323</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>655164273</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>397603975.9375</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>550763544</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>628843122</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>822589239.217</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>511837534.3363</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>410408115.2195</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>393135476.1019</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>401994391.3912</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>329856014.0083</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>252450021.4401</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>218110421.09</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>173899797.7716</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>141420465.3499</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>96287736.4952</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>113115249.6555</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>142009548.0508</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>322261083.4034</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>74522853.8193</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>36036009.0728</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>29802117.9511</v>
+      </c>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="n">
+        <v>13018224</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>37434444</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>33928043</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>44974570.8515</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>243036895.1251</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1558779816.1015</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>707363117.8773</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>497016133.5361</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>425078575.4986</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>818013002.82</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>1105181783.06</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>703269183.1259</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>813848674.2716</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>432348401.0835</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>509553307.2709</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>766870549.2379</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>430986861.8139</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>319084073.3188</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>400697867.3355</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>221213412.3143</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>264915250</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>272968677</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>263552182</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>103756010</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4" t="n">
+        <v>-7179128.375</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>-1372634.2539</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="n">
+        <v>45000</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>1838805</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>120210352</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>415437403</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>297617737.422</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>299061547.922</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>227813103.0294</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>540385344.8359</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1150879770.9279</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>49833426.4784</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>-32168503.2</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>25211031.2571</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>80607495.6761</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>60609532.0195</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>43317370.8417</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>329727761.087</v>
+      </c>
+      <c r="AH10" s="4" t="n">
+        <v>322305904.5508</v>
+      </c>
+      <c r="AI10" s="4" t="n">
+        <v>79077877.2734</v>
+      </c>
+      <c r="AJ10" s="4" t="n">
+        <v>9410550.8594</v>
+      </c>
+      <c r="AK10" s="4" t="n">
+        <v>46719363.75</v>
+      </c>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="M11"/>
+      <c r="N11" s="4" t="n">
+        <v>2130433426</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>2659129293</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>3405005709</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>4472557060.6601</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>5437867806.2227</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>5097905534.2656</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>5437549282.9578</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>5264059810.3561</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>5365526514.9974</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>4644002770.7245</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>4872688462.0791</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>5312403121.4869</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>3699834291.2262</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>2853711040.31</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>2106920908.7069</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>2171900634.7106</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>2018138674.6137</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>2137412725.7423</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>2803575698.5768</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>3846487222.5523</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>4997451673.6407</v>
+      </c>
+      <c r="AI11" s="4" t="n">
+        <v>2320433498.4623</v>
+      </c>
+      <c r="AJ11" s="4" t="n">
+        <v>3318700267.4031</v>
+      </c>
+      <c r="AK11" s="4" t="n">
+        <v>2027265328.7437</v>
+      </c>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="n">
+        <v>1935305.80529714</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>2980225.91645666</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>1817575.21834059</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>30848560.0221571</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>39752886.0827876</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>30632921.1478029</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>23097785.8923567</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>17858084.9920318</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>323662112.402509</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>912608028.11924</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>413181120.023604</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>377724515.476438</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>354187149.665976</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>624242171.877043</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>153583317.06629</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>223046392.900402</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>205437349.842649</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>67412464.6743734</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>30680273.4291</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>9366596.95580044</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="n">
+        <v>1768490.94850235</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>1358282.74142862</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>1240848270.19808</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <v>420839197.479246</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>1936653320.37506</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>1858489242.65625</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>1712516251.48942</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>2148839739.95142</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>3098427084.38996</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>1601837776.95923</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>3123950210.45184</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>2122920460.39838</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>1923576561.08127</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>2448144362.85241</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>1774529827.13142</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>1429183326.40534</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>639074785.346988</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>427833290.379516</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>478920083.1773</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>202986861.343484</v>
+      </c>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>569905946.899646</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>566223400.533144</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>213565902.971437</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>88392976.4267451</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>233465805.267387</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>340735407.206551</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>319599291.774826</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>503572863.539307</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>476759490.473703</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>340334859.145447</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>127036919.084377</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>136503426.137113</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>113523328.854624</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>134779805.843567</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>98332995.0232779</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>41953222.3172083</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>-40073.3009195112</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>23465.988817402</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>-19077.1280472261</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>-1421.33799740243</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>-769911.597582044</v>
+      </c>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="n">
+        <v>69911528.4482281</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>523016412.911798</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>590726926.974896</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>815729108.296692</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>842021257.959759</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>1145788058.40686</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>560713579.281897</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>986974000.487082</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>372318672.92659</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>692743891.977936</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>115773775.472027</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>102885079.089486</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>107223940.254083</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>79649322.3793766</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>89056331.7781561</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>115103748.574685</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>23554859.480102</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>528969.462553472</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>6013449.3887</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>1669410.93704902</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4" t="n">
+        <v>332778198.610471</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>336428093.039556</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>349605074.809823</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>492521601.386627</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>916462229.261514</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>1202183745.4672</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>1364669487.44071</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>1259687640.4859</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>1562067196.46459</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>1106541664.85067</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>1649243167.83127</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>819459111.660537</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>1209815521.02632</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>732685398.22564</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>810180200.705654</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>619727101.742497</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>540492754.465256</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>393818532.451407</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>362597635.0343</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>171270121.947005</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>702325465.325811</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>1361797148.9082</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>1067968898.20026</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>998364435.361393</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>591427695.210279</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>795112382.260629</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>879207442.131638</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>1119393374.61041</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>682287505.793803</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>541577009.131171</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>514310726.013569</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>515510729.987087</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>415387678.361396</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>312197104.839621</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>264611226.720162</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>208583689.352081</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>168232374.941279</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>112533778.773903</v>
+      </c>
+      <c r="AF21" s="4" t="n">
+        <v>129167604.168013</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>159047157.498777</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>356172882.702624</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>79686363.1273341</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>36036009.0728</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>28425211.8054994</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4" t="n">
+        <v>19364339.0962001</v>
+      </c>
+      <c r="S22" s="4" t="n">
+        <v>54042411.251973</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <v>47435977.0489185</v>
+      </c>
+      <c r="U22" s="4" t="n">
+        <v>61202158.0601237</v>
+      </c>
+      <c r="V22" s="4" t="n">
+        <v>323972014.295112</v>
+      </c>
+      <c r="W22" s="4" t="n">
+        <v>2056975189.79804</v>
+      </c>
+      <c r="X22" s="4" t="n">
+        <v>925392036.144809</v>
+      </c>
+      <c r="Y22" s="4" t="n">
+        <v>637364986.431408</v>
+      </c>
+      <c r="Z22" s="4" t="n">
+        <v>535301450.023251</v>
+      </c>
+      <c r="AA22" s="4" t="n">
+        <v>1011611287.43324</v>
+      </c>
+      <c r="AB22" s="4" t="n">
+        <v>1340804835.93038</v>
+      </c>
+      <c r="AC22" s="4" t="n">
+        <v>843534510.69959</v>
+      </c>
+      <c r="AD22" s="4" t="n">
+        <v>968146264.946651</v>
+      </c>
+      <c r="AE22" s="4" t="n">
+        <v>505295908.822272</v>
+      </c>
+      <c r="AF22" s="4" t="n">
+        <v>581864780.359164</v>
+      </c>
+      <c r="AG22" s="4" t="n">
+        <v>858875918.555725</v>
+      </c>
+      <c r="AH22" s="4" t="n">
+        <v>476339964.348282</v>
+      </c>
+      <c r="AI22" s="4" t="n">
+        <v>341192641.337707</v>
+      </c>
+      <c r="AJ22" s="4" t="n">
+        <v>400697867.3355</v>
+      </c>
+      <c r="AK22" s="4" t="n">
+        <v>210992994.174736</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>428031530.067112</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>430601847.84915</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>409287535.813702</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>158107385.594576</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4" t="n">
+        <v>-9391934.71752172</v>
+      </c>
+      <c r="Y23" s="4" t="n">
+        <v>-1760242.68344745</v>
+      </c>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="n">
+        <v>66936.5697908567</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <v>2654599.49190601</v>
+      </c>
+      <c r="T24" s="4" t="n">
+        <v>168070274.448615</v>
+      </c>
+      <c r="U24" s="4" t="n">
+        <v>565334257.139338</v>
+      </c>
+      <c r="V24" s="4" t="n">
+        <v>396729137.906935</v>
+      </c>
+      <c r="W24" s="4" t="n">
+        <v>394643411.432327</v>
+      </c>
+      <c r="X24" s="4" t="n">
+        <v>298031415.470847</v>
+      </c>
+      <c r="Y24" s="4" t="n">
+        <v>692980921.018831</v>
+      </c>
+      <c r="Z24" s="4" t="n">
+        <v>1449302895.25298</v>
+      </c>
+      <c r="AA24" s="4" t="n">
+        <v>61627451.5725723</v>
+      </c>
+      <c r="AB24" s="4" t="n">
+        <v>-39026778.5049622</v>
+      </c>
+      <c r="AC24" s="4" t="n">
+        <v>30239310.104795</v>
+      </c>
+      <c r="AD24" s="4" t="n">
+        <v>95889872.8137215</v>
+      </c>
+      <c r="AE24" s="4" t="n">
+        <v>70835808.5477712</v>
+      </c>
+      <c r="AF24" s="4" t="n">
+        <v>49464603.8223873</v>
+      </c>
+      <c r="AG24" s="4" t="n">
+        <v>369286881.545201</v>
+      </c>
+      <c r="AH24" s="4" t="n">
+        <v>356222420.416291</v>
+      </c>
+      <c r="AI24" s="4" t="n">
+        <v>84556993.2013925</v>
+      </c>
+      <c r="AJ24" s="4" t="n">
+        <v>9410550.8594</v>
+      </c>
+      <c r="AK24" s="4" t="n">
+        <v>44560853.4329992</v>
+      </c>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="M25"/>
+      <c r="N25" s="4" t="n">
+        <v>3442205305.42089</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <v>4194715671.48198</v>
+      </c>
+      <c r="P25" s="4" t="n">
+        <v>5287857552.50624</v>
+      </c>
+      <c r="Q25" s="4" t="n">
+        <v>6815453907.52333</v>
+      </c>
+      <c r="R25" s="4" t="n">
+        <v>8088715953.88175</v>
+      </c>
+      <c r="S25" s="4" t="n">
+        <v>7359615315.95048</v>
+      </c>
+      <c r="T25" s="4" t="n">
+        <v>7602426788.62289</v>
+      </c>
+      <c r="U25" s="4" t="n">
+        <v>7163421783.72589</v>
+      </c>
+      <c r="V25" s="4" t="n">
+        <v>7152331467.70898</v>
+      </c>
+      <c r="W25" s="4" t="n">
+        <v>6128253895.80977</v>
+      </c>
+      <c r="X25" s="4" t="n">
+        <v>6374586097.94928</v>
+      </c>
+      <c r="Y25" s="4" t="n">
+        <v>6812534875.58817</v>
+      </c>
+      <c r="Z25" s="4" t="n">
+        <v>4659201322.05218</v>
+      </c>
+      <c r="AA25" s="4" t="n">
+        <v>3529095857.2766</v>
+      </c>
+      <c r="AB25" s="4" t="n">
+        <v>2556113199.31037</v>
+      </c>
+      <c r="AC25" s="4" t="n">
+        <v>2605080932.23353</v>
+      </c>
+      <c r="AD25" s="4" t="n">
+        <v>2400757636.81787</v>
+      </c>
+      <c r="AE25" s="4" t="n">
+        <v>2498045333.52179</v>
+      </c>
+      <c r="AF25" s="4" t="n">
+        <v>3201435325.40239</v>
+      </c>
+      <c r="AG25" s="4" t="n">
+        <v>4307969904.13254</v>
+      </c>
+      <c r="AH25" s="4" t="n">
+        <v>5523337630.37576</v>
+      </c>
+      <c r="AI25" s="4" t="n">
+        <v>2481210754.75252</v>
+      </c>
+      <c r="AJ25" s="4" t="n">
+        <v>3318700267.4031</v>
+      </c>
+      <c r="AK25" s="4" t="n">
+        <v>1933602385.24115</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="n">
+        <v>-114669</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>11269352</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>1084838</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>67394425</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>87576992</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>84546127</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>128921185.8242</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>126693387.7188</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>123730165.3477</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>39174057.9738</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>33603663.6106</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>58765381.5278</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>56349096.9459</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>55728881.1637</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>74551215.6157</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>126997722.5115</v>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>123076895.581</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>140673513.4058</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>132363674.049</v>
+      </c>
+      <c r="AH2" s="5" t="n">
+        <v>72894962.9203</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>183718472.9111</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>346110901.3641</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>256871969.7187</v>
+      </c>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>825702692</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1081127866</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>808740848</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>1076805769.582</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>1158748685.7383</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>1659078667.5625</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>2166108625.2429</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>2028464698.9988</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>2410490744.2688</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>3356019004.2473</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>2683636311.1551</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>2206148367.5793</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>1716374180.8418</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>1684162989.3935</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>1235324658.5965</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>1136474483.2882</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>1046106488.5442</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>882785364.447</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>1298427118.4237</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>1805400003.5032</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>1719735836.8831</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>1797647219.4667</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>2162783273.3105</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v>2113406273.7478</v>
+      </c>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>540759198</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>731937365</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>763691606</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>1097828229</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>1316961140</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>1151898633</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>1411764317.87</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>1777645318.7919</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>1827089812.9624</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>1342088828.7871</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>1290520663.7128</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>1166036112.3084</v>
+      </c>
+      <c r="Z4" s="5" t="n">
+        <v>1140881016.0236</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>777882164.92</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>451814364.9988</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>501971454.3389</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>439631500.5668</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>460563791.2264</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>225377684.0834</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>234467037.5392</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>317374951.2365</v>
+      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>254748063</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>320041774</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>279954752</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>342494802.0781</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>398360815.4219</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>359897416.7031</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>397722883.3691</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>538342329.8131</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>618234882.5905</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>277157816.8654</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>144183602.9663</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>236969937.8839</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>137998453.4992</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>110331062.15</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>121611756.82</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>126616605.2187</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>198305225.7006</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>212121804.1816</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>251029542.685</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>600588163.4671</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>666841718.3999</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>2059997.9766</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>1672161.125</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>246725</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>28077522</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>24922374</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>46637715</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>290910895</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>300029567</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>278199887</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>334263457.6797</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>458244028.0625</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>444495389.8949</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>304408893.4103</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>209905228.3602</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>142070875.4943</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>145787191.4735</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>96424870.36</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>58616849.81</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>64858619.6932</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>92814532.7753</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>180078479.3096</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>415097565.7491</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>867782205.7997</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>1651253484.5547</v>
+      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5" t="n">
+        <v>6068033</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>1750276.5501</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>55539996</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>117021321</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>236979623</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>187640019</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>189401669</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>165907085</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>198465045</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>174226547.6569</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>232546191.8576</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>276924346.8465</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>424103401.0004</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>410020466.9781</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>348588430.274</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>324402532.26</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>330431730.6</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>94177582.1336</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>123775771.0213</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>144186773.9946</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>268796527.3347</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>222050917.1062</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>158483929.1231</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>107826183.9629</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>84243507.6939</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>43900311.441</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>786754007</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>788725447</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>702312210</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>280213684</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>461035630</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>659944888</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>588905370.4062</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>692051633.8643</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>250423806.7812</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>223089558.7753</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>382428157.085</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>689116760.8992</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>1298776358.5286</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>228651093.58</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>227903341.39</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>320628732.026</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>385635852.89</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>275073608.5224</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>402036340.0158</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>960038220.0031</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>1151587092.1584</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>242973767.6625</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>43889566.3232</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>42551149</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>185156402</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>346038142</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>467656132</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>813111520</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>841436395</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>700985409</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>981892565</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>574629503.2295</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>685751924.9805</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>559670179.5723</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>687171003.2738</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>1666381264.1907</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>735375894.7275</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>881638483.98</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>423603456.4</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>425003095.88</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>278504998.75</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>492228346.9688</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>114682756.2461</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>46691494.0214</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>14237217.4063</v>
+      </c>
+      <c r="AI9" s="5" t="n">
+        <v>-5565163.4063</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>-1320000</v>
+      </c>
+      <c r="AK9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>334194048</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>442933813</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>473061326</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>539308696</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>545618920</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>611298296</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>653969926</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>612025234.25</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>768870623.75</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>791347972.5</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>797355880.1249</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>886148713.5</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>829346402.3125</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>812794640</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>729239965.95</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>840444751.69</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>866000000</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>886027470.625</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>965430000.75</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>-6661436.125</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>-2894529.5</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>-2398718.75</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>-2208787.75</v>
+      </c>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="n">
+        <v>3384713</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>7631864</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>7974208</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>8945970</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>8855782</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>9178324</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>10666429</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>10189237.9492</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>11922318.8125</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>117966.46</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>178053.7325</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>1284897459.49</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>2448060318.6861</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>1746132089.711</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>1575060740.8302</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>2086384111.75</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>1560960626.4609</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>1829322115.6587</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>1423511208.8282</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>1188396802.722</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>1778304990.0626</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>267879045.7032</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>171820196</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>301682280</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>700087251</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>652453821</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>991737061</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>838562628</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>1183990837</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>1216679622.7425</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>2202244875.7621</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>3116410750.3518</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>2418966782.9284</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>2861787581.098</v>
+      </c>
+      <c r="Z12" s="5" t="n">
+        <v>3537259013.5528</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>1313645276.27</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>1767150209.45</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>632203889.9032</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>943032880.6923</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>308051732.1679</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>303012934.9981</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>524402885.1133</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>173731529.4375</v>
+      </c>
+      <c r="AI12" s="5" t="n">
+        <v>110409218.8321</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
+        <v>223512490.5709</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <v>2350904.625</v>
+      </c>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5" t="n">
+        <v>-180887.72614381</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>17500918.6996495</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>1653117.73239592</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>100247814.056159</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>126430936.64954</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>118206880.95529</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>175438134.099463</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>168884283.993193</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>163275067.922265</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>51248588.3929246</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>43092763.3049562</v>
+      </c>
+      <c r="Z17" s="5" t="n">
+        <v>74003244.9438387</v>
+      </c>
+      <c r="AA17" s="5" t="n">
+        <v>69685178.9771437</v>
+      </c>
+      <c r="AB17" s="5" t="n">
+        <v>67610192.7398686</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>89420274.1927783</v>
+      </c>
+      <c r="AD17" s="5" t="n">
+        <v>151075223.924501</v>
+      </c>
+      <c r="AE17" s="5" t="n">
+        <v>143842909.218055</v>
+      </c>
+      <c r="AF17" s="5" t="n">
+        <v>160636702.406293</v>
+      </c>
+      <c r="AG17" s="5" t="n">
+        <v>148244018.818068</v>
+      </c>
+      <c r="AH17" s="5" t="n">
+        <v>80565759.9224413</v>
+      </c>
+      <c r="AI17" s="5" t="n">
+        <v>196447884.042274</v>
+      </c>
+      <c r="AJ17" s="5" t="n">
+        <v>346110901.3641</v>
+      </c>
+      <c r="AK17" s="5" t="n">
+        <v>245004068.440055</v>
+      </c>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1334112651.6397</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>1705454493.81655</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>1255946910.69491</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>1640877911.76401</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>1723614717.17745</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>2395136726.26707</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>3028511813.44254</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>2760369132.53537</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>3213222179.53168</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>4428622796.44626</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>3510807402.15061</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>2829126922.6288</v>
+      </c>
+      <c r="Z18" s="5" t="n">
+        <v>2161430005.52168</v>
+      </c>
+      <c r="AA18" s="5" t="n">
+        <v>2082752088.38296</v>
+      </c>
+      <c r="AB18" s="5" t="n">
+        <v>1498693971.95837</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>1363141554.02351</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>1244437844.0832</v>
+      </c>
+      <c r="AE18" s="5" t="n">
+        <v>1031732352.67059</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>1482688855.69676</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>2022003045.89906</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>1900705055.79142</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>1922201871.82589</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>2162783273.3105</v>
+      </c>
+      <c r="AK18" s="5" t="n">
+        <v>2015763478.98909</v>
+      </c>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>873720885.897677</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>1154614461.05348</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>1185986976.73218</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>1672912741.33531</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>1958952472.43236</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>1662943882.51556</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>1973836798.69079</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>2419049870.08702</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>2435539536.90374</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>1771028463.93311</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>1688294900.45209</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>1495304761.26082</v>
+      </c>
+      <c r="Z19" s="5" t="n">
+        <v>1436711463.20439</v>
+      </c>
+      <c r="AA19" s="5" t="n">
+        <v>961982725.963141</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>548140491.291752</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <v>602088439.648184</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>522981247.843868</v>
+      </c>
+      <c r="AE19" s="5" t="n">
+        <v>538271909.587631</v>
+      </c>
+      <c r="AF19" s="5" t="n">
+        <v>257361368.822056</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>262597243.351756</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>350772578.822393</v>
+      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>411604100.50959</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>504858582.266272</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>434760166.718772</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>521906709.175691</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>592553478.298458</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>519567599.347585</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>556070197.368186</v>
+      </c>
+      <c r="U20" s="5" t="n">
+        <v>732585364.037502</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>824116849.078611</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>365739116.622995</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>188624985.605799</v>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>303886194.135091</v>
+      </c>
+      <c r="Z20" s="5" t="n">
+        <v>173781452.458385</v>
+      </c>
+      <c r="AA20" s="5" t="n">
+        <v>136442999.610849</v>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>147539195.949082</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <v>151869979.080939</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>235901918.441127</v>
+      </c>
+      <c r="AE20" s="5" t="n">
+        <v>247911821.938855</v>
+      </c>
+      <c r="AF20" s="5" t="n">
+        <v>286653521.101404</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>672643787.252129</v>
+      </c>
+      <c r="AH20" s="5" t="n">
+        <v>737014021.800307</v>
+      </c>
+      <c r="AI20" s="5" t="n">
+        <v>2202730.28194753</v>
+      </c>
+      <c r="AJ20" s="5" t="n">
+        <v>1672161.125</v>
+      </c>
+      <c r="AK20" s="5" t="n">
+        <v>235325.905166179</v>
+      </c>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>45365696.018455</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>39314475.2545641</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>72426778.2701634</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>443301174.066237</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>446287778.907023</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>401624576.112481</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>467345366.981125</v>
+      </c>
+      <c r="U21" s="5" t="n">
+        <v>623586237.836297</v>
+      </c>
+      <c r="V21" s="5" t="n">
+        <v>592519365.156544</v>
+      </c>
+      <c r="W21" s="5" t="n">
+        <v>401699800.594602</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>274603837.492387</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>182189260.110096</v>
+      </c>
+      <c r="Z21" s="5" t="n">
+        <v>183589810.18755</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>119245643.90687</v>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>71113871.850696</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>77794513.594889</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>110411242.38434</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>210462022.373718</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>474004683.073946</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>971894461.00546</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>1825016249.10877</v>
+      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5" t="n">
+        <v>6068033</v>
+      </c>
+      <c r="AK21" s="5" t="n">
+        <v>1669410.93704902</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>89737640.5012596</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>184598458.746783</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>368021259.394203</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>285933054.2588</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>281731067.456072</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>239512544.040618</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>277480882.691423</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>237090438.131699</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>309987741.383812</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>365431028.186463</v>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>554823823.675488</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>525803232.005375</v>
+      </c>
+      <c r="Z22" s="5" t="n">
+        <v>438977410.160291</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>401178541.38604</v>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>400879266.310953</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>112961071.763207</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>147242422.570037</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>168514528.614348</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>306941845.155684</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>248691497.652709</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>175161323.550672</v>
+      </c>
+      <c r="AI22" s="5" t="n">
+        <v>115297200.919554</v>
+      </c>
+      <c r="AJ22" s="5" t="n">
+        <v>84243507.6939</v>
+      </c>
+      <c r="AK22" s="5" t="n">
+        <v>41872045.9091316</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>1271182090.8862</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>1244196362.22161</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>1090666871.43867</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>427000353.859643</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>685780969.412591</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>952732543.347865</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>823369082.459997</v>
+      </c>
+      <c r="U23" s="5" t="n">
+        <v>941755589.428089</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <v>333818884.036494</v>
+      </c>
+      <c r="W23" s="5" t="n">
+        <v>294390319.122469</v>
+      </c>
+      <c r="X23" s="5" t="n">
+        <v>500303114.510675</v>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>883711544.402557</v>
+      </c>
+      <c r="Z23" s="5" t="n">
+        <v>1635549067.983</v>
+      </c>
+      <c r="AA23" s="5" t="n">
+        <v>282765709.532835</v>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <v>276491982.535523</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <v>384577352.563113</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>458748563.962609</v>
+      </c>
+      <c r="AE23" s="5" t="n">
+        <v>321485100.125313</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>459089919.232588</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>1075218899.55637</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>1272769550.59372</v>
+      </c>
+      <c r="AI23" s="5" t="n">
+        <v>259808835.653529</v>
+      </c>
+      <c r="AJ23" s="5" t="n">
+        <v>43889566.3232</v>
+      </c>
+      <c r="AK23" s="5" t="n">
+        <v>40585216.9593108</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>299162762.618541</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>545867258.504119</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>726253998.058143</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>1239050505.35416</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>1251619243.96632</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>1011980884.63156</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>1372818148.62837</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>781965564.469399</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <v>914118131.439783</v>
+      </c>
+      <c r="W24" s="5" t="n">
+        <v>738544124.037511</v>
+      </c>
+      <c r="X24" s="5" t="n">
+        <v>898976152.174105</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>2136938823.86479</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>926058864.053649</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>1090294944.89093</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>513915060.457622</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>509768929.352855</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>331306768.485073</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>575279032.618993</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>130957557.966833</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>52293310.5935829</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>15735411.5232033</v>
+      </c>
+      <c r="AI24" s="5" t="n">
+        <v>-5950760.19408323</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
+        <v>-1320000</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>539967365.807601</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>698717964.452272</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>734648079.700977</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>821819265.727161</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>811596864.839819</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>882503661.869863</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>914338100.798178</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <v>832854308.872264</v>
+      </c>
+      <c r="V25" s="5" t="n">
+        <v>1024916667.81873</v>
+      </c>
+      <c r="W25" s="5" t="n">
+        <v>1044267528.43167</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>1043123061.96435</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>1136381949.49081</v>
+      </c>
+      <c r="Z25" s="5" t="n">
+        <v>1044395924.23286</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>1005157900.12468</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>884712802.804478</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>1008069412.67601</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>1030184961.83481</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>1035521479.64228</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>1102435618.26181</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>-7460642.57708868</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>-3199123.22392418</v>
+      </c>
+      <c r="AI25" s="5" t="n">
+        <v>-2564920.20308731</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
+        <v>-2208787.75</v>
+      </c>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5" t="n">
+        <v>5256343.66861969</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>11629726.9358504</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>11861469.5626402</v>
+      </c>
+      <c r="S26" s="5" t="n">
+        <v>12914891.6914009</v>
+      </c>
+      <c r="T26" s="5" t="n">
+        <v>12381576.8478667</v>
+      </c>
+      <c r="U26" s="5" t="n">
+        <v>12490018.8159615</v>
+      </c>
+      <c r="V26" s="5" t="n">
+        <v>14218518.0842072</v>
+      </c>
+      <c r="W26" s="5" t="n">
+        <v>13445779.4795364</v>
+      </c>
+      <c r="X26" s="5" t="n">
+        <v>15597107.9105381</v>
+      </c>
+      <c r="Y26" s="5" t="n">
+        <v>151278.170071314</v>
+      </c>
+      <c r="Z26" s="5" t="n">
+        <v>224223.065294468</v>
+      </c>
+      <c r="AA26" s="5" t="n">
+        <v>1588992801.7445</v>
+      </c>
+      <c r="AB26" s="5" t="n">
+        <v>2969983005.74177</v>
+      </c>
+      <c r="AC26" s="5" t="n">
+        <v>2094393886.79646</v>
+      </c>
+      <c r="AD26" s="5" t="n">
+        <v>1873676546.39685</v>
+      </c>
+      <c r="AE26" s="5" t="n">
+        <v>2438406972.84193</v>
+      </c>
+      <c r="AF26" s="5" t="n">
+        <v>1782478887.10514</v>
+      </c>
+      <c r="AG26" s="5" t="n">
+        <v>2048795215.8054</v>
+      </c>
+      <c r="AH26" s="5" t="n">
+        <v>1573308466.08358</v>
+      </c>
+      <c r="AI26" s="5" t="n">
+        <v>1270737958.99833</v>
+      </c>
+      <c r="AJ26" s="5" t="n">
+        <v>1778304990.0626</v>
+      </c>
+      <c r="AK26" s="5" t="n">
+        <v>255502599.676392</v>
+      </c>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <v>277615053.834429</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <v>475896900.182963</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <v>1087211586.11534</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>994234144.696788</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>1475188377.72901</v>
+      </c>
+      <c r="S27" s="5" t="n">
+        <v>1210594884.29723</v>
+      </c>
+      <c r="T27" s="5" t="n">
+        <v>1655378772.36426</v>
+      </c>
+      <c r="U27" s="5" t="n">
+        <v>1655678245.94672</v>
+      </c>
+      <c r="V27" s="5" t="n">
+        <v>2935627152.43086</v>
+      </c>
+      <c r="W27" s="5" t="n">
+        <v>4112434308.21799</v>
+      </c>
+      <c r="X27" s="5" t="n">
+        <v>3164559389.72077</v>
+      </c>
+      <c r="Y27" s="5" t="n">
+        <v>3669907433.02222</v>
+      </c>
+      <c r="Z27" s="5" t="n">
+        <v>4454470274.91713</v>
+      </c>
+      <c r="AA27" s="5" t="n">
+        <v>1624544334.35272</v>
+      </c>
+      <c r="AB27" s="5" t="n">
+        <v>2143903910.61785</v>
+      </c>
+      <c r="AC27" s="5" t="n">
+        <v>758295417.64011</v>
+      </c>
+      <c r="AD27" s="5" t="n">
+        <v>1121822508.31983</v>
+      </c>
+      <c r="AE27" s="5" t="n">
+        <v>360027421.357323</v>
+      </c>
+      <c r="AF27" s="5" t="n">
+        <v>346013954.482921</v>
+      </c>
+      <c r="AG27" s="5" t="n">
+        <v>587318172.659718</v>
+      </c>
+      <c r="AH27" s="5" t="n">
+        <v>192013441.407792</v>
+      </c>
+      <c r="AI27" s="5" t="n">
+        <v>118059208.062446</v>
+      </c>
+      <c r="AJ27" s="5" t="n">
+        <v>223512490.5709</v>
+      </c>
+      <c r="AK27" s="5" t="n">
+        <v>2242289.021532</v>
+      </c>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -13,12 +13,14 @@
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -329,17 +331,154 @@
   <si>
     <t xml:space="preserve">SPACE VEHICLES</t>
   </si>
+  <si>
+    <t xml:space="preserve">Project.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASMS ADV STRATEGIC MSL SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEF METEOR SAT PROG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEF SATELLITE COMMS SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSCS II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSCS III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSCS-3 DEF STAT COMM SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVOLVED EXPENDABLE LV PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEODSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H/LGM 25 TITAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IUS FULL SCALE DEVELOP SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mk21A Reentry Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVSTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON-SYSTEM TRAINING DEVIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPOESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPOESS (DOC/NOAA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other UAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QM-107 GD MSL TGT SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATELLITE COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SICBM SM INT BALL MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPACE DEF SYSTEM 64406F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPACE SHUTTLE 64411F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELEPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITAN IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UHF FOLLOW-ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -375,13 +514,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8466,6 +8607,47 @@
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
     </row>
+    <row r="12">
+      <c r="M12" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="str">
+        <f>Sum(A2:A11)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="str">
+        <f>Sum(B2:B11)</f>
+      </c>
+    </row>
     <row r="15">
       <c r="M15" t="s">
         <v>70</v>
@@ -9240,6 +9422,87 @@
       </c>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="str">
+        <f>Sum(A16:A25)</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="M28" t="str">
+        <f>Sum(B16:B25)</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="M29" t="str">
+        <f>Sum(C16:C25)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="M30" t="str">
+        <f>Sum(D16:D25)</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="M31" t="str">
+        <f>Sum(E16:E25)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="M32" t="str">
+        <f>Sum(F16:F25)</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="M33" t="str">
+        <f>Sum(G16:G25)</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" t="str">
+        <f>Sum(H16:H25)</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="M35" t="str">
+        <f>Sum(I16:I25)</f>
+      </c>
+    </row>
+    <row r="36">
+      <c r="M36" t="str">
+        <f>Sum(J16:J25)</f>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11122,4 +11385,5562 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6" t="n">
+        <v>11173883.6290573</v>
+      </c>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2046</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6" t="n">
+        <v>10642550.0580806</v>
+      </c>
+      <c r="AE3" s="6" t="n">
+        <v>27010563.3932382</v>
+      </c>
+      <c r="AF3" s="6" t="n">
+        <v>12191491.3389343</v>
+      </c>
+      <c r="AG3" s="6" t="n">
+        <v>19173245.8772322</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>4567488.72715664</v>
+      </c>
+      <c r="AI3" s="6" t="n">
+        <v>5220355.19280446</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
+        <v>1198000.79596913</v>
+      </c>
+      <c r="AK3" s="6" t="n">
+        <v>-376444.9053</v>
+      </c>
+      <c r="AL3" s="6" t="n">
+        <v>-251339.106933721</v>
+      </c>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2249</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6" t="n">
+        <v>67018137.8789467</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" t="n">
+        <v>668</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="n">
+        <v>1935305.80529714</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>2980225.91645666</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>1817575.21834059</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>30848560.0221571</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>39752886.0827876</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>30632921.1478029</v>
+      </c>
+      <c r="Y5" s="6" t="n">
+        <v>23097785.8923567</v>
+      </c>
+      <c r="Z5" s="6" t="n">
+        <v>17858084.9920318</v>
+      </c>
+      <c r="AA5" s="6" t="n">
+        <v>323662112.402509</v>
+      </c>
+      <c r="AB5" s="6" t="n">
+        <v>912608028.11924</v>
+      </c>
+      <c r="AC5" s="6" t="n">
+        <v>413181120.023604</v>
+      </c>
+      <c r="AD5" s="6" t="n">
+        <v>377724515.476438</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>354187149.665976</v>
+      </c>
+      <c r="AF5" s="6" t="n">
+        <v>624242171.877043</v>
+      </c>
+      <c r="AG5" s="6" t="n">
+        <v>153583317.06629</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>223046392.900402</v>
+      </c>
+      <c r="AI5" s="6" t="n">
+        <v>205437349.842649</v>
+      </c>
+      <c r="AJ5" s="6" t="n">
+        <v>67412464.6743734</v>
+      </c>
+      <c r="AK5" s="6" t="n">
+        <v>30680273.4291</v>
+      </c>
+      <c r="AL5" s="6" t="n">
+        <v>9366596.95580044</v>
+      </c>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1543</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>26770544.8598804</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>15125708.9639735</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>7158636.75111334</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>595118.299775792</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1919</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>37441614.5848203</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>22076106.3689554</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>32092879.2467635</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>26890413.1904714</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>16523348.7770875</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>9126390.93442129</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>7290727.62254695</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>6832649.62805553</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>2498155.53606962</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>533594.560424681</v>
+      </c>
+      <c r="Y7" s="6" t="n">
+        <v>816797.53450672</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>-42769.6058918396</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>-635232.867528656</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>-23556.6744750141</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>-1580593.771501</v>
+      </c>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6" t="n">
+        <v>-10604.9320808798</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <v>-44614.208029853</v>
+      </c>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1920</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6" t="n">
+        <v>36154958.6449171</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>4465161.56070794</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>5495517.06018521</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>2796269.56667783</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>-71792.2304138663</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6" t="n">
+        <v>-2334275.09096355</v>
+      </c>
+      <c r="AA8" s="6" t="n">
+        <v>-1.43560199972609</v>
+      </c>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="6" t="n">
+        <v>211212.641246799</v>
+      </c>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2071</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6" t="n">
+        <v>1224986.20895829</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>14874796.2618157</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>5334250.72392751</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>6074115.47439849</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>3617503.22815717</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>-666507.885826042</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6" t="n">
+        <v>-359067.209611681</v>
+      </c>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6" t="n">
+        <v>-62861.941219719</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1517</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>96981116.6559196</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>65293515.6186832</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>69746674.481667</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>20250825.5577044</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" t="n">
+        <v>473</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>11306361.8546687</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>14096441.4122277</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>745999.753727571</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" t="n">
+        <v>617</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="n">
+        <v>31836938.0535515</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <v>49149119.0834142</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>23409320.2111393</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>45172797.4608941</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>43672449.038877</v>
+      </c>
+      <c r="X12" s="6" t="n">
+        <v>38690917.4443629</v>
+      </c>
+      <c r="Y12" s="6" t="n">
+        <v>40956116.7873825</v>
+      </c>
+      <c r="Z12" s="6" t="n">
+        <v>34724068.571419</v>
+      </c>
+      <c r="AA12" s="6" t="n">
+        <v>30257635.7273918</v>
+      </c>
+      <c r="AB12" s="6" t="n">
+        <v>41853289.1410341</v>
+      </c>
+      <c r="AC12" s="6" t="n">
+        <v>8134919.07268691</v>
+      </c>
+      <c r="AD12" s="6" t="n">
+        <v>14869351.1812922</v>
+      </c>
+      <c r="AE12" s="6" t="n">
+        <v>13960252.9232081</v>
+      </c>
+      <c r="AF12" s="6" t="n">
+        <v>2767894.65242456</v>
+      </c>
+      <c r="AG12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="6" t="n">
+        <v>-377193.508384657</v>
+      </c>
+      <c r="AI12" s="6" t="n">
+        <v>-12007.2492222364</v>
+      </c>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1794</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6" t="n">
+        <v>360082.879793912</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6" t="n">
+        <v>6048.74796347701</v>
+      </c>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6" t="n">
+        <v>417967.966420252</v>
+      </c>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1641</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>47359285.5448533</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>37452719.3819228</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>23548051.2098002</v>
+      </c>
+      <c r="R15" s="6" t="n">
+        <v>11178821.6484861</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" t="n">
+        <v>618</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6" t="n">
+        <v>40552.3449287311</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>396386.06987268</v>
+      </c>
+      <c r="X16" s="6" t="n">
+        <v>250722.515226877</v>
+      </c>
+      <c r="Y16" s="6" t="n">
+        <v>103753.094038677</v>
+      </c>
+      <c r="Z16" s="6" t="n">
+        <v>70836.2661590359</v>
+      </c>
+      <c r="AA16" s="6" t="n">
+        <v>-8594.47063836018</v>
+      </c>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="n">
+        <v>72</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="n">
+        <v>1768490.94850235</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>1358282.74142862</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>1240848270.19808</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>420839197.479246</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>1936653320.37506</v>
+      </c>
+      <c r="X17" s="6" t="n">
+        <v>1858489242.65625</v>
+      </c>
+      <c r="Y17" s="6" t="n">
+        <v>1712516251.48942</v>
+      </c>
+      <c r="Z17" s="6" t="n">
+        <v>2148839739.95142</v>
+      </c>
+      <c r="AA17" s="6" t="n">
+        <v>3098427084.38996</v>
+      </c>
+      <c r="AB17" s="6" t="n">
+        <v>1601837776.95923</v>
+      </c>
+      <c r="AC17" s="6" t="n">
+        <v>3123950210.45184</v>
+      </c>
+      <c r="AD17" s="6" t="n">
+        <v>2122920460.39838</v>
+      </c>
+      <c r="AE17" s="6" t="n">
+        <v>1923576561.08127</v>
+      </c>
+      <c r="AF17" s="6" t="n">
+        <v>2448144362.85241</v>
+      </c>
+      <c r="AG17" s="6" t="n">
+        <v>1774529827.13142</v>
+      </c>
+      <c r="AH17" s="6" t="n">
+        <v>1429183326.40534</v>
+      </c>
+      <c r="AI17" s="6" t="n">
+        <v>639074785.346988</v>
+      </c>
+      <c r="AJ17" s="6" t="n">
+        <v>427833290.379516</v>
+      </c>
+      <c r="AK17" s="6" t="n">
+        <v>478920083.1773</v>
+      </c>
+      <c r="AL17" s="6" t="n">
+        <v>202986861.343484</v>
+      </c>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1521</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>131326292.854271</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>622900543.562025</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1937</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>186458044.572078</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>260977584.542016</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>360882337.544434</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>324437792.951063</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>224872613.385901</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>549124005.987974</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>651698810.309636</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>372076863.02494</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>417343573.065009</v>
+      </c>
+      <c r="X19" s="6" t="n">
+        <v>317009354.430101</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>275080213.769432</v>
+      </c>
+      <c r="Z19" s="6" t="n">
+        <v>240594755.362259</v>
+      </c>
+      <c r="AA19" s="6" t="n">
+        <v>133840791.149759</v>
+      </c>
+      <c r="AB19" s="6" t="n">
+        <v>24511805.8286679</v>
+      </c>
+      <c r="AC19" s="6" t="n">
+        <v>-4992251.8352508</v>
+      </c>
+      <c r="AD19" s="6" t="n">
+        <v>-4127870.01534899</v>
+      </c>
+      <c r="AE19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="6" t="n">
+        <v>-3652070.48783529</v>
+      </c>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>110</v>
+      </c>
+      <c r="N20" t="n">
+        <v>648</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="n">
+        <v>2408849.31202222</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>46986219.7224879</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>23121809.1724283</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>9256112.19367425</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>29422937.1325328</v>
+      </c>
+      <c r="X20" s="6" t="n">
+        <v>53274568.7167687</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>52853580.9522683</v>
+      </c>
+      <c r="Z20" s="6" t="n">
+        <v>50818499.1714928</v>
+      </c>
+      <c r="AA20" s="6" t="n">
+        <v>99570185.5001538</v>
+      </c>
+      <c r="AB20" s="6" t="n">
+        <v>55002261.8118732</v>
+      </c>
+      <c r="AC20" s="6" t="n">
+        <v>26111219.3863776</v>
+      </c>
+      <c r="AD20" s="6" t="n">
+        <v>42004624.7229384</v>
+      </c>
+      <c r="AE20" s="6" t="n">
+        <v>21835519.8092767</v>
+      </c>
+      <c r="AF20" s="6" t="n">
+        <v>8237572.10538511</v>
+      </c>
+      <c r="AG20" s="6" t="n">
+        <v>14440366.6379096</v>
+      </c>
+      <c r="AH20" s="6" t="n">
+        <v>10570965.5965545</v>
+      </c>
+      <c r="AI20" s="6" t="n">
+        <v>8225486.23121455</v>
+      </c>
+      <c r="AJ20" s="6" t="n">
+        <v>-134.730236960461</v>
+      </c>
+      <c r="AK20" s="6" t="n">
+        <v>-722866.1666</v>
+      </c>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2187</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6" t="n">
+        <v>121575390.62278</v>
+      </c>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2229</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1607</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>-105368.219465647</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6" t="n">
+        <v>2748993.69068756</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>114</v>
+      </c>
+      <c r="N24" t="n">
+        <v>696</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6" t="n">
+        <v>60368240.1132539</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>26149484.8875809</v>
+      </c>
+      <c r="X24" s="6" t="n">
+        <v>4565181.75534446</v>
+      </c>
+      <c r="Y24" s="6" t="n">
+        <v>8153168.43156986</v>
+      </c>
+      <c r="Z24" s="6" t="n">
+        <v>4789089.6853852</v>
+      </c>
+      <c r="AA24" s="6" t="n">
+        <v>23060.2254079501</v>
+      </c>
+      <c r="AB24" s="6" t="n">
+        <v>497412.988092724</v>
+      </c>
+      <c r="AC24" s="6" t="n">
+        <v>29914922.6382772</v>
+      </c>
+      <c r="AD24" s="6" t="n">
+        <v>11647480.8871149</v>
+      </c>
+      <c r="AE24" s="6" t="n">
+        <v>70225603.9430789</v>
+      </c>
+      <c r="AF24" s="6" t="n">
+        <v>59358182.5086766</v>
+      </c>
+      <c r="AG24" s="6" t="n">
+        <v>60251624.6248368</v>
+      </c>
+      <c r="AH24" s="6" t="n">
+        <v>108387948.744048</v>
+      </c>
+      <c r="AI24" s="6" t="n">
+        <v>60515172.8633949</v>
+      </c>
+      <c r="AJ24" s="6" t="n">
+        <v>53311723.4655984</v>
+      </c>
+      <c r="AK24" s="6" t="n">
+        <v>6893727.9219</v>
+      </c>
+      <c r="AL24" s="6" t="n">
+        <v>-63729.558885828</v>
+      </c>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>115</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1524</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6" t="n">
+        <v>-3968662.95591347</v>
+      </c>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>116</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1539</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>57001317.8055859</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>56378152.7442341</v>
+      </c>
+      <c r="Q26" s="6" t="n">
+        <v>57032780.7499361</v>
+      </c>
+      <c r="R26" s="6" t="n">
+        <v>17352856.8598063</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1869</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>569905946.899646</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>566223400.533144</v>
+      </c>
+      <c r="Q27" s="6" t="n">
+        <v>213565902.971437</v>
+      </c>
+      <c r="R27" s="6" t="n">
+        <v>88392976.4267451</v>
+      </c>
+      <c r="S27" s="6" t="n">
+        <v>233465805.267387</v>
+      </c>
+      <c r="T27" s="6" t="n">
+        <v>340735407.206551</v>
+      </c>
+      <c r="U27" s="6" t="n">
+        <v>319599291.774826</v>
+      </c>
+      <c r="V27" s="6" t="n">
+        <v>503572863.539307</v>
+      </c>
+      <c r="W27" s="6" t="n">
+        <v>476759490.473703</v>
+      </c>
+      <c r="X27" s="6" t="n">
+        <v>340334859.145447</v>
+      </c>
+      <c r="Y27" s="6" t="n">
+        <v>127036919.084377</v>
+      </c>
+      <c r="Z27" s="6" t="n">
+        <v>136503426.137113</v>
+      </c>
+      <c r="AA27" s="6" t="n">
+        <v>113523328.854624</v>
+      </c>
+      <c r="AB27" s="6" t="n">
+        <v>134779805.843567</v>
+      </c>
+      <c r="AC27" s="6" t="n">
+        <v>98332995.0232779</v>
+      </c>
+      <c r="AD27" s="6" t="n">
+        <v>41953222.3172083</v>
+      </c>
+      <c r="AE27" s="6" t="n">
+        <v>-40073.3009195112</v>
+      </c>
+      <c r="AF27" s="6" t="n">
+        <v>23465.988817402</v>
+      </c>
+      <c r="AG27" s="6" t="n">
+        <v>-19077.1280472261</v>
+      </c>
+      <c r="AH27" s="6" t="n">
+        <v>-1421.33799740243</v>
+      </c>
+      <c r="AI27" s="6" t="n">
+        <v>-769911.597582044</v>
+      </c>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1343</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="n">
+        <v>69911528.4482281</v>
+      </c>
+      <c r="T28" s="6" t="n">
+        <v>523016412.911798</v>
+      </c>
+      <c r="U28" s="6" t="n">
+        <v>590726926.974896</v>
+      </c>
+      <c r="V28" s="6" t="n">
+        <v>815729108.296692</v>
+      </c>
+      <c r="W28" s="6" t="n">
+        <v>842021257.959759</v>
+      </c>
+      <c r="X28" s="6" t="n">
+        <v>1145788058.40686</v>
+      </c>
+      <c r="Y28" s="6" t="n">
+        <v>560713579.281897</v>
+      </c>
+      <c r="Z28" s="6" t="n">
+        <v>986974000.487082</v>
+      </c>
+      <c r="AA28" s="6" t="n">
+        <v>372318672.92659</v>
+      </c>
+      <c r="AB28" s="6" t="n">
+        <v>692743891.977936</v>
+      </c>
+      <c r="AC28" s="6" t="n">
+        <v>115773775.472027</v>
+      </c>
+      <c r="AD28" s="6" t="n">
+        <v>102885079.089486</v>
+      </c>
+      <c r="AE28" s="6" t="n">
+        <v>107223940.254083</v>
+      </c>
+      <c r="AF28" s="6" t="n">
+        <v>79649322.3793766</v>
+      </c>
+      <c r="AG28" s="6" t="n">
+        <v>89056331.7781561</v>
+      </c>
+      <c r="AH28" s="6" t="n">
+        <v>115103748.574685</v>
+      </c>
+      <c r="AI28" s="6" t="n">
+        <v>23554859.480102</v>
+      </c>
+      <c r="AJ28" s="6" t="n">
+        <v>528969.462553472</v>
+      </c>
+      <c r="AK28" s="6" t="n">
+        <v>6013449.3887</v>
+      </c>
+      <c r="AL28" s="6" t="n">
+        <v>1669410.93704902</v>
+      </c>
+      <c r="AM28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="M29" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2247</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6" t="n">
+        <v>54959927.0160383</v>
+      </c>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="M30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1613</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>32176330.0491843</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>115877438.658192</v>
+      </c>
+      <c r="Q30" s="6" t="n">
+        <v>114372337.47792</v>
+      </c>
+      <c r="R30" s="6" t="n">
+        <v>385024840.210617</v>
+      </c>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="M31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" t="n">
+        <v>62</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="n">
+        <v>332778198.610471</v>
+      </c>
+      <c r="T31" s="6" t="n">
+        <v>336428093.039556</v>
+      </c>
+      <c r="U31" s="6" t="n">
+        <v>349605074.809823</v>
+      </c>
+      <c r="V31" s="6" t="n">
+        <v>492521601.386627</v>
+      </c>
+      <c r="W31" s="6" t="n">
+        <v>916462229.261514</v>
+      </c>
+      <c r="X31" s="6" t="n">
+        <v>1202183745.4672</v>
+      </c>
+      <c r="Y31" s="6" t="n">
+        <v>1364669487.44071</v>
+      </c>
+      <c r="Z31" s="6" t="n">
+        <v>1259687640.4859</v>
+      </c>
+      <c r="AA31" s="6" t="n">
+        <v>1562067196.46459</v>
+      </c>
+      <c r="AB31" s="6" t="n">
+        <v>1106541664.85067</v>
+      </c>
+      <c r="AC31" s="6" t="n">
+        <v>1649243167.83127</v>
+      </c>
+      <c r="AD31" s="6" t="n">
+        <v>819459111.660537</v>
+      </c>
+      <c r="AE31" s="6" t="n">
+        <v>1209815521.02632</v>
+      </c>
+      <c r="AF31" s="6" t="n">
+        <v>732685398.22564</v>
+      </c>
+      <c r="AG31" s="6" t="n">
+        <v>810180200.705654</v>
+      </c>
+      <c r="AH31" s="6" t="n">
+        <v>619727101.742497</v>
+      </c>
+      <c r="AI31" s="6" t="n">
+        <v>540492754.465256</v>
+      </c>
+      <c r="AJ31" s="6" t="n">
+        <v>393818532.451407</v>
+      </c>
+      <c r="AK31" s="6" t="n">
+        <v>362597635.0343</v>
+      </c>
+      <c r="AL31" s="6" t="n">
+        <v>171270121.947005</v>
+      </c>
+      <c r="AM31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="M32" t="s">
+        <v>119</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1829</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6" t="n">
+        <v>37069484.2500111</v>
+      </c>
+      <c r="T32" s="6" t="n">
+        <v>6536514.81395521</v>
+      </c>
+      <c r="U32" s="6" t="n">
+        <v>23823087.0151902</v>
+      </c>
+      <c r="V32" s="6" t="n">
+        <v>40653736.6775885</v>
+      </c>
+      <c r="W32" s="6" t="n">
+        <v>19867550.993062</v>
+      </c>
+      <c r="X32" s="6" t="n">
+        <v>6205878.70139733</v>
+      </c>
+      <c r="Y32" s="6" t="n">
+        <v>1189194.69265569</v>
+      </c>
+      <c r="Z32" s="6" t="n">
+        <v>-56424.8472246928</v>
+      </c>
+      <c r="AA32" s="6" t="n">
+        <v>-89935.4017634703</v>
+      </c>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="M33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N33" t="n">
+        <v>695</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6" t="n">
+        <v>41002852.6134826</v>
+      </c>
+      <c r="T33" s="6" t="n">
+        <v>38421772.8260826</v>
+      </c>
+      <c r="U33" s="6" t="n">
+        <v>36120500.3435042</v>
+      </c>
+      <c r="V33" s="6" t="n">
+        <v>50523638.1670702</v>
+      </c>
+      <c r="W33" s="6" t="n">
+        <v>98071588.455892</v>
+      </c>
+      <c r="X33" s="6" t="n">
+        <v>106013379.296477</v>
+      </c>
+      <c r="Y33" s="6" t="n">
+        <v>130135164.647922</v>
+      </c>
+      <c r="Z33" s="6" t="n">
+        <v>186804416.384077</v>
+      </c>
+      <c r="AA33" s="6" t="n">
+        <v>150857208.823307</v>
+      </c>
+      <c r="AB33" s="6" t="n">
+        <v>158328283.678018</v>
+      </c>
+      <c r="AC33" s="6" t="n">
+        <v>182792636.249314</v>
+      </c>
+      <c r="AD33" s="6" t="n">
+        <v>93088725.4569878</v>
+      </c>
+      <c r="AE33" s="6" t="n">
+        <v>9268708.82269815</v>
+      </c>
+      <c r="AF33" s="6" t="n">
+        <v>989840.862954311</v>
+      </c>
+      <c r="AG33" s="6" t="n">
+        <v>842996.037010992</v>
+      </c>
+      <c r="AH33" s="6" t="n">
+        <v>4424583.3169887</v>
+      </c>
+      <c r="AI33" s="6" t="n">
+        <v>1453557.40800003</v>
+      </c>
+      <c r="AJ33" s="6" t="n">
+        <v>-76714.0335836031</v>
+      </c>
+      <c r="AK33" s="6" t="n">
+        <v>-962030.7735</v>
+      </c>
+      <c r="AL33" s="6" t="n">
+        <v>-9378.29896504797</v>
+      </c>
+      <c r="AM33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="M34" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" t="n">
+        <v>609</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6" t="n">
+        <v>147407.351328679</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="M35" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" t="n">
+        <v>650</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6" t="n">
+        <v>4026314.99680378</v>
+      </c>
+      <c r="T35" s="6" t="n">
+        <v>37939.2456771056</v>
+      </c>
+      <c r="U35" s="6" t="n">
+        <v>1507144.55612629</v>
+      </c>
+      <c r="V35" s="6" t="n">
+        <v>3364164.02015895</v>
+      </c>
+      <c r="W35" s="6" t="n">
+        <v>509941.18439819</v>
+      </c>
+      <c r="X35" s="6" t="n">
+        <v>8052518.78256904</v>
+      </c>
+      <c r="Y35" s="6" t="n">
+        <v>3154715.2601363</v>
+      </c>
+      <c r="Z35" s="6" t="n">
+        <v>-470358.42438954</v>
+      </c>
+      <c r="AA35" s="6" t="n">
+        <v>-19283.0558026708</v>
+      </c>
+      <c r="AB35" s="6" t="n">
+        <v>9368966.92208452</v>
+      </c>
+      <c r="AC35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="M36" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1731</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>38438995.0501625</v>
+      </c>
+      <c r="P36" s="6" t="n">
+        <v>101533125.108034</v>
+      </c>
+      <c r="Q36" s="6" t="n">
+        <v>201955448.929059</v>
+      </c>
+      <c r="R36" s="6" t="n">
+        <v>4238967.76702789</v>
+      </c>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="M37" t="s">
+        <v>124</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2258</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6" t="n">
+        <v>742409.569952965</v>
+      </c>
+      <c r="V37" s="6" t="n">
+        <v>3512035.83255276</v>
+      </c>
+      <c r="W37" s="6" t="n">
+        <v>79980.946299125</v>
+      </c>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6" t="n">
+        <v>-11550.1952673249</v>
+      </c>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+    </row>
+    <row r="38">
+      <c r="M38" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" t="n">
+        <v>154</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6" t="n">
+        <v>-1703614.39769974</v>
+      </c>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+    </row>
+    <row r="39">
+      <c r="M39" t="s">
+        <v>126</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2114</v>
+      </c>
+      <c r="O39" s="6" t="n">
+        <v>35642335.9856673</v>
+      </c>
+      <c r="P39" s="6" t="n">
+        <v>49938405.1966085</v>
+      </c>
+      <c r="Q39" s="6" t="n">
+        <v>202026580.976414</v>
+      </c>
+      <c r="R39" s="6" t="n">
+        <v>147483762.252986</v>
+      </c>
+      <c r="S39" s="6" t="n">
+        <v>36310053.1662299</v>
+      </c>
+      <c r="T39" s="6" t="n">
+        <v>21453411.9929389</v>
+      </c>
+      <c r="U39" s="6" t="n">
+        <v>5938465.64144938</v>
+      </c>
+      <c r="V39" s="6" t="n">
+        <v>3264102.13646409</v>
+      </c>
+      <c r="W39" s="6" t="n">
+        <v>-13063.1562570779</v>
+      </c>
+      <c r="X39" s="6" t="n">
+        <v>-77009.3180269225</v>
+      </c>
+      <c r="Y39" s="6" t="n">
+        <v>-143169.824923953</v>
+      </c>
+      <c r="Z39" s="6" t="n">
+        <v>-103680.835924263</v>
+      </c>
+      <c r="AA39" s="6" t="n">
+        <v>-511727.534487202</v>
+      </c>
+      <c r="AB39" s="6" t="n">
+        <v>-28048.6660250441</v>
+      </c>
+      <c r="AC39" s="6" t="n">
+        <v>-134193.495084635</v>
+      </c>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="M40" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" t="n">
+        <v>622</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6" t="n">
+        <v>19364339.0962001</v>
+      </c>
+      <c r="T40" s="6" t="n">
+        <v>54042411.251973</v>
+      </c>
+      <c r="U40" s="6" t="n">
+        <v>47435977.0489185</v>
+      </c>
+      <c r="V40" s="6" t="n">
+        <v>61202158.0601237</v>
+      </c>
+      <c r="W40" s="6" t="n">
+        <v>323972014.295112</v>
+      </c>
+      <c r="X40" s="6" t="n">
+        <v>2056975189.79804</v>
+      </c>
+      <c r="Y40" s="6" t="n">
+        <v>925392036.144809</v>
+      </c>
+      <c r="Z40" s="6" t="n">
+        <v>637364986.431408</v>
+      </c>
+      <c r="AA40" s="6" t="n">
+        <v>535301450.023251</v>
+      </c>
+      <c r="AB40" s="6" t="n">
+        <v>1011611287.43324</v>
+      </c>
+      <c r="AC40" s="6" t="n">
+        <v>1340804835.93038</v>
+      </c>
+      <c r="AD40" s="6" t="n">
+        <v>843534510.69959</v>
+      </c>
+      <c r="AE40" s="6" t="n">
+        <v>968146264.946651</v>
+      </c>
+      <c r="AF40" s="6" t="n">
+        <v>505295908.822272</v>
+      </c>
+      <c r="AG40" s="6" t="n">
+        <v>581864780.359164</v>
+      </c>
+      <c r="AH40" s="6" t="n">
+        <v>858875918.555725</v>
+      </c>
+      <c r="AI40" s="6" t="n">
+        <v>476339964.348282</v>
+      </c>
+      <c r="AJ40" s="6" t="n">
+        <v>341192641.337707</v>
+      </c>
+      <c r="AK40" s="6" t="n">
+        <v>400697867.3355</v>
+      </c>
+      <c r="AL40" s="6" t="n">
+        <v>210992994.174736</v>
+      </c>
+      <c r="AM40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="M41" t="s">
+        <v>127</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1354</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6" t="n">
+        <v>92021373.5904739</v>
+      </c>
+      <c r="T41" s="6" t="n">
+        <v>61583468.651059</v>
+      </c>
+      <c r="U41" s="6" t="n">
+        <v>90862076.97466</v>
+      </c>
+      <c r="V41" s="6" t="n">
+        <v>206035212.543059</v>
+      </c>
+      <c r="W41" s="6" t="n">
+        <v>40505971.6767127</v>
+      </c>
+      <c r="X41" s="6" t="n">
+        <v>-516.90286419729</v>
+      </c>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6" t="n">
+        <v>-213454.067784639</v>
+      </c>
+      <c r="AA41" s="6" t="n">
+        <v>57452.844415918</v>
+      </c>
+      <c r="AB41" s="6" t="n">
+        <v>18913.615036274</v>
+      </c>
+      <c r="AC41" s="6" t="n">
+        <v>-156329.07741292</v>
+      </c>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+    </row>
+    <row r="42">
+      <c r="M42" t="s">
+        <v>128</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1545</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>1528593.72818512</v>
+      </c>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="M43" t="s">
+        <v>129</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1541</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6" t="n">
+        <v>110785.477123759</v>
+      </c>
+      <c r="R43" s="6" t="n">
+        <v>22526892.9732389</v>
+      </c>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6" t="n">
+        <v>-29725.0890035645</v>
+      </c>
+      <c r="Y43" s="6" t="n">
+        <v>-246589.332538255</v>
+      </c>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="M44" t="s">
+        <v>130</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1542</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6" t="n">
+        <v>586677.759234494</v>
+      </c>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6" t="n">
+        <v>-202.644473221878</v>
+      </c>
+      <c r="Z44" s="6" t="n">
+        <v>-56753.7032887175</v>
+      </c>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="M45" t="s">
+        <v>131</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1961</v>
+      </c>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6" t="n">
+        <v>526828.58094403</v>
+      </c>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6" t="n">
+        <v>378458.161089743</v>
+      </c>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6" t="n">
+        <v>15339.1202374523</v>
+      </c>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6" t="n">
+        <v>-8390.9161126048</v>
+      </c>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="M46" t="s">
+        <v>132</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1978</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6" t="n">
+        <v>366989.31952655</v>
+      </c>
+      <c r="T46" s="6" t="n">
+        <v>-90820.3175626602</v>
+      </c>
+      <c r="U46" s="6" t="n">
+        <v>1307426.59486545</v>
+      </c>
+      <c r="V46" s="6" t="n">
+        <v>1528541.77852809</v>
+      </c>
+      <c r="W46" s="6" t="n">
+        <v>6030099.8677687</v>
+      </c>
+      <c r="X46" s="6" t="n">
+        <v>6842452.81893593</v>
+      </c>
+      <c r="Y46" s="6" t="n">
+        <v>1946794.88219277</v>
+      </c>
+      <c r="Z46" s="6" t="n">
+        <v>1287739.60524441</v>
+      </c>
+      <c r="AA46" s="6" t="n">
+        <v>1067167.45761872</v>
+      </c>
+      <c r="AB46" s="6" t="n">
+        <v>174422.473339918</v>
+      </c>
+      <c r="AC46" s="6" t="n">
+        <v>-5176.8998035771</v>
+      </c>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="6" t="n">
+        <v>-166140.422175397</v>
+      </c>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="M47" t="s">
+        <v>133</v>
+      </c>
+      <c r="N47" t="n">
+        <v>675</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6" t="n">
+        <v>-2331472.65358124</v>
+      </c>
+      <c r="S47" s="6" t="n">
+        <v>85648919.922666</v>
+      </c>
+      <c r="T47" s="6" t="n">
+        <v>1427762.95512527</v>
+      </c>
+      <c r="U47" s="6" t="n">
+        <v>4515279.0790626</v>
+      </c>
+      <c r="V47" s="6" t="n">
+        <v>312408684.420204</v>
+      </c>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6" t="n">
+        <v>-48243.6304895651</v>
+      </c>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6" t="n">
+        <v>-8313680.60484552</v>
+      </c>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="M48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1550</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>428031530.067112</v>
+      </c>
+      <c r="P48" s="6" t="n">
+        <v>430601847.84915</v>
+      </c>
+      <c r="Q48" s="6" t="n">
+        <v>409287535.813702</v>
+      </c>
+      <c r="R48" s="6" t="n">
+        <v>158107385.594576</v>
+      </c>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6" t="n">
+        <v>-9391934.71752172</v>
+      </c>
+      <c r="Z48" s="6" t="n">
+        <v>-1760242.68344745</v>
+      </c>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+    </row>
+    <row r="49">
+      <c r="M49" t="s">
+        <v>134</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1376</v>
+      </c>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="M50" t="s">
+        <v>135</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1809</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6" t="n">
+        <v>-1509249.78777489</v>
+      </c>
+      <c r="X50" s="6" t="n">
+        <v>245691.419457189</v>
+      </c>
+      <c r="Y50" s="6" t="n">
+        <v>305139.015436481</v>
+      </c>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6" t="n">
+        <v>16763.8015968015</v>
+      </c>
+      <c r="AB50" s="6" t="n">
+        <v>87390.9679529</v>
+      </c>
+      <c r="AC50" s="6" t="n">
+        <v>76633.2578097073</v>
+      </c>
+      <c r="AD50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="M51" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1325</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6" t="n">
+        <v>66936.5697908567</v>
+      </c>
+      <c r="T51" s="6" t="n">
+        <v>2654599.49190601</v>
+      </c>
+      <c r="U51" s="6" t="n">
+        <v>168070274.448615</v>
+      </c>
+      <c r="V51" s="6" t="n">
+        <v>565334257.139338</v>
+      </c>
+      <c r="W51" s="6" t="n">
+        <v>396729137.906935</v>
+      </c>
+      <c r="X51" s="6" t="n">
+        <v>394643411.432327</v>
+      </c>
+      <c r="Y51" s="6" t="n">
+        <v>298031415.470847</v>
+      </c>
+      <c r="Z51" s="6" t="n">
+        <v>692980921.018831</v>
+      </c>
+      <c r="AA51" s="6" t="n">
+        <v>1449302895.25298</v>
+      </c>
+      <c r="AB51" s="6" t="n">
+        <v>61627451.5725723</v>
+      </c>
+      <c r="AC51" s="6" t="n">
+        <v>-39026778.5049622</v>
+      </c>
+      <c r="AD51" s="6" t="n">
+        <v>30239310.104795</v>
+      </c>
+      <c r="AE51" s="6" t="n">
+        <v>95889872.8137215</v>
+      </c>
+      <c r="AF51" s="6" t="n">
+        <v>70835808.5477712</v>
+      </c>
+      <c r="AG51" s="6" t="n">
+        <v>49464603.8223873</v>
+      </c>
+      <c r="AH51" s="6" t="n">
+        <v>369286881.545201</v>
+      </c>
+      <c r="AI51" s="6" t="n">
+        <v>356222420.416291</v>
+      </c>
+      <c r="AJ51" s="6" t="n">
+        <v>84556993.2013925</v>
+      </c>
+      <c r="AK51" s="6" t="n">
+        <v>9410550.8594</v>
+      </c>
+      <c r="AL51" s="6" t="n">
+        <v>44560853.4329992</v>
+      </c>
+      <c r="AM51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="M52" t="s">
+        <v>136</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2015</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6" t="n">
+        <v>23017638.9470754</v>
+      </c>
+      <c r="AC52" s="6" t="n">
+        <v>22903954.2929907</v>
+      </c>
+      <c r="AD52" s="6" t="n">
+        <v>50415963.378582</v>
+      </c>
+      <c r="AE52" s="6" t="n">
+        <v>29908779.9218055</v>
+      </c>
+      <c r="AF52" s="6" t="n">
+        <v>28777584.6642818</v>
+      </c>
+      <c r="AG52" s="6" t="n">
+        <v>38122046.4109397</v>
+      </c>
+      <c r="AH52" s="6" t="n">
+        <v>31684119.2526189</v>
+      </c>
+      <c r="AI52" s="6" t="n">
+        <v>26042979.10961</v>
+      </c>
+      <c r="AJ52" s="6" t="n">
+        <v>25253487.6295872</v>
+      </c>
+      <c r="AK52" s="6" t="n">
+        <v>31203622.9963</v>
+      </c>
+      <c r="AL52" s="6" t="n">
+        <v>28749658.770284</v>
+      </c>
+      <c r="AM52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53" s="6" t="n">
+        <v>3442205305.42089</v>
+      </c>
+      <c r="P53" s="6" t="n">
+        <v>4194715671.48198</v>
+      </c>
+      <c r="Q53" s="6" t="n">
+        <v>5287857552.50624</v>
+      </c>
+      <c r="R53" s="6" t="n">
+        <v>6815453907.52333</v>
+      </c>
+      <c r="S53" s="6" t="n">
+        <v>8088715953.88175</v>
+      </c>
+      <c r="T53" s="6" t="n">
+        <v>7359615315.95048</v>
+      </c>
+      <c r="U53" s="6" t="n">
+        <v>7602426788.62289</v>
+      </c>
+      <c r="V53" s="6" t="n">
+        <v>7163421783.72589</v>
+      </c>
+      <c r="W53" s="6" t="n">
+        <v>7152331467.70898</v>
+      </c>
+      <c r="X53" s="6" t="n">
+        <v>6128253895.80977</v>
+      </c>
+      <c r="Y53" s="6" t="n">
+        <v>6374586097.94928</v>
+      </c>
+      <c r="Z53" s="6" t="n">
+        <v>6812534875.58817</v>
+      </c>
+      <c r="AA53" s="6" t="n">
+        <v>4659201322.05218</v>
+      </c>
+      <c r="AB53" s="6" t="n">
+        <v>3529095857.2766</v>
+      </c>
+      <c r="AC53" s="6" t="n">
+        <v>2556113199.31037</v>
+      </c>
+      <c r="AD53" s="6" t="n">
+        <v>2605080932.23353</v>
+      </c>
+      <c r="AE53" s="6" t="n">
+        <v>2400757636.81787</v>
+      </c>
+      <c r="AF53" s="6" t="n">
+        <v>2498045333.52179</v>
+      </c>
+      <c r="AG53" s="6" t="n">
+        <v>3201435325.40239</v>
+      </c>
+      <c r="AH53" s="6" t="n">
+        <v>4307969904.13254</v>
+      </c>
+      <c r="AI53" s="6" t="n">
+        <v>5523337630.37576</v>
+      </c>
+      <c r="AJ53" s="6" t="n">
+        <v>2481210754.75252</v>
+      </c>
+      <c r="AK53" s="6" t="n">
+        <v>3318700267.4031</v>
+      </c>
+      <c r="AL53" s="6" t="n">
+        <v>1933602385.24115</v>
+      </c>
+      <c r="AM53" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="O2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="n">
+        <v>11173883.6290573</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2046</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7" t="n">
+        <v>10642550.0580806</v>
+      </c>
+      <c r="AG3" s="7" t="n">
+        <v>27010563.3932382</v>
+      </c>
+      <c r="AH3" s="7" t="n">
+        <v>12191491.3389343</v>
+      </c>
+      <c r="AI3" s="7" t="n">
+        <v>19173245.8772322</v>
+      </c>
+      <c r="AJ3" s="7" t="n">
+        <v>4567488.72715664</v>
+      </c>
+      <c r="AK3" s="7" t="n">
+        <v>5220355.19280446</v>
+      </c>
+      <c r="AL3" s="7" t="n">
+        <v>1198000.79596913</v>
+      </c>
+      <c r="AM3" s="7" t="n">
+        <v>-376444.9053</v>
+      </c>
+      <c r="AN3" s="7" t="n">
+        <v>-251339.106933721</v>
+      </c>
+      <c r="AO3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2249</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7" t="n">
+        <v>67018137.8789467</v>
+      </c>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>668</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7" t="n">
+        <v>1935305.80529714</v>
+      </c>
+      <c r="V5" s="7" t="n">
+        <v>2980225.91645666</v>
+      </c>
+      <c r="W5" s="7" t="n">
+        <v>1817575.21834059</v>
+      </c>
+      <c r="X5" s="7" t="n">
+        <v>30848560.0221571</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>39752886.0827876</v>
+      </c>
+      <c r="Z5" s="7" t="n">
+        <v>30632921.1478029</v>
+      </c>
+      <c r="AA5" s="7" t="n">
+        <v>23097785.8923567</v>
+      </c>
+      <c r="AB5" s="7" t="n">
+        <v>17858084.9920318</v>
+      </c>
+      <c r="AC5" s="7" t="n">
+        <v>323662112.402509</v>
+      </c>
+      <c r="AD5" s="7" t="n">
+        <v>912608028.11924</v>
+      </c>
+      <c r="AE5" s="7" t="n">
+        <v>413181120.023604</v>
+      </c>
+      <c r="AF5" s="7" t="n">
+        <v>377724515.476438</v>
+      </c>
+      <c r="AG5" s="7" t="n">
+        <v>354187149.665976</v>
+      </c>
+      <c r="AH5" s="7" t="n">
+        <v>624242171.877043</v>
+      </c>
+      <c r="AI5" s="7" t="n">
+        <v>153583317.06629</v>
+      </c>
+      <c r="AJ5" s="7" t="n">
+        <v>223046392.900402</v>
+      </c>
+      <c r="AK5" s="7" t="n">
+        <v>205437349.842649</v>
+      </c>
+      <c r="AL5" s="7" t="n">
+        <v>67412464.6743734</v>
+      </c>
+      <c r="AM5" s="7" t="n">
+        <v>30680273.4291</v>
+      </c>
+      <c r="AN5" s="7" t="n">
+        <v>9366596.95580044</v>
+      </c>
+      <c r="AO5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1543</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>26770544.8598804</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>15125708.9639735</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>7158636.75111334</v>
+      </c>
+      <c r="T6" s="7" t="n">
+        <v>595118.299775792</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1919</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>37441614.5848203</v>
+      </c>
+      <c r="R7" s="7" t="n">
+        <v>22076106.3689554</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>32092879.2467635</v>
+      </c>
+      <c r="T7" s="7" t="n">
+        <v>26890413.1904714</v>
+      </c>
+      <c r="U7" s="7" t="n">
+        <v>16523348.7770875</v>
+      </c>
+      <c r="V7" s="7" t="n">
+        <v>9126390.93442129</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>7290727.62254695</v>
+      </c>
+      <c r="X7" s="7" t="n">
+        <v>6832649.62805553</v>
+      </c>
+      <c r="Y7" s="7" t="n">
+        <v>2498155.53606962</v>
+      </c>
+      <c r="Z7" s="7" t="n">
+        <v>533594.560424681</v>
+      </c>
+      <c r="AA7" s="7" t="n">
+        <v>816797.53450672</v>
+      </c>
+      <c r="AB7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7" t="n">
+        <v>-42769.6058918396</v>
+      </c>
+      <c r="AD7" s="7" t="n">
+        <v>-635232.867528656</v>
+      </c>
+      <c r="AE7" s="7" t="n">
+        <v>-23556.6744750141</v>
+      </c>
+      <c r="AF7" s="7" t="n">
+        <v>-1580593.771501</v>
+      </c>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7" t="n">
+        <v>-10604.9320808798</v>
+      </c>
+      <c r="AJ7" s="7" t="n">
+        <v>-44614.208029853</v>
+      </c>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1920</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7" t="n">
+        <v>36154958.6449171</v>
+      </c>
+      <c r="U8" s="7" t="n">
+        <v>4465161.56070794</v>
+      </c>
+      <c r="V8" s="7" t="n">
+        <v>5495517.06018521</v>
+      </c>
+      <c r="W8" s="7" t="n">
+        <v>2796269.56667783</v>
+      </c>
+      <c r="X8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7" t="n">
+        <v>-71792.2304138663</v>
+      </c>
+      <c r="Z8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7" t="n">
+        <v>-2334275.09096355</v>
+      </c>
+      <c r="AC8" s="7" t="n">
+        <v>-1.43560199972609</v>
+      </c>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="7" t="n">
+        <v>211212.641246799</v>
+      </c>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2071</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7" t="n">
+        <v>1224986.20895829</v>
+      </c>
+      <c r="U9" s="7" t="n">
+        <v>14874796.2618157</v>
+      </c>
+      <c r="V9" s="7" t="n">
+        <v>5334250.72392751</v>
+      </c>
+      <c r="W9" s="7" t="n">
+        <v>6074115.47439849</v>
+      </c>
+      <c r="X9" s="7" t="n">
+        <v>3617503.22815717</v>
+      </c>
+      <c r="Y9" s="7" t="n">
+        <v>-666507.885826042</v>
+      </c>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7" t="n">
+        <v>-359067.209611681</v>
+      </c>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7" t="n">
+        <v>-62861.941219719</v>
+      </c>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1517</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>96981116.6559196</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>65293515.6186832</v>
+      </c>
+      <c r="S10" s="7" t="n">
+        <v>69746674.481667</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>20250825.5577044</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="n">
+        <v>473</v>
+      </c>
+      <c r="Q11" s="7" t="n">
+        <v>11306361.8546687</v>
+      </c>
+      <c r="R11" s="7" t="n">
+        <v>14096441.4122277</v>
+      </c>
+      <c r="S11" s="7" t="n">
+        <v>745999.753727571</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" t="n">
+        <v>617</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7" t="n">
+        <v>31836938.0535515</v>
+      </c>
+      <c r="V12" s="7" t="n">
+        <v>49149119.0834142</v>
+      </c>
+      <c r="W12" s="7" t="n">
+        <v>23409320.2111393</v>
+      </c>
+      <c r="X12" s="7" t="n">
+        <v>45172797.4608941</v>
+      </c>
+      <c r="Y12" s="7" t="n">
+        <v>43672449.038877</v>
+      </c>
+      <c r="Z12" s="7" t="n">
+        <v>38690917.4443629</v>
+      </c>
+      <c r="AA12" s="7" t="n">
+        <v>40956116.7873825</v>
+      </c>
+      <c r="AB12" s="7" t="n">
+        <v>34724068.571419</v>
+      </c>
+      <c r="AC12" s="7" t="n">
+        <v>30257635.7273918</v>
+      </c>
+      <c r="AD12" s="7" t="n">
+        <v>41853289.1410341</v>
+      </c>
+      <c r="AE12" s="7" t="n">
+        <v>8134919.07268691</v>
+      </c>
+      <c r="AF12" s="7" t="n">
+        <v>14869351.1812922</v>
+      </c>
+      <c r="AG12" s="7" t="n">
+        <v>13960252.9232081</v>
+      </c>
+      <c r="AH12" s="7" t="n">
+        <v>2767894.65242456</v>
+      </c>
+      <c r="AI12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="7" t="n">
+        <v>-377193.508384657</v>
+      </c>
+      <c r="AK12" s="7" t="n">
+        <v>-12007.2492222364</v>
+      </c>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="O13" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1794</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7" t="n">
+        <v>360082.879793912</v>
+      </c>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7" t="n">
+        <v>6048.74796347701</v>
+      </c>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7" t="n">
+        <v>417967.966420252</v>
+      </c>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="O15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1641</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>47359285.5448533</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>37452719.3819228</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>23548051.2098002</v>
+      </c>
+      <c r="T15" s="7" t="n">
+        <v>11178821.6484861</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="O16" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" t="n">
+        <v>618</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7" t="n">
+        <v>40552.3449287311</v>
+      </c>
+      <c r="Y16" s="7" t="n">
+        <v>396386.06987268</v>
+      </c>
+      <c r="Z16" s="7" t="n">
+        <v>250722.515226877</v>
+      </c>
+      <c r="AA16" s="7" t="n">
+        <v>103753.094038677</v>
+      </c>
+      <c r="AB16" s="7" t="n">
+        <v>70836.2661590359</v>
+      </c>
+      <c r="AC16" s="7" t="n">
+        <v>-8594.47063836018</v>
+      </c>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7" t="n">
+        <v>1768490.94850235</v>
+      </c>
+      <c r="V17" s="7" t="n">
+        <v>1358282.74142862</v>
+      </c>
+      <c r="W17" s="7" t="n">
+        <v>1240848270.19808</v>
+      </c>
+      <c r="X17" s="7" t="n">
+        <v>420839197.479246</v>
+      </c>
+      <c r="Y17" s="7" t="n">
+        <v>1936653320.37506</v>
+      </c>
+      <c r="Z17" s="7" t="n">
+        <v>1858489242.65625</v>
+      </c>
+      <c r="AA17" s="7" t="n">
+        <v>1712516251.48942</v>
+      </c>
+      <c r="AB17" s="7" t="n">
+        <v>2148839739.95142</v>
+      </c>
+      <c r="AC17" s="7" t="n">
+        <v>3098427084.38996</v>
+      </c>
+      <c r="AD17" s="7" t="n">
+        <v>1601837776.95923</v>
+      </c>
+      <c r="AE17" s="7" t="n">
+        <v>3123950210.45184</v>
+      </c>
+      <c r="AF17" s="7" t="n">
+        <v>2122920460.39838</v>
+      </c>
+      <c r="AG17" s="7" t="n">
+        <v>1923576561.08127</v>
+      </c>
+      <c r="AH17" s="7" t="n">
+        <v>2448144362.85241</v>
+      </c>
+      <c r="AI17" s="7" t="n">
+        <v>1774529827.13142</v>
+      </c>
+      <c r="AJ17" s="7" t="n">
+        <v>1429183326.40534</v>
+      </c>
+      <c r="AK17" s="7" t="n">
+        <v>639074785.346988</v>
+      </c>
+      <c r="AL17" s="7" t="n">
+        <v>427833290.379516</v>
+      </c>
+      <c r="AM17" s="7" t="n">
+        <v>478920083.1773</v>
+      </c>
+      <c r="AN17" s="7" t="n">
+        <v>202986861.343484</v>
+      </c>
+      <c r="AO17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1521</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>131326292.854271</v>
+      </c>
+      <c r="R18" s="7" t="n">
+        <v>622900543.562025</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="O19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1937</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>186458044.572078</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>260977584.542016</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <v>360882337.544434</v>
+      </c>
+      <c r="T19" s="7" t="n">
+        <v>324437792.951063</v>
+      </c>
+      <c r="U19" s="7" t="n">
+        <v>224872613.385901</v>
+      </c>
+      <c r="V19" s="7" t="n">
+        <v>549124005.987974</v>
+      </c>
+      <c r="W19" s="7" t="n">
+        <v>651698810.309636</v>
+      </c>
+      <c r="X19" s="7" t="n">
+        <v>372076863.02494</v>
+      </c>
+      <c r="Y19" s="7" t="n">
+        <v>417343573.065009</v>
+      </c>
+      <c r="Z19" s="7" t="n">
+        <v>317009354.430101</v>
+      </c>
+      <c r="AA19" s="7" t="n">
+        <v>275080213.769432</v>
+      </c>
+      <c r="AB19" s="7" t="n">
+        <v>240594755.362259</v>
+      </c>
+      <c r="AC19" s="7" t="n">
+        <v>133840791.149759</v>
+      </c>
+      <c r="AD19" s="7" t="n">
+        <v>24511805.8286679</v>
+      </c>
+      <c r="AE19" s="7" t="n">
+        <v>-4992251.8352508</v>
+      </c>
+      <c r="AF19" s="7" t="n">
+        <v>-4127870.01534899</v>
+      </c>
+      <c r="AG19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="7" t="n">
+        <v>-3652070.48783529</v>
+      </c>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="O20" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" t="n">
+        <v>648</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7" t="n">
+        <v>2408849.31202222</v>
+      </c>
+      <c r="V20" s="7" t="n">
+        <v>46986219.7224879</v>
+      </c>
+      <c r="W20" s="7" t="n">
+        <v>23121809.1724283</v>
+      </c>
+      <c r="X20" s="7" t="n">
+        <v>9256112.19367425</v>
+      </c>
+      <c r="Y20" s="7" t="n">
+        <v>29422937.1325328</v>
+      </c>
+      <c r="Z20" s="7" t="n">
+        <v>53274568.7167687</v>
+      </c>
+      <c r="AA20" s="7" t="n">
+        <v>52853580.9522683</v>
+      </c>
+      <c r="AB20" s="7" t="n">
+        <v>50818499.1714928</v>
+      </c>
+      <c r="AC20" s="7" t="n">
+        <v>99570185.5001538</v>
+      </c>
+      <c r="AD20" s="7" t="n">
+        <v>55002261.8118732</v>
+      </c>
+      <c r="AE20" s="7" t="n">
+        <v>26111219.3863776</v>
+      </c>
+      <c r="AF20" s="7" t="n">
+        <v>42004624.7229384</v>
+      </c>
+      <c r="AG20" s="7" t="n">
+        <v>21835519.8092767</v>
+      </c>
+      <c r="AH20" s="7" t="n">
+        <v>8237572.10538511</v>
+      </c>
+      <c r="AI20" s="7" t="n">
+        <v>14440366.6379096</v>
+      </c>
+      <c r="AJ20" s="7" t="n">
+        <v>10570965.5965545</v>
+      </c>
+      <c r="AK20" s="7" t="n">
+        <v>8225486.23121455</v>
+      </c>
+      <c r="AL20" s="7" t="n">
+        <v>-134.730236960461</v>
+      </c>
+      <c r="AM20" s="7" t="n">
+        <v>-722866.1666</v>
+      </c>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="O21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2187</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7" t="n">
+        <v>121575390.62278</v>
+      </c>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="O22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2229</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="O23" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1607</v>
+      </c>
+      <c r="Q23" s="7" t="n">
+        <v>-105368.219465647</v>
+      </c>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7" t="n">
+        <v>2748993.69068756</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="O24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" t="n">
+        <v>696</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7" t="n">
+        <v>60368240.1132539</v>
+      </c>
+      <c r="Y24" s="7" t="n">
+        <v>26149484.8875809</v>
+      </c>
+      <c r="Z24" s="7" t="n">
+        <v>4565181.75534446</v>
+      </c>
+      <c r="AA24" s="7" t="n">
+        <v>8153168.43156986</v>
+      </c>
+      <c r="AB24" s="7" t="n">
+        <v>4789089.6853852</v>
+      </c>
+      <c r="AC24" s="7" t="n">
+        <v>23060.2254079501</v>
+      </c>
+      <c r="AD24" s="7" t="n">
+        <v>497412.988092724</v>
+      </c>
+      <c r="AE24" s="7" t="n">
+        <v>29914922.6382772</v>
+      </c>
+      <c r="AF24" s="7" t="n">
+        <v>11647480.8871149</v>
+      </c>
+      <c r="AG24" s="7" t="n">
+        <v>70225603.9430789</v>
+      </c>
+      <c r="AH24" s="7" t="n">
+        <v>59358182.5086766</v>
+      </c>
+      <c r="AI24" s="7" t="n">
+        <v>60251624.6248368</v>
+      </c>
+      <c r="AJ24" s="7" t="n">
+        <v>108387948.744048</v>
+      </c>
+      <c r="AK24" s="7" t="n">
+        <v>60515172.8633949</v>
+      </c>
+      <c r="AL24" s="7" t="n">
+        <v>53311723.4655984</v>
+      </c>
+      <c r="AM24" s="7" t="n">
+        <v>6893727.9219</v>
+      </c>
+      <c r="AN24" s="7" t="n">
+        <v>-63729.558885828</v>
+      </c>
+      <c r="AO24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="O25" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1524</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7" t="n">
+        <v>-3968662.95591347</v>
+      </c>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="O26" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1539</v>
+      </c>
+      <c r="Q26" s="7" t="n">
+        <v>57001317.8055859</v>
+      </c>
+      <c r="R26" s="7" t="n">
+        <v>56378152.7442341</v>
+      </c>
+      <c r="S26" s="7" t="n">
+        <v>57032780.7499361</v>
+      </c>
+      <c r="T26" s="7" t="n">
+        <v>17352856.8598063</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1869</v>
+      </c>
+      <c r="Q27" s="7" t="n">
+        <v>569905946.899646</v>
+      </c>
+      <c r="R27" s="7" t="n">
+        <v>566223400.533144</v>
+      </c>
+      <c r="S27" s="7" t="n">
+        <v>213565902.971437</v>
+      </c>
+      <c r="T27" s="7" t="n">
+        <v>88392976.4267451</v>
+      </c>
+      <c r="U27" s="7" t="n">
+        <v>233465805.267387</v>
+      </c>
+      <c r="V27" s="7" t="n">
+        <v>340735407.206551</v>
+      </c>
+      <c r="W27" s="7" t="n">
+        <v>319599291.774826</v>
+      </c>
+      <c r="X27" s="7" t="n">
+        <v>503572863.539307</v>
+      </c>
+      <c r="Y27" s="7" t="n">
+        <v>476759490.473703</v>
+      </c>
+      <c r="Z27" s="7" t="n">
+        <v>340334859.145447</v>
+      </c>
+      <c r="AA27" s="7" t="n">
+        <v>127036919.084377</v>
+      </c>
+      <c r="AB27" s="7" t="n">
+        <v>136503426.137113</v>
+      </c>
+      <c r="AC27" s="7" t="n">
+        <v>113523328.854624</v>
+      </c>
+      <c r="AD27" s="7" t="n">
+        <v>134779805.843567</v>
+      </c>
+      <c r="AE27" s="7" t="n">
+        <v>98332995.0232779</v>
+      </c>
+      <c r="AF27" s="7" t="n">
+        <v>41953222.3172083</v>
+      </c>
+      <c r="AG27" s="7" t="n">
+        <v>-40073.3009195112</v>
+      </c>
+      <c r="AH27" s="7" t="n">
+        <v>23465.988817402</v>
+      </c>
+      <c r="AI27" s="7" t="n">
+        <v>-19077.1280472261</v>
+      </c>
+      <c r="AJ27" s="7" t="n">
+        <v>-1421.33799740243</v>
+      </c>
+      <c r="AK27" s="7" t="n">
+        <v>-769911.597582044</v>
+      </c>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1343</v>
+      </c>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7" t="n">
+        <v>69911528.4482281</v>
+      </c>
+      <c r="V28" s="7" t="n">
+        <v>523016412.911798</v>
+      </c>
+      <c r="W28" s="7" t="n">
+        <v>590726926.974896</v>
+      </c>
+      <c r="X28" s="7" t="n">
+        <v>815729108.296692</v>
+      </c>
+      <c r="Y28" s="7" t="n">
+        <v>842021257.959759</v>
+      </c>
+      <c r="Z28" s="7" t="n">
+        <v>1145788058.40686</v>
+      </c>
+      <c r="AA28" s="7" t="n">
+        <v>560713579.281897</v>
+      </c>
+      <c r="AB28" s="7" t="n">
+        <v>986974000.487082</v>
+      </c>
+      <c r="AC28" s="7" t="n">
+        <v>372318672.92659</v>
+      </c>
+      <c r="AD28" s="7" t="n">
+        <v>692743891.977936</v>
+      </c>
+      <c r="AE28" s="7" t="n">
+        <v>115773775.472027</v>
+      </c>
+      <c r="AF28" s="7" t="n">
+        <v>102885079.089486</v>
+      </c>
+      <c r="AG28" s="7" t="n">
+        <v>107223940.254083</v>
+      </c>
+      <c r="AH28" s="7" t="n">
+        <v>79649322.3793766</v>
+      </c>
+      <c r="AI28" s="7" t="n">
+        <v>89056331.7781561</v>
+      </c>
+      <c r="AJ28" s="7" t="n">
+        <v>115103748.574685</v>
+      </c>
+      <c r="AK28" s="7" t="n">
+        <v>23554859.480102</v>
+      </c>
+      <c r="AL28" s="7" t="n">
+        <v>528969.462553472</v>
+      </c>
+      <c r="AM28" s="7" t="n">
+        <v>6013449.3887</v>
+      </c>
+      <c r="AN28" s="7" t="n">
+        <v>1669410.93704902</v>
+      </c>
+      <c r="AO28" s="7"/>
+    </row>
+    <row r="29">
+      <c r="O29" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2247</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7" t="n">
+        <v>54959927.0160383</v>
+      </c>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="O30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1613</v>
+      </c>
+      <c r="Q30" s="7" t="n">
+        <v>32176330.0491843</v>
+      </c>
+      <c r="R30" s="7" t="n">
+        <v>115877438.658192</v>
+      </c>
+      <c r="S30" s="7" t="n">
+        <v>114372337.47792</v>
+      </c>
+      <c r="T30" s="7" t="n">
+        <v>385024840.210617</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="O31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7" t="n">
+        <v>332778198.610471</v>
+      </c>
+      <c r="V31" s="7" t="n">
+        <v>336428093.039556</v>
+      </c>
+      <c r="W31" s="7" t="n">
+        <v>349605074.809823</v>
+      </c>
+      <c r="X31" s="7" t="n">
+        <v>492521601.386627</v>
+      </c>
+      <c r="Y31" s="7" t="n">
+        <v>916462229.261514</v>
+      </c>
+      <c r="Z31" s="7" t="n">
+        <v>1202183745.4672</v>
+      </c>
+      <c r="AA31" s="7" t="n">
+        <v>1364669487.44071</v>
+      </c>
+      <c r="AB31" s="7" t="n">
+        <v>1259687640.4859</v>
+      </c>
+      <c r="AC31" s="7" t="n">
+        <v>1562067196.46459</v>
+      </c>
+      <c r="AD31" s="7" t="n">
+        <v>1106541664.85067</v>
+      </c>
+      <c r="AE31" s="7" t="n">
+        <v>1649243167.83127</v>
+      </c>
+      <c r="AF31" s="7" t="n">
+        <v>819459111.660537</v>
+      </c>
+      <c r="AG31" s="7" t="n">
+        <v>1209815521.02632</v>
+      </c>
+      <c r="AH31" s="7" t="n">
+        <v>732685398.22564</v>
+      </c>
+      <c r="AI31" s="7" t="n">
+        <v>810180200.705654</v>
+      </c>
+      <c r="AJ31" s="7" t="n">
+        <v>619727101.742497</v>
+      </c>
+      <c r="AK31" s="7" t="n">
+        <v>540492754.465256</v>
+      </c>
+      <c r="AL31" s="7" t="n">
+        <v>393818532.451407</v>
+      </c>
+      <c r="AM31" s="7" t="n">
+        <v>362597635.0343</v>
+      </c>
+      <c r="AN31" s="7" t="n">
+        <v>171270121.947005</v>
+      </c>
+      <c r="AO31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="O32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1829</v>
+      </c>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7" t="n">
+        <v>37069484.2500111</v>
+      </c>
+      <c r="V32" s="7" t="n">
+        <v>6536514.81395521</v>
+      </c>
+      <c r="W32" s="7" t="n">
+        <v>23823087.0151902</v>
+      </c>
+      <c r="X32" s="7" t="n">
+        <v>40653736.6775885</v>
+      </c>
+      <c r="Y32" s="7" t="n">
+        <v>19867550.993062</v>
+      </c>
+      <c r="Z32" s="7" t="n">
+        <v>6205878.70139733</v>
+      </c>
+      <c r="AA32" s="7" t="n">
+        <v>1189194.69265569</v>
+      </c>
+      <c r="AB32" s="7" t="n">
+        <v>-56424.8472246928</v>
+      </c>
+      <c r="AC32" s="7" t="n">
+        <v>-89935.4017634703</v>
+      </c>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="O33" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" t="n">
+        <v>695</v>
+      </c>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7" t="n">
+        <v>41002852.6134826</v>
+      </c>
+      <c r="V33" s="7" t="n">
+        <v>38421772.8260826</v>
+      </c>
+      <c r="W33" s="7" t="n">
+        <v>36120500.3435042</v>
+      </c>
+      <c r="X33" s="7" t="n">
+        <v>50523638.1670702</v>
+      </c>
+      <c r="Y33" s="7" t="n">
+        <v>98071588.455892</v>
+      </c>
+      <c r="Z33" s="7" t="n">
+        <v>106013379.296477</v>
+      </c>
+      <c r="AA33" s="7" t="n">
+        <v>130135164.647922</v>
+      </c>
+      <c r="AB33" s="7" t="n">
+        <v>186804416.384077</v>
+      </c>
+      <c r="AC33" s="7" t="n">
+        <v>150857208.823307</v>
+      </c>
+      <c r="AD33" s="7" t="n">
+        <v>158328283.678018</v>
+      </c>
+      <c r="AE33" s="7" t="n">
+        <v>182792636.249314</v>
+      </c>
+      <c r="AF33" s="7" t="n">
+        <v>93088725.4569878</v>
+      </c>
+      <c r="AG33" s="7" t="n">
+        <v>9268708.82269815</v>
+      </c>
+      <c r="AH33" s="7" t="n">
+        <v>989840.862954311</v>
+      </c>
+      <c r="AI33" s="7" t="n">
+        <v>842996.037010992</v>
+      </c>
+      <c r="AJ33" s="7" t="n">
+        <v>4424583.3169887</v>
+      </c>
+      <c r="AK33" s="7" t="n">
+        <v>1453557.40800003</v>
+      </c>
+      <c r="AL33" s="7" t="n">
+        <v>-76714.0335836031</v>
+      </c>
+      <c r="AM33" s="7" t="n">
+        <v>-962030.7735</v>
+      </c>
+      <c r="AN33" s="7" t="n">
+        <v>-9378.29896504797</v>
+      </c>
+      <c r="AO33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="O34" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" t="n">
+        <v>609</v>
+      </c>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7" t="n">
+        <v>147407.351328679</v>
+      </c>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="O35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7" t="n">
+        <v>4026314.99680378</v>
+      </c>
+      <c r="V35" s="7" t="n">
+        <v>37939.2456771056</v>
+      </c>
+      <c r="W35" s="7" t="n">
+        <v>1507144.55612629</v>
+      </c>
+      <c r="X35" s="7" t="n">
+        <v>3364164.02015895</v>
+      </c>
+      <c r="Y35" s="7" t="n">
+        <v>509941.18439819</v>
+      </c>
+      <c r="Z35" s="7" t="n">
+        <v>8052518.78256904</v>
+      </c>
+      <c r="AA35" s="7" t="n">
+        <v>3154715.2601363</v>
+      </c>
+      <c r="AB35" s="7" t="n">
+        <v>-470358.42438954</v>
+      </c>
+      <c r="AC35" s="7" t="n">
+        <v>-19283.0558026708</v>
+      </c>
+      <c r="AD35" s="7" t="n">
+        <v>9368966.92208452</v>
+      </c>
+      <c r="AE35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="O36" t="s">
+        <v>123</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1731</v>
+      </c>
+      <c r="Q36" s="7" t="n">
+        <v>38438995.0501625</v>
+      </c>
+      <c r="R36" s="7" t="n">
+        <v>101533125.108034</v>
+      </c>
+      <c r="S36" s="7" t="n">
+        <v>201955448.929059</v>
+      </c>
+      <c r="T36" s="7" t="n">
+        <v>4238967.76702789</v>
+      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="O37" t="s">
+        <v>124</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2258</v>
+      </c>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7" t="n">
+        <v>742409.569952965</v>
+      </c>
+      <c r="X37" s="7" t="n">
+        <v>3512035.83255276</v>
+      </c>
+      <c r="Y37" s="7" t="n">
+        <v>79980.946299125</v>
+      </c>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7" t="n">
+        <v>-11550.1952673249</v>
+      </c>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="O38" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7" t="n">
+        <v>-1703614.39769974</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="O39" t="s">
+        <v>126</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2114</v>
+      </c>
+      <c r="Q39" s="7" t="n">
+        <v>35642335.9856673</v>
+      </c>
+      <c r="R39" s="7" t="n">
+        <v>49938405.1966085</v>
+      </c>
+      <c r="S39" s="7" t="n">
+        <v>202026580.976414</v>
+      </c>
+      <c r="T39" s="7" t="n">
+        <v>147483762.252986</v>
+      </c>
+      <c r="U39" s="7" t="n">
+        <v>36310053.1662299</v>
+      </c>
+      <c r="V39" s="7" t="n">
+        <v>21453411.9929389</v>
+      </c>
+      <c r="W39" s="7" t="n">
+        <v>5938465.64144938</v>
+      </c>
+      <c r="X39" s="7" t="n">
+        <v>3264102.13646409</v>
+      </c>
+      <c r="Y39" s="7" t="n">
+        <v>-13063.1562570779</v>
+      </c>
+      <c r="Z39" s="7" t="n">
+        <v>-77009.3180269225</v>
+      </c>
+      <c r="AA39" s="7" t="n">
+        <v>-143169.824923953</v>
+      </c>
+      <c r="AB39" s="7" t="n">
+        <v>-103680.835924263</v>
+      </c>
+      <c r="AC39" s="7" t="n">
+        <v>-511727.534487202</v>
+      </c>
+      <c r="AD39" s="7" t="n">
+        <v>-28048.6660250441</v>
+      </c>
+      <c r="AE39" s="7" t="n">
+        <v>-134193.495084635</v>
+      </c>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="O40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P40" t="n">
+        <v>622</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7" t="n">
+        <v>19364339.0962001</v>
+      </c>
+      <c r="V40" s="7" t="n">
+        <v>54042411.251973</v>
+      </c>
+      <c r="W40" s="7" t="n">
+        <v>47435977.0489185</v>
+      </c>
+      <c r="X40" s="7" t="n">
+        <v>61202158.0601237</v>
+      </c>
+      <c r="Y40" s="7" t="n">
+        <v>323972014.295112</v>
+      </c>
+      <c r="Z40" s="7" t="n">
+        <v>2056975189.79804</v>
+      </c>
+      <c r="AA40" s="7" t="n">
+        <v>925392036.144809</v>
+      </c>
+      <c r="AB40" s="7" t="n">
+        <v>637364986.431408</v>
+      </c>
+      <c r="AC40" s="7" t="n">
+        <v>535301450.023251</v>
+      </c>
+      <c r="AD40" s="7" t="n">
+        <v>1011611287.43324</v>
+      </c>
+      <c r="AE40" s="7" t="n">
+        <v>1340804835.93038</v>
+      </c>
+      <c r="AF40" s="7" t="n">
+        <v>843534510.69959</v>
+      </c>
+      <c r="AG40" s="7" t="n">
+        <v>968146264.946651</v>
+      </c>
+      <c r="AH40" s="7" t="n">
+        <v>505295908.822272</v>
+      </c>
+      <c r="AI40" s="7" t="n">
+        <v>581864780.359164</v>
+      </c>
+      <c r="AJ40" s="7" t="n">
+        <v>858875918.555725</v>
+      </c>
+      <c r="AK40" s="7" t="n">
+        <v>476339964.348282</v>
+      </c>
+      <c r="AL40" s="7" t="n">
+        <v>341192641.337707</v>
+      </c>
+      <c r="AM40" s="7" t="n">
+        <v>400697867.3355</v>
+      </c>
+      <c r="AN40" s="7" t="n">
+        <v>210992994.174736</v>
+      </c>
+      <c r="AO40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="O41" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1354</v>
+      </c>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7" t="n">
+        <v>92021373.5904739</v>
+      </c>
+      <c r="V41" s="7" t="n">
+        <v>61583468.651059</v>
+      </c>
+      <c r="W41" s="7" t="n">
+        <v>90862076.97466</v>
+      </c>
+      <c r="X41" s="7" t="n">
+        <v>206035212.543059</v>
+      </c>
+      <c r="Y41" s="7" t="n">
+        <v>40505971.6767127</v>
+      </c>
+      <c r="Z41" s="7" t="n">
+        <v>-516.90286419729</v>
+      </c>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7" t="n">
+        <v>-213454.067784639</v>
+      </c>
+      <c r="AC41" s="7" t="n">
+        <v>57452.844415918</v>
+      </c>
+      <c r="AD41" s="7" t="n">
+        <v>18913.615036274</v>
+      </c>
+      <c r="AE41" s="7" t="n">
+        <v>-156329.07741292</v>
+      </c>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="O42" t="s">
+        <v>128</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1545</v>
+      </c>
+      <c r="Q42" s="7" t="n">
+        <v>1528593.72818512</v>
+      </c>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="O43" t="s">
+        <v>129</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1541</v>
+      </c>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7" t="n">
+        <v>110785.477123759</v>
+      </c>
+      <c r="T43" s="7" t="n">
+        <v>22526892.9732389</v>
+      </c>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7" t="n">
+        <v>-29725.0890035645</v>
+      </c>
+      <c r="AA43" s="7" t="n">
+        <v>-246589.332538255</v>
+      </c>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="O44" t="s">
+        <v>130</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1542</v>
+      </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7" t="n">
+        <v>586677.759234494</v>
+      </c>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7" t="n">
+        <v>-202.644473221878</v>
+      </c>
+      <c r="AB44" s="7" t="n">
+        <v>-56753.7032887175</v>
+      </c>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="O45" t="s">
+        <v>131</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1961</v>
+      </c>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7" t="n">
+        <v>526828.58094403</v>
+      </c>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7" t="n">
+        <v>378458.161089743</v>
+      </c>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7" t="n">
+        <v>15339.1202374523</v>
+      </c>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7" t="n">
+        <v>-8390.9161126048</v>
+      </c>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="O46" t="s">
+        <v>132</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1978</v>
+      </c>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7" t="n">
+        <v>366989.31952655</v>
+      </c>
+      <c r="V46" s="7" t="n">
+        <v>-90820.3175626602</v>
+      </c>
+      <c r="W46" s="7" t="n">
+        <v>1307426.59486545</v>
+      </c>
+      <c r="X46" s="7" t="n">
+        <v>1528541.77852809</v>
+      </c>
+      <c r="Y46" s="7" t="n">
+        <v>6030099.8677687</v>
+      </c>
+      <c r="Z46" s="7" t="n">
+        <v>6842452.81893593</v>
+      </c>
+      <c r="AA46" s="7" t="n">
+        <v>1946794.88219277</v>
+      </c>
+      <c r="AB46" s="7" t="n">
+        <v>1287739.60524441</v>
+      </c>
+      <c r="AC46" s="7" t="n">
+        <v>1067167.45761872</v>
+      </c>
+      <c r="AD46" s="7" t="n">
+        <v>174422.473339918</v>
+      </c>
+      <c r="AE46" s="7" t="n">
+        <v>-5176.8998035771</v>
+      </c>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="7" t="n">
+        <v>-166140.422175397</v>
+      </c>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="O47" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7" t="n">
+        <v>-2331472.65358124</v>
+      </c>
+      <c r="U47" s="7" t="n">
+        <v>85648919.922666</v>
+      </c>
+      <c r="V47" s="7" t="n">
+        <v>1427762.95512527</v>
+      </c>
+      <c r="W47" s="7" t="n">
+        <v>4515279.0790626</v>
+      </c>
+      <c r="X47" s="7" t="n">
+        <v>312408684.420204</v>
+      </c>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7" t="n">
+        <v>-48243.6304895651</v>
+      </c>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7" t="n">
+        <v>-8313680.60484552</v>
+      </c>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1550</v>
+      </c>
+      <c r="Q48" s="7" t="n">
+        <v>428031530.067112</v>
+      </c>
+      <c r="R48" s="7" t="n">
+        <v>430601847.84915</v>
+      </c>
+      <c r="S48" s="7" t="n">
+        <v>409287535.813702</v>
+      </c>
+      <c r="T48" s="7" t="n">
+        <v>158107385.594576</v>
+      </c>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7" t="n">
+        <v>-9391934.71752172</v>
+      </c>
+      <c r="AB48" s="7" t="n">
+        <v>-1760242.68344745</v>
+      </c>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="O49" t="s">
+        <v>134</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1376</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="O50" t="s">
+        <v>135</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1809</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7" t="n">
+        <v>-1509249.78777489</v>
+      </c>
+      <c r="Z50" s="7" t="n">
+        <v>245691.419457189</v>
+      </c>
+      <c r="AA50" s="7" t="n">
+        <v>305139.015436481</v>
+      </c>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7" t="n">
+        <v>16763.8015968015</v>
+      </c>
+      <c r="AD50" s="7" t="n">
+        <v>87390.9679529</v>
+      </c>
+      <c r="AE50" s="7" t="n">
+        <v>76633.2578097073</v>
+      </c>
+      <c r="AF50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="O51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1325</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7" t="n">
+        <v>66936.5697908567</v>
+      </c>
+      <c r="V51" s="7" t="n">
+        <v>2654599.49190601</v>
+      </c>
+      <c r="W51" s="7" t="n">
+        <v>168070274.448615</v>
+      </c>
+      <c r="X51" s="7" t="n">
+        <v>565334257.139338</v>
+      </c>
+      <c r="Y51" s="7" t="n">
+        <v>396729137.906935</v>
+      </c>
+      <c r="Z51" s="7" t="n">
+        <v>394643411.432327</v>
+      </c>
+      <c r="AA51" s="7" t="n">
+        <v>298031415.470847</v>
+      </c>
+      <c r="AB51" s="7" t="n">
+        <v>692980921.018831</v>
+      </c>
+      <c r="AC51" s="7" t="n">
+        <v>1449302895.25298</v>
+      </c>
+      <c r="AD51" s="7" t="n">
+        <v>61627451.5725723</v>
+      </c>
+      <c r="AE51" s="7" t="n">
+        <v>-39026778.5049622</v>
+      </c>
+      <c r="AF51" s="7" t="n">
+        <v>30239310.104795</v>
+      </c>
+      <c r="AG51" s="7" t="n">
+        <v>95889872.8137215</v>
+      </c>
+      <c r="AH51" s="7" t="n">
+        <v>70835808.5477712</v>
+      </c>
+      <c r="AI51" s="7" t="n">
+        <v>49464603.8223873</v>
+      </c>
+      <c r="AJ51" s="7" t="n">
+        <v>369286881.545201</v>
+      </c>
+      <c r="AK51" s="7" t="n">
+        <v>356222420.416291</v>
+      </c>
+      <c r="AL51" s="7" t="n">
+        <v>84556993.2013925</v>
+      </c>
+      <c r="AM51" s="7" t="n">
+        <v>9410550.8594</v>
+      </c>
+      <c r="AN51" s="7" t="n">
+        <v>44560853.4329992</v>
+      </c>
+      <c r="AO51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="O52" t="s">
+        <v>136</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2015</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7" t="n">
+        <v>23017638.9470754</v>
+      </c>
+      <c r="AE52" s="7" t="n">
+        <v>22903954.2929907</v>
+      </c>
+      <c r="AF52" s="7" t="n">
+        <v>50415963.378582</v>
+      </c>
+      <c r="AG52" s="7" t="n">
+        <v>29908779.9218055</v>
+      </c>
+      <c r="AH52" s="7" t="n">
+        <v>28777584.6642818</v>
+      </c>
+      <c r="AI52" s="7" t="n">
+        <v>38122046.4109397</v>
+      </c>
+      <c r="AJ52" s="7" t="n">
+        <v>31684119.2526189</v>
+      </c>
+      <c r="AK52" s="7" t="n">
+        <v>26042979.10961</v>
+      </c>
+      <c r="AL52" s="7" t="n">
+        <v>25253487.6295872</v>
+      </c>
+      <c r="AM52" s="7" t="n">
+        <v>31203622.9963</v>
+      </c>
+      <c r="AN52" s="7" t="n">
+        <v>28749658.770284</v>
+      </c>
+      <c r="AO52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53" s="7" t="n">
+        <v>3442205305.42089</v>
+      </c>
+      <c r="R53" s="7" t="n">
+        <v>4194715671.48198</v>
+      </c>
+      <c r="S53" s="7" t="n">
+        <v>5287857552.50624</v>
+      </c>
+      <c r="T53" s="7" t="n">
+        <v>6815453907.52333</v>
+      </c>
+      <c r="U53" s="7" t="n">
+        <v>8088715953.88175</v>
+      </c>
+      <c r="V53" s="7" t="n">
+        <v>7359615315.95048</v>
+      </c>
+      <c r="W53" s="7" t="n">
+        <v>7602426788.62289</v>
+      </c>
+      <c r="X53" s="7" t="n">
+        <v>7163421783.72589</v>
+      </c>
+      <c r="Y53" s="7" t="n">
+        <v>7152331467.70898</v>
+      </c>
+      <c r="Z53" s="7" t="n">
+        <v>6128253895.80977</v>
+      </c>
+      <c r="AA53" s="7" t="n">
+        <v>6374586097.94928</v>
+      </c>
+      <c r="AB53" s="7" t="n">
+        <v>6812534875.58817</v>
+      </c>
+      <c r="AC53" s="7" t="n">
+        <v>4659201322.05218</v>
+      </c>
+      <c r="AD53" s="7" t="n">
+        <v>3529095857.2766</v>
+      </c>
+      <c r="AE53" s="7" t="n">
+        <v>2556113199.31037</v>
+      </c>
+      <c r="AF53" s="7" t="n">
+        <v>2605080932.23353</v>
+      </c>
+      <c r="AG53" s="7" t="n">
+        <v>2400757636.81787</v>
+      </c>
+      <c r="AH53" s="7" t="n">
+        <v>2498045333.52179</v>
+      </c>
+      <c r="AI53" s="7" t="n">
+        <v>3201435325.40239</v>
+      </c>
+      <c r="AJ53" s="7" t="n">
+        <v>4307969904.13254</v>
+      </c>
+      <c r="AK53" s="7" t="n">
+        <v>5523337630.37576</v>
+      </c>
+      <c r="AL53" s="7" t="n">
+        <v>2481210754.75252</v>
+      </c>
+      <c r="AM53" s="7" t="n">
+        <v>3318700267.4031</v>
+      </c>
+      <c r="AN53" s="7" t="n">
+        <v>1933602385.24115</v>
+      </c>
+      <c r="AO53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="P54" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="P55" t="str">
+        <f>Sum(A2:A53)</f>
+      </c>
+    </row>
+    <row r="56">
+      <c r="P56" t="str">
+        <f>Sum(B2:B53)</f>
+      </c>
+    </row>
+    <row r="57">
+      <c r="P57" t="str">
+        <f>Sum(C2:C53)</f>
+      </c>
+    </row>
+    <row r="58">
+      <c r="P58" t="str">
+        <f>Sum(D2:D53)</f>
+      </c>
+    </row>
+    <row r="59">
+      <c r="P59" t="str">
+        <f>Sum(E2:E53)</f>
+      </c>
+    </row>
+    <row r="60">
+      <c r="P60" t="str">
+        <f>Sum(F2:F53)</f>
+      </c>
+    </row>
+    <row r="61">
+      <c r="P61" t="str">
+        <f>Sum(G2:G53)</f>
+      </c>
+    </row>
+    <row r="62">
+      <c r="P62" t="str">
+        <f>Sum(H2:H53)</f>
+      </c>
+    </row>
+    <row r="63">
+      <c r="P63" t="str">
+        <f>Sum(I2:I53)</f>
+      </c>
+    </row>
+    <row r="64">
+      <c r="P64" t="str">
+        <f>Sum(J2:J53)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -479,14 +479,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -525,7 +525,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -533,7 +533,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1885,11 +1885,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>38</v>
       </c>
@@ -2000,528 +2009,684 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="10" t="n">
         <v>4730619000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="10" t="n">
         <v>4139009000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="10" t="n">
         <v>2756495422</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="10" t="n">
         <v>3425892281</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="10" t="n">
         <v>3326827710</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="10" t="n">
         <v>2805711765</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="10" t="n">
         <v>2485253407</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="10" t="n">
         <v>2731973004</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="10" t="n">
         <v>3251230136</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="10" t="n">
         <v>3198498920</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="10" t="n">
         <v>2947261480</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="10" t="n">
         <v>3838784962</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="10" t="n">
         <v>4026203905</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="10" t="n">
         <v>4384296455</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="10" t="n">
         <v>5102620910</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="10" t="n">
         <v>4993848600</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="10" t="n">
         <v>6377188801.375</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="10" t="n">
         <v>6083706599.1223</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="10" t="n">
         <v>7476462323.4521</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="10" t="n">
         <v>8425205638.3922</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="10" t="n">
         <v>7473762009.8721</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>8225319522.8842</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="10" t="n">
         <v>8583466441.7367</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="10" t="n">
         <v>6101734807.8251</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="10" t="n">
         <v>6941992227.363</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="10" t="n">
         <v>5268919591.7151</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="10" t="n">
         <v>5395368417.1677</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="10" t="n">
         <v>5345623963.6777</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="10" t="n">
         <v>4951115262.0264</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="10" t="n">
         <v>6124294147.9996</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="10" t="n">
         <v>6012810480.7936</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="10" t="n">
         <v>3467671143.1012</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="10" t="n">
         <v>4318615748.3492</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="10" t="n">
         <v>2489142374.7178</v>
       </c>
+      <c r="AW2" s="10"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>41</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="10" t="n">
         <v>259325000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="10" t="n">
         <v>241453000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="10" t="n">
         <v>371499923</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="10" t="n">
         <v>253464057</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="10" t="n">
         <v>137668221</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="10" t="n">
         <v>262957314</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="10" t="n">
         <v>260732470</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="10" t="n">
         <v>242204327</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="10" t="n">
         <v>191663283</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="10" t="n">
         <v>132784845</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="10" t="n">
         <v>121118986</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="10" t="n">
         <v>166552028</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="10" t="n">
         <v>345266551</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="10" t="n">
         <v>527672265</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="10" t="n">
         <v>606725161</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="10" t="n">
         <v>542127732.5</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="10" t="n">
         <v>575756666.2344</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="10" t="n">
         <v>776655276.1534</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="10" t="n">
         <v>1121498558.5148</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="10" t="n">
         <v>774549917.6085</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="10" t="n">
         <v>893798116.4873</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="10" t="n">
         <v>824683356.5119</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="10" t="n">
         <v>774459445.2034</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="10" t="n">
         <v>615728844.46</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="10" t="n">
         <v>442980800.4269</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="10" t="n">
         <v>413776817.8238</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="10" t="n">
         <v>386618334.8041</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="10" t="n">
         <v>470439204.5872</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="10" t="n">
         <v>725481043.1456</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="10" t="n">
         <v>559093929.036</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="10" t="n">
         <v>655642515.3959</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="10" t="n">
         <v>62277174.3593</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="10" t="n">
         <v>30712452.3515</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="10" t="n">
         <v>19576.8691</v>
       </c>
+      <c r="AW3" s="10"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4" t="n">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10" t="n">
         <v>457792</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="10" t="n">
         <v>166969</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="10" t="n">
         <v>2616567</v>
       </c>
-      <c r="AB4"/>
-      <c r="AC4" t="n">
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10" t="n">
         <v>59325</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="10" t="n">
         <v>1219878</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="10" t="n">
         <v>12525</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="10" t="n">
         <v>26595</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="10" t="n">
         <v>14661</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="10" t="n">
         <v>19756</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="10" t="n">
         <v>12053</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="10" t="n">
         <v>4102399.7376</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="10" t="n">
         <v>809585.1602</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="10" t="n">
         <v>852850.8</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="10" t="n">
         <v>25355612.11</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="10" t="n">
         <v>-143816.5938</v>
       </c>
-      <c r="AO4"/>
-      <c r="AP4" t="n">
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10" t="n">
         <v>800</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="10" t="n">
         <v>35734</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="10" t="n">
         <v>2141935.9693</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="10" t="n">
         <v>86587.0703</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="10" t="n">
         <v>372764.0703</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="10" t="n">
         <v>681814.1094</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="10" t="n">
         <v>44058.9922</v>
       </c>
+      <c r="AW4" s="10"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>44</v>
       </c>
       <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="10" t="n">
         <v>111830000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="10" t="n">
         <v>143370000</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="10" t="n">
         <v>63852723</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="10" t="n">
         <v>89945504</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="10" t="n">
         <v>186251487</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="10" t="n">
         <v>379095635</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="10" t="n">
         <v>203762534</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="10" t="n">
         <v>204728600</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="10" t="n">
         <v>107595878</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="10" t="n">
         <v>177164653</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="10" t="n">
         <v>113222498</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="10" t="n">
         <v>148811754</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="10" t="n">
         <v>119688505</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="10" t="n">
         <v>376943159.6601</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="10" t="n">
         <v>565574116.2227</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="10" t="n">
         <v>957453414.7656</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="10" t="n">
         <v>1047308536.0885</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="10" t="n">
         <v>1326292991.918</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="10" t="n">
         <v>963684028.717</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="10" t="n">
         <v>1169162785.4406</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="10" t="n">
         <v>730779193.1186</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="10" t="n">
         <v>1096046235.0507</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="10" t="n">
         <v>611423800.4119</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="10" t="n">
         <v>859766723.855</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="10" t="n">
         <v>442792804.0052</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="10" t="n">
         <v>315235080.9479</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="10" t="n">
         <v>325836721.4587</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="10" t="n">
         <v>228890915.2323</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="10" t="n">
         <v>275823456.9571</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="10" t="n">
         <v>531924293.291</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="10" t="n">
         <v>614883576.9794</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="10" t="n">
         <v>82231383.9527</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="10" t="n">
         <v>174678382.5758</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="10" t="n">
         <v>90183342.1843</v>
       </c>
+      <c r="AW5" s="10"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="10" t="n">
         <v>7544000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="10" t="n">
         <v>12209000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="10" t="n">
         <v>15207939</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="10" t="n">
         <v>6594424</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="10" t="n">
         <v>53880311</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="10" t="n">
         <v>1548106</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="10" t="n">
         <v>389731</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="10" t="n">
         <v>1159668</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="10" t="n">
         <v>992429</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="10" t="n">
         <v>1791720</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="10" t="n">
         <v>691368</v>
       </c>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6" t="n">
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10" t="n">
         <v>572258</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="10" t="n">
         <v>3719003.9375</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="10" t="n">
         <v>27646247</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="10" t="n">
         <v>10218407.87</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="10" t="n">
         <v>23726965.04</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="10" t="n">
         <v>15848497.8829</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="10" t="n">
         <v>12098657.2116</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="10" t="n">
         <v>-8983965.0848</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="10" t="n">
         <v>148250195.8181</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="10" t="n">
         <v>-20828896.0184</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="10" t="n">
         <v>-6903557.5907</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="10" t="n">
         <v>-3635910.04</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="10" t="n">
         <v>-34725154.3945</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="10" t="n">
         <v>-31957759.1483</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="10" t="n">
         <v>5623495.2771</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="10" t="n">
         <v>-6930885.9765</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="10" t="n">
         <v>-1009026.16</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="10" t="n">
         <v>63334241.2088</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="10" t="n">
         <v>12515315.8941</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="10" t="n">
         <v>118367738.3143</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="10" t="n">
         <v>2646326.8537</v>
       </c>
+      <c r="AW6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="10" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="10" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="10" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="10" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="10" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="10" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="10" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="10" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="10" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="10" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="10" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="10" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="10" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="10" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="10" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="10" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="10" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="10" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="10" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="10" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="10" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="10" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="10" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="10" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="10" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="10" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="10" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="10" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="10" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="10" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="10" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="10" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="10" t="str">
+        <f>Sum(AU2:AU6)</f>
+      </c>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
       <c r="M10" t="s">
         <v>38</v>
       </c>
@@ -2632,526 +2797,604 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>40</v>
       </c>
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="10" t="n">
         <v>9402254591.81058</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="10" t="n">
         <v>7943087531.20838</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="10" t="n">
         <v>5160949571.36338</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="10" t="n">
         <v>6267033923.10904</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="10" t="n">
         <v>5956033740.80407</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="10" t="n">
         <v>4918881839.00619</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="10" t="n">
         <v>4276687096.19639</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="10" t="n">
         <v>4619191195.3342</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="10" t="n">
         <v>5429351690.25013</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="10" t="n">
         <v>5275533322.7043</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="10" t="n">
         <v>4761978937.76316</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="10" t="n">
         <v>6055595522.16582</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="10" t="n">
         <v>6252557131.0237</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="10" t="n">
         <v>6680959013.08866</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="10" t="n">
         <v>7590043125.74444</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="10" t="n">
         <v>7209393033.09245</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="10" t="n">
         <v>8916169483.1218</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="10" t="n">
         <v>8278811021.90622</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="10" t="n">
         <v>9966242193.32424</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="10" t="n">
         <v>11117951867.2898</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="10" t="n">
         <v>9777382604.75286</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="10" t="n">
         <v>10548009033.0233</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="10" t="n">
         <v>10809159288.0166</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="10" t="n">
         <v>7545826023.84185</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="10" t="n">
         <v>8422014271.41518</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="10" t="n">
         <v>6319792785.39953</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="10" t="n">
         <v>6418276451.41415</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="10" t="n">
         <v>6247558478.71626</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="10" t="n">
         <v>5653735445.07346</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="10" t="n">
         <v>6859056938.74395</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="10" t="n">
         <v>6645543481.30207</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="10" t="n">
         <v>3707937736.59506</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" s="10" t="n">
         <v>4318615748.3492</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" s="10" t="n">
         <v>2374139963.18962</v>
       </c>
+      <c r="AW11" s="10"/>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="10" t="n">
         <v>515416623.494997</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="10" t="n">
         <v>463367514.705297</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="10" t="n">
         <v>695554345.226254</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="10" t="n">
         <v>463665437.561328</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="10" t="n">
         <v>246467999.183664</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="10" t="n">
         <v>461008137.900598</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="10" t="n">
         <v>448675047.328247</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="10" t="n">
         <v>409516526.375693</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="10" t="n">
         <v>320065736.962934</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="10" t="n">
         <v>219012384.267938</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="10" t="n">
         <v>195695585.277772</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="10" t="n">
         <v>262732016.757451</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="10" t="n">
         <v>536187159.542037</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="10" t="n">
         <v>804087226.078935</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="10" t="n">
         <v>902491135.181006</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="10" t="n">
         <v>782645252.347399</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="10" t="n">
         <v>804985421.80157</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="10" t="n">
         <v>1056885659.3722</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="10" t="n">
         <v>1494975266.38531</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="10" t="n">
         <v>1022100714.49697</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="10" t="n">
         <v>1169291468.57505</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="10" t="n">
         <v>1057559827.27115</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="10" t="n">
         <v>975276779.158559</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="10" t="n">
         <v>761452748.191857</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="10" t="n">
         <v>537423624.367188</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="10" t="n">
         <v>496303597.451032</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="10" t="n">
         <v>459917314.647575</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="10" t="n">
         <v>549813541.189913</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="10" t="n">
         <v>828435144.667266</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="10" t="n">
         <v>626171277.977657</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="10" t="n">
         <v>724636317.437806</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="10" t="n">
         <v>66592209.9893369</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="10" t="n">
         <v>30712452.3515</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="10" t="n">
         <v>18672.3860219974</v>
       </c>
+      <c r="AW12" s="10"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>42</v>
       </c>
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13" t="n">
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10" t="n">
         <v>739668.290943928</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="10" t="n">
         <v>263389.780555388</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="10" t="n">
         <v>4063439.17016575</v>
       </c>
-      <c r="AB13"/>
-      <c r="AC13" t="n">
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10" t="n">
         <v>88244.7111742794</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="10" t="n">
         <v>1761082.61560488</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="10" t="n">
         <v>17511.6381613199</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="10" t="n">
         <v>36190.9266234767</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="10" t="n">
         <v>19543.3442281912</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="10" t="n">
         <v>26070.1360319667</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="10" t="n">
         <v>15768.0686619968</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="10" t="n">
         <v>5260847.23747045</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="10" t="n">
         <v>1019510.59204534</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="10" t="n">
         <v>1054694.10975404</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="10" t="n">
         <v>30761389.5344284</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="10" t="n">
         <v>-172500.463538507</v>
       </c>
-      <c r="AO13"/>
-      <c r="AP13" t="n">
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10" t="n">
         <v>934.979118795784</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="10" t="n">
         <v>40805.0654655064</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="10" t="n">
         <v>2398914.9471815</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="10" t="n">
         <v>95698.6990418601</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="10" t="n">
         <v>398591.996205278</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="10" t="n">
         <v>681814.1094</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="10" t="n">
         <v>42023.3953599134</v>
       </c>
+      <c r="AW13" s="10"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>44</v>
       </c>
       <c r="N14" t="s">
         <v>44</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="10" t="n">
         <v>222265655.087035</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="10" t="n">
         <v>275138435.154247</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="10" t="n">
         <v>119550600.65296</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="10" t="n">
         <v>164538601.498177</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="10" t="n">
         <v>333446826.08975</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="10" t="n">
         <v>664618032.938968</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="10" t="n">
         <v>350639736.532138</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="10" t="n">
         <v>346152961.675861</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="10" t="n">
         <v>179678410.216128</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="10" t="n">
         <v>292211457.275354</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="10" t="n">
         <v>182936992.32853</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="10" t="n">
         <v>234747140.06865</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="10" t="n">
         <v>185872159.755733</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="10" t="n">
         <v>574400437.060149</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="10" t="n">
         <v>841279806.720952</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="10" t="n">
         <v>1382232128.12693</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="10" t="n">
         <v>1464278493.19309</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="10" t="n">
         <v>1804841976.00059</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="10" t="n">
         <v>1284606009.16898</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="10" t="n">
         <v>1542834220.48742</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="10" t="n">
         <v>956025594.777457</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="10" t="n">
         <v>1405550940.08944</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="10" t="n">
         <v>769965991.711796</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="10" t="n">
         <v>1063246818.09807</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="10" t="n">
         <v>537195547.398117</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="10" t="n">
         <v>378107950.899832</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="10" t="n">
         <v>387612113.695509</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="10" t="n">
         <v>267510282.780321</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="10" t="n">
         <v>314965976.886348</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="10" t="n">
         <v>595741962.520829</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="10" t="n">
         <v>679588282.352753</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="10" t="n">
         <v>87928998.7740789</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="10" t="n">
         <v>174678382.5758</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="10" t="n">
         <v>86016725.6274462</v>
       </c>
+      <c r="AW14" s="10"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>43</v>
       </c>
       <c r="N15" t="s">
         <v>43</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="10" t="n">
         <v>14993938.1380363</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="10" t="n">
         <v>23430042.2319746</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="10" t="n">
         <v>28473621.1193934</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="10" t="n">
         <v>12063274.4761318</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="10" t="n">
         <v>96462149.0065131</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="10" t="n">
         <v>2714088.66129787</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="10" t="n">
         <v>670658.989539297</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="10" t="n">
         <v>1960754.44642674</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="10" t="n">
         <v>1657294.57565635</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="10" t="n">
         <v>2955223.30986304</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="10" t="n">
         <v>1117064.05304881</v>
       </c>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15" t="n">
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10" t="n">
         <v>872028.678296138</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="10" t="n">
         <v>5531941.48033199</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="10" t="n">
         <v>39911634.588392</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="10" t="n">
         <v>14286711.4733911</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="10" t="n">
         <v>32288056.0541619</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="10" t="n">
         <v>21126297.6349004</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="10" t="n">
         <v>15965460.5846602</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="10" t="n">
         <v>-11753072.1242934</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="10" t="n">
         <v>190113514.774252</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="10" t="n">
         <v>-26229828.7509665</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="10" t="n">
         <v>-8537415.3688536</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="10" t="n">
         <v>-4411080.45695605</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="10" t="n">
         <v>-41651001.9548069</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="10" t="n">
         <v>-38016631.5109902</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="10" t="n">
         <v>6572313.32341902</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="10" t="n">
         <v>-7914458.38711151</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="10" t="n">
         <v>-1130084.17245648</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="10" t="n">
         <v>69998955.5887021</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="10" t="n">
         <v>13382472.03212</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="10" t="n">
         <v>118367738.3143</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="10" t="n">
         <v>2524062.26451523</v>
       </c>
+      <c r="AW15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3305,89 +3548,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>660568306</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="2" t="n">
         <v>1255193652</v>
       </c>
-      <c r="AB2" s="10" t="n">
+      <c r="AB2" s="2" t="n">
         <v>1117734282</v>
       </c>
-      <c r="AC2" s="10" t="n">
+      <c r="AC2" s="2" t="n">
         <v>619128853</v>
       </c>
-      <c r="AD2" s="10" t="n">
+      <c r="AD2" s="2" t="n">
         <v>917858096.9375</v>
       </c>
-      <c r="AE2" s="10" t="n">
+      <c r="AE2" s="2" t="n">
         <v>1624622988.5</v>
       </c>
-      <c r="AF2" s="10" t="n">
+      <c r="AF2" s="2" t="n">
         <v>839071169.8445</v>
       </c>
-      <c r="AG2" s="10" t="n">
+      <c r="AG2" s="2" t="n">
         <v>577754852.5959</v>
       </c>
-      <c r="AH2" s="10" t="n">
+      <c r="AH2" s="2" t="n">
         <v>755447169.4419</v>
       </c>
-      <c r="AI2" s="10" t="n">
+      <c r="AI2" s="2" t="n">
         <v>1150320037.0268</v>
       </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>2322720827.1855</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="2" t="n">
         <v>3348348304.6468</v>
       </c>
-      <c r="AL2" s="10" t="n">
+      <c r="AL2" s="2" t="n">
         <v>3004863253.0893</v>
       </c>
-      <c r="AM2" s="10" t="n">
+      <c r="AM2" s="2" t="n">
         <v>2361852362.8104</v>
       </c>
-      <c r="AN2" s="10" t="n">
+      <c r="AN2" s="2" t="n">
         <v>2212894814.1546</v>
       </c>
-      <c r="AO2" s="10" t="n">
+      <c r="AO2" s="2" t="n">
         <v>1622250690.0788</v>
       </c>
-      <c r="AP2" s="10" t="n">
+      <c r="AP2" s="2" t="n">
         <v>1152593832.1133</v>
       </c>
-      <c r="AQ2" s="10" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>1625730571.0706</v>
       </c>
-      <c r="AR2" s="10" t="n">
+      <c r="AR2" s="2" t="n">
         <v>1223990106.7078</v>
       </c>
-      <c r="AS2" s="10" t="n">
+      <c r="AS2" s="2" t="n">
         <v>1920860256.8976</v>
       </c>
-      <c r="AT2" s="10" t="n">
+      <c r="AT2" s="2" t="n">
         <v>2486062479.5483</v>
       </c>
-      <c r="AU2" s="10" t="n">
+      <c r="AU2" s="2" t="n">
         <v>1498709632.4256</v>
       </c>
-      <c r="AV2" s="10" t="n">
+      <c r="AV2" s="2" t="n">
         <v>1845506486.5984</v>
       </c>
-      <c r="AW2" s="10" t="n">
+      <c r="AW2" s="2" t="n">
         <v>342063428.681</v>
       </c>
-      <c r="AX2" s="10"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3405,87 +3648,87 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>50867488</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="2" t="n">
         <v>44451176</v>
       </c>
-      <c r="AB3" s="10" t="n">
+      <c r="AB3" s="2" t="n">
         <v>38065170</v>
       </c>
-      <c r="AC3" s="10" t="n">
+      <c r="AC3" s="2" t="n">
         <v>13189917</v>
       </c>
-      <c r="AD3" s="10" t="n">
+      <c r="AD3" s="2" t="n">
         <v>816632</v>
       </c>
-      <c r="AE3" s="10" t="n">
+      <c r="AE3" s="2" t="n">
         <v>74337045</v>
       </c>
-      <c r="AF3" s="10" t="n">
+      <c r="AF3" s="2" t="n">
         <v>3568079</v>
       </c>
-      <c r="AG3" s="10" t="n">
+      <c r="AG3" s="2" t="n">
         <v>-117149</v>
       </c>
-      <c r="AH3" s="10" t="n">
+      <c r="AH3" s="2" t="n">
         <v>-182452.2969</v>
       </c>
-      <c r="AI3" s="10" t="n">
+      <c r="AI3" s="2" t="n">
         <v>-775437.125</v>
       </c>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>1995733</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="2" t="n">
         <v>3188451.1899</v>
       </c>
-      <c r="AL3" s="10" t="n">
+      <c r="AL3" s="2" t="n">
         <v>-38309.8789</v>
       </c>
-      <c r="AM3" s="10" t="n">
+      <c r="AM3" s="2" t="n">
         <v>-304973.85</v>
       </c>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10" t="n">
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="10" t="n">
+      <c r="AP3" s="2" t="n">
         <v>55404.1707</v>
       </c>
-      <c r="AQ3" s="10" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AR3" s="10" t="n">
+      <c r="AR3" s="2" t="n">
         <v>9839846</v>
       </c>
-      <c r="AS3" s="10" t="n">
+      <c r="AS3" s="2" t="n">
         <v>332379309.0234</v>
       </c>
-      <c r="AT3" s="10" t="n">
+      <c r="AT3" s="2" t="n">
         <v>302087828.4492</v>
       </c>
-      <c r="AU3" s="10" t="n">
+      <c r="AU3" s="2" t="n">
         <v>240810422.66</v>
       </c>
-      <c r="AV3" s="10" t="n">
+      <c r="AV3" s="2" t="n">
         <v>302908854.0313</v>
       </c>
-      <c r="AW3" s="10" t="n">
+      <c r="AW3" s="2" t="n">
         <v>50728874</v>
       </c>
-      <c r="AX3" s="10"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3503,89 +3746,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>7232135</v>
       </c>
-      <c r="AA4" s="10" t="n">
+      <c r="AA4" s="2" t="n">
         <v>11989370</v>
       </c>
-      <c r="AB4" s="10" t="n">
+      <c r="AB4" s="2" t="n">
         <v>4892070</v>
       </c>
-      <c r="AC4" s="10" t="n">
+      <c r="AC4" s="2" t="n">
         <v>17522856</v>
       </c>
-      <c r="AD4" s="10" t="n">
+      <c r="AD4" s="2" t="n">
         <v>35578117</v>
       </c>
-      <c r="AE4" s="10" t="n">
+      <c r="AE4" s="2" t="n">
         <v>42478443</v>
       </c>
-      <c r="AF4" s="10" t="n">
+      <c r="AF4" s="2" t="n">
         <v>52699731</v>
       </c>
-      <c r="AG4" s="10" t="n">
+      <c r="AG4" s="2" t="n">
         <v>44945586.5066</v>
       </c>
-      <c r="AH4" s="10" t="n">
+      <c r="AH4" s="2" t="n">
         <v>47763138.9275</v>
       </c>
-      <c r="AI4" s="10" t="n">
+      <c r="AI4" s="2" t="n">
         <v>31557043.6605</v>
       </c>
-      <c r="AJ4" s="10" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>59754399.5352</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="2" t="n">
         <v>37554990.2104</v>
       </c>
-      <c r="AL4" s="10" t="n">
+      <c r="AL4" s="2" t="n">
         <v>46437871.1566</v>
       </c>
-      <c r="AM4" s="10" t="n">
+      <c r="AM4" s="2" t="n">
         <v>48014626.7009</v>
       </c>
-      <c r="AN4" s="10" t="n">
+      <c r="AN4" s="2" t="n">
         <v>37832921.3988</v>
       </c>
-      <c r="AO4" s="10" t="n">
+      <c r="AO4" s="2" t="n">
         <v>71208970.0455</v>
       </c>
-      <c r="AP4" s="10" t="n">
+      <c r="AP4" s="2" t="n">
         <v>89906384.0068</v>
       </c>
-      <c r="AQ4" s="10" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>91827386.448</v>
       </c>
-      <c r="AR4" s="10" t="n">
+      <c r="AR4" s="2" t="n">
         <v>53948223.7761</v>
       </c>
-      <c r="AS4" s="10" t="n">
+      <c r="AS4" s="2" t="n">
         <v>49098720.5044</v>
       </c>
-      <c r="AT4" s="10" t="n">
+      <c r="AT4" s="2" t="n">
         <v>52191945.0264</v>
       </c>
-      <c r="AU4" s="10" t="n">
+      <c r="AU4" s="2" t="n">
         <v>-699074.3672</v>
       </c>
-      <c r="AV4" s="10" t="n">
+      <c r="AV4" s="2" t="n">
         <v>3842652.875</v>
       </c>
-      <c r="AW4" s="10" t="n">
+      <c r="AW4" s="2" t="n">
         <v>562000</v>
       </c>
-      <c r="AX4" s="10"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3603,89 +3846,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>142126379</v>
       </c>
-      <c r="AA5" s="10" t="n">
+      <c r="AA5" s="2" t="n">
         <v>84925188</v>
       </c>
-      <c r="AB5" s="10" t="n">
+      <c r="AB5" s="2" t="n">
         <v>151641248</v>
       </c>
-      <c r="AC5" s="10" t="n">
+      <c r="AC5" s="2" t="n">
         <v>706106012</v>
       </c>
-      <c r="AD5" s="10" t="n">
+      <c r="AD5" s="2" t="n">
         <v>883972087</v>
       </c>
-      <c r="AE5" s="10" t="n">
+      <c r="AE5" s="2" t="n">
         <v>502235052</v>
       </c>
-      <c r="AF5" s="10" t="n">
+      <c r="AF5" s="2" t="n">
         <v>763339154</v>
       </c>
-      <c r="AG5" s="10" t="n">
+      <c r="AG5" s="2" t="n">
         <v>989242230.875</v>
       </c>
-      <c r="AH5" s="10" t="n">
+      <c r="AH5" s="2" t="n">
         <v>751531103.7705</v>
       </c>
-      <c r="AI5" s="10" t="n">
+      <c r="AI5" s="2" t="n">
         <v>884082480.0027</v>
       </c>
-      <c r="AJ5" s="10" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>1709704072.0279</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="2" t="n">
         <v>2497030829.4912</v>
       </c>
-      <c r="AL5" s="10" t="n">
+      <c r="AL5" s="2" t="n">
         <v>2630248457.4023</v>
       </c>
-      <c r="AM5" s="10" t="n">
+      <c r="AM5" s="2" t="n">
         <v>2585533770.8901</v>
       </c>
-      <c r="AN5" s="10" t="n">
+      <c r="AN5" s="2" t="n">
         <v>3395222451.0736</v>
       </c>
-      <c r="AO5" s="10" t="n">
+      <c r="AO5" s="2" t="n">
         <v>2141174887.2238</v>
       </c>
-      <c r="AP5" s="10" t="n">
+      <c r="AP5" s="2" t="n">
         <v>1972087563.7815</v>
       </c>
-      <c r="AQ5" s="10" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>1884329025.6903</v>
       </c>
-      <c r="AR5" s="10" t="n">
+      <c r="AR5" s="2" t="n">
         <v>1888201468.605</v>
       </c>
-      <c r="AS5" s="10" t="n">
+      <c r="AS5" s="2" t="n">
         <v>2148001423.4643</v>
       </c>
-      <c r="AT5" s="10" t="n">
+      <c r="AT5" s="2" t="n">
         <v>2091721352.527</v>
       </c>
-      <c r="AU5" s="10" t="n">
+      <c r="AU5" s="2" t="n">
         <v>1399164931.6664</v>
       </c>
-      <c r="AV5" s="10" t="n">
+      <c r="AV5" s="2" t="n">
         <v>1857568522.1803</v>
       </c>
-      <c r="AW5" s="10" t="n">
+      <c r="AW5" s="2" t="n">
         <v>1906988458.2657</v>
       </c>
-      <c r="AX5" s="10"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3703,89 +3946,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>2161469493</v>
       </c>
-      <c r="AA6" s="10" t="n">
+      <c r="AA6" s="2" t="n">
         <v>2279862272</v>
       </c>
-      <c r="AB6" s="10" t="n">
+      <c r="AB6" s="2" t="n">
         <v>2600195782</v>
       </c>
-      <c r="AC6" s="10" t="n">
+      <c r="AC6" s="2" t="n">
         <v>3076776464.6601</v>
       </c>
-      <c r="AD6" s="10" t="n">
+      <c r="AD6" s="2" t="n">
         <v>3329314204.2227</v>
       </c>
-      <c r="AE6" s="10" t="n">
+      <c r="AE6" s="2" t="n">
         <v>3257780997.7656</v>
       </c>
-      <c r="AF6" s="10" t="n">
+      <c r="AF6" s="2" t="n">
         <v>4820257444.7234</v>
       </c>
-      <c r="AG6" s="10" t="n">
+      <c r="AG6" s="2" t="n">
         <v>4938626475.8685</v>
       </c>
-      <c r="AH6" s="10" t="n">
+      <c r="AH6" s="2" t="n">
         <v>5422282115.8575</v>
       </c>
-      <c r="AI6" s="10" t="n">
+      <c r="AI6" s="2" t="n">
         <v>6147279635.1446</v>
       </c>
-      <c r="AJ6" s="10" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>4558077296.9564</v>
       </c>
-      <c r="AK6" s="10" t="n">
+      <c r="AK6" s="2" t="n">
         <v>3754352033.8076</v>
       </c>
-      <c r="AL6" s="10" t="n">
+      <c r="AL6" s="2" t="n">
         <v>2321510944.0609</v>
       </c>
-      <c r="AM6" s="10" t="n">
+      <c r="AM6" s="2" t="n">
         <v>2009322633.618</v>
       </c>
-      <c r="AN6" s="10" t="n">
+      <c r="AN6" s="2" t="n">
         <v>1821472651.4881</v>
       </c>
-      <c r="AO6" s="10" t="n">
+      <c r="AO6" s="2" t="n">
         <v>1937444693.0404</v>
       </c>
-      <c r="AP6" s="10" t="n">
+      <c r="AP6" s="2" t="n">
         <v>1734827328.6473</v>
       </c>
-      <c r="AQ6" s="10" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>1770294955.4252</v>
       </c>
-      <c r="AR6" s="10" t="n">
+      <c r="AR6" s="2" t="n">
         <v>2259684994.2863</v>
       </c>
-      <c r="AS6" s="10" t="n">
+      <c r="AS6" s="2" t="n">
         <v>1893631478.9228</v>
       </c>
-      <c r="AT6" s="10" t="n">
+      <c r="AT6" s="2" t="n">
         <v>1932681746.7133</v>
       </c>
-      <c r="AU6" s="10" t="n">
+      <c r="AU6" s="2" t="n">
         <v>478155631.9928</v>
       </c>
-      <c r="AV6" s="10" t="n">
+      <c r="AV6" s="2" t="n">
         <v>626919395.0152</v>
       </c>
-      <c r="AW6" s="10" t="n">
+      <c r="AW6" s="2" t="n">
         <v>279295707.6704</v>
       </c>
-      <c r="AX6" s="10"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3803,89 +4046,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>153274049</v>
       </c>
-      <c r="AA7" s="10" t="n">
+      <c r="AA7" s="2" t="n">
         <v>473017358</v>
       </c>
-      <c r="AB7" s="10" t="n">
+      <c r="AB7" s="2" t="n">
         <v>572574573</v>
       </c>
-      <c r="AC7" s="10" t="n">
+      <c r="AC7" s="2" t="n">
         <v>854680578</v>
       </c>
-      <c r="AD7" s="10" t="n">
+      <c r="AD7" s="2" t="n">
         <v>1107264125</v>
       </c>
-      <c r="AE7" s="10" t="n">
+      <c r="AE7" s="2" t="n">
         <v>1015410325</v>
       </c>
-      <c r="AF7" s="10" t="n">
+      <c r="AF7" s="2" t="n">
         <v>1490691604</v>
       </c>
-      <c r="AG7" s="10" t="n">
+      <c r="AG7" s="2" t="n">
         <v>1465268241.3877</v>
       </c>
-      <c r="AH7" s="10" t="n">
+      <c r="AH7" s="2" t="n">
         <v>1842174702.1836</v>
       </c>
-      <c r="AI7" s="10" t="n">
+      <c r="AI7" s="2" t="n">
         <v>993400053.5157</v>
       </c>
-      <c r="AJ7" s="10" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>437791993.8982</v>
       </c>
-      <c r="AK7" s="10" t="n">
+      <c r="AK7" s="2" t="n">
         <v>658829581.793</v>
       </c>
-      <c r="AL7" s="10" t="n">
+      <c r="AL7" s="2" t="n">
         <v>1944537862.8029</v>
       </c>
-      <c r="AM7" s="10" t="n">
+      <c r="AM7" s="2" t="n">
         <v>566425464.98</v>
       </c>
-      <c r="AN7" s="10" t="n">
+      <c r="AN7" s="2" t="n">
         <v>379325195.75</v>
       </c>
-      <c r="AO7" s="10" t="n">
+      <c r="AO7" s="2" t="n">
         <v>192710059.67</v>
       </c>
-      <c r="AP7" s="10" t="n">
+      <c r="AP7" s="2" t="n">
         <v>1123350417.3733</v>
       </c>
-      <c r="AQ7" s="10" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>678451945.7423</v>
       </c>
-      <c r="AR7" s="10" t="n">
+      <c r="AR7" s="2" t="n">
         <v>509859970.7774</v>
       </c>
-      <c r="AS7" s="10" t="n">
+      <c r="AS7" s="2" t="n">
         <v>872474091.3234</v>
       </c>
-      <c r="AT7" s="10" t="n">
+      <c r="AT7" s="2" t="n">
         <v>482012049.1838</v>
       </c>
-      <c r="AU7" s="10" t="n">
+      <c r="AU7" s="2" t="n">
         <v>8926237</v>
       </c>
-      <c r="AV7" s="10" t="n">
+      <c r="AV7" s="2" t="n">
         <v>6310225</v>
       </c>
-      <c r="AW7" s="10" t="n">
+      <c r="AW7" s="2" t="n">
         <v>2397211</v>
       </c>
-      <c r="AX7" s="10"/>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3903,61 +4146,61 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" s="10" t="n">
+      <c r="AF8" s="2" t="n">
         <v>38902563</v>
       </c>
-      <c r="AG8" s="10" t="n">
+      <c r="AG8" s="2" t="n">
         <v>193615861</v>
       </c>
-      <c r="AH8" s="10" t="n">
+      <c r="AH8" s="2" t="n">
         <v>736952733.6329</v>
       </c>
-      <c r="AI8" s="10" t="n">
+      <c r="AI8" s="2" t="n">
         <v>1154896843.4053</v>
       </c>
-      <c r="AJ8" s="10" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>-701265.21</v>
       </c>
-      <c r="AK8" s="10" t="n">
+      <c r="AK8" s="2" t="n">
         <v>-821630.9967</v>
       </c>
-      <c r="AL8" s="10" t="n">
+      <c r="AL8" s="2" t="n">
         <v>1926650.5795</v>
       </c>
-      <c r="AM8" s="10" t="n">
+      <c r="AM8" s="2" t="n">
         <v>335784.2</v>
       </c>
-      <c r="AN8" s="10" t="n">
+      <c r="AN8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3973,107 +4216,107 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="2" t="n">
         <v>5109318000</v>
       </c>
-      <c r="Q9" s="10" t="n">
+      <c r="Q9" s="2" t="n">
         <v>4536041000</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="2" t="n">
         <v>3207056007</v>
       </c>
-      <c r="S9" s="10" t="n">
+      <c r="S9" s="2" t="n">
         <v>3775896266</v>
       </c>
-      <c r="T9" s="10" t="n">
+      <c r="T9" s="2" t="n">
         <v>3704627729</v>
       </c>
-      <c r="U9" s="10" t="n">
+      <c r="U9" s="2" t="n">
         <v>3449312820</v>
       </c>
-      <c r="V9" s="10" t="n">
+      <c r="V9" s="2" t="n">
         <v>2950138142</v>
       </c>
-      <c r="W9" s="10" t="n">
+      <c r="W9" s="2" t="n">
         <v>3180065599</v>
       </c>
-      <c r="X9" s="10" t="n">
+      <c r="X9" s="2" t="n">
         <v>3551481726</v>
       </c>
-      <c r="Y9" s="10" t="n">
+      <c r="Y9" s="2" t="n">
         <v>3510240138</v>
       </c>
-      <c r="Z9" s="10" t="n">
+      <c r="Z9" s="2" t="n">
         <v>7214274</v>
       </c>
-      <c r="AA9" s="10" t="n">
+      <c r="AA9" s="2" t="n">
         <v>4876697</v>
       </c>
-      <c r="AB9" s="10" t="n">
+      <c r="AB9" s="2" t="n">
         <v>8672403</v>
       </c>
-      <c r="AC9" s="10" t="n">
+      <c r="AC9" s="2" t="n">
         <v>2079457</v>
       </c>
-      <c r="AD9" s="10" t="n">
+      <c r="AD9" s="2" t="n">
         <v>3895254</v>
       </c>
-      <c r="AE9" s="10" t="n">
+      <c r="AE9" s="2" t="n">
         <v>5431021</v>
       </c>
-      <c r="AF9" s="10" t="n">
+      <c r="AF9" s="2" t="n">
         <v>1955191</v>
       </c>
-      <c r="AG9" s="10" t="n">
+      <c r="AG9" s="2" t="n">
         <v>1072328</v>
       </c>
-      <c r="AH9" s="10" t="n">
+      <c r="AH9" s="2" t="n">
         <v>21539558.0498</v>
       </c>
-      <c r="AI9" s="10" t="n">
+      <c r="AI9" s="2" t="n">
         <v>20276099.0223</v>
       </c>
-      <c r="AJ9" s="10" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>24350</v>
       </c>
-      <c r="AK9" s="10" t="n">
+      <c r="AK9" s="2" t="n">
         <v>-80850.1397</v>
       </c>
-      <c r="AL9" s="10" t="n">
+      <c r="AL9" s="2" t="n">
         <v>-156352.7188</v>
       </c>
-      <c r="AM9" s="10" t="n">
+      <c r="AM9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="10" t="n">
+      <c r="AN9" s="2" t="n">
         <v>2737500</v>
       </c>
-      <c r="AO9" s="10" t="n">
+      <c r="AO9" s="2" t="n">
         <v>-1726780.56</v>
       </c>
-      <c r="AP9" s="10" t="n">
+      <c r="AP9" s="2" t="n">
         <v>3044784.1893</v>
       </c>
-      <c r="AQ9" s="10" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>-55505.6021</v>
       </c>
-      <c r="AR9" s="10" t="n">
+      <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="10" t="n">
+      <c r="AS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="10" t="n">
+      <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="10" t="n">
+      <c r="AU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="10" t="n">
+      <c r="AV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4088,107 +4331,107 @@
       <c r="O10" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="10" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="10" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="10" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="10" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="10" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="10" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="10" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="10" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="10" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="10" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="10" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="10" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="10" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="10" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="10" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="10" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="10" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="10" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="10" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="10" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="10" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="10" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="10" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="10" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="10" t="str">
+      <c r="AP10" s="2" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="10" t="str">
+      <c r="AQ10" s="2" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="10" t="str">
+      <c r="AR10" s="2" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="10" t="str">
+      <c r="AS10" s="2" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="10" t="str">
+      <c r="AT10" s="2" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="10" t="str">
+      <c r="AU10" s="2" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="10" t="str">
+      <c r="AV10" s="2" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4325,89 +4568,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>1067300061.92932</v>
       </c>
-      <c r="AA14" s="10" t="n">
+      <c r="AA14" s="2" t="n">
         <v>1980039292.05299</v>
       </c>
-      <c r="AB14" s="10" t="n">
+      <c r="AB14" s="2" t="n">
         <v>1735803158.61046</v>
       </c>
-      <c r="AC14" s="10" t="n">
+      <c r="AC14" s="2" t="n">
         <v>943452280.923279</v>
       </c>
-      <c r="AD14" s="10" t="n">
+      <c r="AD14" s="2" t="n">
         <v>1365294945.86133</v>
       </c>
-      <c r="AE14" s="10" t="n">
+      <c r="AE14" s="2" t="n">
         <v>2345394623.03558</v>
       </c>
-      <c r="AF14" s="10" t="n">
+      <c r="AF14" s="2" t="n">
         <v>1173134588.25647</v>
       </c>
-      <c r="AG14" s="10" t="n">
+      <c r="AG14" s="2" t="n">
         <v>786218592.842857</v>
       </c>
-      <c r="AH14" s="10" t="n">
+      <c r="AH14" s="2" t="n">
         <v>1007022991.51598</v>
       </c>
-      <c r="AI14" s="10" t="n">
+      <c r="AI14" s="2" t="n">
         <v>1517969216.7233</v>
       </c>
-      <c r="AJ14" s="10" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>3038647762.85663</v>
       </c>
-      <c r="AK14" s="10" t="n">
+      <c r="AK14" s="2" t="n">
         <v>4293864580.56261</v>
       </c>
-      <c r="AL14" s="10" t="n">
+      <c r="AL14" s="2" t="n">
         <v>3784024293.89336</v>
       </c>
-      <c r="AM14" s="10" t="n">
+      <c r="AM14" s="2" t="n">
         <v>2920829499.32719</v>
       </c>
-      <c r="AN14" s="10" t="n">
+      <c r="AN14" s="2" t="n">
         <v>2684680578.07523</v>
       </c>
-      <c r="AO14" s="10" t="n">
+      <c r="AO14" s="2" t="n">
         <v>1945804643.4017</v>
       </c>
-      <c r="AP14" s="10" t="n">
+      <c r="AP14" s="2" t="n">
         <v>1371114125.80448</v>
       </c>
-      <c r="AQ14" s="10" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>1900030170.9237</v>
       </c>
-      <c r="AR14" s="10" t="n">
+      <c r="AR14" s="2" t="n">
         <v>1397688376.15</v>
       </c>
-      <c r="AS14" s="10" t="n">
+      <c r="AS14" s="2" t="n">
         <v>2151315654.51252</v>
       </c>
-      <c r="AT14" s="10" t="n">
+      <c r="AT14" s="2" t="n">
         <v>2747672882.39747</v>
       </c>
-      <c r="AU14" s="10" t="n">
+      <c r="AU14" s="2" t="n">
         <v>1602551618.34624</v>
       </c>
-      <c r="AV14" s="10" t="n">
+      <c r="AV14" s="2" t="n">
         <v>1845506486.5984</v>
       </c>
-      <c r="AW14" s="10" t="n">
+      <c r="AW14" s="2" t="n">
         <v>326259543.940027</v>
       </c>
-      <c r="AX14" s="10"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4425,87 +4668,87 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>82188128.9178727</v>
       </c>
-      <c r="AA15" s="10" t="n">
+      <c r="AA15" s="2" t="n">
         <v>70120713.9772589</v>
       </c>
-      <c r="AB15" s="10" t="n">
+      <c r="AB15" s="2" t="n">
         <v>59113908.7197148</v>
       </c>
-      <c r="AC15" s="10" t="n">
+      <c r="AC15" s="2" t="n">
         <v>20099301.1689583</v>
       </c>
-      <c r="AD15" s="10" t="n">
+      <c r="AD15" s="2" t="n">
         <v>1214723.21914326</v>
       </c>
-      <c r="AE15" s="10" t="n">
+      <c r="AE15" s="2" t="n">
         <v>107317024.854073</v>
       </c>
-      <c r="AF15" s="10" t="n">
+      <c r="AF15" s="2" t="n">
         <v>4988655.35960114</v>
       </c>
-      <c r="AG15" s="10" t="n">
+      <c r="AG15" s="2" t="n">
         <v>-159418.34416295</v>
       </c>
-      <c r="AH15" s="10" t="n">
+      <c r="AH15" s="2" t="n">
         <v>-243211.789341849</v>
       </c>
-      <c r="AI15" s="10" t="n">
+      <c r="AI15" s="2" t="n">
         <v>-1023271.47868937</v>
       </c>
-      <c r="AJ15" s="10" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>2610873.22450948</v>
       </c>
-      <c r="AK15" s="10" t="n">
+      <c r="AK15" s="2" t="n">
         <v>4088815.25621585</v>
       </c>
-      <c r="AL15" s="10" t="n">
+      <c r="AL15" s="2" t="n">
         <v>-48243.6304895651</v>
       </c>
-      <c r="AM15" s="10" t="n">
+      <c r="AM15" s="2" t="n">
         <v>-377151.693149625</v>
       </c>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10" t="n">
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP15" s="10" t="n">
+      <c r="AP15" s="2" t="n">
         <v>65908.248819941</v>
       </c>
-      <c r="AQ15" s="10" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AR15" s="10" t="n">
+      <c r="AR15" s="2" t="n">
         <v>11236233.2848408</v>
       </c>
-      <c r="AS15" s="10" t="n">
+      <c r="AS15" s="2" t="n">
         <v>372256549.20519</v>
       </c>
-      <c r="AT15" s="10" t="n">
+      <c r="AT15" s="2" t="n">
         <v>333876779.50999</v>
       </c>
-      <c r="AU15" s="10" t="n">
+      <c r="AU15" s="2" t="n">
         <v>257495597.678814</v>
       </c>
-      <c r="AV15" s="10" t="n">
+      <c r="AV15" s="2" t="n">
         <v>302908854.0313</v>
       </c>
-      <c r="AW15" s="10" t="n">
+      <c r="AW15" s="2" t="n">
         <v>48385117.8117785</v>
       </c>
-      <c r="AX15" s="10"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4523,89 +4766,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>11685177.8434874</v>
       </c>
-      <c r="AA16" s="10" t="n">
+      <c r="AA16" s="2" t="n">
         <v>18912957.0956127</v>
       </c>
-      <c r="AB16" s="10" t="n">
+      <c r="AB16" s="2" t="n">
         <v>7597217.59893507</v>
       </c>
-      <c r="AC16" s="10" t="n">
+      <c r="AC16" s="2" t="n">
         <v>26701999.7232953</v>
       </c>
-      <c r="AD16" s="10" t="n">
+      <c r="AD16" s="2" t="n">
         <v>52921713.5910614</v>
       </c>
-      <c r="AE16" s="10" t="n">
+      <c r="AE16" s="2" t="n">
         <v>61324204.1460397</v>
       </c>
-      <c r="AF16" s="10" t="n">
+      <c r="AF16" s="2" t="n">
         <v>73681326.9837042</v>
       </c>
-      <c r="AG16" s="10" t="n">
+      <c r="AG16" s="2" t="n">
         <v>61162715.6724754</v>
       </c>
-      <c r="AH16" s="10" t="n">
+      <c r="AH16" s="2" t="n">
         <v>63669017.4939671</v>
       </c>
-      <c r="AI16" s="10" t="n">
+      <c r="AI16" s="2" t="n">
         <v>41642863.9904812</v>
       </c>
-      <c r="AJ16" s="10" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>78172361.6300856</v>
       </c>
-      <c r="AK16" s="10" t="n">
+      <c r="AK16" s="2" t="n">
         <v>48159876.9351512</v>
       </c>
-      <c r="AL16" s="10" t="n">
+      <c r="AL16" s="2" t="n">
         <v>58479211.1363485</v>
       </c>
-      <c r="AM16" s="10" t="n">
+      <c r="AM16" s="2" t="n">
         <v>59378198.3477982</v>
       </c>
-      <c r="AN16" s="10" t="n">
+      <c r="AN16" s="2" t="n">
         <v>45898841.9338893</v>
       </c>
-      <c r="AO16" s="10" t="n">
+      <c r="AO16" s="2" t="n">
         <v>85411425.8750328</v>
       </c>
-      <c r="AP16" s="10" t="n">
+      <c r="AP16" s="2" t="n">
         <v>106951737.617496</v>
       </c>
-      <c r="AQ16" s="10" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>107320861.078089</v>
       </c>
-      <c r="AR16" s="10" t="n">
+      <c r="AR16" s="2" t="n">
         <v>61604097.0205281</v>
       </c>
-      <c r="AS16" s="10" t="n">
+      <c r="AS16" s="2" t="n">
         <v>54989344.3098509</v>
       </c>
-      <c r="AT16" s="10" t="n">
+      <c r="AT16" s="2" t="n">
         <v>57684146.3995204</v>
       </c>
-      <c r="AU16" s="10" t="n">
+      <c r="AU16" s="2" t="n">
         <v>-747511.548776512</v>
       </c>
-      <c r="AV16" s="10" t="n">
+      <c r="AV16" s="2" t="n">
         <v>3842652.875</v>
       </c>
-      <c r="AW16" s="10" t="n">
+      <c r="AW16" s="2" t="n">
         <v>536034.689242649</v>
       </c>
-      <c r="AX16" s="10"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4623,89 +4866,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>229637861.415182</v>
       </c>
-      <c r="AA17" s="10" t="n">
+      <c r="AA17" s="2" t="n">
         <v>133967542.663279</v>
       </c>
-      <c r="AB17" s="10" t="n">
+      <c r="AB17" s="2" t="n">
         <v>235493678.142397</v>
       </c>
-      <c r="AC17" s="10" t="n">
+      <c r="AC17" s="2" t="n">
         <v>1075991410.13549</v>
       </c>
-      <c r="AD17" s="10" t="n">
+      <c r="AD17" s="2" t="n">
         <v>1314890206.54766</v>
       </c>
-      <c r="AE17" s="10" t="n">
+      <c r="AE17" s="2" t="n">
         <v>725053996.40342</v>
       </c>
-      <c r="AF17" s="10" t="n">
+      <c r="AF17" s="2" t="n">
         <v>1067251022.6919</v>
       </c>
-      <c r="AG17" s="10" t="n">
+      <c r="AG17" s="2" t="n">
         <v>1346177589.4131</v>
       </c>
-      <c r="AH17" s="10" t="n">
+      <c r="AH17" s="2" t="n">
         <v>1001802814.21318</v>
       </c>
-      <c r="AI17" s="10" t="n">
+      <c r="AI17" s="2" t="n">
         <v>1166640540.45094</v>
       </c>
-      <c r="AJ17" s="10" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>2236682253.33373</v>
       </c>
-      <c r="AK17" s="10" t="n">
+      <c r="AK17" s="2" t="n">
         <v>3202149615.21338</v>
       </c>
-      <c r="AL17" s="10" t="n">
+      <c r="AL17" s="2" t="n">
         <v>3312271881.77473</v>
       </c>
-      <c r="AM17" s="10" t="n">
+      <c r="AM17" s="2" t="n">
         <v>3197449353.07318</v>
       </c>
-      <c r="AN17" s="10" t="n">
+      <c r="AN17" s="2" t="n">
         <v>4119078645.01213</v>
       </c>
-      <c r="AO17" s="10" t="n">
+      <c r="AO17" s="2" t="n">
         <v>2568227009.16391</v>
       </c>
-      <c r="AP17" s="10" t="n">
+      <c r="AP17" s="2" t="n">
         <v>2345975694.72188</v>
       </c>
-      <c r="AQ17" s="10" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>2202260364.95154</v>
       </c>
-      <c r="AR17" s="10" t="n">
+      <c r="AR17" s="2" t="n">
         <v>2156158967.32782</v>
       </c>
-      <c r="AS17" s="10" t="n">
+      <c r="AS17" s="2" t="n">
         <v>2405708104.80373</v>
       </c>
-      <c r="AT17" s="10" t="n">
+      <c r="AT17" s="2" t="n">
         <v>2311834913.70436</v>
       </c>
-      <c r="AU17" s="10" t="n">
+      <c r="AU17" s="2" t="n">
         <v>1496109704.68398</v>
       </c>
-      <c r="AV17" s="10" t="n">
+      <c r="AV17" s="2" t="n">
         <v>1857568522.1803</v>
       </c>
-      <c r="AW17" s="10" t="n">
+      <c r="AW17" s="2" t="n">
         <v>1818882501.09568</v>
       </c>
-      <c r="AX17" s="10"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4723,89 +4966,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>3492351211.49943</v>
       </c>
-      <c r="AA18" s="10" t="n">
+      <c r="AA18" s="2" t="n">
         <v>3596430615.97416</v>
       </c>
-      <c r="AB18" s="10" t="n">
+      <c r="AB18" s="2" t="n">
         <v>4038015227.8457</v>
       </c>
-      <c r="AC18" s="10" t="n">
+      <c r="AC18" s="2" t="n">
         <v>4688509927.14861</v>
       </c>
-      <c r="AD18" s="10" t="n">
+      <c r="AD18" s="2" t="n">
         <v>4952286057.48096</v>
       </c>
-      <c r="AE18" s="10" t="n">
+      <c r="AE18" s="2" t="n">
         <v>4703110868.96633</v>
       </c>
-      <c r="AF18" s="10" t="n">
+      <c r="AF18" s="2" t="n">
         <v>6739369598.11615</v>
       </c>
-      <c r="AG18" s="10" t="n">
+      <c r="AG18" s="2" t="n">
         <v>6720566588.03971</v>
       </c>
-      <c r="AH18" s="10" t="n">
+      <c r="AH18" s="2" t="n">
         <v>7227987578.78508</v>
       </c>
-      <c r="AI18" s="10" t="n">
+      <c r="AI18" s="2" t="n">
         <v>8111987057.8436</v>
       </c>
-      <c r="AJ18" s="10" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>5963003051.94534</v>
       </c>
-      <c r="AK18" s="10" t="n">
+      <c r="AK18" s="2" t="n">
         <v>4814516816.71156</v>
       </c>
-      <c r="AL18" s="10" t="n">
+      <c r="AL18" s="2" t="n">
         <v>2923478731.29809</v>
       </c>
-      <c r="AM18" s="10" t="n">
+      <c r="AM18" s="2" t="n">
         <v>2484866926.63287</v>
       </c>
-      <c r="AN18" s="10" t="n">
+      <c r="AN18" s="2" t="n">
         <v>2209807813.5781</v>
       </c>
-      <c r="AO18" s="10" t="n">
+      <c r="AO18" s="2" t="n">
         <v>2323863323.4108</v>
       </c>
-      <c r="AP18" s="10" t="n">
+      <c r="AP18" s="2" t="n">
         <v>2063733285.62645</v>
       </c>
-      <c r="AQ18" s="10" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>2068986021.7901</v>
       </c>
-      <c r="AR18" s="10" t="n">
+      <c r="AR18" s="2" t="n">
         <v>2580360276.57903</v>
       </c>
-      <c r="AS18" s="10" t="n">
+      <c r="AS18" s="2" t="n">
         <v>2120820101.23108</v>
       </c>
-      <c r="AT18" s="10" t="n">
+      <c r="AT18" s="2" t="n">
         <v>2136059439.14715</v>
       </c>
-      <c r="AU18" s="10" t="n">
+      <c r="AU18" s="2" t="n">
         <v>511285885.733088</v>
       </c>
-      <c r="AV18" s="10" t="n">
+      <c r="AV18" s="2" t="n">
         <v>626919395.0152</v>
       </c>
-      <c r="AW18" s="10" t="n">
+      <c r="AW18" s="2" t="n">
         <v>266391793.359268</v>
       </c>
-      <c r="AX18" s="10"/>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -4823,89 +5066,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>247649486.819092</v>
       </c>
-      <c r="AA19" s="10" t="n">
+      <c r="AA19" s="2" t="n">
         <v>746174068.973939</v>
       </c>
-      <c r="AB19" s="10" t="n">
+      <c r="AB19" s="2" t="n">
         <v>889188752.961085</v>
       </c>
-      <c r="AC19" s="10" t="n">
+      <c r="AC19" s="2" t="n">
         <v>1302395029.51242</v>
       </c>
-      <c r="AD19" s="10" t="n">
+      <c r="AD19" s="2" t="n">
         <v>1647032497.33276</v>
       </c>
-      <c r="AE19" s="10" t="n">
+      <c r="AE19" s="2" t="n">
         <v>1465901894.3396</v>
       </c>
-      <c r="AF19" s="10" t="n">
+      <c r="AF19" s="2" t="n">
         <v>2084187782.78368</v>
       </c>
-      <c r="AG19" s="10" t="n">
+      <c r="AG19" s="2" t="n">
         <v>1993961850.26407</v>
       </c>
-      <c r="AH19" s="10" t="n">
+      <c r="AH19" s="2" t="n">
         <v>2455647932.14922</v>
       </c>
-      <c r="AI19" s="10" t="n">
+      <c r="AI19" s="2" t="n">
         <v>1310896665.78848</v>
       </c>
-      <c r="AJ19" s="10" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>572731620.298622</v>
       </c>
-      <c r="AK19" s="10" t="n">
+      <c r="AK19" s="2" t="n">
         <v>844871784.08587</v>
       </c>
-      <c r="AL19" s="10" t="n">
+      <c r="AL19" s="2" t="n">
         <v>2448756530.16047</v>
       </c>
-      <c r="AM19" s="10" t="n">
+      <c r="AM19" s="2" t="n">
         <v>700480789.288232</v>
       </c>
-      <c r="AN19" s="10" t="n">
+      <c r="AN19" s="2" t="n">
         <v>460196742.87757</v>
       </c>
-      <c r="AO19" s="10" t="n">
+      <c r="AO19" s="2" t="n">
         <v>231145612.222171</v>
       </c>
-      <c r="AP19" s="10" t="n">
+      <c r="AP19" s="2" t="n">
         <v>1336326451.3266</v>
       </c>
-      <c r="AQ19" s="10" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>792923002.969276</v>
       </c>
-      <c r="AR19" s="10" t="n">
+      <c r="AR19" s="2" t="n">
         <v>582214962.943219</v>
       </c>
-      <c r="AS19" s="10" t="n">
+      <c r="AS19" s="2" t="n">
         <v>977149255.954791</v>
       </c>
-      <c r="AT19" s="10" t="n">
+      <c r="AT19" s="2" t="n">
         <v>532734574.221883</v>
       </c>
-      <c r="AU19" s="10" t="n">
+      <c r="AU19" s="2" t="n">
         <v>9544714.49345426</v>
       </c>
-      <c r="AV19" s="10" t="n">
+      <c r="AV19" s="2" t="n">
         <v>6310225</v>
       </c>
-      <c r="AW19" s="10" t="n">
+      <c r="AW19" s="2" t="n">
         <v>2286455.96696452</v>
       </c>
-      <c r="AX19" s="10"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -4923,61 +5166,61 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="10" t="n">
+      <c r="AF20" s="2" t="n">
         <v>54391026.4913336</v>
       </c>
-      <c r="AG20" s="10" t="n">
+      <c r="AG20" s="2" t="n">
         <v>263475744.259908</v>
       </c>
-      <c r="AH20" s="10" t="n">
+      <c r="AH20" s="2" t="n">
         <v>982369616.894773</v>
       </c>
-      <c r="AI20" s="10" t="n">
+      <c r="AI20" s="2" t="n">
         <v>1524008797.85711</v>
       </c>
-      <c r="AJ20" s="10" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>-917414.58404958</v>
       </c>
-      <c r="AK20" s="10" t="n">
+      <c r="AK20" s="2" t="n">
         <v>-1053645.53326976</v>
       </c>
-      <c r="AL20" s="10" t="n">
+      <c r="AL20" s="2" t="n">
         <v>2426231.07430142</v>
       </c>
-      <c r="AM20" s="10" t="n">
+      <c r="AM20" s="2" t="n">
         <v>415253.896564877</v>
       </c>
-      <c r="AN20" s="10" t="n">
+      <c r="AN20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -4993,107 +5236,107 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="2" t="n">
         <v>10154930808.5306</v>
       </c>
-      <c r="Q21" s="10" t="n">
+      <c r="Q21" s="2" t="n">
         <v>8705023523.2999</v>
       </c>
-      <c r="R21" s="10" t="n">
+      <c r="R21" s="2" t="n">
         <v>6004528138.36198</v>
       </c>
-      <c r="S21" s="10" t="n">
+      <c r="S21" s="2" t="n">
         <v>6907301236.64467</v>
       </c>
-      <c r="T21" s="10" t="n">
+      <c r="T21" s="2" t="n">
         <v>6632410715.084</v>
       </c>
-      <c r="U21" s="10" t="n">
+      <c r="U21" s="2" t="n">
         <v>6047222098.50706</v>
       </c>
-      <c r="V21" s="10" t="n">
+      <c r="V21" s="2" t="n">
         <v>5076672539.04631</v>
       </c>
-      <c r="W21" s="10" t="n">
+      <c r="W21" s="2" t="n">
         <v>5376821437.83218</v>
       </c>
-      <c r="X21" s="10" t="n">
+      <c r="X21" s="2" t="n">
         <v>5930753132.00485</v>
       </c>
-      <c r="Y21" s="10" t="n">
+      <c r="Y21" s="2" t="n">
         <v>5789712387.55746</v>
       </c>
-      <c r="Z21" s="10" t="n">
+      <c r="Z21" s="2" t="n">
         <v>11656319.2890684</v>
       </c>
-      <c r="AA21" s="10" t="n">
+      <c r="AA21" s="2" t="n">
         <v>7692878.03523481</v>
       </c>
-      <c r="AB21" s="10" t="n">
+      <c r="AB21" s="2" t="n">
         <v>13467945.613341</v>
       </c>
-      <c r="AC21" s="10" t="n">
+      <c r="AC21" s="2" t="n">
         <v>3168756.29398567</v>
       </c>
-      <c r="AD21" s="10" t="n">
+      <c r="AD21" s="2" t="n">
         <v>5794109.8049803</v>
       </c>
-      <c r="AE21" s="10" t="n">
+      <c r="AE21" s="2" t="n">
         <v>7840519.02574275</v>
       </c>
-      <c r="AF21" s="10" t="n">
+      <c r="AF21" s="2" t="n">
         <v>2733620.5451712</v>
       </c>
-      <c r="AG21" s="10" t="n">
+      <c r="AG21" s="2" t="n">
         <v>1459242.11183679</v>
       </c>
-      <c r="AH21" s="10" t="n">
+      <c r="AH21" s="2" t="n">
         <v>28712570.594799</v>
       </c>
-      <c r="AI21" s="10" t="n">
+      <c r="AI21" s="2" t="n">
         <v>26756461.8196491</v>
       </c>
-      <c r="AJ21" s="10" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>31855.3448867188</v>
       </c>
-      <c r="AK21" s="10" t="n">
+      <c r="AK21" s="2" t="n">
         <v>-103680.835924263</v>
       </c>
-      <c r="AL21" s="10" t="n">
+      <c r="AL21" s="2" t="n">
         <v>-196894.978747272</v>
       </c>
-      <c r="AM21" s="10" t="n">
+      <c r="AM21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="10" t="n">
+      <c r="AN21" s="2" t="n">
         <v>3321130.78103472</v>
       </c>
-      <c r="AO21" s="10" t="n">
+      <c r="AO21" s="2" t="n">
         <v>-2071182.74156541</v>
       </c>
-      <c r="AP21" s="10" t="n">
+      <c r="AP21" s="2" t="n">
         <v>3622044.90051877</v>
       </c>
-      <c r="AQ21" s="10" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>-64870.7236746093</v>
       </c>
-      <c r="AR21" s="10" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="10" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="10" t="n">
+      <c r="AT21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="10" t="n">
+      <c r="AU21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="10" t="n">
+      <c r="AV21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5102,41 +5345,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -15,12 +15,13 @@
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vend" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -472,6 +473,24 @@
   <si>
     <t xml:space="preserve"/>
   </si>
+  <si>
+    <t xml:space="preserve">Shiny.VendorSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlabeled</t>
+  </si>
 </sst>
 </file>
 
@@ -480,14 +499,14 @@
   <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -527,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -535,7 +554,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,6 +1902,1452 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>K1</f>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>K2</f>
+      </c>
+      <c r="K2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>2981686000</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>2505326000</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>1780174197</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>2514494611</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>2818400874</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <v>2206441815</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>1992790581</v>
+      </c>
+      <c r="S2" s="11" t="n">
+        <v>2150459834</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>2774780202</v>
+      </c>
+      <c r="U2" s="11" t="n">
+        <v>2583314893</v>
+      </c>
+      <c r="V2" s="11" t="n">
+        <v>2294656921</v>
+      </c>
+      <c r="W2" s="11" t="n">
+        <v>3067004103</v>
+      </c>
+      <c r="X2" s="11" t="n">
+        <v>3080217074</v>
+      </c>
+      <c r="Y2" s="11" t="n">
+        <v>3722440399</v>
+      </c>
+      <c r="Z2" s="11" t="n">
+        <v>4590336654</v>
+      </c>
+      <c r="AA2" s="11" t="n">
+        <v>4357456113</v>
+      </c>
+      <c r="AB2" s="11" t="n">
+        <v>5571091582.4062</v>
+      </c>
+      <c r="AC2" s="11" t="n">
+        <v>5767520949.0342</v>
+      </c>
+      <c r="AD2" s="11" t="n">
+        <v>6823809944.8453</v>
+      </c>
+      <c r="AE2" s="11" t="n">
+        <v>7737798739.3084</v>
+      </c>
+      <c r="AF2" s="11" t="n">
+        <v>6263578915.4898</v>
+      </c>
+      <c r="AG2" s="11" t="n">
+        <v>7864123707.353</v>
+      </c>
+      <c r="AH2" s="11" t="n">
+        <v>7719897852.9998</v>
+      </c>
+      <c r="AI2" s="11" t="n">
+        <v>5514457771.085</v>
+      </c>
+      <c r="AJ2" s="11" t="n">
+        <v>6217597329.0561</v>
+      </c>
+      <c r="AK2" s="11" t="n">
+        <v>4197842457.6808</v>
+      </c>
+      <c r="AL2" s="11" t="n">
+        <v>4241490208.5349</v>
+      </c>
+      <c r="AM2" s="11" t="n">
+        <v>4002087723.9339</v>
+      </c>
+      <c r="AN2" s="11" t="n">
+        <v>3197892695.152</v>
+      </c>
+      <c r="AO2" s="11" t="n">
+        <v>5343557006.4935</v>
+      </c>
+      <c r="AP2" s="11" t="n">
+        <v>5490501494.6167</v>
+      </c>
+      <c r="AQ2" s="11" t="n">
+        <v>2581787391.1079</v>
+      </c>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>K3</f>
+      </c>
+      <c r="K3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>993868000</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>828864000</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>689514646</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>599802043</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>442363089</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>509476854</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>471682817</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>423126207</v>
+      </c>
+      <c r="T3" s="11" t="n">
+        <v>222719957</v>
+      </c>
+      <c r="U3" s="11" t="n">
+        <v>297642318</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>306484457</v>
+      </c>
+      <c r="W3" s="11" t="n">
+        <v>378078439</v>
+      </c>
+      <c r="X3" s="11" t="n">
+        <v>602820009</v>
+      </c>
+      <c r="Y3" s="11" t="n">
+        <v>679178107</v>
+      </c>
+      <c r="Z3" s="11" t="n">
+        <v>659053640.0234</v>
+      </c>
+      <c r="AA3" s="11" t="n">
+        <v>975014403</v>
+      </c>
+      <c r="AB3" s="11" t="n">
+        <v>1241667682.87</v>
+      </c>
+      <c r="AC3" s="11" t="n">
+        <v>1078333836.9555</v>
+      </c>
+      <c r="AD3" s="11" t="n">
+        <v>1087838397.57</v>
+      </c>
+      <c r="AE3" s="11" t="n">
+        <v>1132788916.4942</v>
+      </c>
+      <c r="AF3" s="11" t="n">
+        <v>1088582731.6416</v>
+      </c>
+      <c r="AG3" s="11" t="n">
+        <v>855539039.745</v>
+      </c>
+      <c r="AH3" s="11" t="n">
+        <v>651452259.8988</v>
+      </c>
+      <c r="AI3" s="11" t="n">
+        <v>684628670.05</v>
+      </c>
+      <c r="AJ3" s="11" t="n">
+        <v>347500388.8225</v>
+      </c>
+      <c r="AK3" s="11" t="n">
+        <v>346332661.0838</v>
+      </c>
+      <c r="AL3" s="11" t="n">
+        <v>354100352.6726</v>
+      </c>
+      <c r="AM3" s="11" t="n">
+        <v>436462866.8103</v>
+      </c>
+      <c r="AN3" s="11" t="n">
+        <v>890217932.0021</v>
+      </c>
+      <c r="AO3" s="11" t="n">
+        <v>741853889.1073</v>
+      </c>
+      <c r="AP3" s="11" t="n">
+        <v>837425343.8669</v>
+      </c>
+      <c r="AQ3" s="11" t="n">
+        <v>615155855.3139</v>
+      </c>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>K4</f>
+      </c>
+      <c r="K4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>975355000</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <v>1041000000</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>604166123</v>
+      </c>
+      <c r="O4" s="11" t="n">
+        <v>556197708</v>
+      </c>
+      <c r="P4" s="11" t="n">
+        <v>318183914</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>627257865</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <v>389562525</v>
+      </c>
+      <c r="S4" s="11" t="n">
+        <v>457483422</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>469803959</v>
+      </c>
+      <c r="U4" s="11" t="n">
+        <v>491739520</v>
+      </c>
+      <c r="V4" s="11" t="n">
+        <v>475335780</v>
+      </c>
+      <c r="W4" s="11" t="n">
+        <v>556504765</v>
+      </c>
+      <c r="X4" s="11" t="n">
+        <v>628534233</v>
+      </c>
+      <c r="Y4" s="11" t="n">
+        <v>656752195</v>
+      </c>
+      <c r="Z4" s="11" t="n">
+        <v>736266262.9375</v>
+      </c>
+      <c r="AA4" s="11" t="n">
+        <v>899606909.5</v>
+      </c>
+      <c r="AB4" s="11" t="n">
+        <v>902180915.2891</v>
+      </c>
+      <c r="AC4" s="11" t="n">
+        <v>1035767011.9775</v>
+      </c>
+      <c r="AD4" s="11" t="n">
+        <v>1341468616.7674</v>
+      </c>
+      <c r="AE4" s="11" t="n">
+        <v>1136352125.5674</v>
+      </c>
+      <c r="AF4" s="11" t="n">
+        <v>1230711772.3717</v>
+      </c>
+      <c r="AG4" s="11" t="n">
+        <v>1232087201.6256</v>
+      </c>
+      <c r="AH4" s="11" t="n">
+        <v>1138964026.2741</v>
+      </c>
+      <c r="AI4" s="11" t="n">
+        <v>983600525.7601</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>907680778.98</v>
+      </c>
+      <c r="AK4" s="11" t="n">
+        <v>1070882378.1794</v>
+      </c>
+      <c r="AL4" s="11" t="n">
+        <v>1086519341.7277</v>
+      </c>
+      <c r="AM4" s="11" t="n">
+        <v>1206657120.4245</v>
+      </c>
+      <c r="AN4" s="11" t="n">
+        <v>1369022844.0111</v>
+      </c>
+      <c r="AO4" s="11" t="n">
+        <v>503037076.0464</v>
+      </c>
+      <c r="AP4" s="11" t="n">
+        <v>602100898.3821</v>
+      </c>
+      <c r="AQ4" s="11" t="n">
+        <v>298852653.7101</v>
+      </c>
+      <c r="AR4" s="11" t="n">
+        <v>4433760886.0931</v>
+      </c>
+      <c r="AS4" s="11" t="n">
+        <v>2494900579.4575</v>
+      </c>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>K5</f>
+      </c>
+      <c r="K5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <v>152042000</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>155220000</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>126780840</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>97311593</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>123212618</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>103645373</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>95170849</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>148671618</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>84148302</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>137543407</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>106274966</v>
+      </c>
+      <c r="W5" s="11" t="n">
+        <v>152728406</v>
+      </c>
+      <c r="X5" s="11" t="n">
+        <v>182204212</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>231113436.6601</v>
+      </c>
+      <c r="Z5" s="11" t="n">
+        <v>293011523.1993</v>
+      </c>
+      <c r="AA5" s="11" t="n">
+        <v>290076626.7656</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>295517047.0026</v>
+      </c>
+      <c r="AC5" s="11" t="n">
+        <v>328786629.2665</v>
+      </c>
+      <c r="AD5" s="11" t="n">
+        <v>324388090.3841</v>
+      </c>
+      <c r="AE5" s="11" t="n">
+        <v>374073387.3337</v>
+      </c>
+      <c r="AF5" s="11" t="n">
+        <v>506402557.8901</v>
+      </c>
+      <c r="AG5" s="11" t="n">
+        <v>346649984.7589</v>
+      </c>
+      <c r="AH5" s="11" t="n">
+        <v>439016237.3211</v>
+      </c>
+      <c r="AI5" s="11" t="n">
+        <v>388492702.4543</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>376650012.3965</v>
+      </c>
+      <c r="AK5" s="11" t="n">
+        <v>347947976.7045</v>
+      </c>
+      <c r="AL5" s="11" t="n">
+        <v>393739553.0674</v>
+      </c>
+      <c r="AM5" s="11" t="n">
+        <v>405366667.6056</v>
+      </c>
+      <c r="AN5" s="11" t="n">
+        <v>488386980.5274</v>
+      </c>
+      <c r="AO5" s="11" t="n">
+        <v>628055693.0004</v>
+      </c>
+      <c r="AP5" s="11" t="n">
+        <v>416729664.5823</v>
+      </c>
+      <c r="AQ5" s="11" t="n">
+        <v>129271881.2457</v>
+      </c>
+      <c r="AR5" s="11" t="n">
+        <v>209295249.6071</v>
+      </c>
+      <c r="AS5" s="11" t="n">
+        <v>87135100.1596</v>
+      </c>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>K6</f>
+      </c>
+      <c r="K6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>6367000</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>5631000</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>6420201</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>8090311</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>2467234</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>2490913</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>931370</v>
+      </c>
+      <c r="S6" s="11" t="n">
+        <v>324518</v>
+      </c>
+      <c r="T6" s="11" t="n">
+        <v>29306</v>
+      </c>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11" t="n">
+        <v>30436</v>
+      </c>
+      <c r="AA6" s="11" t="n">
+        <v>141820</v>
+      </c>
+      <c r="AB6" s="11" t="n">
+        <v>27709</v>
+      </c>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AE6" s="11" t="n">
+        <v>23585.9492</v>
+      </c>
+      <c r="AF6" s="11" t="n">
+        <v>91430</v>
+      </c>
+      <c r="AG6" s="11" t="n">
+        <v>1776.52</v>
+      </c>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11" t="n">
+        <v>57024.61</v>
+      </c>
+      <c r="AK6" s="11" t="n">
+        <v>57045.85</v>
+      </c>
+      <c r="AL6" s="11" t="n">
+        <v>16258.2796</v>
+      </c>
+      <c r="AM6" s="11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AN6" s="11" t="n">
+        <v>4158.46</v>
+      </c>
+      <c r="AO6" s="11" t="n">
+        <v>-58384.5117</v>
+      </c>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>K7</f>
+      </c>
+      <c r="K7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>Sum(L2:L6)</f>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f>Sum(M2:M6)</f>
+      </c>
+      <c r="N7" s="11" t="str">
+        <f>Sum(N2:N6)</f>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="11" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="11" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="11" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="11" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="11" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="11" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="11" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="11" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="11" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="11" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>K10</f>
+      </c>
+      <c r="K10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>K11</f>
+      </c>
+      <c r="K11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>5926195046.53351</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>4807919893.91958</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>3332996378.52955</v>
+      </c>
+      <c r="O11" s="11" t="n">
+        <v>4599801083.64997</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>5045795022.74727</v>
+      </c>
+      <c r="Q11" s="11" t="n">
+        <v>3868261418.73036</v>
+      </c>
+      <c r="R11" s="11" t="n">
+        <v>3429244574.89111</v>
+      </c>
+      <c r="S11" s="11" t="n">
+        <v>3635974849.16167</v>
+      </c>
+      <c r="T11" s="11" t="n">
+        <v>4633709995.79136</v>
+      </c>
+      <c r="U11" s="11" t="n">
+        <v>4260862405.12465</v>
+      </c>
+      <c r="V11" s="11" t="n">
+        <v>3707546141.1705</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>4838128860.15755</v>
+      </c>
+      <c r="X11" s="11" t="n">
+        <v>4783471896.99515</v>
+      </c>
+      <c r="Y11" s="11" t="n">
+        <v>5672397382.25786</v>
+      </c>
+      <c r="Z11" s="11" t="n">
+        <v>6828030884.5333</v>
+      </c>
+      <c r="AA11" s="11" t="n">
+        <v>6290662024.2889</v>
+      </c>
+      <c r="AB11" s="11" t="n">
+        <v>7789136922.52876</v>
+      </c>
+      <c r="AC11" s="11" t="n">
+        <v>7848540231.84287</v>
+      </c>
+      <c r="AD11" s="11" t="n">
+        <v>9096246279.23512</v>
+      </c>
+      <c r="AE11" s="11" t="n">
+        <v>10210845602.4372</v>
+      </c>
+      <c r="AF11" s="11" t="n">
+        <v>8194187539.14199</v>
+      </c>
+      <c r="AG11" s="11" t="n">
+        <v>10084817698.7154</v>
+      </c>
+      <c r="AH11" s="11" t="n">
+        <v>9721667364.42775</v>
+      </c>
+      <c r="AI11" s="11" t="n">
+        <v>6819558743.04245</v>
+      </c>
+      <c r="AJ11" s="11" t="n">
+        <v>7543179497.20822</v>
+      </c>
+      <c r="AK11" s="11" t="n">
+        <v>5035091922.8318</v>
+      </c>
+      <c r="AL11" s="11" t="n">
+        <v>5045634444.11346</v>
+      </c>
+      <c r="AM11" s="11" t="n">
+        <v>4677335566.83393</v>
+      </c>
+      <c r="AN11" s="11" t="n">
+        <v>3651710437.60402</v>
+      </c>
+      <c r="AO11" s="11" t="n">
+        <v>5984650782.15337</v>
+      </c>
+      <c r="AP11" s="11" t="n">
+        <v>6068271490.20894</v>
+      </c>
+      <c r="AQ11" s="11" t="n">
+        <v>2760673230.04364</v>
+      </c>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>K12</f>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>1975344022.98168</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>1590655952.54021</v>
+      </c>
+      <c r="N12" s="11" t="n">
+        <v>1290969064.6758</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>1097226486.50642</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>791964511.973575</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>893198109.583651</v>
+      </c>
+      <c r="R12" s="11" t="n">
+        <v>811683754.775138</v>
+      </c>
+      <c r="S12" s="11" t="n">
+        <v>715417336.491938</v>
+      </c>
+      <c r="T12" s="11" t="n">
+        <v>371928446.897979</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>490924651.259832</v>
+      </c>
+      <c r="V12" s="11" t="n">
+        <v>495196146.962087</v>
+      </c>
+      <c r="W12" s="11" t="n">
+        <v>596410094.574045</v>
+      </c>
+      <c r="X12" s="11" t="n">
+        <v>936158881.897642</v>
+      </c>
+      <c r="Y12" s="11" t="n">
+        <v>1034957636.1971</v>
+      </c>
+      <c r="Z12" s="11" t="n">
+        <v>980328666.029877</v>
+      </c>
+      <c r="AA12" s="11" t="n">
+        <v>1407584131.43582</v>
+      </c>
+      <c r="AB12" s="11" t="n">
+        <v>1736018776.76838</v>
+      </c>
+      <c r="AC12" s="11" t="n">
+        <v>1467414956.52824</v>
+      </c>
+      <c r="AD12" s="11" t="n">
+        <v>1450105740.96954</v>
+      </c>
+      <c r="AE12" s="11" t="n">
+        <v>1494835044.97408</v>
+      </c>
+      <c r="AF12" s="11" t="n">
+        <v>1424114100.78725</v>
+      </c>
+      <c r="AG12" s="11" t="n">
+        <v>1097128627.55391</v>
+      </c>
+      <c r="AH12" s="11" t="n">
+        <v>820373830.734031</v>
+      </c>
+      <c r="AI12" s="11" t="n">
+        <v>846659023.677386</v>
+      </c>
+      <c r="AJ12" s="11" t="n">
+        <v>421586936.160708</v>
+      </c>
+      <c r="AK12" s="11" t="n">
+        <v>415407867.735775</v>
+      </c>
+      <c r="AL12" s="11" t="n">
+        <v>421234247.463875</v>
+      </c>
+      <c r="AM12" s="11" t="n">
+        <v>510104583.24672</v>
+      </c>
+      <c r="AN12" s="11" t="n">
+        <v>1016550092.17869</v>
+      </c>
+      <c r="AO12" s="11" t="n">
+        <v>830857882.173681</v>
+      </c>
+      <c r="AP12" s="11" t="n">
+        <v>925548302.709402</v>
+      </c>
+      <c r="AQ12" s="11" t="n">
+        <v>657778525.032198</v>
+      </c>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>K13</f>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>1938548851.09019</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>1997761812.06369</v>
+      </c>
+      <c r="N13" s="11" t="n">
+        <v>1131172164.71442</v>
+      </c>
+      <c r="O13" s="11" t="n">
+        <v>1017460450.61698</v>
+      </c>
+      <c r="P13" s="11" t="n">
+        <v>569646008.979858</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <v>1099687914.84976</v>
+      </c>
+      <c r="R13" s="11" t="n">
+        <v>670369073.486269</v>
+      </c>
+      <c r="S13" s="11" t="n">
+        <v>773508153.931144</v>
+      </c>
+      <c r="T13" s="11" t="n">
+        <v>784543330.427241</v>
+      </c>
+      <c r="U13" s="11" t="n">
+        <v>811064280.068795</v>
+      </c>
+      <c r="V13" s="11" t="n">
+        <v>768014303.476468</v>
+      </c>
+      <c r="W13" s="11" t="n">
+        <v>877873544.977678</v>
+      </c>
+      <c r="X13" s="11" t="n">
+        <v>976092193.382506</v>
+      </c>
+      <c r="Y13" s="11" t="n">
+        <v>1000784171.77905</v>
+      </c>
+      <c r="Z13" s="11" t="n">
+        <v>1095180846.5282</v>
+      </c>
+      <c r="AA13" s="11" t="n">
+        <v>1298721748.56705</v>
+      </c>
+      <c r="AB13" s="11" t="n">
+        <v>1261370518.53023</v>
+      </c>
+      <c r="AC13" s="11" t="n">
+        <v>1409489299.84942</v>
+      </c>
+      <c r="AD13" s="11" t="n">
+        <v>1788198823.32725</v>
+      </c>
+      <c r="AE13" s="11" t="n">
+        <v>1499537077.02756</v>
+      </c>
+      <c r="AF13" s="11" t="n">
+        <v>1610051251.13123</v>
+      </c>
+      <c r="AG13" s="11" t="n">
+        <v>1580007548.16418</v>
+      </c>
+      <c r="AH13" s="11" t="n">
+        <v>1434297398.01331</v>
+      </c>
+      <c r="AI13" s="11" t="n">
+        <v>1216388236.80549</v>
+      </c>
+      <c r="AJ13" s="11" t="n">
+        <v>1101196922.16404</v>
+      </c>
+      <c r="AK13" s="11" t="n">
+        <v>1284467263.13139</v>
+      </c>
+      <c r="AL13" s="11" t="n">
+        <v>1292512571.12071</v>
+      </c>
+      <c r="AM13" s="11" t="n">
+        <v>1410249013.92895</v>
+      </c>
+      <c r="AN13" s="11" t="n">
+        <v>1563302926.44671</v>
+      </c>
+      <c r="AO13" s="11" t="n">
+        <v>563388998.555619</v>
+      </c>
+      <c r="AP13" s="11" t="n">
+        <v>665460471.955733</v>
+      </c>
+      <c r="AQ13" s="11" t="n">
+        <v>319559435.322416</v>
+      </c>
+      <c r="AR13" s="11" t="n">
+        <v>4433760886.0931</v>
+      </c>
+      <c r="AS13" s="11" t="n">
+        <v>2379632129.5388</v>
+      </c>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>K14</f>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>302188274.441054</v>
+      </c>
+      <c r="M14" s="11" t="n">
+        <v>297879527.827595</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>237370073.838305</v>
+      </c>
+      <c r="O14" s="11" t="n">
+        <v>178013493.834887</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>220588071.902528</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <v>181707668.373669</v>
+      </c>
+      <c r="R14" s="11" t="n">
+        <v>163772410.775476</v>
+      </c>
+      <c r="S14" s="11" t="n">
+        <v>251372406.629275</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>140522419.694801</v>
+      </c>
+      <c r="U14" s="11" t="n">
+        <v>226861051.104179</v>
+      </c>
+      <c r="V14" s="11" t="n">
+        <v>171711656.104397</v>
+      </c>
+      <c r="W14" s="11" t="n">
+        <v>240925569.063205</v>
+      </c>
+      <c r="X14" s="11" t="n">
+        <v>282956917.216331</v>
+      </c>
+      <c r="Y14" s="11" t="n">
+        <v>352179514.672028</v>
+      </c>
+      <c r="Z14" s="11" t="n">
+        <v>435848583.82567</v>
+      </c>
+      <c r="AA14" s="11" t="n">
+        <v>418770487.368575</v>
+      </c>
+      <c r="AB14" s="11" t="n">
+        <v>413172662.483937</v>
+      </c>
+      <c r="AC14" s="11" t="n">
+        <v>447418416.03926</v>
+      </c>
+      <c r="AD14" s="11" t="n">
+        <v>432414440.618107</v>
+      </c>
+      <c r="AE14" s="11" t="n">
+        <v>493629484.396037</v>
+      </c>
+      <c r="AF14" s="11" t="n">
+        <v>662489861.729187</v>
+      </c>
+      <c r="AG14" s="11" t="n">
+        <v>444538009.78325</v>
+      </c>
+      <c r="AH14" s="11" t="n">
+        <v>552853147.552977</v>
+      </c>
+      <c r="AI14" s="11" t="n">
+        <v>480436865.34735</v>
+      </c>
+      <c r="AJ14" s="11" t="n">
+        <v>456951214.556028</v>
+      </c>
+      <c r="AK14" s="11" t="n">
+        <v>417345354.127083</v>
+      </c>
+      <c r="AL14" s="11" t="n">
+        <v>468388644.860964</v>
+      </c>
+      <c r="AM14" s="11" t="n">
+        <v>473761712.083834</v>
+      </c>
+      <c r="AN14" s="11" t="n">
+        <v>557694708.482721</v>
+      </c>
+      <c r="AO14" s="11" t="n">
+        <v>703406736.33371</v>
+      </c>
+      <c r="AP14" s="11" t="n">
+        <v>460582470.506302</v>
+      </c>
+      <c r="AQ14" s="11" t="n">
+        <v>138228818.988554</v>
+      </c>
+      <c r="AR14" s="11" t="n">
+        <v>209295249.6071</v>
+      </c>
+      <c r="AS14" s="11" t="n">
+        <v>83109317.3241607</v>
+      </c>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>K15</f>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>12654613.4842096</v>
+      </c>
+      <c r="M15" s="11" t="n">
+        <v>10806336.9488287</v>
+      </c>
+      <c r="N15" s="11" t="n">
+        <v>12020456.6039061</v>
+      </c>
+      <c r="O15" s="11" t="n">
+        <v>14799722.0364157</v>
+      </c>
+      <c r="P15" s="11" t="n">
+        <v>4417099.48077203</v>
+      </c>
+      <c r="Q15" s="11" t="n">
+        <v>4366986.96961284</v>
+      </c>
+      <c r="R15" s="11" t="n">
+        <v>1602725.11831806</v>
+      </c>
+      <c r="S15" s="11" t="n">
+        <v>548691.618157536</v>
+      </c>
+      <c r="T15" s="11" t="n">
+        <v>48939.1934679306</v>
+      </c>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11" t="n">
+        <v>45272.9208478781</v>
+      </c>
+      <c r="AA15" s="11" t="n">
+        <v>204739.110423406</v>
+      </c>
+      <c r="AB15" s="11" t="n">
+        <v>38740.9167115381</v>
+      </c>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11" t="n">
+        <v>4025.70763038929</v>
+      </c>
+      <c r="AE15" s="11" t="n">
+        <v>31124.1599558137</v>
+      </c>
+      <c r="AF15" s="11" t="n">
+        <v>119611.260081836</v>
+      </c>
+      <c r="AG15" s="11" t="n">
+        <v>2278.1788543548</v>
+      </c>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11" t="n">
+        <v>69182.1689671235</v>
+      </c>
+      <c r="AK15" s="11" t="n">
+        <v>68423.5059942584</v>
+      </c>
+      <c r="AL15" s="11" t="n">
+        <v>19340.6872392906</v>
+      </c>
+      <c r="AM15" s="11" t="n">
+        <v>4674.89559397892</v>
+      </c>
+      <c r="AN15" s="11" t="n">
+        <v>4748.59328750461</v>
+      </c>
+      <c r="AO15" s="11" t="n">
+        <v>-65389.199214389</v>
+      </c>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>K16</f>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -3550,89 +5015,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>660568306</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="3" t="n">
         <v>1255193652</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="3" t="n">
         <v>1117734282</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="3" t="n">
         <v>619128853</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="3" t="n">
         <v>917858096.9375</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="3" t="n">
         <v>1624622988.5</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="3" t="n">
         <v>839071169.8445</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="3" t="n">
         <v>577754852.5959</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="3" t="n">
         <v>755447169.4419</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="3" t="n">
         <v>1150320037.0268</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>2322720827.1855</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="3" t="n">
         <v>3348348304.6468</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="3" t="n">
         <v>3004863253.0893</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="3" t="n">
         <v>2361852362.8104</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="3" t="n">
         <v>2212894814.1546</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="3" t="n">
         <v>1622250690.0788</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="3" t="n">
         <v>1152593832.1133</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>1625730571.0706</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="3" t="n">
         <v>1223990106.7078</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="3" t="n">
         <v>1920860256.8976</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="3" t="n">
         <v>2486062479.5483</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="3" t="n">
         <v>1498709632.4256</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="3" t="n">
         <v>1845506486.5984</v>
       </c>
-      <c r="AW2" s="11" t="n">
+      <c r="AW2" s="3" t="n">
         <v>342063428.681</v>
       </c>
-      <c r="AX2" s="11"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3650,87 +5115,87 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>50867488</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="3" t="n">
         <v>44451176</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="3" t="n">
         <v>38065170</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="3" t="n">
         <v>13189917</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="3" t="n">
         <v>816632</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="3" t="n">
         <v>74337045</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="3" t="n">
         <v>3568079</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="3" t="n">
         <v>-117149</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="3" t="n">
         <v>-182452.2969</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="3" t="n">
         <v>-775437.125</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>1995733</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="3" t="n">
         <v>3188451.1899</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="3" t="n">
         <v>-38309.8789</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="3" t="n">
         <v>-304973.85</v>
       </c>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11" t="n">
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="3" t="n">
         <v>55404.1707</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="3" t="n">
         <v>9839846</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="3" t="n">
         <v>332379309.0234</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="3" t="n">
         <v>302087828.4492</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="3" t="n">
         <v>240810422.66</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="3" t="n">
         <v>302908854.0313</v>
       </c>
-      <c r="AW3" s="11" t="n">
+      <c r="AW3" s="3" t="n">
         <v>50728874</v>
       </c>
-      <c r="AX3" s="11"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3748,89 +5213,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>7232135</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="3" t="n">
         <v>11989370</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="3" t="n">
         <v>4892070</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="3" t="n">
         <v>17522856</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="3" t="n">
         <v>35578117</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="3" t="n">
         <v>42478443</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="3" t="n">
         <v>52699731</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="3" t="n">
         <v>44945586.5066</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="3" t="n">
         <v>47763138.9275</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="3" t="n">
         <v>31557043.6605</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>59754399.5352</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="3" t="n">
         <v>37554990.2104</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="3" t="n">
         <v>46437871.1566</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="3" t="n">
         <v>48014626.7009</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="3" t="n">
         <v>37832921.3988</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="3" t="n">
         <v>71208970.0455</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="3" t="n">
         <v>89906384.0068</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>91827386.448</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="3" t="n">
         <v>53948223.7761</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="3" t="n">
         <v>49098720.5044</v>
       </c>
-      <c r="AT4" s="11" t="n">
+      <c r="AT4" s="3" t="n">
         <v>52191945.0264</v>
       </c>
-      <c r="AU4" s="11" t="n">
+      <c r="AU4" s="3" t="n">
         <v>-699074.3672</v>
       </c>
-      <c r="AV4" s="11" t="n">
+      <c r="AV4" s="3" t="n">
         <v>3842652.875</v>
       </c>
-      <c r="AW4" s="11" t="n">
+      <c r="AW4" s="3" t="n">
         <v>562000</v>
       </c>
-      <c r="AX4" s="11"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3848,89 +5313,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>142126379</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="3" t="n">
         <v>84925188</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="3" t="n">
         <v>151641248</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="3" t="n">
         <v>706106012</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="3" t="n">
         <v>883972087</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="3" t="n">
         <v>502235052</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="3" t="n">
         <v>763339154</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="3" t="n">
         <v>989242230.875</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="3" t="n">
         <v>751531103.7705</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="3" t="n">
         <v>884082480.0027</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>1709704072.0279</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="3" t="n">
         <v>2497030829.4912</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="3" t="n">
         <v>2630248457.4023</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="3" t="n">
         <v>2585533770.8901</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="3" t="n">
         <v>3395222451.0736</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="3" t="n">
         <v>2141174887.2238</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="3" t="n">
         <v>1972087563.7815</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>1884329025.6903</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="3" t="n">
         <v>1888201468.605</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="3" t="n">
         <v>2148001423.4643</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="3" t="n">
         <v>2091721352.527</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="3" t="n">
         <v>1399164931.6664</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="3" t="n">
         <v>1857568522.1803</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="3" t="n">
         <v>1906988458.2657</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3948,89 +5413,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>2161469493</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="3" t="n">
         <v>2279862272</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="3" t="n">
         <v>2600195782</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="3" t="n">
         <v>3076776464.6601</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="3" t="n">
         <v>3329314204.2227</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="3" t="n">
         <v>3257780997.7656</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="3" t="n">
         <v>4820257444.7234</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="3" t="n">
         <v>4938626475.8685</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="3" t="n">
         <v>5422282115.8575</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="3" t="n">
         <v>6147279635.1446</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>4558077296.9564</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="3" t="n">
         <v>3754352033.8076</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="3" t="n">
         <v>2321510944.0609</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="3" t="n">
         <v>2009322633.618</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="3" t="n">
         <v>1821472651.4881</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="3" t="n">
         <v>1937444693.0404</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="3" t="n">
         <v>1734827328.6473</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>1770294955.4252</v>
       </c>
-      <c r="AR6" s="11" t="n">
+      <c r="AR6" s="3" t="n">
         <v>2259684994.2863</v>
       </c>
-      <c r="AS6" s="11" t="n">
+      <c r="AS6" s="3" t="n">
         <v>1893631478.9228</v>
       </c>
-      <c r="AT6" s="11" t="n">
+      <c r="AT6" s="3" t="n">
         <v>1932681746.7133</v>
       </c>
-      <c r="AU6" s="11" t="n">
+      <c r="AU6" s="3" t="n">
         <v>478155631.9928</v>
       </c>
-      <c r="AV6" s="11" t="n">
+      <c r="AV6" s="3" t="n">
         <v>626919395.0152</v>
       </c>
-      <c r="AW6" s="11" t="n">
+      <c r="AW6" s="3" t="n">
         <v>279295707.6704</v>
       </c>
-      <c r="AX6" s="11"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4048,89 +5513,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>153274049</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="3" t="n">
         <v>473017358</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="3" t="n">
         <v>572574573</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="3" t="n">
         <v>854680578</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="3" t="n">
         <v>1107264125</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="3" t="n">
         <v>1015410325</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="3" t="n">
         <v>1490691604</v>
       </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AG7" s="3" t="n">
         <v>1465268241.3877</v>
       </c>
-      <c r="AH7" s="11" t="n">
+      <c r="AH7" s="3" t="n">
         <v>1842174702.1836</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="3" t="n">
         <v>993400053.5157</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>437791993.8982</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AK7" s="3" t="n">
         <v>658829581.793</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="3" t="n">
         <v>1944537862.8029</v>
       </c>
-      <c r="AM7" s="11" t="n">
+      <c r="AM7" s="3" t="n">
         <v>566425464.98</v>
       </c>
-      <c r="AN7" s="11" t="n">
+      <c r="AN7" s="3" t="n">
         <v>379325195.75</v>
       </c>
-      <c r="AO7" s="11" t="n">
+      <c r="AO7" s="3" t="n">
         <v>192710059.67</v>
       </c>
-      <c r="AP7" s="11" t="n">
+      <c r="AP7" s="3" t="n">
         <v>1123350417.3733</v>
       </c>
-      <c r="AQ7" s="11" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>678451945.7423</v>
       </c>
-      <c r="AR7" s="11" t="n">
+      <c r="AR7" s="3" t="n">
         <v>509859970.7774</v>
       </c>
-      <c r="AS7" s="11" t="n">
+      <c r="AS7" s="3" t="n">
         <v>872474091.3234</v>
       </c>
-      <c r="AT7" s="11" t="n">
+      <c r="AT7" s="3" t="n">
         <v>482012049.1838</v>
       </c>
-      <c r="AU7" s="11" t="n">
+      <c r="AU7" s="3" t="n">
         <v>8926237</v>
       </c>
-      <c r="AV7" s="11" t="n">
+      <c r="AV7" s="3" t="n">
         <v>6310225</v>
       </c>
-      <c r="AW7" s="11" t="n">
+      <c r="AW7" s="3" t="n">
         <v>2397211</v>
       </c>
-      <c r="AX7" s="11"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4148,61 +5613,61 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" s="11" t="n">
+      <c r="AF8" s="3" t="n">
         <v>38902563</v>
       </c>
-      <c r="AG8" s="11" t="n">
+      <c r="AG8" s="3" t="n">
         <v>193615861</v>
       </c>
-      <c r="AH8" s="11" t="n">
+      <c r="AH8" s="3" t="n">
         <v>736952733.6329</v>
       </c>
-      <c r="AI8" s="11" t="n">
+      <c r="AI8" s="3" t="n">
         <v>1154896843.4053</v>
       </c>
-      <c r="AJ8" s="11" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>-701265.21</v>
       </c>
-      <c r="AK8" s="11" t="n">
+      <c r="AK8" s="3" t="n">
         <v>-821630.9967</v>
       </c>
-      <c r="AL8" s="11" t="n">
+      <c r="AL8" s="3" t="n">
         <v>1926650.5795</v>
       </c>
-      <c r="AM8" s="11" t="n">
+      <c r="AM8" s="3" t="n">
         <v>335784.2</v>
       </c>
-      <c r="AN8" s="11" t="n">
+      <c r="AN8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4218,107 +5683,107 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="3" t="n">
         <v>5109318000</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="3" t="n">
         <v>4536041000</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="3" t="n">
         <v>3207056007</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="3" t="n">
         <v>3775896266</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="3" t="n">
         <v>3704627729</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="3" t="n">
         <v>3449312820</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="3" t="n">
         <v>2950138142</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="3" t="n">
         <v>3180065599</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="3" t="n">
         <v>3551481726</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="3" t="n">
         <v>3510240138</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="3" t="n">
         <v>7214274</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="3" t="n">
         <v>4876697</v>
       </c>
-      <c r="AB9" s="11" t="n">
+      <c r="AB9" s="3" t="n">
         <v>8672403</v>
       </c>
-      <c r="AC9" s="11" t="n">
+      <c r="AC9" s="3" t="n">
         <v>2079457</v>
       </c>
-      <c r="AD9" s="11" t="n">
+      <c r="AD9" s="3" t="n">
         <v>3895254</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="3" t="n">
         <v>5431021</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="3" t="n">
         <v>1955191</v>
       </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AG9" s="3" t="n">
         <v>1072328</v>
       </c>
-      <c r="AH9" s="11" t="n">
+      <c r="AH9" s="3" t="n">
         <v>21539558.0498</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AI9" s="3" t="n">
         <v>20276099.0223</v>
       </c>
-      <c r="AJ9" s="11" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>24350</v>
       </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AK9" s="3" t="n">
         <v>-80850.1397</v>
       </c>
-      <c r="AL9" s="11" t="n">
+      <c r="AL9" s="3" t="n">
         <v>-156352.7188</v>
       </c>
-      <c r="AM9" s="11" t="n">
+      <c r="AM9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="11" t="n">
+      <c r="AN9" s="3" t="n">
         <v>2737500</v>
       </c>
-      <c r="AO9" s="11" t="n">
+      <c r="AO9" s="3" t="n">
         <v>-1726780.56</v>
       </c>
-      <c r="AP9" s="11" t="n">
+      <c r="AP9" s="3" t="n">
         <v>3044784.1893</v>
       </c>
-      <c r="AQ9" s="11" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>-55505.6021</v>
       </c>
-      <c r="AR9" s="11" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="11" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="11" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="11" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="11" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="11"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4333,107 +5798,107 @@
       <c r="O10" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4570,89 +6035,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>1067300061.92932</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="3" t="n">
         <v>1980039292.05299</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="3" t="n">
         <v>1735803158.61046</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="3" t="n">
         <v>943452280.923279</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="3" t="n">
         <v>1365294945.86133</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="3" t="n">
         <v>2345394623.03558</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="3" t="n">
         <v>1173134588.25647</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="3" t="n">
         <v>786218592.842857</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="3" t="n">
         <v>1007022991.51598</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="3" t="n">
         <v>1517969216.7233</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>3038647762.85663</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="3" t="n">
         <v>4293864580.56261</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="3" t="n">
         <v>3784024293.89336</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="3" t="n">
         <v>2920829499.32719</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="3" t="n">
         <v>2684680578.07523</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="3" t="n">
         <v>1945804643.4017</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="3" t="n">
         <v>1371114125.80448</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>1900030170.9237</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="3" t="n">
         <v>1397688376.15</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="3" t="n">
         <v>2151315654.51252</v>
       </c>
-      <c r="AT14" s="11" t="n">
+      <c r="AT14" s="3" t="n">
         <v>2747672882.39747</v>
       </c>
-      <c r="AU14" s="11" t="n">
+      <c r="AU14" s="3" t="n">
         <v>1602551618.34624</v>
       </c>
-      <c r="AV14" s="11" t="n">
+      <c r="AV14" s="3" t="n">
         <v>1845506486.5984</v>
       </c>
-      <c r="AW14" s="11" t="n">
+      <c r="AW14" s="3" t="n">
         <v>326259543.940027</v>
       </c>
-      <c r="AX14" s="11"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4670,87 +6135,87 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>82188128.9178727</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="3" t="n">
         <v>70120713.9772589</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="3" t="n">
         <v>59113908.7197148</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="3" t="n">
         <v>20099301.1689583</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="3" t="n">
         <v>1214723.21914326</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="3" t="n">
         <v>107317024.854073</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="3" t="n">
         <v>4988655.35960114</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="3" t="n">
         <v>-159418.34416295</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="3" t="n">
         <v>-243211.789341849</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="3" t="n">
         <v>-1023271.47868937</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>2610873.22450948</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="3" t="n">
         <v>4088815.25621585</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="3" t="n">
         <v>-48243.6304895651</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="3" t="n">
         <v>-377151.693149625</v>
       </c>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11" t="n">
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="3" t="n">
         <v>65908.248819941</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AR15" s="11" t="n">
+      <c r="AR15" s="3" t="n">
         <v>11236233.2848408</v>
       </c>
-      <c r="AS15" s="11" t="n">
+      <c r="AS15" s="3" t="n">
         <v>372256549.20519</v>
       </c>
-      <c r="AT15" s="11" t="n">
+      <c r="AT15" s="3" t="n">
         <v>333876779.50999</v>
       </c>
-      <c r="AU15" s="11" t="n">
+      <c r="AU15" s="3" t="n">
         <v>257495597.678814</v>
       </c>
-      <c r="AV15" s="11" t="n">
+      <c r="AV15" s="3" t="n">
         <v>302908854.0313</v>
       </c>
-      <c r="AW15" s="11" t="n">
+      <c r="AW15" s="3" t="n">
         <v>48385117.8117785</v>
       </c>
-      <c r="AX15" s="11"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4768,89 +6233,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>11685177.8434874</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="3" t="n">
         <v>18912957.0956127</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="3" t="n">
         <v>7597217.59893507</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="3" t="n">
         <v>26701999.7232953</v>
       </c>
-      <c r="AD16" s="11" t="n">
+      <c r="AD16" s="3" t="n">
         <v>52921713.5910614</v>
       </c>
-      <c r="AE16" s="11" t="n">
+      <c r="AE16" s="3" t="n">
         <v>61324204.1460397</v>
       </c>
-      <c r="AF16" s="11" t="n">
+      <c r="AF16" s="3" t="n">
         <v>73681326.9837042</v>
       </c>
-      <c r="AG16" s="11" t="n">
+      <c r="AG16" s="3" t="n">
         <v>61162715.6724754</v>
       </c>
-      <c r="AH16" s="11" t="n">
+      <c r="AH16" s="3" t="n">
         <v>63669017.4939671</v>
       </c>
-      <c r="AI16" s="11" t="n">
+      <c r="AI16" s="3" t="n">
         <v>41642863.9904812</v>
       </c>
-      <c r="AJ16" s="11" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>78172361.6300856</v>
       </c>
-      <c r="AK16" s="11" t="n">
+      <c r="AK16" s="3" t="n">
         <v>48159876.9351512</v>
       </c>
-      <c r="AL16" s="11" t="n">
+      <c r="AL16" s="3" t="n">
         <v>58479211.1363485</v>
       </c>
-      <c r="AM16" s="11" t="n">
+      <c r="AM16" s="3" t="n">
         <v>59378198.3477982</v>
       </c>
-      <c r="AN16" s="11" t="n">
+      <c r="AN16" s="3" t="n">
         <v>45898841.9338893</v>
       </c>
-      <c r="AO16" s="11" t="n">
+      <c r="AO16" s="3" t="n">
         <v>85411425.8750328</v>
       </c>
-      <c r="AP16" s="11" t="n">
+      <c r="AP16" s="3" t="n">
         <v>106951737.617496</v>
       </c>
-      <c r="AQ16" s="11" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>107320861.078089</v>
       </c>
-      <c r="AR16" s="11" t="n">
+      <c r="AR16" s="3" t="n">
         <v>61604097.0205281</v>
       </c>
-      <c r="AS16" s="11" t="n">
+      <c r="AS16" s="3" t="n">
         <v>54989344.3098509</v>
       </c>
-      <c r="AT16" s="11" t="n">
+      <c r="AT16" s="3" t="n">
         <v>57684146.3995204</v>
       </c>
-      <c r="AU16" s="11" t="n">
+      <c r="AU16" s="3" t="n">
         <v>-747511.548776512</v>
       </c>
-      <c r="AV16" s="11" t="n">
+      <c r="AV16" s="3" t="n">
         <v>3842652.875</v>
       </c>
-      <c r="AW16" s="11" t="n">
+      <c r="AW16" s="3" t="n">
         <v>536034.689242649</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4868,89 +6333,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>229637861.415182</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="3" t="n">
         <v>133967542.663279</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="3" t="n">
         <v>235493678.142397</v>
       </c>
-      <c r="AC17" s="11" t="n">
+      <c r="AC17" s="3" t="n">
         <v>1075991410.13549</v>
       </c>
-      <c r="AD17" s="11" t="n">
+      <c r="AD17" s="3" t="n">
         <v>1314890206.54766</v>
       </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AE17" s="3" t="n">
         <v>725053996.40342</v>
       </c>
-      <c r="AF17" s="11" t="n">
+      <c r="AF17" s="3" t="n">
         <v>1067251022.6919</v>
       </c>
-      <c r="AG17" s="11" t="n">
+      <c r="AG17" s="3" t="n">
         <v>1346177589.4131</v>
       </c>
-      <c r="AH17" s="11" t="n">
+      <c r="AH17" s="3" t="n">
         <v>1001802814.21318</v>
       </c>
-      <c r="AI17" s="11" t="n">
+      <c r="AI17" s="3" t="n">
         <v>1166640540.45094</v>
       </c>
-      <c r="AJ17" s="11" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>2236682253.33373</v>
       </c>
-      <c r="AK17" s="11" t="n">
+      <c r="AK17" s="3" t="n">
         <v>3202149615.21338</v>
       </c>
-      <c r="AL17" s="11" t="n">
+      <c r="AL17" s="3" t="n">
         <v>3312271881.77473</v>
       </c>
-      <c r="AM17" s="11" t="n">
+      <c r="AM17" s="3" t="n">
         <v>3197449353.07318</v>
       </c>
-      <c r="AN17" s="11" t="n">
+      <c r="AN17" s="3" t="n">
         <v>4119078645.01213</v>
       </c>
-      <c r="AO17" s="11" t="n">
+      <c r="AO17" s="3" t="n">
         <v>2568227009.16391</v>
       </c>
-      <c r="AP17" s="11" t="n">
+      <c r="AP17" s="3" t="n">
         <v>2345975694.72188</v>
       </c>
-      <c r="AQ17" s="11" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>2202260364.95154</v>
       </c>
-      <c r="AR17" s="11" t="n">
+      <c r="AR17" s="3" t="n">
         <v>2156158967.32782</v>
       </c>
-      <c r="AS17" s="11" t="n">
+      <c r="AS17" s="3" t="n">
         <v>2405708104.80373</v>
       </c>
-      <c r="AT17" s="11" t="n">
+      <c r="AT17" s="3" t="n">
         <v>2311834913.70436</v>
       </c>
-      <c r="AU17" s="11" t="n">
+      <c r="AU17" s="3" t="n">
         <v>1496109704.68398</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="3" t="n">
         <v>1857568522.1803</v>
       </c>
-      <c r="AW17" s="11" t="n">
+      <c r="AW17" s="3" t="n">
         <v>1818882501.09568</v>
       </c>
-      <c r="AX17" s="11"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4968,89 +6433,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>3492351211.49943</v>
       </c>
-      <c r="AA18" s="11" t="n">
+      <c r="AA18" s="3" t="n">
         <v>3596430615.97416</v>
       </c>
-      <c r="AB18" s="11" t="n">
+      <c r="AB18" s="3" t="n">
         <v>4038015227.8457</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="3" t="n">
         <v>4688509927.14861</v>
       </c>
-      <c r="AD18" s="11" t="n">
+      <c r="AD18" s="3" t="n">
         <v>4952286057.48096</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="3" t="n">
         <v>4703110868.96633</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="3" t="n">
         <v>6739369598.11615</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="3" t="n">
         <v>6720566588.03971</v>
       </c>
-      <c r="AH18" s="11" t="n">
+      <c r="AH18" s="3" t="n">
         <v>7227987578.78508</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="3" t="n">
         <v>8111987057.8436</v>
       </c>
-      <c r="AJ18" s="11" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>5963003051.94534</v>
       </c>
-      <c r="AK18" s="11" t="n">
+      <c r="AK18" s="3" t="n">
         <v>4814516816.71156</v>
       </c>
-      <c r="AL18" s="11" t="n">
+      <c r="AL18" s="3" t="n">
         <v>2923478731.29809</v>
       </c>
-      <c r="AM18" s="11" t="n">
+      <c r="AM18" s="3" t="n">
         <v>2484866926.63287</v>
       </c>
-      <c r="AN18" s="11" t="n">
+      <c r="AN18" s="3" t="n">
         <v>2209807813.5781</v>
       </c>
-      <c r="AO18" s="11" t="n">
+      <c r="AO18" s="3" t="n">
         <v>2323863323.4108</v>
       </c>
-      <c r="AP18" s="11" t="n">
+      <c r="AP18" s="3" t="n">
         <v>2063733285.62645</v>
       </c>
-      <c r="AQ18" s="11" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>2068986021.7901</v>
       </c>
-      <c r="AR18" s="11" t="n">
+      <c r="AR18" s="3" t="n">
         <v>2580360276.57903</v>
       </c>
-      <c r="AS18" s="11" t="n">
+      <c r="AS18" s="3" t="n">
         <v>2120820101.23108</v>
       </c>
-      <c r="AT18" s="11" t="n">
+      <c r="AT18" s="3" t="n">
         <v>2136059439.14715</v>
       </c>
-      <c r="AU18" s="11" t="n">
+      <c r="AU18" s="3" t="n">
         <v>511285885.733088</v>
       </c>
-      <c r="AV18" s="11" t="n">
+      <c r="AV18" s="3" t="n">
         <v>626919395.0152</v>
       </c>
-      <c r="AW18" s="11" t="n">
+      <c r="AW18" s="3" t="n">
         <v>266391793.359268</v>
       </c>
-      <c r="AX18" s="11"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5068,89 +6533,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>247649486.819092</v>
       </c>
-      <c r="AA19" s="11" t="n">
+      <c r="AA19" s="3" t="n">
         <v>746174068.973939</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="3" t="n">
         <v>889188752.961085</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AC19" s="3" t="n">
         <v>1302395029.51242</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="3" t="n">
         <v>1647032497.33276</v>
       </c>
-      <c r="AE19" s="11" t="n">
+      <c r="AE19" s="3" t="n">
         <v>1465901894.3396</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="3" t="n">
         <v>2084187782.78368</v>
       </c>
-      <c r="AG19" s="11" t="n">
+      <c r="AG19" s="3" t="n">
         <v>1993961850.26407</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="3" t="n">
         <v>2455647932.14922</v>
       </c>
-      <c r="AI19" s="11" t="n">
+      <c r="AI19" s="3" t="n">
         <v>1310896665.78848</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>572731620.298622</v>
       </c>
-      <c r="AK19" s="11" t="n">
+      <c r="AK19" s="3" t="n">
         <v>844871784.08587</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="3" t="n">
         <v>2448756530.16047</v>
       </c>
-      <c r="AM19" s="11" t="n">
+      <c r="AM19" s="3" t="n">
         <v>700480789.288232</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="3" t="n">
         <v>460196742.87757</v>
       </c>
-      <c r="AO19" s="11" t="n">
+      <c r="AO19" s="3" t="n">
         <v>231145612.222171</v>
       </c>
-      <c r="AP19" s="11" t="n">
+      <c r="AP19" s="3" t="n">
         <v>1336326451.3266</v>
       </c>
-      <c r="AQ19" s="11" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>792923002.969276</v>
       </c>
-      <c r="AR19" s="11" t="n">
+      <c r="AR19" s="3" t="n">
         <v>582214962.943219</v>
       </c>
-      <c r="AS19" s="11" t="n">
+      <c r="AS19" s="3" t="n">
         <v>977149255.954791</v>
       </c>
-      <c r="AT19" s="11" t="n">
+      <c r="AT19" s="3" t="n">
         <v>532734574.221883</v>
       </c>
-      <c r="AU19" s="11" t="n">
+      <c r="AU19" s="3" t="n">
         <v>9544714.49345426</v>
       </c>
-      <c r="AV19" s="11" t="n">
+      <c r="AV19" s="3" t="n">
         <v>6310225</v>
       </c>
-      <c r="AW19" s="11" t="n">
+      <c r="AW19" s="3" t="n">
         <v>2286455.96696452</v>
       </c>
-      <c r="AX19" s="11"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5168,61 +6633,61 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="11" t="n">
+      <c r="AF20" s="3" t="n">
         <v>54391026.4913336</v>
       </c>
-      <c r="AG20" s="11" t="n">
+      <c r="AG20" s="3" t="n">
         <v>263475744.259908</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="3" t="n">
         <v>982369616.894773</v>
       </c>
-      <c r="AI20" s="11" t="n">
+      <c r="AI20" s="3" t="n">
         <v>1524008797.85711</v>
       </c>
-      <c r="AJ20" s="11" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>-917414.58404958</v>
       </c>
-      <c r="AK20" s="11" t="n">
+      <c r="AK20" s="3" t="n">
         <v>-1053645.53326976</v>
       </c>
-      <c r="AL20" s="11" t="n">
+      <c r="AL20" s="3" t="n">
         <v>2426231.07430142</v>
       </c>
-      <c r="AM20" s="11" t="n">
+      <c r="AM20" s="3" t="n">
         <v>415253.896564877</v>
       </c>
-      <c r="AN20" s="11" t="n">
+      <c r="AN20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5238,107 +6703,107 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="3" t="n">
         <v>10154930808.5306</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="3" t="n">
         <v>8705023523.2999</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="3" t="n">
         <v>6004528138.36198</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="3" t="n">
         <v>6907301236.64467</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="3" t="n">
         <v>6632410715.084</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="3" t="n">
         <v>6047222098.50706</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="3" t="n">
         <v>5076672539.04631</v>
       </c>
-      <c r="W21" s="11" t="n">
+      <c r="W21" s="3" t="n">
         <v>5376821437.83218</v>
       </c>
-      <c r="X21" s="11" t="n">
+      <c r="X21" s="3" t="n">
         <v>5930753132.00485</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="3" t="n">
         <v>5789712387.55746</v>
       </c>
-      <c r="Z21" s="11" t="n">
+      <c r="Z21" s="3" t="n">
         <v>11656319.2890684</v>
       </c>
-      <c r="AA21" s="11" t="n">
+      <c r="AA21" s="3" t="n">
         <v>7692878.03523481</v>
       </c>
-      <c r="AB21" s="11" t="n">
+      <c r="AB21" s="3" t="n">
         <v>13467945.613341</v>
       </c>
-      <c r="AC21" s="11" t="n">
+      <c r="AC21" s="3" t="n">
         <v>3168756.29398567</v>
       </c>
-      <c r="AD21" s="11" t="n">
+      <c r="AD21" s="3" t="n">
         <v>5794109.8049803</v>
       </c>
-      <c r="AE21" s="11" t="n">
+      <c r="AE21" s="3" t="n">
         <v>7840519.02574275</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="3" t="n">
         <v>2733620.5451712</v>
       </c>
-      <c r="AG21" s="11" t="n">
+      <c r="AG21" s="3" t="n">
         <v>1459242.11183679</v>
       </c>
-      <c r="AH21" s="11" t="n">
+      <c r="AH21" s="3" t="n">
         <v>28712570.594799</v>
       </c>
-      <c r="AI21" s="11" t="n">
+      <c r="AI21" s="3" t="n">
         <v>26756461.8196491</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>31855.3448867188</v>
       </c>
-      <c r="AK21" s="11" t="n">
+      <c r="AK21" s="3" t="n">
         <v>-103680.835924263</v>
       </c>
-      <c r="AL21" s="11" t="n">
+      <c r="AL21" s="3" t="n">
         <v>-196894.978747272</v>
       </c>
-      <c r="AM21" s="11" t="n">
+      <c r="AM21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="11" t="n">
+      <c r="AN21" s="3" t="n">
         <v>3321130.78103472</v>
       </c>
-      <c r="AO21" s="11" t="n">
+      <c r="AO21" s="3" t="n">
         <v>-2071182.74156541</v>
       </c>
-      <c r="AP21" s="11" t="n">
+      <c r="AP21" s="3" t="n">
         <v>3622044.90051877</v>
       </c>
-      <c r="AQ21" s="11" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>-64870.7236746093</v>
       </c>
-      <c r="AR21" s="11" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="11" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="11" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="11" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="11" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5347,41 +6812,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -496,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
@@ -507,6 +507,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -542,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -555,6 +556,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2030,106 +2032,106 @@
       <c r="K2" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="11" t="n">
+      <c r="L2" s="12" t="n">
         <v>2981686000</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="M2" s="12" t="n">
         <v>2505326000</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="12" t="n">
         <v>1780174197</v>
       </c>
-      <c r="O2" s="11" t="n">
+      <c r="O2" s="12" t="n">
         <v>2514494611</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="12" t="n">
         <v>2818400874</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="12" t="n">
         <v>2206441815</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="12" t="n">
         <v>1992790581</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="12" t="n">
         <v>2150459834</v>
       </c>
-      <c r="T2" s="11" t="n">
+      <c r="T2" s="12" t="n">
         <v>2774780202</v>
       </c>
-      <c r="U2" s="11" t="n">
+      <c r="U2" s="12" t="n">
         <v>2583314893</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="12" t="n">
         <v>2294656921</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="12" t="n">
         <v>3067004103</v>
       </c>
-      <c r="X2" s="11" t="n">
+      <c r="X2" s="12" t="n">
         <v>3080217074</v>
       </c>
-      <c r="Y2" s="11" t="n">
+      <c r="Y2" s="12" t="n">
         <v>3722440399</v>
       </c>
-      <c r="Z2" s="11" t="n">
+      <c r="Z2" s="12" t="n">
         <v>4590336654</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="12" t="n">
         <v>4357456113</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="12" t="n">
         <v>5571091582.4062</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="12" t="n">
         <v>5767520949.0342</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="12" t="n">
         <v>6823809944.8453</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="12" t="n">
         <v>7737798739.3084</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="12" t="n">
         <v>6263578915.4898</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="12" t="n">
         <v>7864123707.353</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="12" t="n">
         <v>7719897852.9998</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="12" t="n">
         <v>5514457771.085</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>6217597329.0561</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="12" t="n">
         <v>4197842457.6808</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="12" t="n">
         <v>4241490208.5349</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="12" t="n">
         <v>4002087723.9339</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="12" t="n">
         <v>3197892695.152</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="12" t="n">
         <v>5343557006.4935</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="12" t="n">
         <v>5490501494.6167</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>2581787391.1079</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2138,106 +2140,106 @@
       <c r="K3" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="11" t="n">
+      <c r="L3" s="12" t="n">
         <v>993868000</v>
       </c>
-      <c r="M3" s="11" t="n">
+      <c r="M3" s="12" t="n">
         <v>828864000</v>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="12" t="n">
         <v>689514646</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="12" t="n">
         <v>599802043</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="12" t="n">
         <v>442363089</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="12" t="n">
         <v>509476854</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="12" t="n">
         <v>471682817</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="12" t="n">
         <v>423126207</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="12" t="n">
         <v>222719957</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="12" t="n">
         <v>297642318</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="12" t="n">
         <v>306484457</v>
       </c>
-      <c r="W3" s="11" t="n">
+      <c r="W3" s="12" t="n">
         <v>378078439</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="12" t="n">
         <v>602820009</v>
       </c>
-      <c r="Y3" s="11" t="n">
+      <c r="Y3" s="12" t="n">
         <v>679178107</v>
       </c>
-      <c r="Z3" s="11" t="n">
+      <c r="Z3" s="12" t="n">
         <v>659053640.0234</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="12" t="n">
         <v>975014403</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="12" t="n">
         <v>1241667682.87</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="12" t="n">
         <v>1078333836.9555</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="12" t="n">
         <v>1087838397.57</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="12" t="n">
         <v>1132788916.4942</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="12" t="n">
         <v>1088582731.6416</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="12" t="n">
         <v>855539039.745</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="12" t="n">
         <v>651452259.8988</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="12" t="n">
         <v>684628670.05</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>347500388.8225</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="12" t="n">
         <v>346332661.0838</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="12" t="n">
         <v>354100352.6726</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="12" t="n">
         <v>436462866.8103</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="12" t="n">
         <v>890217932.0021</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="12" t="n">
         <v>741853889.1073</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="12" t="n">
         <v>837425343.8669</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>615155855.3139</v>
       </c>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2246,110 +2248,110 @@
       <c r="K4" t="s">
         <v>142</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="12" t="n">
         <v>975355000</v>
       </c>
-      <c r="M4" s="11" t="n">
+      <c r="M4" s="12" t="n">
         <v>1041000000</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="12" t="n">
         <v>604166123</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="12" t="n">
         <v>556197708</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="12" t="n">
         <v>318183914</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="12" t="n">
         <v>627257865</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="12" t="n">
         <v>389562525</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="12" t="n">
         <v>457483422</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <v>469803959</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="12" t="n">
         <v>491739520</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="12" t="n">
         <v>475335780</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="12" t="n">
         <v>556504765</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="12" t="n">
         <v>628534233</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="Y4" s="12" t="n">
         <v>656752195</v>
       </c>
-      <c r="Z4" s="11" t="n">
+      <c r="Z4" s="12" t="n">
         <v>736266262.9375</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="12" t="n">
         <v>899606909.5</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="12" t="n">
         <v>902180915.2891</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="12" t="n">
         <v>1035767011.9775</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="12" t="n">
         <v>1341468616.7674</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="12" t="n">
         <v>1136352125.5674</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="12" t="n">
         <v>1230711772.3717</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="12" t="n">
         <v>1232087201.6256</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="12" t="n">
         <v>1138964026.2741</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="12" t="n">
         <v>983600525.7601</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>907680778.98</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="12" t="n">
         <v>1070882378.1794</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="12" t="n">
         <v>1086519341.7277</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="12" t="n">
         <v>1206657120.4245</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="12" t="n">
         <v>1369022844.0111</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="12" t="n">
         <v>503037076.0464</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="12" t="n">
         <v>602100898.3821</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>298852653.7101</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="12" t="n">
         <v>4433760886.0931</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="12" t="n">
         <v>2494900579.4575</v>
       </c>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2358,110 +2360,110 @@
       <c r="K5" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="12" t="n">
         <v>152042000</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="12" t="n">
         <v>155220000</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="12" t="n">
         <v>126780840</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="12" t="n">
         <v>97311593</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="12" t="n">
         <v>123212618</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="12" t="n">
         <v>103645373</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="12" t="n">
         <v>95170849</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="12" t="n">
         <v>148671618</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="12" t="n">
         <v>84148302</v>
       </c>
-      <c r="U5" s="11" t="n">
+      <c r="U5" s="12" t="n">
         <v>137543407</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="12" t="n">
         <v>106274966</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="12" t="n">
         <v>152728406</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="12" t="n">
         <v>182204212</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="12" t="n">
         <v>231113436.6601</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="12" t="n">
         <v>293011523.1993</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="12" t="n">
         <v>290076626.7656</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="12" t="n">
         <v>295517047.0026</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="12" t="n">
         <v>328786629.2665</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="12" t="n">
         <v>324388090.3841</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="12" t="n">
         <v>374073387.3337</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="12" t="n">
         <v>506402557.8901</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="12" t="n">
         <v>346649984.7589</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="12" t="n">
         <v>439016237.3211</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="12" t="n">
         <v>388492702.4543</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>376650012.3965</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="12" t="n">
         <v>347947976.7045</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="12" t="n">
         <v>393739553.0674</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="12" t="n">
         <v>405366667.6056</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="12" t="n">
         <v>488386980.5274</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="12" t="n">
         <v>628055693.0004</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="12" t="n">
         <v>416729664.5823</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>129271881.2457</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="12" t="n">
         <v>209295249.6071</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="12" t="n">
         <v>87135100.1596</v>
       </c>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2470,86 +2472,86 @@
       <c r="K6" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="12" t="n">
         <v>6367000</v>
       </c>
-      <c r="M6" s="11" t="n">
+      <c r="M6" s="12" t="n">
         <v>5631000</v>
       </c>
-      <c r="N6" s="11" t="n">
+      <c r="N6" s="12" t="n">
         <v>6420201</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="12" t="n">
         <v>8090311</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="12" t="n">
         <v>2467234</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="Q6" s="12" t="n">
         <v>2490913</v>
       </c>
-      <c r="R6" s="11" t="n">
+      <c r="R6" s="12" t="n">
         <v>931370</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="12" t="n">
         <v>324518</v>
       </c>
-      <c r="T6" s="11" t="n">
+      <c r="T6" s="12" t="n">
         <v>29306</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="n">
         <v>30436</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="12" t="n">
         <v>141820</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="12" t="n">
         <v>27709</v>
       </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11" t="n">
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12" t="n">
         <v>3020</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="12" t="n">
         <v>23585.9492</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="12" t="n">
         <v>91430</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="12" t="n">
         <v>1776.52</v>
       </c>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11" t="n">
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12" t="n">
         <v>57024.61</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="12" t="n">
         <v>57045.85</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="12" t="n">
         <v>16258.2796</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="12" t="n">
         <v>4000</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="12" t="n">
         <v>4158.46</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="12" t="n">
         <v>-58384.5117</v>
       </c>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2558,110 +2560,110 @@
       <c r="K7" t="s">
         <v>137</v>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="11" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="11" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="11" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="11" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="11" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="11" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="11" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="11" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="11" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="11" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="11" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="11" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="11" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="11" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="11" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="11" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="11" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="11" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="11" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="11" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="11" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="11" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="11" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="11" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="11" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="11" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="11" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2780,106 +2782,106 @@
       <c r="K11" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <v>5926195046.53351</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="12" t="n">
         <v>4807919893.91958</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="12" t="n">
         <v>3332996378.52955</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="12" t="n">
         <v>4599801083.64997</v>
       </c>
-      <c r="P11" s="11" t="n">
+      <c r="P11" s="12" t="n">
         <v>5045795022.74727</v>
       </c>
-      <c r="Q11" s="11" t="n">
+      <c r="Q11" s="12" t="n">
         <v>3868261418.73036</v>
       </c>
-      <c r="R11" s="11" t="n">
+      <c r="R11" s="12" t="n">
         <v>3429244574.89111</v>
       </c>
-      <c r="S11" s="11" t="n">
+      <c r="S11" s="12" t="n">
         <v>3635974849.16167</v>
       </c>
-      <c r="T11" s="11" t="n">
+      <c r="T11" s="12" t="n">
         <v>4633709995.79136</v>
       </c>
-      <c r="U11" s="11" t="n">
+      <c r="U11" s="12" t="n">
         <v>4260862405.12465</v>
       </c>
-      <c r="V11" s="11" t="n">
+      <c r="V11" s="12" t="n">
         <v>3707546141.1705</v>
       </c>
-      <c r="W11" s="11" t="n">
+      <c r="W11" s="12" t="n">
         <v>4838128860.15755</v>
       </c>
-      <c r="X11" s="11" t="n">
+      <c r="X11" s="12" t="n">
         <v>4783471896.99515</v>
       </c>
-      <c r="Y11" s="11" t="n">
+      <c r="Y11" s="12" t="n">
         <v>5672397382.25786</v>
       </c>
-      <c r="Z11" s="11" t="n">
+      <c r="Z11" s="12" t="n">
         <v>6828030884.5333</v>
       </c>
-      <c r="AA11" s="11" t="n">
+      <c r="AA11" s="12" t="n">
         <v>6290662024.2889</v>
       </c>
-      <c r="AB11" s="11" t="n">
+      <c r="AB11" s="12" t="n">
         <v>7789136922.52876</v>
       </c>
-      <c r="AC11" s="11" t="n">
+      <c r="AC11" s="12" t="n">
         <v>7848540231.84287</v>
       </c>
-      <c r="AD11" s="11" t="n">
+      <c r="AD11" s="12" t="n">
         <v>9096246279.23512</v>
       </c>
-      <c r="AE11" s="11" t="n">
+      <c r="AE11" s="12" t="n">
         <v>10210845602.4372</v>
       </c>
-      <c r="AF11" s="11" t="n">
+      <c r="AF11" s="12" t="n">
         <v>8194187539.14199</v>
       </c>
-      <c r="AG11" s="11" t="n">
+      <c r="AG11" s="12" t="n">
         <v>10084817698.7154</v>
       </c>
-      <c r="AH11" s="11" t="n">
+      <c r="AH11" s="12" t="n">
         <v>9721667364.42775</v>
       </c>
-      <c r="AI11" s="11" t="n">
+      <c r="AI11" s="12" t="n">
         <v>6819558743.04245</v>
       </c>
-      <c r="AJ11" s="11" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>7543179497.20822</v>
       </c>
-      <c r="AK11" s="11" t="n">
+      <c r="AK11" s="12" t="n">
         <v>5035091922.8318</v>
       </c>
-      <c r="AL11" s="11" t="n">
+      <c r="AL11" s="12" t="n">
         <v>5045634444.11346</v>
       </c>
-      <c r="AM11" s="11" t="n">
+      <c r="AM11" s="12" t="n">
         <v>4677335566.83393</v>
       </c>
-      <c r="AN11" s="11" t="n">
+      <c r="AN11" s="12" t="n">
         <v>3651710437.60402</v>
       </c>
-      <c r="AO11" s="11" t="n">
+      <c r="AO11" s="12" t="n">
         <v>5984650782.15337</v>
       </c>
-      <c r="AP11" s="11" t="n">
+      <c r="AP11" s="12" t="n">
         <v>6068271490.20894</v>
       </c>
-      <c r="AQ11" s="11" t="n">
+      <c r="AQ11" s="12" t="n">
         <v>2760673230.04364</v>
       </c>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2888,106 +2890,106 @@
       <c r="K12" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>1975344022.98168</v>
       </c>
-      <c r="M12" s="11" t="n">
+      <c r="M12" s="12" t="n">
         <v>1590655952.54021</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="12" t="n">
         <v>1290969064.6758</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="12" t="n">
         <v>1097226486.50642</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="12" t="n">
         <v>791964511.973575</v>
       </c>
-      <c r="Q12" s="11" t="n">
+      <c r="Q12" s="12" t="n">
         <v>893198109.583651</v>
       </c>
-      <c r="R12" s="11" t="n">
+      <c r="R12" s="12" t="n">
         <v>811683754.775138</v>
       </c>
-      <c r="S12" s="11" t="n">
+      <c r="S12" s="12" t="n">
         <v>715417336.491938</v>
       </c>
-      <c r="T12" s="11" t="n">
+      <c r="T12" s="12" t="n">
         <v>371928446.897979</v>
       </c>
-      <c r="U12" s="11" t="n">
+      <c r="U12" s="12" t="n">
         <v>490924651.259832</v>
       </c>
-      <c r="V12" s="11" t="n">
+      <c r="V12" s="12" t="n">
         <v>495196146.962087</v>
       </c>
-      <c r="W12" s="11" t="n">
+      <c r="W12" s="12" t="n">
         <v>596410094.574045</v>
       </c>
-      <c r="X12" s="11" t="n">
+      <c r="X12" s="12" t="n">
         <v>936158881.897642</v>
       </c>
-      <c r="Y12" s="11" t="n">
+      <c r="Y12" s="12" t="n">
         <v>1034957636.1971</v>
       </c>
-      <c r="Z12" s="11" t="n">
+      <c r="Z12" s="12" t="n">
         <v>980328666.029877</v>
       </c>
-      <c r="AA12" s="11" t="n">
+      <c r="AA12" s="12" t="n">
         <v>1407584131.43582</v>
       </c>
-      <c r="AB12" s="11" t="n">
+      <c r="AB12" s="12" t="n">
         <v>1736018776.76838</v>
       </c>
-      <c r="AC12" s="11" t="n">
+      <c r="AC12" s="12" t="n">
         <v>1467414956.52824</v>
       </c>
-      <c r="AD12" s="11" t="n">
+      <c r="AD12" s="12" t="n">
         <v>1450105740.96954</v>
       </c>
-      <c r="AE12" s="11" t="n">
+      <c r="AE12" s="12" t="n">
         <v>1494835044.97408</v>
       </c>
-      <c r="AF12" s="11" t="n">
+      <c r="AF12" s="12" t="n">
         <v>1424114100.78725</v>
       </c>
-      <c r="AG12" s="11" t="n">
+      <c r="AG12" s="12" t="n">
         <v>1097128627.55391</v>
       </c>
-      <c r="AH12" s="11" t="n">
+      <c r="AH12" s="12" t="n">
         <v>820373830.734031</v>
       </c>
-      <c r="AI12" s="11" t="n">
+      <c r="AI12" s="12" t="n">
         <v>846659023.677386</v>
       </c>
-      <c r="AJ12" s="11" t="n">
+      <c r="AJ12" s="12" t="n">
         <v>421586936.160708</v>
       </c>
-      <c r="AK12" s="11" t="n">
+      <c r="AK12" s="12" t="n">
         <v>415407867.735775</v>
       </c>
-      <c r="AL12" s="11" t="n">
+      <c r="AL12" s="12" t="n">
         <v>421234247.463875</v>
       </c>
-      <c r="AM12" s="11" t="n">
+      <c r="AM12" s="12" t="n">
         <v>510104583.24672</v>
       </c>
-      <c r="AN12" s="11" t="n">
+      <c r="AN12" s="12" t="n">
         <v>1016550092.17869</v>
       </c>
-      <c r="AO12" s="11" t="n">
+      <c r="AO12" s="12" t="n">
         <v>830857882.173681</v>
       </c>
-      <c r="AP12" s="11" t="n">
+      <c r="AP12" s="12" t="n">
         <v>925548302.709402</v>
       </c>
-      <c r="AQ12" s="11" t="n">
+      <c r="AQ12" s="12" t="n">
         <v>657778525.032198</v>
       </c>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2996,110 +2998,110 @@
       <c r="K13" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>1938548851.09019</v>
       </c>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="12" t="n">
         <v>1997761812.06369</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="12" t="n">
         <v>1131172164.71442</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="12" t="n">
         <v>1017460450.61698</v>
       </c>
-      <c r="P13" s="11" t="n">
+      <c r="P13" s="12" t="n">
         <v>569646008.979858</v>
       </c>
-      <c r="Q13" s="11" t="n">
+      <c r="Q13" s="12" t="n">
         <v>1099687914.84976</v>
       </c>
-      <c r="R13" s="11" t="n">
+      <c r="R13" s="12" t="n">
         <v>670369073.486269</v>
       </c>
-      <c r="S13" s="11" t="n">
+      <c r="S13" s="12" t="n">
         <v>773508153.931144</v>
       </c>
-      <c r="T13" s="11" t="n">
+      <c r="T13" s="12" t="n">
         <v>784543330.427241</v>
       </c>
-      <c r="U13" s="11" t="n">
+      <c r="U13" s="12" t="n">
         <v>811064280.068795</v>
       </c>
-      <c r="V13" s="11" t="n">
+      <c r="V13" s="12" t="n">
         <v>768014303.476468</v>
       </c>
-      <c r="W13" s="11" t="n">
+      <c r="W13" s="12" t="n">
         <v>877873544.977678</v>
       </c>
-      <c r="X13" s="11" t="n">
+      <c r="X13" s="12" t="n">
         <v>976092193.382506</v>
       </c>
-      <c r="Y13" s="11" t="n">
+      <c r="Y13" s="12" t="n">
         <v>1000784171.77905</v>
       </c>
-      <c r="Z13" s="11" t="n">
+      <c r="Z13" s="12" t="n">
         <v>1095180846.5282</v>
       </c>
-      <c r="AA13" s="11" t="n">
+      <c r="AA13" s="12" t="n">
         <v>1298721748.56705</v>
       </c>
-      <c r="AB13" s="11" t="n">
+      <c r="AB13" s="12" t="n">
         <v>1261370518.53023</v>
       </c>
-      <c r="AC13" s="11" t="n">
+      <c r="AC13" s="12" t="n">
         <v>1409489299.84942</v>
       </c>
-      <c r="AD13" s="11" t="n">
+      <c r="AD13" s="12" t="n">
         <v>1788198823.32725</v>
       </c>
-      <c r="AE13" s="11" t="n">
+      <c r="AE13" s="12" t="n">
         <v>1499537077.02756</v>
       </c>
-      <c r="AF13" s="11" t="n">
+      <c r="AF13" s="12" t="n">
         <v>1610051251.13123</v>
       </c>
-      <c r="AG13" s="11" t="n">
+      <c r="AG13" s="12" t="n">
         <v>1580007548.16418</v>
       </c>
-      <c r="AH13" s="11" t="n">
+      <c r="AH13" s="12" t="n">
         <v>1434297398.01331</v>
       </c>
-      <c r="AI13" s="11" t="n">
+      <c r="AI13" s="12" t="n">
         <v>1216388236.80549</v>
       </c>
-      <c r="AJ13" s="11" t="n">
+      <c r="AJ13" s="12" t="n">
         <v>1101196922.16404</v>
       </c>
-      <c r="AK13" s="11" t="n">
+      <c r="AK13" s="12" t="n">
         <v>1284467263.13139</v>
       </c>
-      <c r="AL13" s="11" t="n">
+      <c r="AL13" s="12" t="n">
         <v>1292512571.12071</v>
       </c>
-      <c r="AM13" s="11" t="n">
+      <c r="AM13" s="12" t="n">
         <v>1410249013.92895</v>
       </c>
-      <c r="AN13" s="11" t="n">
+      <c r="AN13" s="12" t="n">
         <v>1563302926.44671</v>
       </c>
-      <c r="AO13" s="11" t="n">
+      <c r="AO13" s="12" t="n">
         <v>563388998.555619</v>
       </c>
-      <c r="AP13" s="11" t="n">
+      <c r="AP13" s="12" t="n">
         <v>665460471.955733</v>
       </c>
-      <c r="AQ13" s="11" t="n">
+      <c r="AQ13" s="12" t="n">
         <v>319559435.322416</v>
       </c>
-      <c r="AR13" s="11" t="n">
+      <c r="AR13" s="12" t="n">
         <v>4433760886.0931</v>
       </c>
-      <c r="AS13" s="11" t="n">
+      <c r="AS13" s="12" t="n">
         <v>2379632129.5388</v>
       </c>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3108,110 +3110,110 @@
       <c r="K14" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <v>302188274.441054</v>
       </c>
-      <c r="M14" s="11" t="n">
+      <c r="M14" s="12" t="n">
         <v>297879527.827595</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="12" t="n">
         <v>237370073.838305</v>
       </c>
-      <c r="O14" s="11" t="n">
+      <c r="O14" s="12" t="n">
         <v>178013493.834887</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="12" t="n">
         <v>220588071.902528</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="Q14" s="12" t="n">
         <v>181707668.373669</v>
       </c>
-      <c r="R14" s="11" t="n">
+      <c r="R14" s="12" t="n">
         <v>163772410.775476</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="12" t="n">
         <v>251372406.629275</v>
       </c>
-      <c r="T14" s="11" t="n">
+      <c r="T14" s="12" t="n">
         <v>140522419.694801</v>
       </c>
-      <c r="U14" s="11" t="n">
+      <c r="U14" s="12" t="n">
         <v>226861051.104179</v>
       </c>
-      <c r="V14" s="11" t="n">
+      <c r="V14" s="12" t="n">
         <v>171711656.104397</v>
       </c>
-      <c r="W14" s="11" t="n">
+      <c r="W14" s="12" t="n">
         <v>240925569.063205</v>
       </c>
-      <c r="X14" s="11" t="n">
+      <c r="X14" s="12" t="n">
         <v>282956917.216331</v>
       </c>
-      <c r="Y14" s="11" t="n">
+      <c r="Y14" s="12" t="n">
         <v>352179514.672028</v>
       </c>
-      <c r="Z14" s="11" t="n">
+      <c r="Z14" s="12" t="n">
         <v>435848583.82567</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="12" t="n">
         <v>418770487.368575</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="12" t="n">
         <v>413172662.483937</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="12" t="n">
         <v>447418416.03926</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="12" t="n">
         <v>432414440.618107</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="12" t="n">
         <v>493629484.396037</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="12" t="n">
         <v>662489861.729187</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="12" t="n">
         <v>444538009.78325</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="12" t="n">
         <v>552853147.552977</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="12" t="n">
         <v>480436865.34735</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="12" t="n">
         <v>456951214.556028</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="12" t="n">
         <v>417345354.127083</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="12" t="n">
         <v>468388644.860964</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="12" t="n">
         <v>473761712.083834</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="12" t="n">
         <v>557694708.482721</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="12" t="n">
         <v>703406736.33371</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="12" t="n">
         <v>460582470.506302</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>138228818.988554</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="12" t="n">
         <v>209295249.6071</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="12" t="n">
         <v>83109317.3241607</v>
       </c>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3220,127 +3222,127 @@
       <c r="K15" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <v>12654613.4842096</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="12" t="n">
         <v>10806336.9488287</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="12" t="n">
         <v>12020456.6039061</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="12" t="n">
         <v>14799722.0364157</v>
       </c>
-      <c r="P15" s="11" t="n">
+      <c r="P15" s="12" t="n">
         <v>4417099.48077203</v>
       </c>
-      <c r="Q15" s="11" t="n">
+      <c r="Q15" s="12" t="n">
         <v>4366986.96961284</v>
       </c>
-      <c r="R15" s="11" t="n">
+      <c r="R15" s="12" t="n">
         <v>1602725.11831806</v>
       </c>
-      <c r="S15" s="11" t="n">
+      <c r="S15" s="12" t="n">
         <v>548691.618157536</v>
       </c>
-      <c r="T15" s="11" t="n">
+      <c r="T15" s="12" t="n">
         <v>48939.1934679306</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12" t="n">
         <v>45272.9208478781</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="12" t="n">
         <v>204739.110423406</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="12" t="n">
         <v>38740.9167115381</v>
       </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11" t="n">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12" t="n">
         <v>4025.70763038929</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="12" t="n">
         <v>31124.1599558137</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="12" t="n">
         <v>119611.260081836</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="12" t="n">
         <v>2278.1788543548</v>
       </c>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11" t="n">
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12" t="n">
         <v>69182.1689671235</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="12" t="n">
         <v>68423.5059942584</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="12" t="n">
         <v>19340.6872392906</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="12" t="n">
         <v>4674.89559397892</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="12" t="n">
         <v>4748.59328750461</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="12" t="n">
         <v>-65389.199214389</v>
       </c>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="11"/>
-      <c r="AU16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -506,8 +506,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -555,8 +555,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2128,8 +2128,12 @@
       <c r="AQ2" s="12" t="n">
         <v>2581787391.1079</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
+      <c r="AR2" s="12" t="n">
+        <v>3413000193.4499</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>2152920714.0524</v>
+      </c>
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
     </row>
@@ -2180,10 +2184,10 @@
         <v>602820009</v>
       </c>
       <c r="Y3" s="12" t="n">
-        <v>679178107</v>
+        <v>677385545</v>
       </c>
       <c r="Z3" s="12" t="n">
-        <v>659053640.0234</v>
+        <v>658949059.0234</v>
       </c>
       <c r="AA3" s="12" t="n">
         <v>975014403</v>
@@ -2236,8 +2240,12 @@
       <c r="AQ3" s="12" t="n">
         <v>615155855.3139</v>
       </c>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
+      <c r="AR3" s="12" t="n">
+        <v>822791273.7971</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>179936802.7508</v>
+      </c>
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
     </row>
@@ -2288,10 +2296,10 @@
         <v>628534233</v>
       </c>
       <c r="Y4" s="12" t="n">
-        <v>656752195</v>
+        <v>658544757</v>
       </c>
       <c r="Z4" s="12" t="n">
-        <v>736266262.9375</v>
+        <v>736370843.9375</v>
       </c>
       <c r="AA4" s="12" t="n">
         <v>899606909.5</v>
@@ -2345,10 +2353,10 @@
         <v>298852653.7101</v>
       </c>
       <c r="AR4" s="12" t="n">
-        <v>4433760886.0931</v>
+        <v>283448297.893</v>
       </c>
       <c r="AS4" s="12" t="n">
-        <v>2494900579.4575</v>
+        <v>185089623.5606</v>
       </c>
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
@@ -2457,10 +2465,10 @@
         <v>129271881.2457</v>
       </c>
       <c r="AR5" s="12" t="n">
-        <v>209295249.6071</v>
+        <v>123816370.5602</v>
       </c>
       <c r="AS5" s="12" t="n">
-        <v>87135100.1596</v>
+        <v>64088539.2533</v>
       </c>
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
@@ -2878,8 +2886,12 @@
       <c r="AQ11" s="12" t="n">
         <v>2760673230.04364</v>
       </c>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
+      <c r="AR11" s="12" t="n">
+        <v>3413000193.4499</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>2053452288.11591</v>
+      </c>
       <c r="AT11" s="12"/>
       <c r="AU11" s="12"/>
     </row>
@@ -2903,7 +2915,7 @@
         <v>1097226486.50642</v>
       </c>
       <c r="P12" s="12" t="n">
-        <v>791964511.973575</v>
+        <v>791964511.973574</v>
       </c>
       <c r="Q12" s="12" t="n">
         <v>893198109.583651</v>
@@ -2930,10 +2942,10 @@
         <v>936158881.897642</v>
       </c>
       <c r="Y12" s="12" t="n">
-        <v>1034957636.1971</v>
+        <v>1032226061.50243</v>
       </c>
       <c r="Z12" s="12" t="n">
-        <v>980328666.029877</v>
+        <v>980173103.954203</v>
       </c>
       <c r="AA12" s="12" t="n">
         <v>1407584131.43582</v>
@@ -2963,7 +2975,7 @@
         <v>846659023.677386</v>
       </c>
       <c r="AJ12" s="12" t="n">
-        <v>421586936.160708</v>
+        <v>421586936.160709</v>
       </c>
       <c r="AK12" s="12" t="n">
         <v>415407867.735775</v>
@@ -2986,8 +2998,12 @@
       <c r="AQ12" s="12" t="n">
         <v>657778525.032198</v>
       </c>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="AR12" s="12" t="n">
+        <v>822791273.7971</v>
+      </c>
+      <c r="AS12" s="12" t="n">
+        <v>171623430.864486</v>
+      </c>
       <c r="AT12" s="12"/>
       <c r="AU12" s="12"/>
     </row>
@@ -3038,10 +3054,10 @@
         <v>976092193.382506</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>1000784171.77905</v>
+        <v>1003515746.47373</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>1095180846.5282</v>
+        <v>1095336408.60388</v>
       </c>
       <c r="AA13" s="12" t="n">
         <v>1298721748.56705</v>
@@ -3095,10 +3111,10 @@
         <v>319559435.322416</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>4433760886.0931</v>
+        <v>283448297.893</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>2379632129.5388</v>
+        <v>176538183.002394</v>
       </c>
       <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
@@ -3207,10 +3223,10 @@
         <v>138228818.988554</v>
       </c>
       <c r="AR14" s="12" t="n">
-        <v>209295249.6071</v>
+        <v>123816370.5602</v>
       </c>
       <c r="AS14" s="12" t="n">
-        <v>83109317.3241607</v>
+        <v>61127544.8801744</v>
       </c>
       <c r="AT14" s="12"/>
       <c r="AU14" s="12"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -491,6 +491,9 @@
   <si>
     <t xml:space="preserve">Unlabeled</t>
   </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
 </sst>
 </file>
 
@@ -506,8 +509,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -555,8 +558,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2032,110 +2035,110 @@
       <c r="K2" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="11" t="n">
         <v>2981686000</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="11" t="n">
         <v>2505326000</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="11" t="n">
         <v>1780174197</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="11" t="n">
         <v>2514494611</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="11" t="n">
         <v>2818400874</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="11" t="n">
         <v>2206441815</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="11" t="n">
         <v>1992790581</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="11" t="n">
         <v>2150459834</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="11" t="n">
         <v>2774780202</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="11" t="n">
         <v>2583314893</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="11" t="n">
         <v>2294656921</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="11" t="n">
         <v>3067004103</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="11" t="n">
         <v>3080217074</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="11" t="n">
         <v>3722440399</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="11" t="n">
         <v>4590336654</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="11" t="n">
         <v>4357456113</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="11" t="n">
         <v>5571091582.4062</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="11" t="n">
         <v>5767520949.0342</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="11" t="n">
         <v>6823809944.8453</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="11" t="n">
         <v>7737798739.3084</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="11" t="n">
         <v>6263578915.4898</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="11" t="n">
         <v>7864123707.353</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="11" t="n">
         <v>7719897852.9998</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="11" t="n">
         <v>5514457771.085</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>6217597329.0561</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="11" t="n">
         <v>4197842457.6808</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="11" t="n">
         <v>4241490208.5349</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="11" t="n">
         <v>4002087723.9339</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="11" t="n">
         <v>3197892695.152</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="11" t="n">
         <v>5343557006.4935</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="11" t="n">
         <v>5490501494.6167</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="11" t="n">
         <v>2581787391.1079</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="11" t="n">
         <v>3413000193.4499</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="11" t="n">
         <v>2152920714.0524</v>
       </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2144,110 +2147,110 @@
       <c r="K3" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="11" t="n">
         <v>993868000</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="11" t="n">
         <v>828864000</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="11" t="n">
         <v>689514646</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="11" t="n">
         <v>599802043</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="11" t="n">
         <v>442363089</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="11" t="n">
         <v>509476854</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="11" t="n">
         <v>471682817</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="11" t="n">
         <v>423126207</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="11" t="n">
         <v>222719957</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="11" t="n">
         <v>297642318</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="11" t="n">
         <v>306484457</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="11" t="n">
         <v>378078439</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="11" t="n">
         <v>602820009</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="11" t="n">
         <v>677385545</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="11" t="n">
         <v>658949059.0234</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="11" t="n">
         <v>975014403</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="11" t="n">
         <v>1241667682.87</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="11" t="n">
         <v>1078333836.9555</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="11" t="n">
         <v>1087838397.57</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="11" t="n">
         <v>1132788916.4942</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="11" t="n">
         <v>1088582731.6416</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="11" t="n">
         <v>855539039.745</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="11" t="n">
         <v>651452259.8988</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="11" t="n">
         <v>684628670.05</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>347500388.8225</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="11" t="n">
         <v>346332661.0838</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="11" t="n">
         <v>354100352.6726</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="11" t="n">
         <v>436462866.8103</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="11" t="n">
         <v>890217932.0021</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="11" t="n">
         <v>741853889.1073</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="11" t="n">
         <v>837425343.8669</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="11" t="n">
         <v>615155855.3139</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="11" t="n">
         <v>822791273.7971</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="11" t="n">
         <v>179936802.7508</v>
       </c>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2256,110 +2259,110 @@
       <c r="K4" t="s">
         <v>142</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="11" t="n">
         <v>975355000</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="11" t="n">
         <v>1041000000</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="11" t="n">
         <v>604166123</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="11" t="n">
         <v>556197708</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="11" t="n">
         <v>318183914</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="11" t="n">
         <v>627257865</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="11" t="n">
         <v>389562525</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="11" t="n">
         <v>457483422</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="11" t="n">
         <v>469803959</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="11" t="n">
         <v>491739520</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="11" t="n">
         <v>475335780</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="11" t="n">
         <v>556504765</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="11" t="n">
         <v>628534233</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="11" t="n">
         <v>658544757</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="11" t="n">
         <v>736370843.9375</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="11" t="n">
         <v>899606909.5</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="11" t="n">
         <v>902180915.2891</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="11" t="n">
         <v>1035767011.9775</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="11" t="n">
         <v>1341468616.7674</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="11" t="n">
         <v>1136352125.5674</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="11" t="n">
         <v>1230711772.3717</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="11" t="n">
         <v>1232087201.6256</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="11" t="n">
         <v>1138964026.2741</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="11" t="n">
         <v>983600525.7601</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="11" t="n">
         <v>907680778.98</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="11" t="n">
         <v>1070882378.1794</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="11" t="n">
         <v>1086519341.7277</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="11" t="n">
         <v>1206657120.4245</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="11" t="n">
         <v>1369022844.0111</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="11" t="n">
         <v>503037076.0464</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="11" t="n">
         <v>602100898.3821</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="11" t="n">
         <v>298852653.7101</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="11" t="n">
         <v>283448297.893</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="11" t="n">
         <v>185089623.5606</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2368,110 +2371,110 @@
       <c r="K5" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="11" t="n">
         <v>152042000</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="11" t="n">
         <v>155220000</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="11" t="n">
         <v>126780840</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="11" t="n">
         <v>97311593</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="11" t="n">
         <v>123212618</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="11" t="n">
         <v>103645373</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="11" t="n">
         <v>95170849</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="11" t="n">
         <v>148671618</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="11" t="n">
         <v>84148302</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="11" t="n">
         <v>137543407</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="11" t="n">
         <v>106274966</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="11" t="n">
         <v>152728406</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="11" t="n">
         <v>182204212</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="11" t="n">
         <v>231113436.6601</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="11" t="n">
         <v>293011523.1993</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="11" t="n">
         <v>290076626.7656</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="11" t="n">
         <v>295517047.0026</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="11" t="n">
         <v>328786629.2665</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="11" t="n">
         <v>324388090.3841</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="11" t="n">
         <v>374073387.3337</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="11" t="n">
         <v>506402557.8901</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="11" t="n">
         <v>346649984.7589</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="11" t="n">
         <v>439016237.3211</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="11" t="n">
         <v>388492702.4543</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="11" t="n">
         <v>376650012.3965</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="11" t="n">
         <v>347947976.7045</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="11" t="n">
         <v>393739553.0674</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="11" t="n">
         <v>405366667.6056</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="11" t="n">
         <v>488386980.5274</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="11" t="n">
         <v>628055693.0004</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="11" t="n">
         <v>416729664.5823</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="11" t="n">
         <v>129271881.2457</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="11" t="n">
         <v>123816370.5602</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="11" t="n">
         <v>64088539.2533</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2480,86 +2483,86 @@
       <c r="K6" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="11" t="n">
         <v>6367000</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="11" t="n">
         <v>5631000</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="11" t="n">
         <v>6420201</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="11" t="n">
         <v>8090311</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="11" t="n">
         <v>2467234</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="11" t="n">
         <v>2490913</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="11" t="n">
         <v>931370</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="11" t="n">
         <v>324518</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="11" t="n">
         <v>29306</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11" t="n">
         <v>30436</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="11" t="n">
         <v>141820</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="11" t="n">
         <v>27709</v>
       </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12" t="n">
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11" t="n">
         <v>3020</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="11" t="n">
         <v>23585.9492</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="11" t="n">
         <v>91430</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="11" t="n">
         <v>1776.52</v>
       </c>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12" t="n">
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11" t="n">
         <v>57024.61</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="11" t="n">
         <v>57045.85</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="11" t="n">
         <v>16258.2796</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="11" t="n">
         <v>4000</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="11" t="n">
         <v>4158.46</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="11" t="n">
         <v>-58384.5117</v>
       </c>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2568,110 +2571,110 @@
       <c r="K7" t="s">
         <v>137</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="11" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="11" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="11" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="11" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="11" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="11" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="11" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="11" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="11" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="11" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="11" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="11" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="11" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="11" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="11" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="11" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="11" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="11" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="11" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="11" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="11" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="11" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="11" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12" t="str">
+      <c r="AI7" s="11" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="12" t="str">
+      <c r="AJ7" s="11" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="12" t="str">
+      <c r="AK7" s="11" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="12" t="str">
+      <c r="AL7" s="11" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="12" t="str">
+      <c r="AM7" s="11" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="12" t="str">
+      <c r="AN7" s="11" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="12" t="str">
+      <c r="AO7" s="11" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="12" t="str">
+      <c r="AP7" s="11" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="12" t="str">
+      <c r="AQ7" s="11" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="12" t="str">
+      <c r="AR7" s="11" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="12" t="str">
+      <c r="AS7" s="11" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2790,110 +2793,110 @@
       <c r="K11" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="11" t="n">
         <v>5926195046.53351</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="11" t="n">
         <v>4807919893.91958</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="11" t="n">
         <v>3332996378.52955</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="11" t="n">
         <v>4599801083.64997</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="11" t="n">
         <v>5045795022.74727</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="11" t="n">
         <v>3868261418.73036</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="11" t="n">
         <v>3429244574.89111</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="11" t="n">
         <v>3635974849.16167</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="11" t="n">
         <v>4633709995.79136</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="11" t="n">
         <v>4260862405.12465</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="11" t="n">
         <v>3707546141.1705</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="11" t="n">
         <v>4838128860.15755</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="11" t="n">
         <v>4783471896.99515</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="11" t="n">
         <v>5672397382.25786</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="11" t="n">
         <v>6828030884.5333</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="11" t="n">
         <v>6290662024.2889</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="11" t="n">
         <v>7789136922.52876</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="11" t="n">
         <v>7848540231.84287</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="11" t="n">
         <v>9096246279.23512</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="11" t="n">
         <v>10210845602.4372</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="11" t="n">
         <v>8194187539.14199</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="11" t="n">
         <v>10084817698.7154</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="11" t="n">
         <v>9721667364.42775</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="11" t="n">
         <v>6819558743.04245</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="11" t="n">
         <v>7543179497.20822</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="11" t="n">
         <v>5035091922.8318</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="11" t="n">
         <v>5045634444.11346</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="11" t="n">
         <v>4677335566.83393</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="11" t="n">
         <v>3651710437.60402</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="11" t="n">
         <v>5984650782.15337</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="11" t="n">
         <v>6068271490.20894</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="11" t="n">
         <v>2760673230.04364</v>
       </c>
-      <c r="AR11" s="12" t="n">
+      <c r="AR11" s="11" t="n">
         <v>3413000193.4499</v>
       </c>
-      <c r="AS11" s="12" t="n">
+      <c r="AS11" s="11" t="n">
         <v>2053452288.11591</v>
       </c>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2902,110 +2905,110 @@
       <c r="K12" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="11" t="n">
         <v>1975344022.98168</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="11" t="n">
         <v>1590655952.54021</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="11" t="n">
         <v>1290969064.6758</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="11" t="n">
         <v>1097226486.50642</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="11" t="n">
         <v>791964511.973574</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="11" t="n">
         <v>893198109.583651</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="11" t="n">
         <v>811683754.775138</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="11" t="n">
         <v>715417336.491938</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="11" t="n">
         <v>371928446.897979</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="11" t="n">
         <v>490924651.259832</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="11" t="n">
         <v>495196146.962087</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="11" t="n">
         <v>596410094.574045</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="11" t="n">
         <v>936158881.897642</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="11" t="n">
         <v>1032226061.50243</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="11" t="n">
         <v>980173103.954203</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="11" t="n">
         <v>1407584131.43582</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="11" t="n">
         <v>1736018776.76838</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="11" t="n">
         <v>1467414956.52824</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="11" t="n">
         <v>1450105740.96954</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="11" t="n">
         <v>1494835044.97408</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="11" t="n">
         <v>1424114100.78725</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="11" t="n">
         <v>1097128627.55391</v>
       </c>
-      <c r="AH12" s="12" t="n">
+      <c r="AH12" s="11" t="n">
         <v>820373830.734031</v>
       </c>
-      <c r="AI12" s="12" t="n">
+      <c r="AI12" s="11" t="n">
         <v>846659023.677386</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AJ12" s="11" t="n">
         <v>421586936.160709</v>
       </c>
-      <c r="AK12" s="12" t="n">
+      <c r="AK12" s="11" t="n">
         <v>415407867.735775</v>
       </c>
-      <c r="AL12" s="12" t="n">
+      <c r="AL12" s="11" t="n">
         <v>421234247.463875</v>
       </c>
-      <c r="AM12" s="12" t="n">
+      <c r="AM12" s="11" t="n">
         <v>510104583.24672</v>
       </c>
-      <c r="AN12" s="12" t="n">
+      <c r="AN12" s="11" t="n">
         <v>1016550092.17869</v>
       </c>
-      <c r="AO12" s="12" t="n">
+      <c r="AO12" s="11" t="n">
         <v>830857882.173681</v>
       </c>
-      <c r="AP12" s="12" t="n">
+      <c r="AP12" s="11" t="n">
         <v>925548302.709402</v>
       </c>
-      <c r="AQ12" s="12" t="n">
+      <c r="AQ12" s="11" t="n">
         <v>657778525.032198</v>
       </c>
-      <c r="AR12" s="12" t="n">
+      <c r="AR12" s="11" t="n">
         <v>822791273.7971</v>
       </c>
-      <c r="AS12" s="12" t="n">
+      <c r="AS12" s="11" t="n">
         <v>171623430.864486</v>
       </c>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3014,110 +3017,110 @@
       <c r="K13" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="11" t="n">
         <v>1938548851.09019</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="11" t="n">
         <v>1997761812.06369</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="11" t="n">
         <v>1131172164.71442</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="11" t="n">
         <v>1017460450.61698</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="11" t="n">
         <v>569646008.979858</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="11" t="n">
         <v>1099687914.84976</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="11" t="n">
         <v>670369073.486269</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="11" t="n">
         <v>773508153.931144</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="11" t="n">
         <v>784543330.427241</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="11" t="n">
         <v>811064280.068795</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="11" t="n">
         <v>768014303.476468</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="11" t="n">
         <v>877873544.977678</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="11" t="n">
         <v>976092193.382506</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="11" t="n">
         <v>1003515746.47373</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="11" t="n">
         <v>1095336408.60388</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="11" t="n">
         <v>1298721748.56705</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="11" t="n">
         <v>1261370518.53023</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="11" t="n">
         <v>1409489299.84942</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="11" t="n">
         <v>1788198823.32725</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AE13" s="11" t="n">
         <v>1499537077.02756</v>
       </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AF13" s="11" t="n">
         <v>1610051251.13123</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="11" t="n">
         <v>1580007548.16418</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="11" t="n">
         <v>1434297398.01331</v>
       </c>
-      <c r="AI13" s="12" t="n">
+      <c r="AI13" s="11" t="n">
         <v>1216388236.80549</v>
       </c>
-      <c r="AJ13" s="12" t="n">
+      <c r="AJ13" s="11" t="n">
         <v>1101196922.16404</v>
       </c>
-      <c r="AK13" s="12" t="n">
+      <c r="AK13" s="11" t="n">
         <v>1284467263.13139</v>
       </c>
-      <c r="AL13" s="12" t="n">
+      <c r="AL13" s="11" t="n">
         <v>1292512571.12071</v>
       </c>
-      <c r="AM13" s="12" t="n">
+      <c r="AM13" s="11" t="n">
         <v>1410249013.92895</v>
       </c>
-      <c r="AN13" s="12" t="n">
+      <c r="AN13" s="11" t="n">
         <v>1563302926.44671</v>
       </c>
-      <c r="AO13" s="12" t="n">
+      <c r="AO13" s="11" t="n">
         <v>563388998.555619</v>
       </c>
-      <c r="AP13" s="12" t="n">
+      <c r="AP13" s="11" t="n">
         <v>665460471.955733</v>
       </c>
-      <c r="AQ13" s="12" t="n">
+      <c r="AQ13" s="11" t="n">
         <v>319559435.322416</v>
       </c>
-      <c r="AR13" s="12" t="n">
+      <c r="AR13" s="11" t="n">
         <v>283448297.893</v>
       </c>
-      <c r="AS13" s="12" t="n">
+      <c r="AS13" s="11" t="n">
         <v>176538183.002394</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3126,110 +3129,110 @@
       <c r="K14" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="11" t="n">
         <v>302188274.441054</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="11" t="n">
         <v>297879527.827595</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="11" t="n">
         <v>237370073.838305</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="11" t="n">
         <v>178013493.834887</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="11" t="n">
         <v>220588071.902528</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="11" t="n">
         <v>181707668.373669</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="11" t="n">
         <v>163772410.775476</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="11" t="n">
         <v>251372406.629275</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="11" t="n">
         <v>140522419.694801</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="11" t="n">
         <v>226861051.104179</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="11" t="n">
         <v>171711656.104397</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="11" t="n">
         <v>240925569.063205</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="11" t="n">
         <v>282956917.216331</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="11" t="n">
         <v>352179514.672028</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="11" t="n">
         <v>435848583.82567</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="11" t="n">
         <v>418770487.368575</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="11" t="n">
         <v>413172662.483937</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="11" t="n">
         <v>447418416.03926</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="11" t="n">
         <v>432414440.618107</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="11" t="n">
         <v>493629484.396037</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="11" t="n">
         <v>662489861.729187</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="11" t="n">
         <v>444538009.78325</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="11" t="n">
         <v>552853147.552977</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="11" t="n">
         <v>480436865.34735</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="11" t="n">
         <v>456951214.556028</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="11" t="n">
         <v>417345354.127083</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="11" t="n">
         <v>468388644.860964</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="11" t="n">
         <v>473761712.083834</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="11" t="n">
         <v>557694708.482721</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="11" t="n">
         <v>703406736.33371</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="11" t="n">
         <v>460582470.506302</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="11" t="n">
         <v>138228818.988554</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="11" t="n">
         <v>123816370.5602</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="11" t="n">
         <v>61127544.8801744</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3238,127 +3241,127 @@
       <c r="K15" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="11" t="n">
         <v>12654613.4842096</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="11" t="n">
         <v>10806336.9488287</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="11" t="n">
         <v>12020456.6039061</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="11" t="n">
         <v>14799722.0364157</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="11" t="n">
         <v>4417099.48077203</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="11" t="n">
         <v>4366986.96961284</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="11" t="n">
         <v>1602725.11831806</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="11" t="n">
         <v>548691.618157536</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="11" t="n">
         <v>48939.1934679306</v>
       </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11" t="n">
         <v>45272.9208478781</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="11" t="n">
         <v>204739.110423406</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="11" t="n">
         <v>38740.9167115381</v>
       </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12" t="n">
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11" t="n">
         <v>4025.70763038929</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="11" t="n">
         <v>31124.1599558137</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="11" t="n">
         <v>119611.260081836</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="11" t="n">
         <v>2278.1788543548</v>
       </c>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12" t="n">
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11" t="n">
         <v>69182.1689671235</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="11" t="n">
         <v>68423.5059942584</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="11" t="n">
         <v>19340.6872392906</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="11" t="n">
         <v>4674.89559397892</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="11" t="n">
         <v>4748.59328750461</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="11" t="n">
         <v>-65389.199214389</v>
       </c>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5028,94 +5031,94 @@
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="n">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="n">
         <v>660568306</v>
       </c>
-      <c r="AA2" s="3" t="n">
-        <v>1255193652</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1117734282</v>
-      </c>
-      <c r="AC2" s="3" t="n">
+      <c r="AA2" s="12" t="n">
+        <v>1255193655</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>1117734286</v>
+      </c>
+      <c r="AC2" s="12" t="n">
         <v>619128853</v>
       </c>
-      <c r="AD2" s="3" t="n">
-        <v>917858096.9375</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>1624622988.5</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>839071169.8445</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>577754852.5959</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>755447169.4419</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>1150320037.0268</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AD2" s="12" t="n">
+        <v>917858095.9375</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>1624622987.39</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>839071178.8</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>577754850.6094</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>755447173.4112</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>1150320040.7216</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
         <v>2322720827.1855</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="12" t="n">
         <v>3348348304.6468</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="12" t="n">
         <v>3004863253.0893</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="12" t="n">
         <v>2361852362.8104</v>
       </c>
-      <c r="AN2" s="3" t="n">
+      <c r="AN2" s="12" t="n">
         <v>2212894814.1546</v>
       </c>
-      <c r="AO2" s="3" t="n">
+      <c r="AO2" s="12" t="n">
         <v>1622250690.0788</v>
       </c>
-      <c r="AP2" s="3" t="n">
+      <c r="AP2" s="12" t="n">
         <v>1152593832.1133</v>
       </c>
-      <c r="AQ2" s="3" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>1625730571.0706</v>
       </c>
-      <c r="AR2" s="3" t="n">
-        <v>1223990106.7078</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>1920860256.8976</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>2486062479.5483</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>1498709632.4256</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>1845506486.5984</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>342063428.681</v>
-      </c>
-      <c r="AX2" s="3"/>
+      <c r="AR2" s="12" t="n">
+        <v>1223156234.979</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>1920860250.8805</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>2460250899.6027</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>1467980336.6656</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>1845506492.7888</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>2086315734.0371</v>
+      </c>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5133,87 +5136,87 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12" t="n">
         <v>50867488</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="12" t="n">
         <v>44451176</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="12" t="n">
         <v>38065170</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="12" t="n">
         <v>13189917</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="12" t="n">
         <v>816632</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="12" t="n">
         <v>74337045</v>
       </c>
-      <c r="AF3" s="3" t="n">
+      <c r="AF3" s="12" t="n">
         <v>3568079</v>
       </c>
-      <c r="AG3" s="3" t="n">
+      <c r="AG3" s="12" t="n">
         <v>-117149</v>
       </c>
-      <c r="AH3" s="3" t="n">
-        <v>-182452.2969</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>-775437.125</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AH3" s="12" t="n">
+        <v>-182452.3</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>-775437.1</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
         <v>1995733</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="12" t="n">
         <v>3188451.1899</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="12" t="n">
         <v>-38309.8789</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="12" t="n">
         <v>-304973.85</v>
       </c>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3" t="n">
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="3" t="n">
+      <c r="AP3" s="12" t="n">
         <v>55404.1707</v>
       </c>
-      <c r="AQ3" s="3" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AR3" s="3" t="n">
+      <c r="AR3" s="12" t="n">
         <v>9839846</v>
       </c>
-      <c r="AS3" s="3" t="n">
-        <v>332379309.0234</v>
-      </c>
-      <c r="AT3" s="3" t="n">
+      <c r="AS3" s="12" t="n">
+        <v>335406081.49</v>
+      </c>
+      <c r="AT3" s="12" t="n">
         <v>302087828.4492</v>
       </c>
-      <c r="AU3" s="3" t="n">
-        <v>240810422.66</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>302908854.0313</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>50728874</v>
-      </c>
-      <c r="AX3" s="3"/>
+      <c r="AU3" s="12" t="n">
+        <v>240810419.37</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>302908851.27</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>97727424</v>
+      </c>
+      <c r="AX3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5231,89 +5234,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="n">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12" t="n">
         <v>7232135</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="12" t="n">
         <v>11989370</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="12" t="n">
         <v>4892070</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="12" t="n">
         <v>17522856</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="12" t="n">
         <v>35578117</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="12" t="n">
         <v>42478443</v>
       </c>
-      <c r="AF4" s="3" t="n">
+      <c r="AF4" s="12" t="n">
         <v>52699731</v>
       </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AG4" s="12" t="n">
         <v>44945586.5066</v>
       </c>
-      <c r="AH4" s="3" t="n">
-        <v>47763138.9275</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>31557043.6605</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AH4" s="12" t="n">
+        <v>47763138.9346</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>31557043.6694</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
         <v>59754399.5352</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="12" t="n">
         <v>37554990.2104</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="12" t="n">
         <v>46437871.1566</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="12" t="n">
         <v>48014626.7009</v>
       </c>
-      <c r="AN4" s="3" t="n">
+      <c r="AN4" s="12" t="n">
         <v>37832921.3988</v>
       </c>
-      <c r="AO4" s="3" t="n">
+      <c r="AO4" s="12" t="n">
         <v>71208970.0455</v>
       </c>
-      <c r="AP4" s="3" t="n">
+      <c r="AP4" s="12" t="n">
         <v>89906384.0068</v>
       </c>
-      <c r="AQ4" s="3" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>91827386.448</v>
       </c>
-      <c r="AR4" s="3" t="n">
-        <v>53948223.7761</v>
-      </c>
-      <c r="AS4" s="3" t="n">
-        <v>49098720.5044</v>
-      </c>
-      <c r="AT4" s="3" t="n">
-        <v>52191945.0264</v>
-      </c>
-      <c r="AU4" s="3" t="n">
+      <c r="AR4" s="12" t="n">
+        <v>53948223.7836</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>49098720.5711</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>52191945.031</v>
+      </c>
+      <c r="AU4" s="12" t="n">
         <v>-699074.3672</v>
       </c>
-      <c r="AV4" s="3" t="n">
-        <v>3842652.875</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>562000</v>
-      </c>
-      <c r="AX4" s="3"/>
+      <c r="AV4" s="12" t="n">
+        <v>3842652.86</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>2678375.875</v>
+      </c>
+      <c r="AX4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5331,89 +5334,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="n">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12" t="n">
         <v>142126379</v>
       </c>
-      <c r="AA5" s="3" t="n">
+      <c r="AA5" s="12" t="n">
         <v>84925188</v>
       </c>
-      <c r="AB5" s="3" t="n">
+      <c r="AB5" s="12" t="n">
         <v>151641248</v>
       </c>
-      <c r="AC5" s="3" t="n">
-        <v>706106012</v>
-      </c>
-      <c r="AD5" s="3" t="n">
-        <v>883972087</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>502235052</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>763339154</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>989242230.875</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>751531103.7705</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>884082480.0027</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AC5" s="12" t="n">
+        <v>706106011</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>883972083</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>502235051</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>763339162</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>989242225.82</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>751531095.68</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>884082493.0025</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
         <v>1709704072.0279</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AK5" s="12" t="n">
         <v>2497030829.4912</v>
       </c>
-      <c r="AL5" s="3" t="n">
+      <c r="AL5" s="12" t="n">
         <v>2630248457.4023</v>
       </c>
-      <c r="AM5" s="3" t="n">
+      <c r="AM5" s="12" t="n">
         <v>2585533770.8901</v>
       </c>
-      <c r="AN5" s="3" t="n">
+      <c r="AN5" s="12" t="n">
         <v>3395222451.0736</v>
       </c>
-      <c r="AO5" s="3" t="n">
+      <c r="AO5" s="12" t="n">
         <v>2141174887.2238</v>
       </c>
-      <c r="AP5" s="3" t="n">
+      <c r="AP5" s="12" t="n">
         <v>1972087563.7815</v>
       </c>
-      <c r="AQ5" s="3" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>1884329025.6903</v>
       </c>
-      <c r="AR5" s="3" t="n">
-        <v>1888201468.605</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>2148001423.4643</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>2091721352.527</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>1399164931.6664</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>1857568522.1803</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>1906988458.2657</v>
-      </c>
-      <c r="AX5" s="3"/>
+      <c r="AR5" s="12" t="n">
+        <v>1888821222.5932</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>2154302154.4205</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>2097257753.4667</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>1390033318.2933</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>1857568524.66</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>2307387439.3751</v>
+      </c>
+      <c r="AX5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5431,89 +5434,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="n">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="n">
         <v>2161469493</v>
       </c>
-      <c r="AA6" s="3" t="n">
-        <v>2279862272</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>2600195782</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>3076776464.6601</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>3329314204.2227</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>3257780997.7656</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>4820257444.7234</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>4938626475.8685</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>5422282115.8575</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>6147279635.1446</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AA6" s="12" t="n">
+        <v>2279862270</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>2600195785.64</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>3076776476.71</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>3329314212.22</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>3257780980.76</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>4820257442.8197</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>4938626463.8649</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>5422282115.2118</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>6147279716.624</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
         <v>4558077296.9564</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="12" t="n">
         <v>3754352033.8076</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AL6" s="12" t="n">
         <v>2321510944.0609</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AM6" s="12" t="n">
         <v>2009322633.618</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AN6" s="12" t="n">
         <v>1821472651.4881</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AO6" s="12" t="n">
         <v>1937444693.0404</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AP6" s="12" t="n">
         <v>1734827328.6473</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>1770294955.4252</v>
       </c>
-      <c r="AR6" s="3" t="n">
-        <v>2259684994.2863</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>1893631478.9228</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>1932681746.7133</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>478155631.9928</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>626919395.0152</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>279295707.6704</v>
-      </c>
-      <c r="AX6" s="3"/>
+      <c r="AR6" s="12" t="n">
+        <v>2259065232.564</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>1879562515.0211</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>1935424731.0431</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>481328728.0494</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>620835873.2035</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>634613945.0599</v>
+      </c>
+      <c r="AX6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5531,89 +5534,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="n">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12" t="n">
         <v>153274049</v>
       </c>
-      <c r="AA7" s="3" t="n">
-        <v>473017358</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>572574573</v>
-      </c>
-      <c r="AC7" s="3" t="n">
+      <c r="AA7" s="12" t="n">
+        <v>473017362</v>
+      </c>
+      <c r="AB7" s="12" t="n">
+        <v>572574574</v>
+      </c>
+      <c r="AC7" s="12" t="n">
         <v>854680578</v>
       </c>
-      <c r="AD7" s="3" t="n">
-        <v>1107264125</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>1015410325</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>1490691604</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>1465268241.3877</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>1842174702.1836</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>993400053.5157</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AD7" s="12" t="n">
+        <v>1107264124</v>
+      </c>
+      <c r="AE7" s="12" t="n">
+        <v>1015410327</v>
+      </c>
+      <c r="AF7" s="12" t="n">
+        <v>1490691609</v>
+      </c>
+      <c r="AG7" s="12" t="n">
+        <v>1465268238.5325</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <v>1842174702.685</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>993400055.6417</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
         <v>437791993.8982</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AK7" s="12" t="n">
         <v>658829581.793</v>
       </c>
-      <c r="AL7" s="3" t="n">
+      <c r="AL7" s="12" t="n">
         <v>1944537862.8029</v>
       </c>
-      <c r="AM7" s="3" t="n">
+      <c r="AM7" s="12" t="n">
         <v>566425464.98</v>
       </c>
-      <c r="AN7" s="3" t="n">
+      <c r="AN7" s="12" t="n">
         <v>379325195.75</v>
       </c>
-      <c r="AO7" s="3" t="n">
+      <c r="AO7" s="12" t="n">
         <v>192710059.67</v>
       </c>
-      <c r="AP7" s="3" t="n">
+      <c r="AP7" s="12" t="n">
         <v>1123350417.3733</v>
       </c>
-      <c r="AQ7" s="3" t="n">
+      <c r="AQ7" s="12" t="n">
         <v>678451945.7423</v>
       </c>
-      <c r="AR7" s="3" t="n">
-        <v>509859970.7774</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>872474091.3234</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>482012049.1838</v>
-      </c>
-      <c r="AU7" s="3" t="n">
+      <c r="AR7" s="12" t="n">
+        <v>509859967.7861</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>872474092.0534</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>468921577.8713</v>
+      </c>
+      <c r="AU7" s="12" t="n">
         <v>8926237</v>
       </c>
-      <c r="AV7" s="3" t="n">
-        <v>6310225</v>
-      </c>
-      <c r="AW7" s="3" t="n">
+      <c r="AV7" s="12" t="n">
+        <v>6310225.03</v>
+      </c>
+      <c r="AW7" s="12" t="n">
         <v>2397211</v>
       </c>
-      <c r="AX7" s="3"/>
+      <c r="AX7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5631,61 +5634,61 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3" t="n">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" s="3" t="n">
+      <c r="AF8" s="12" t="n">
         <v>38902563</v>
       </c>
-      <c r="AG8" s="3" t="n">
+      <c r="AG8" s="12" t="n">
         <v>193615861</v>
       </c>
-      <c r="AH8" s="3" t="n">
-        <v>736952733.6329</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>1154896843.4053</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AH8" s="12" t="n">
+        <v>736952723.5569</v>
+      </c>
+      <c r="AI8" s="12" t="n">
+        <v>1154896862.3176</v>
+      </c>
+      <c r="AJ8" s="12" t="n">
         <v>-701265.21</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AK8" s="12" t="n">
         <v>-821630.9967</v>
       </c>
-      <c r="AL8" s="3" t="n">
+      <c r="AL8" s="12" t="n">
         <v>1926650.5795</v>
       </c>
-      <c r="AM8" s="3" t="n">
+      <c r="AM8" s="12" t="n">
         <v>335784.2</v>
       </c>
-      <c r="AN8" s="3" t="n">
+      <c r="AN8" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5701,107 +5704,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="12" t="n">
         <v>5109318000</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="12" t="n">
         <v>4536041000</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="12" t="n">
         <v>3207056007</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="12" t="n">
         <v>3775896266</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="12" t="n">
         <v>3704627729</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="12" t="n">
         <v>3449312820</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="12" t="n">
         <v>2950138142</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="12" t="n">
         <v>3180065599</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="12" t="n">
         <v>3551481726</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="12" t="n">
         <v>3510240138</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="12" t="n">
         <v>7214274</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="12" t="n">
         <v>4876697</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AB9" s="12" t="n">
         <v>8672403</v>
       </c>
-      <c r="AC9" s="3" t="n">
+      <c r="AC9" s="12" t="n">
         <v>2079457</v>
       </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AD9" s="12" t="n">
         <v>3895254</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="12" t="n">
         <v>5431021</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AF9" s="12" t="n">
         <v>1955191</v>
       </c>
-      <c r="AG9" s="3" t="n">
+      <c r="AG9" s="12" t="n">
         <v>1072328</v>
       </c>
-      <c r="AH9" s="3" t="n">
-        <v>21539558.0498</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>20276099.0223</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AH9" s="12" t="n">
+        <v>21539557.9598</v>
+      </c>
+      <c r="AI9" s="12" t="n">
+        <v>20276098.9585</v>
+      </c>
+      <c r="AJ9" s="12" t="n">
         <v>24350</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="12" t="n">
         <v>-80850.1397</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="12" t="n">
         <v>-156352.7188</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="3" t="n">
+      <c r="AN9" s="12" t="n">
         <v>2737500</v>
       </c>
-      <c r="AO9" s="3" t="n">
+      <c r="AO9" s="12" t="n">
         <v>-1726780.56</v>
       </c>
-      <c r="AP9" s="3" t="n">
+      <c r="AP9" s="12" t="n">
         <v>3044784.1893</v>
       </c>
-      <c r="AQ9" s="3" t="n">
+      <c r="AQ9" s="12" t="n">
         <v>-55505.6021</v>
       </c>
-      <c r="AR9" s="3" t="n">
+      <c r="AR9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="3" t="n">
+      <c r="AS9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="3" t="n">
+      <c r="AT9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="3" t="n">
+      <c r="AU9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="3" t="n">
+      <c r="AV9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
+      <c r="AW9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5816,107 +5821,107 @@
       <c r="O10" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="12" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="12" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="12" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="12" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="12" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="12" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="12" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="12" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="X10" s="12" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="3" t="str">
+      <c r="Y10" s="12" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="3" t="str">
+      <c r="Z10" s="12" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="12" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="12" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="12" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="12" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="3" t="str">
+      <c r="AE10" s="12" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="3" t="str">
+      <c r="AF10" s="12" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="12" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="12" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="12" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="12" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="12" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3" t="str">
+      <c r="AL10" s="12" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="3" t="str">
+      <c r="AM10" s="12" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="3" t="str">
+      <c r="AN10" s="12" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="3" t="str">
+      <c r="AO10" s="12" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="3" t="str">
+      <c r="AP10" s="12" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="3" t="str">
+      <c r="AQ10" s="12" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="3" t="str">
+      <c r="AR10" s="12" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="3" t="str">
+      <c r="AS10" s="12" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="3" t="str">
+      <c r="AT10" s="12" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="3" t="str">
+      <c r="AU10" s="12" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="3" t="str">
+      <c r="AV10" s="12" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6048,94 +6053,94 @@
         <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="n">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12" t="n">
         <v>1067300061.92932</v>
       </c>
-      <c r="AA14" s="3" t="n">
-        <v>1980039292.05299</v>
-      </c>
-      <c r="AB14" s="3" t="n">
-        <v>1735803158.61046</v>
-      </c>
-      <c r="AC14" s="3" t="n">
+      <c r="AA14" s="12" t="n">
+        <v>1980039296.78543</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>1735803164.82232</v>
+      </c>
+      <c r="AC14" s="12" t="n">
         <v>943452280.923279</v>
       </c>
-      <c r="AD14" s="3" t="n">
-        <v>1365294945.86133</v>
-      </c>
-      <c r="AE14" s="3" t="n">
-        <v>2345394623.03558</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>1173134588.25647</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>786218592.842857</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>1007022991.51598</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>1517969216.7233</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
+      <c r="AD14" s="12" t="n">
+        <v>1365294944.37385</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>2345394621.43312</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>1173134600.77747</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>786218590.139594</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>1007022996.80712</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>1517969221.59898</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
         <v>3038647762.85663</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="12" t="n">
         <v>4293864580.56261</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="12" t="n">
         <v>3784024293.89336</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="12" t="n">
         <v>2920829499.32719</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="12" t="n">
         <v>2684680578.07523</v>
       </c>
-      <c r="AO14" s="3" t="n">
+      <c r="AO14" s="12" t="n">
         <v>1945804643.4017</v>
       </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AP14" s="12" t="n">
         <v>1371114125.80448</v>
       </c>
-      <c r="AQ14" s="3" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>1900030170.9237</v>
       </c>
-      <c r="AR14" s="3" t="n">
-        <v>1397688376.15</v>
-      </c>
-      <c r="AS14" s="3" t="n">
-        <v>2151315654.51252</v>
-      </c>
-      <c r="AT14" s="3" t="n">
-        <v>2747672882.39747</v>
-      </c>
-      <c r="AU14" s="3" t="n">
-        <v>1602551618.34624</v>
-      </c>
-      <c r="AV14" s="3" t="n">
-        <v>1845506486.5984</v>
-      </c>
-      <c r="AW14" s="3" t="n">
-        <v>326259543.940027</v>
-      </c>
-      <c r="AX14" s="3"/>
+      <c r="AR14" s="12" t="n">
+        <v>1396736168.43512</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>2151315647.77352</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>2719145128.62949</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>1569693163.58932</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>1845506492.7888</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>1989924566.11499</v>
+      </c>
+      <c r="AX14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6153,87 +6158,87 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12" t="n">
         <v>82188128.9178727</v>
       </c>
-      <c r="AA15" s="3" t="n">
+      <c r="AA15" s="12" t="n">
         <v>70120713.9772589</v>
       </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AB15" s="12" t="n">
         <v>59113908.7197148</v>
       </c>
-      <c r="AC15" s="3" t="n">
+      <c r="AC15" s="12" t="n">
         <v>20099301.1689583</v>
       </c>
-      <c r="AD15" s="3" t="n">
+      <c r="AD15" s="12" t="n">
         <v>1214723.21914326</v>
       </c>
-      <c r="AE15" s="3" t="n">
+      <c r="AE15" s="12" t="n">
         <v>107317024.854073</v>
       </c>
-      <c r="AF15" s="3" t="n">
+      <c r="AF15" s="12" t="n">
         <v>4988655.35960114</v>
       </c>
-      <c r="AG15" s="3" t="n">
+      <c r="AG15" s="12" t="n">
         <v>-159418.34416295</v>
       </c>
-      <c r="AH15" s="3" t="n">
-        <v>-243211.789341849</v>
-      </c>
-      <c r="AI15" s="3" t="n">
-        <v>-1023271.47868937</v>
-      </c>
-      <c r="AJ15" s="3" t="n">
+      <c r="AH15" s="12" t="n">
+        <v>-243211.793474198</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>-1023271.44569922</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
         <v>2610873.22450948</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="12" t="n">
         <v>4088815.25621585</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="12" t="n">
         <v>-48243.6304895651</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="12" t="n">
         <v>-377151.693149625</v>
       </c>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3" t="n">
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AP15" s="3" t="n">
+      <c r="AP15" s="12" t="n">
         <v>65908.248819941</v>
       </c>
-      <c r="AQ15" s="3" t="n">
+      <c r="AQ15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AR15" s="3" t="n">
+      <c r="AR15" s="12" t="n">
         <v>11236233.2848408</v>
       </c>
-      <c r="AS15" s="3" t="n">
-        <v>372256549.20519</v>
-      </c>
-      <c r="AT15" s="3" t="n">
+      <c r="AS15" s="12" t="n">
+        <v>375646458.995172</v>
+      </c>
+      <c r="AT15" s="12" t="n">
         <v>333876779.50999</v>
       </c>
-      <c r="AU15" s="3" t="n">
-        <v>257495597.678814</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>302908854.0313</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>48385117.8117785</v>
-      </c>
-      <c r="AX15" s="3"/>
+      <c r="AU15" s="12" t="n">
+        <v>257495594.160858</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>302908851.27</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>93212258.6375883</v>
+      </c>
+      <c r="AX15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6251,89 +6256,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="n">
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12" t="n">
         <v>11685177.8434874</v>
       </c>
-      <c r="AA16" s="3" t="n">
+      <c r="AA16" s="12" t="n">
         <v>18912957.0956127</v>
       </c>
-      <c r="AB16" s="3" t="n">
+      <c r="AB16" s="12" t="n">
         <v>7597217.59893507</v>
       </c>
-      <c r="AC16" s="3" t="n">
+      <c r="AC16" s="12" t="n">
         <v>26701999.7232953</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="12" t="n">
         <v>52921713.5910614</v>
       </c>
-      <c r="AE16" s="3" t="n">
+      <c r="AE16" s="12" t="n">
         <v>61324204.1460397</v>
       </c>
-      <c r="AF16" s="3" t="n">
+      <c r="AF16" s="12" t="n">
         <v>73681326.9837042</v>
       </c>
-      <c r="AG16" s="3" t="n">
+      <c r="AG16" s="12" t="n">
         <v>61162715.6724754</v>
       </c>
-      <c r="AH16" s="3" t="n">
-        <v>63669017.4939671</v>
-      </c>
-      <c r="AI16" s="3" t="n">
-        <v>41642863.9904812</v>
-      </c>
-      <c r="AJ16" s="3" t="n">
+      <c r="AH16" s="12" t="n">
+        <v>63669017.5034315</v>
+      </c>
+      <c r="AI16" s="12" t="n">
+        <v>41642864.0022257</v>
+      </c>
+      <c r="AJ16" s="12" t="n">
         <v>78172361.6300856</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="12" t="n">
         <v>48159876.9351512</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="12" t="n">
         <v>58479211.1363485</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="12" t="n">
         <v>59378198.3477982</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="12" t="n">
         <v>45898841.9338893</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="12" t="n">
         <v>85411425.8750328</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="12" t="n">
         <v>106951737.617496</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="12" t="n">
         <v>107320861.078089</v>
       </c>
-      <c r="AR16" s="3" t="n">
-        <v>61604097.0205281</v>
-      </c>
-      <c r="AS16" s="3" t="n">
-        <v>54989344.3098509</v>
-      </c>
-      <c r="AT16" s="3" t="n">
-        <v>57684146.3995204</v>
-      </c>
-      <c r="AU16" s="3" t="n">
+      <c r="AR16" s="12" t="n">
+        <v>61604097.0290924</v>
+      </c>
+      <c r="AS16" s="12" t="n">
+        <v>54989344.3845532</v>
+      </c>
+      <c r="AT16" s="12" t="n">
+        <v>57684146.4046044</v>
+      </c>
+      <c r="AU16" s="12" t="n">
         <v>-747511.548776512</v>
       </c>
-      <c r="AV16" s="3" t="n">
-        <v>3842652.875</v>
-      </c>
-      <c r="AW16" s="3" t="n">
-        <v>536034.689242649</v>
-      </c>
-      <c r="AX16" s="3"/>
+      <c r="AV16" s="12" t="n">
+        <v>3842652.86</v>
+      </c>
+      <c r="AW16" s="12" t="n">
+        <v>2554630.56909366</v>
+      </c>
+      <c r="AX16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6351,89 +6356,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="n">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12" t="n">
         <v>229637861.415182</v>
       </c>
-      <c r="AA17" s="3" t="n">
+      <c r="AA17" s="12" t="n">
         <v>133967542.663279</v>
       </c>
-      <c r="AB17" s="3" t="n">
+      <c r="AB17" s="12" t="n">
         <v>235493678.142397</v>
       </c>
-      <c r="AC17" s="3" t="n">
-        <v>1075991410.13549</v>
-      </c>
-      <c r="AD17" s="3" t="n">
-        <v>1314890206.54766</v>
-      </c>
-      <c r="AE17" s="3" t="n">
-        <v>725053996.40342</v>
-      </c>
-      <c r="AF17" s="3" t="n">
-        <v>1067251022.6919</v>
-      </c>
-      <c r="AG17" s="3" t="n">
-        <v>1346177589.4131</v>
-      </c>
-      <c r="AH17" s="3" t="n">
-        <v>1001802814.21318</v>
-      </c>
-      <c r="AI17" s="3" t="n">
-        <v>1166640540.45094</v>
-      </c>
-      <c r="AJ17" s="3" t="n">
+      <c r="AC17" s="12" t="n">
+        <v>1075991408.61165</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>1314890200.59774</v>
+      </c>
+      <c r="AE17" s="12" t="n">
+        <v>725053994.959765</v>
+      </c>
+      <c r="AF17" s="12" t="n">
+        <v>1067251033.87698</v>
+      </c>
+      <c r="AG17" s="12" t="n">
+        <v>1346177582.53417</v>
+      </c>
+      <c r="AH17" s="12" t="n">
+        <v>1001802803.42841</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>1166640557.60556</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
         <v>2236682253.33373</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="12" t="n">
         <v>3202149615.21338</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="12" t="n">
         <v>3312271881.77473</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="12" t="n">
         <v>3197449353.07318</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="12" t="n">
         <v>4119078645.01213</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="12" t="n">
         <v>2568227009.16391</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="12" t="n">
         <v>2345975694.72188</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="12" t="n">
         <v>2202260364.95154</v>
       </c>
-      <c r="AR17" s="3" t="n">
-        <v>2156158967.32782</v>
-      </c>
-      <c r="AS17" s="3" t="n">
-        <v>2405708104.80373</v>
-      </c>
-      <c r="AT17" s="3" t="n">
-        <v>2311834913.70436</v>
-      </c>
-      <c r="AU17" s="3" t="n">
-        <v>1496109704.68398</v>
-      </c>
-      <c r="AV17" s="3" t="n">
-        <v>1857568522.1803</v>
-      </c>
-      <c r="AW17" s="3" t="n">
-        <v>1818882501.09568</v>
-      </c>
-      <c r="AX17" s="3"/>
+      <c r="AR17" s="12" t="n">
+        <v>2156866671.53281</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>2412764766.57403</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>2317953914.67607</v>
+      </c>
+      <c r="AU17" s="12" t="n">
+        <v>1486345383.78248</v>
+      </c>
+      <c r="AV17" s="12" t="n">
+        <v>1857568524.66</v>
+      </c>
+      <c r="AW17" s="12" t="n">
+        <v>2200782400.40538</v>
+      </c>
+      <c r="AX17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6451,89 +6456,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="n">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12" t="n">
         <v>3492351211.49943</v>
       </c>
-      <c r="AA18" s="3" t="n">
-        <v>3596430615.97416</v>
-      </c>
-      <c r="AB18" s="3" t="n">
-        <v>4038015227.8457</v>
-      </c>
-      <c r="AC18" s="3" t="n">
-        <v>4688509927.14861</v>
-      </c>
-      <c r="AD18" s="3" t="n">
-        <v>4952286057.48096</v>
-      </c>
-      <c r="AE18" s="3" t="n">
-        <v>4703110868.96633</v>
-      </c>
-      <c r="AF18" s="3" t="n">
-        <v>6739369598.11615</v>
-      </c>
-      <c r="AG18" s="3" t="n">
-        <v>6720566588.03971</v>
-      </c>
-      <c r="AH18" s="3" t="n">
-        <v>7227987578.78508</v>
-      </c>
-      <c r="AI18" s="3" t="n">
-        <v>8111987057.8436</v>
-      </c>
-      <c r="AJ18" s="3" t="n">
+      <c r="AA18" s="12" t="n">
+        <v>3596430612.8192</v>
+      </c>
+      <c r="AB18" s="12" t="n">
+        <v>4038015233.4985</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <v>4688509945.51071</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>4952286069.37678</v>
+      </c>
+      <c r="AE18" s="12" t="n">
+        <v>4703110844.41612</v>
+      </c>
+      <c r="AF18" s="12" t="n">
+        <v>6739369595.45452</v>
+      </c>
+      <c r="AG18" s="12" t="n">
+        <v>6720566571.705</v>
+      </c>
+      <c r="AH18" s="12" t="n">
+        <v>7227987577.92435</v>
+      </c>
+      <c r="AI18" s="12" t="n">
+        <v>8111987165.3643</v>
+      </c>
+      <c r="AJ18" s="12" t="n">
         <v>5963003051.94534</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="12" t="n">
         <v>4814516816.71156</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="12" t="n">
         <v>2923478731.29809</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="12" t="n">
         <v>2484866926.63287</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="12" t="n">
         <v>2209807813.5781</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="12" t="n">
         <v>2323863323.4108</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="12" t="n">
         <v>2063733285.62645</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="12" t="n">
         <v>2068986021.7901</v>
       </c>
-      <c r="AR18" s="3" t="n">
-        <v>2580360276.57903</v>
-      </c>
-      <c r="AS18" s="3" t="n">
-        <v>2120820101.23108</v>
-      </c>
-      <c r="AT18" s="3" t="n">
-        <v>2136059439.14715</v>
-      </c>
-      <c r="AU18" s="3" t="n">
-        <v>511285885.733088</v>
-      </c>
-      <c r="AV18" s="3" t="n">
-        <v>626919395.0152</v>
-      </c>
-      <c r="AW18" s="3" t="n">
-        <v>266391793.359268</v>
-      </c>
-      <c r="AX18" s="3"/>
+      <c r="AR18" s="12" t="n">
+        <v>2579652563.54238</v>
+      </c>
+      <c r="AS18" s="12" t="n">
+        <v>2105063212.00615</v>
+      </c>
+      <c r="AT18" s="12" t="n">
+        <v>2139091069.97776</v>
+      </c>
+      <c r="AU18" s="12" t="n">
+        <v>514678837.983913</v>
+      </c>
+      <c r="AV18" s="12" t="n">
+        <v>620835873.2035</v>
+      </c>
+      <c r="AW18" s="12" t="n">
+        <v>605293752.365187</v>
+      </c>
+      <c r="AX18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6551,89 +6556,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="n">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12" t="n">
         <v>247649486.819092</v>
       </c>
-      <c r="AA19" s="3" t="n">
-        <v>746174068.973939</v>
-      </c>
-      <c r="AB19" s="3" t="n">
-        <v>889188752.961085</v>
-      </c>
-      <c r="AC19" s="3" t="n">
+      <c r="AA19" s="12" t="n">
+        <v>746174075.283847</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>889188754.51405</v>
+      </c>
+      <c r="AC19" s="12" t="n">
         <v>1302395029.51242</v>
       </c>
-      <c r="AD19" s="3" t="n">
-        <v>1647032497.33276</v>
-      </c>
-      <c r="AE19" s="3" t="n">
-        <v>1465901894.3396</v>
-      </c>
-      <c r="AF19" s="3" t="n">
-        <v>2084187782.78368</v>
-      </c>
-      <c r="AG19" s="3" t="n">
-        <v>1993961850.26407</v>
-      </c>
-      <c r="AH19" s="3" t="n">
-        <v>2455647932.14922</v>
-      </c>
-      <c r="AI19" s="3" t="n">
-        <v>1310896665.78848</v>
-      </c>
-      <c r="AJ19" s="3" t="n">
+      <c r="AD19" s="12" t="n">
+        <v>1647032495.84528</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <v>1465901897.22691</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>2084187789.77436</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <v>1993961846.37867</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>2455647932.81759</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>1310896668.59396</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
         <v>572731620.298622</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="12" t="n">
         <v>844871784.08587</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="12" t="n">
         <v>2448756530.16047</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="12" t="n">
         <v>700480789.288232</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="12" t="n">
         <v>460196742.87757</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="12" t="n">
         <v>231145612.222171</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="12" t="n">
         <v>1336326451.3266</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="12" t="n">
         <v>792923002.969276</v>
       </c>
-      <c r="AR19" s="3" t="n">
-        <v>582214962.943219</v>
-      </c>
-      <c r="AS19" s="3" t="n">
-        <v>977149255.954791</v>
-      </c>
-      <c r="AT19" s="3" t="n">
-        <v>532734574.221883</v>
-      </c>
-      <c r="AU19" s="3" t="n">
+      <c r="AR19" s="12" t="n">
+        <v>582214959.527419</v>
+      </c>
+      <c r="AS19" s="12" t="n">
+        <v>977149256.772373</v>
+      </c>
+      <c r="AT19" s="12" t="n">
+        <v>518266581.82867</v>
+      </c>
+      <c r="AU19" s="12" t="n">
         <v>9544714.49345426</v>
       </c>
-      <c r="AV19" s="3" t="n">
-        <v>6310225</v>
-      </c>
-      <c r="AW19" s="3" t="n">
+      <c r="AV19" s="12" t="n">
+        <v>6310225.03</v>
+      </c>
+      <c r="AW19" s="12" t="n">
         <v>2286455.96696452</v>
       </c>
-      <c r="AX19" s="3"/>
+      <c r="AX19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6651,61 +6656,61 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3" t="n">
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="3" t="n">
+      <c r="AF20" s="12" t="n">
         <v>54391026.4913336</v>
       </c>
-      <c r="AG20" s="3" t="n">
+      <c r="AG20" s="12" t="n">
         <v>263475744.259908</v>
       </c>
-      <c r="AH20" s="3" t="n">
-        <v>982369616.894773</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>1524008797.85711</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
+      <c r="AH20" s="12" t="n">
+        <v>982369603.463306</v>
+      </c>
+      <c r="AI20" s="12" t="n">
+        <v>1524008822.81389</v>
+      </c>
+      <c r="AJ20" s="12" t="n">
         <v>-917414.58404958</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="12" t="n">
         <v>-1053645.53326976</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="12" t="n">
         <v>2426231.07430142</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="12" t="n">
         <v>415253.896564877</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6721,107 +6726,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="12" t="n">
         <v>10154930808.5306</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="12" t="n">
         <v>8705023523.2999</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="12" t="n">
         <v>6004528138.36198</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="12" t="n">
         <v>6907301236.64467</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="12" t="n">
         <v>6632410715.084</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="12" t="n">
         <v>6047222098.50706</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="12" t="n">
         <v>5076672539.04631</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="12" t="n">
         <v>5376821437.83218</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="12" t="n">
         <v>5930753132.00485</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="12" t="n">
         <v>5789712387.55746</v>
       </c>
-      <c r="Z21" s="3" t="n">
+      <c r="Z21" s="12" t="n">
         <v>11656319.2890684</v>
       </c>
-      <c r="AA21" s="3" t="n">
+      <c r="AA21" s="12" t="n">
         <v>7692878.03523481</v>
       </c>
-      <c r="AB21" s="3" t="n">
+      <c r="AB21" s="12" t="n">
         <v>13467945.613341</v>
       </c>
-      <c r="AC21" s="3" t="n">
+      <c r="AC21" s="12" t="n">
         <v>3168756.29398567</v>
       </c>
-      <c r="AD21" s="3" t="n">
+      <c r="AD21" s="12" t="n">
         <v>5794109.8049803</v>
       </c>
-      <c r="AE21" s="3" t="n">
+      <c r="AE21" s="12" t="n">
         <v>7840519.02574275</v>
       </c>
-      <c r="AF21" s="3" t="n">
+      <c r="AF21" s="12" t="n">
         <v>2733620.5451712</v>
       </c>
-      <c r="AG21" s="3" t="n">
+      <c r="AG21" s="12" t="n">
         <v>1459242.11183679</v>
       </c>
-      <c r="AH21" s="3" t="n">
-        <v>28712570.594799</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>26756461.8196491</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
+      <c r="AH21" s="12" t="n">
+        <v>28712570.4748276</v>
+      </c>
+      <c r="AI21" s="12" t="n">
+        <v>26756461.7354582</v>
+      </c>
+      <c r="AJ21" s="12" t="n">
         <v>31855.3448867188</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="12" t="n">
         <v>-103680.835924263</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="12" t="n">
         <v>-196894.978747272</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="12" t="n">
         <v>3321130.78103472</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="12" t="n">
         <v>-2071182.74156541</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="12" t="n">
         <v>3622044.90051877</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="12" t="n">
         <v>-64870.7236746093</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="3" t="n">
+      <c r="AT21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="3" t="n">
+      <c r="AU21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="3" t="n">
+      <c r="AV21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
+      <c r="AW21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="12"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6830,41 +6837,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -500,9 +500,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -510,7 +510,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -548,9 +548,9 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -559,7 +559,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,110 +973,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="12" t="n">
         <v>870648000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="12" t="n">
         <v>604167000</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="12" t="n">
         <v>383787864</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="12" t="n">
         <v>347908293</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="12" t="n">
         <v>249118389</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="12" t="n">
         <v>262005028</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="12" t="n">
         <v>321493244</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="12" t="n">
         <v>392746576</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="12" t="n">
         <v>439513666</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="12" t="n">
         <v>313296174</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="12" t="n">
         <v>266733768</v>
       </c>
-      <c r="Y2" s="1" t="n">
-        <v>414212178</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>909008016</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>826341309</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>1194108799</v>
-      </c>
-      <c r="AC2" s="1" t="n">
+      <c r="Y2" s="12" t="n">
+        <v>414212179</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>909008019.64</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>826341315</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>1194108794</v>
+      </c>
+      <c r="AC2" s="12" t="n">
         <v>1174917874</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AD2" s="12" t="n">
         <v>1477929696</v>
       </c>
-      <c r="AE2" s="1" t="n">
-        <v>1612576369.4044</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>2930660649.3006</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>3870303117.0769</v>
-      </c>
-      <c r="AH2" s="1" t="n">
+      <c r="AE2" s="12" t="n">
+        <v>1612576359.3</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>2930660645.3937</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>3870303188.083</v>
+      </c>
+      <c r="AH2" s="12" t="n">
         <v>3187840055.2305</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="12" t="n">
         <v>3297423372.5833</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>3953911174.6041</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="12" t="n">
         <v>1678877823.2501</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="12" t="n">
         <v>2099220070.6584</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="12" t="n">
         <v>1008265757.749</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="AN2" s="12" t="n">
         <v>1131256627.8225</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="AO2" s="12" t="n">
         <v>409163889.8859</v>
       </c>
-      <c r="AP2" s="1" t="n">
-        <v>537632041.1166</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>1045878749.8417</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>638338748.2632</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>965171477.9357</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>1344484785.0043</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>993928036.5235</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AP2" s="12" t="n">
+        <v>537632033.4166</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>1045878750.3076</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>638338748.4582</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>965171477.7469</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>1344484786.9503</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>1184193624.5482</v>
+      </c>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1085,110 +1085,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="12" t="n">
         <v>4106587000</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="12" t="n">
         <v>3750683000</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="12" t="n">
         <v>2620855895</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="12" t="n">
         <v>2947199869</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="12" t="n">
         <v>2690843713</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="12" t="n">
         <v>2609408255</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="12" t="n">
         <v>2110335168</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="12" t="n">
         <v>2158944110</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V3" s="12" t="n">
         <v>2540412634</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="12" t="n">
         <v>2735807547</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="12" t="n">
         <v>2818863207</v>
       </c>
-      <c r="Y3" s="1" t="n">
-        <v>3586603391</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>3461039698</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>4389439413.6601</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>4976479723.2227</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>5167249643.2656</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>5935270514.5828</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>6348624985.2655</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>6003739113.7531</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>5821558338.1308</v>
-      </c>
-      <c r="AH3" s="1" t="n">
+      <c r="Y3" s="12" t="n">
+        <v>3586603395</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>3461039703</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>4389439418.71</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>4976479731.22</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>5167249626.15</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>5935270525.6297</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>6348624974.5731</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>6003739105.7294</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>5821558383.1191</v>
+      </c>
+      <c r="AH3" s="12" t="n">
         <v>5642284614.4469</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AI3" s="12" t="n">
         <v>6786111002.0385</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>5718545686.6909</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AK3" s="12" t="n">
         <v>4331467986.14</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AL3" s="12" t="n">
         <v>3059382573.7069</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="12" t="n">
         <v>2946748513.6683</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AN3" s="12" t="n">
         <v>3083367103.8123</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="AO3" s="12" t="n">
         <v>3300802568.021</v>
       </c>
-      <c r="AP3" s="1" t="n">
-        <v>3583057329.2598</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>4103960736.5533</v>
-      </c>
-      <c r="AR3" s="1" t="n">
-        <v>5173360312.4497</v>
-      </c>
-      <c r="AS3" s="1" t="n">
-        <v>1247088166.2561</v>
-      </c>
-      <c r="AT3" s="1" t="n">
-        <v>1082535932.6949</v>
-      </c>
-      <c r="AU3" s="1" t="n">
-        <v>1059343178.322</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+      <c r="AP3" s="12" t="n">
+        <v>3582223464.5132</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>4099219277.3881</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>5142737649.2707</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>1210400351.2346</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>1076452408.5729</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>1591223028.2597</v>
+      </c>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1197,110 +1197,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="12" t="n">
         <v>132083000</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="12" t="n">
         <v>181191000</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="12" t="n">
         <v>202412248</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="12" t="n">
         <v>480788104</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="12" t="n">
         <v>764665627</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="12" t="n">
         <v>577899537</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="12" t="n">
         <v>518309730</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="12" t="n">
         <v>628374913</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="12" t="n">
         <v>571555426</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="12" t="n">
         <v>461136417</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="12" t="n">
         <v>97155149</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Y4" s="12" t="n">
         <v>153500144</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="Z4" s="12" t="n">
         <v>123727814</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AA4" s="12" t="n">
         <v>73703415</v>
       </c>
-      <c r="AB4" s="1" t="n">
-        <v>108109993.9375</v>
-      </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AB4" s="12" t="n">
+        <v>108109992.9375</v>
+      </c>
+      <c r="AC4" s="12" t="n">
         <v>180128355</v>
       </c>
-      <c r="AD4" s="1" t="n">
-        <v>597284725.9851</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>249207072.5638</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>643108306.5131</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>689175299.4452</v>
-      </c>
-      <c r="AH4" s="1" t="n">
+      <c r="AD4" s="12" t="n">
+        <v>597284734.99</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>249207071.4603</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>643108304.0162</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>689175302.6332</v>
+      </c>
+      <c r="AH4" s="12" t="n">
         <v>259242737.7158</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AI4" s="12" t="n">
         <v>214867335.3807</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>276873515.1988</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AK4" s="12" t="n">
         <v>1560833859.9593</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="AL4" s="12" t="n">
         <v>2690882889.4998</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AM4" s="12" t="n">
         <v>2008048248.0812</v>
       </c>
-      <c r="AN4" s="1" t="n">
+      <c r="AN4" s="12" t="n">
         <v>1861241982.6474</v>
       </c>
-      <c r="AO4" s="1" t="n">
+      <c r="AO4" s="12" t="n">
         <v>2340611920.8674</v>
       </c>
-      <c r="AP4" s="1" t="n">
-        <v>1824835239.7762</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>2066605793.7409</v>
-      </c>
-      <c r="AR4" s="1" t="n">
-        <v>1535058340.7351</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>1412808137.1858</v>
-      </c>
-      <c r="AT4" s="1" t="n">
-        <v>2216035418.001</v>
-      </c>
-      <c r="AU4" s="1" t="n">
-        <v>528764464.7716</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AP4" s="12" t="n">
+        <v>1824835229.7761</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>2066605786.7409</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>1535058337.7351</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>1412808136.0296</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>2216035424.2891</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>2355703476.5392</v>
+      </c>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1309,110 +1309,110 @@
       <c r="M5" t="s">
         <v>137</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="12" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="12" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="12" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="12" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="1" t="str">
+      <c r="R5" s="12" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="1" t="str">
+      <c r="S5" s="12" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="1" t="str">
+      <c r="T5" s="12" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="U5" s="12" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="1" t="str">
+      <c r="V5" s="12" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="W5" s="12" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="1" t="str">
+      <c r="X5" s="12" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="1" t="str">
+      <c r="Y5" s="12" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="1" t="str">
+      <c r="Z5" s="12" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="1" t="str">
+      <c r="AA5" s="12" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="1" t="str">
+      <c r="AB5" s="12" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="1" t="str">
+      <c r="AC5" s="12" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="1" t="str">
+      <c r="AD5" s="12" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="1" t="str">
+      <c r="AE5" s="12" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="1" t="str">
+      <c r="AF5" s="12" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="1" t="str">
+      <c r="AG5" s="12" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="1" t="str">
+      <c r="AH5" s="12" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="1" t="str">
+      <c r="AI5" s="12" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="1" t="str">
+      <c r="AJ5" s="12" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="1" t="str">
+      <c r="AK5" s="12" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="1" t="str">
+      <c r="AL5" s="12" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="1" t="str">
+      <c r="AM5" s="12" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="1" t="str">
+      <c r="AN5" s="12" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="1" t="str">
+      <c r="AO5" s="12" t="str">
         <f>Sum(AO2:AO4)</f>
       </c>
-      <c r="AP5" s="1" t="str">
+      <c r="AP5" s="12" t="str">
         <f>Sum(AP2:AP4)</f>
       </c>
-      <c r="AQ5" s="1" t="str">
+      <c r="AQ5" s="12" t="str">
         <f>Sum(AQ2:AQ4)</f>
       </c>
-      <c r="AR5" s="1" t="str">
+      <c r="AR5" s="12" t="str">
         <f>Sum(AR2:AR4)</f>
       </c>
-      <c r="AS5" s="1" t="str">
+      <c r="AS5" s="12" t="str">
         <f>Sum(AS2:AS4)</f>
       </c>
-      <c r="AT5" s="1" t="str">
+      <c r="AT5" s="12" t="str">
         <f>Sum(AT2:AT4)</f>
       </c>
-      <c r="AU5" s="1" t="str">
+      <c r="AU5" s="12" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1531,110 +1531,110 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="12" t="n">
         <v>1730440383.35167</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="12" t="n">
         <v>1159444534.78298</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="12" t="n">
         <v>718560893.080731</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="12" t="n">
         <v>636433634.079564</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="12" t="n">
         <v>445997707.028463</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="12" t="n">
         <v>459338621.320394</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="12" t="n">
         <v>553233728.301702</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="12" t="n">
         <v>664051776.207396</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="V9" s="12" t="n">
         <v>733960428.996568</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="W9" s="12" t="n">
         <v>516743774.86198</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="X9" s="12" t="n">
         <v>430969764.245759</v>
       </c>
-      <c r="Y9" s="1" t="n">
-        <v>653410241.822071</v>
-      </c>
-      <c r="Z9" s="1" t="n">
-        <v>1411658397.5144</v>
-      </c>
-      <c r="AA9" s="1" t="n">
-        <v>1259210565.00524</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>1776212154.71421</v>
-      </c>
-      <c r="AC9" s="1" t="n">
+      <c r="Y9" s="12" t="n">
+        <v>653410243.399549</v>
+      </c>
+      <c r="Z9" s="12" t="n">
+        <v>1411658403.16719</v>
+      </c>
+      <c r="AA9" s="12" t="n">
+        <v>1259210574.14827</v>
+      </c>
+      <c r="AB9" s="12" t="n">
+        <v>1776212147.27682</v>
+      </c>
+      <c r="AC9" s="12" t="n">
         <v>1696175718.11676</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AD9" s="12" t="n">
         <v>2066344915.30711</v>
       </c>
-      <c r="AE9" s="1" t="n">
-        <v>2194421246.84591</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>3906616866.87784</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>5107275194.73271</v>
-      </c>
-      <c r="AH9" s="1" t="n">
+      <c r="AE9" s="12" t="n">
+        <v>2194421233.09567</v>
+      </c>
+      <c r="AF9" s="12" t="n">
+        <v>3906616861.66988</v>
+      </c>
+      <c r="AG9" s="12" t="n">
+        <v>5107275288.43278</v>
+      </c>
+      <c r="AH9" s="12" t="n">
         <v>4170420714.7049</v>
       </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AI9" s="12" t="n">
         <v>4228559318.93509</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AJ9" s="12" t="n">
         <v>4979160341.22892</v>
       </c>
-      <c r="AK9" s="1" t="n">
+      <c r="AK9" s="12" t="n">
         <v>2076216087.4781</v>
       </c>
-      <c r="AL9" s="1" t="n">
+      <c r="AL9" s="12" t="n">
         <v>2546770554.45826</v>
       </c>
-      <c r="AM9" s="1" t="n">
+      <c r="AM9" s="12" t="n">
         <v>1209361910.09765</v>
       </c>
-      <c r="AN9" s="1" t="n">
+      <c r="AN9" s="12" t="n">
         <v>1345731600.4142</v>
       </c>
-      <c r="AO9" s="1" t="n">
+      <c r="AO9" s="12" t="n">
         <v>478199616.510718</v>
       </c>
-      <c r="AP9" s="1" t="n">
-        <v>613928209.383688</v>
-      </c>
-      <c r="AQ9" s="1" t="n">
-        <v>1171358155.37693</v>
-      </c>
-      <c r="AR9" s="1" t="n">
-        <v>705511660.634136</v>
-      </c>
-      <c r="AS9" s="1" t="n">
-        <v>1032045888.33139</v>
-      </c>
-      <c r="AT9" s="1" t="n">
-        <v>1344484785.0043</v>
-      </c>
-      <c r="AU9" s="1" t="n">
-        <v>948006950.511443</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+      <c r="AP9" s="12" t="n">
+        <v>613928200.590969</v>
+      </c>
+      <c r="AQ9" s="12" t="n">
+        <v>1171358155.89873</v>
+      </c>
+      <c r="AR9" s="12" t="n">
+        <v>705511660.849656</v>
+      </c>
+      <c r="AS9" s="12" t="n">
+        <v>1032045888.12951</v>
+      </c>
+      <c r="AT9" s="12" t="n">
+        <v>1344484786.9503</v>
+      </c>
+      <c r="AU9" s="12" t="n">
+        <v>1129481960.03171</v>
+      </c>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1643,110 +1643,110 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="12" t="n">
         <v>8161971293.27465</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="12" t="n">
         <v>7197859045.68346</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="12" t="n">
         <v>4906993496.14426</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="12" t="n">
         <v>5391355022.93556</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="R10" s="12" t="n">
         <v>4817428897.10946</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="S10" s="12" t="n">
         <v>4574728964.03253</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="T10" s="12" t="n">
         <v>3631518281.48164</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="U10" s="12" t="n">
         <v>3650319973.70741</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="V10" s="12" t="n">
         <v>4242330764.47489</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="W10" s="12" t="n">
         <v>4512380413.34227</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="X10" s="12" t="n">
         <v>4554521989.7386</v>
       </c>
-      <c r="Y10" s="1" t="n">
-        <v>5657784858.83428</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>5374876423.32561</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>6688796050.65371</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>7402410717.91732</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>7459724265.25075</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>8298308154.96409</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>8639316450.52507</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <v>8003078927.51739</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <v>7682163281.69162</v>
-      </c>
-      <c r="AH10" s="1" t="n">
+      <c r="Y10" s="12" t="n">
+        <v>5657784865.14419</v>
+      </c>
+      <c r="Z10" s="12" t="n">
+        <v>5374876431.09044</v>
+      </c>
+      <c r="AA10" s="12" t="n">
+        <v>6688796058.34894</v>
+      </c>
+      <c r="AB10" s="12" t="n">
+        <v>7402410729.81314</v>
+      </c>
+      <c r="AC10" s="12" t="n">
+        <v>7459724240.54173</v>
+      </c>
+      <c r="AD10" s="12" t="n">
+        <v>8298308170.40914</v>
+      </c>
+      <c r="AE10" s="12" t="n">
+        <v>8639316435.97467</v>
+      </c>
+      <c r="AF10" s="12" t="n">
+        <v>8003078916.82167</v>
+      </c>
+      <c r="AG10" s="12" t="n">
+        <v>7682163341.05845</v>
+      </c>
+      <c r="AH10" s="12" t="n">
         <v>7381393114.67076</v>
       </c>
-      <c r="AI10" s="1" t="n">
+      <c r="AI10" s="12" t="n">
         <v>8702392648.63248</v>
       </c>
-      <c r="AJ10" s="1" t="n">
+      <c r="AJ10" s="12" t="n">
         <v>7201364581.87583</v>
       </c>
-      <c r="AK10" s="1" t="n">
+      <c r="AK10" s="12" t="n">
         <v>5356591998.94056</v>
       </c>
-      <c r="AL10" s="1" t="n">
+      <c r="AL10" s="12" t="n">
         <v>3711638223.37871</v>
       </c>
-      <c r="AM10" s="1" t="n">
+      <c r="AM10" s="12" t="n">
         <v>3534470335.50302</v>
       </c>
-      <c r="AN10" s="1" t="n">
+      <c r="AN10" s="12" t="n">
         <v>3667942750.76627</v>
       </c>
-      <c r="AO10" s="1" t="n">
+      <c r="AO10" s="12" t="n">
         <v>3857726845.45892</v>
       </c>
-      <c r="AP10" s="1" t="n">
-        <v>4091534361.87129</v>
-      </c>
-      <c r="AQ10" s="1" t="n">
-        <v>4596333828.21483</v>
-      </c>
-      <c r="AR10" s="1" t="n">
-        <v>5717757280.16782</v>
-      </c>
-      <c r="AS10" s="1" t="n">
-        <v>1333495905.95454</v>
-      </c>
-      <c r="AT10" s="1" t="n">
-        <v>1082535932.6949</v>
-      </c>
-      <c r="AU10" s="1" t="n">
-        <v>1010399806.74938</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AP10" s="12" t="n">
+        <v>4090582162.12946</v>
+      </c>
+      <c r="AQ10" s="12" t="n">
+        <v>4591023512.0215</v>
+      </c>
+      <c r="AR10" s="12" t="n">
+        <v>5683912168.91421</v>
+      </c>
+      <c r="AS10" s="12" t="n">
+        <v>1294266080.46717</v>
+      </c>
+      <c r="AT10" s="12" t="n">
+        <v>1076452408.5729</v>
+      </c>
+      <c r="AU10" s="12" t="n">
+        <v>1517705945.67426</v>
+      </c>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1755,151 +1755,151 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="12" t="n">
         <v>262519131.904327</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="12" t="n">
         <v>347719942.83346</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="12" t="n">
         <v>378973749.136993</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="12" t="n">
         <v>879512579.629551</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="12" t="n">
         <v>1368984110.94607</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="12" t="n">
         <v>1013154513.15413</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="T11" s="12" t="n">
         <v>891920529.262968</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="U11" s="12" t="n">
         <v>1062449687.91738</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="V11" s="12" t="n">
         <v>954461938.533388</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="W11" s="12" t="n">
         <v>760588199.353204</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="X11" s="12" t="n">
         <v>156976493.729101</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Y11" s="12" t="n">
         <v>242142968.11612</v>
       </c>
-      <c r="Z11" s="1" t="n">
+      <c r="Z11" s="12" t="n">
         <v>192145068.651627</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AA11" s="12" t="n">
         <v>112312089.247091</v>
       </c>
-      <c r="AB11" s="1" t="n">
-        <v>160811381.206368</v>
-      </c>
-      <c r="AC11" s="1" t="n">
+      <c r="AB11" s="12" t="n">
+        <v>160811379.718889</v>
+      </c>
+      <c r="AC11" s="12" t="n">
         <v>260043147.403268</v>
       </c>
-      <c r="AD11" s="1" t="n">
-        <v>835084550.956822</v>
-      </c>
-      <c r="AE11" s="1" t="n">
-        <v>339125206.88881</v>
-      </c>
-      <c r="AF11" s="1" t="n">
-        <v>857273515.462425</v>
-      </c>
-      <c r="AG11" s="1" t="n">
-        <v>909439856.570547</v>
-      </c>
-      <c r="AH11" s="1" t="n">
+      <c r="AD11" s="12" t="n">
+        <v>835084563.546886</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>339125205.387149</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>857273512.134018</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>909439860.77745</v>
+      </c>
+      <c r="AH11" s="12" t="n">
         <v>339148534.674086</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AI11" s="12" t="n">
         <v>275542194.828019</v>
       </c>
-      <c r="AJ11" s="1" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>348666817.623323</v>
       </c>
-      <c r="AK11" s="1" t="n">
+      <c r="AK11" s="12" t="n">
         <v>1930234782.45402</v>
       </c>
-      <c r="AL11" s="1" t="n">
+      <c r="AL11" s="12" t="n">
         <v>3264574974.42098</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AM11" s="12" t="n">
         <v>2408548585.73137</v>
       </c>
-      <c r="AN11" s="1" t="n">
+      <c r="AN11" s="12" t="n">
         <v>2214114897.06577</v>
       </c>
-      <c r="AO11" s="1" t="n">
+      <c r="AO11" s="12" t="n">
         <v>2735529089.01939</v>
       </c>
-      <c r="AP11" s="1" t="n">
-        <v>2083800342.05045</v>
-      </c>
-      <c r="AQ11" s="1" t="n">
-        <v>2314547026.4254</v>
-      </c>
-      <c r="AR11" s="1" t="n">
-        <v>1696593794.57842</v>
-      </c>
-      <c r="AS11" s="1" t="n">
-        <v>1510698215.10088</v>
-      </c>
-      <c r="AT11" s="1" t="n">
-        <v>2216035418.001</v>
-      </c>
-      <c r="AU11" s="1" t="n">
-        <v>504334689.602136</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AP11" s="12" t="n">
+        <v>2083800330.63122</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>2314547018.58558</v>
+      </c>
+      <c r="AR11" s="12" t="n">
+        <v>1696593791.26273</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>1510698213.86457</v>
+      </c>
+      <c r="AT11" s="12" t="n">
+        <v>2216035424.2891</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>2246866158.35324</v>
+      </c>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5036,89 +5036,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>660568306</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="3" t="n">
         <v>1255193655</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="3" t="n">
         <v>1117734286</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="3" t="n">
         <v>619128853</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="3" t="n">
         <v>917858095.9375</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="3" t="n">
         <v>1624622987.39</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="3" t="n">
         <v>839071178.8</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="3" t="n">
         <v>577754850.6094</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="3" t="n">
         <v>755447173.4112</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="3" t="n">
         <v>1150320040.7216</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>2322720827.1855</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="3" t="n">
         <v>3348348304.6468</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="3" t="n">
         <v>3004863253.0893</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="3" t="n">
         <v>2361852362.8104</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="3" t="n">
         <v>2212894814.1546</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="3" t="n">
         <v>1622250690.0788</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="3" t="n">
         <v>1152593832.1133</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>1625730571.0706</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="3" t="n">
         <v>1223156234.979</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="3" t="n">
         <v>1920860250.8805</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="3" t="n">
         <v>2460250899.6027</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="3" t="n">
         <v>1467980336.6656</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="3" t="n">
         <v>1845506492.7888</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="3" t="n">
         <v>2086315734.0371</v>
       </c>
-      <c r="AX2" s="12"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5136,87 +5136,87 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>50867488</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="3" t="n">
         <v>44451176</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="3" t="n">
         <v>38065170</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="3" t="n">
         <v>13189917</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="3" t="n">
         <v>816632</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="3" t="n">
         <v>74337045</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="3" t="n">
         <v>3568079</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="3" t="n">
         <v>-117149</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="3" t="n">
         <v>-182452.3</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="3" t="n">
         <v>-775437.1</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>1995733</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="3" t="n">
         <v>3188451.1899</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="3" t="n">
         <v>-38309.8789</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="3" t="n">
         <v>-304973.85</v>
       </c>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12" t="n">
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="3" t="n">
         <v>55404.1707</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="3" t="n">
         <v>9839846</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="3" t="n">
         <v>335406081.49</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="3" t="n">
         <v>302087828.4492</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="3" t="n">
         <v>240810419.37</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="3" t="n">
         <v>302908851.27</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="3" t="n">
         <v>97727424</v>
       </c>
-      <c r="AX3" s="12"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5234,89 +5234,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>7232135</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="3" t="n">
         <v>11989370</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="3" t="n">
         <v>4892070</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="3" t="n">
         <v>17522856</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="3" t="n">
         <v>35578117</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="3" t="n">
         <v>42478443</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="3" t="n">
         <v>52699731</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="3" t="n">
         <v>44945586.5066</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="3" t="n">
         <v>47763138.9346</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="3" t="n">
         <v>31557043.6694</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>59754399.5352</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="3" t="n">
         <v>37554990.2104</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="3" t="n">
         <v>46437871.1566</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="3" t="n">
         <v>48014626.7009</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="3" t="n">
         <v>37832921.3988</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="3" t="n">
         <v>71208970.0455</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="3" t="n">
         <v>89906384.0068</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>91827386.448</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="3" t="n">
         <v>53948223.7836</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="3" t="n">
         <v>49098720.5711</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="3" t="n">
         <v>52191945.031</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="3" t="n">
         <v>-699074.3672</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="3" t="n">
         <v>3842652.86</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="3" t="n">
         <v>2678375.875</v>
       </c>
-      <c r="AX4" s="12"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5334,89 +5334,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>142126379</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="3" t="n">
         <v>84925188</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="3" t="n">
         <v>151641248</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="3" t="n">
         <v>706106011</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="3" t="n">
         <v>883972083</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="3" t="n">
         <v>502235051</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="3" t="n">
         <v>763339162</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="3" t="n">
         <v>989242225.82</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="3" t="n">
         <v>751531095.68</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="3" t="n">
         <v>884082493.0025</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>1709704072.0279</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="3" t="n">
         <v>2497030829.4912</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="3" t="n">
         <v>2630248457.4023</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="3" t="n">
         <v>2585533770.8901</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="3" t="n">
         <v>3395222451.0736</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="3" t="n">
         <v>2141174887.2238</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="3" t="n">
         <v>1972087563.7815</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>1884329025.6903</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="3" t="n">
         <v>1888821222.5932</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="3" t="n">
         <v>2154302154.4205</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="3" t="n">
         <v>2097257753.4667</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="3" t="n">
         <v>1390033318.2933</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="3" t="n">
         <v>1857568524.66</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="3" t="n">
         <v>2307387439.3751</v>
       </c>
-      <c r="AX5" s="12"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5434,89 +5434,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>2161469493</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="3" t="n">
         <v>2279862270</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="3" t="n">
         <v>2600195785.64</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="3" t="n">
         <v>3076776476.71</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="3" t="n">
         <v>3329314212.22</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="3" t="n">
         <v>3257780980.76</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="3" t="n">
         <v>4820257442.8197</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="3" t="n">
         <v>4938626463.8649</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="3" t="n">
         <v>5422282115.2118</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="3" t="n">
         <v>6147279716.624</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>4558077296.9564</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="3" t="n">
         <v>3754352033.8076</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="3" t="n">
         <v>2321510944.0609</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="3" t="n">
         <v>2009322633.618</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="3" t="n">
         <v>1821472651.4881</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="3" t="n">
         <v>1937444693.0404</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="3" t="n">
         <v>1734827328.6473</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>1770294955.4252</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="3" t="n">
         <v>2259065232.564</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="3" t="n">
         <v>1879562515.0211</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="3" t="n">
         <v>1935424731.0431</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="3" t="n">
         <v>481328728.0494</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="3" t="n">
         <v>620835873.2035</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="3" t="n">
         <v>634613945.0599</v>
       </c>
-      <c r="AX6" s="12"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5534,89 +5534,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>153274049</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="3" t="n">
         <v>473017362</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="3" t="n">
         <v>572574574</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="3" t="n">
         <v>854680578</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="3" t="n">
         <v>1107264124</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="3" t="n">
         <v>1015410327</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="3" t="n">
         <v>1490691609</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="3" t="n">
         <v>1465268238.5325</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="3" t="n">
         <v>1842174702.685</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="3" t="n">
         <v>993400055.6417</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>437791993.8982</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="3" t="n">
         <v>658829581.793</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="3" t="n">
         <v>1944537862.8029</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="3" t="n">
         <v>566425464.98</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="3" t="n">
         <v>379325195.75</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="3" t="n">
         <v>192710059.67</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="3" t="n">
         <v>1123350417.3733</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>678451945.7423</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="3" t="n">
         <v>509859967.7861</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="3" t="n">
         <v>872474092.0534</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="3" t="n">
         <v>468921577.8713</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="3" t="n">
         <v>8926237</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="3" t="n">
         <v>6310225.03</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="3" t="n">
         <v>2397211</v>
       </c>
-      <c r="AX7" s="12"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5634,61 +5634,61 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="3" t="n">
         <v>38902563</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="3" t="n">
         <v>193615861</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="3" t="n">
         <v>736952723.5569</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="3" t="n">
         <v>1154896862.3176</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>-701265.21</v>
       </c>
-      <c r="AK8" s="12" t="n">
+      <c r="AK8" s="3" t="n">
         <v>-821630.9967</v>
       </c>
-      <c r="AL8" s="12" t="n">
+      <c r="AL8" s="3" t="n">
         <v>1926650.5795</v>
       </c>
-      <c r="AM8" s="12" t="n">
+      <c r="AM8" s="3" t="n">
         <v>335784.2</v>
       </c>
-      <c r="AN8" s="12" t="n">
+      <c r="AN8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5704,109 +5704,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="3" t="n">
         <v>5109318000</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="3" t="n">
         <v>4536041000</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="3" t="n">
         <v>3207056007</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="3" t="n">
         <v>3775896266</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="3" t="n">
         <v>3704627729</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="3" t="n">
         <v>3449312820</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="3" t="n">
         <v>2950138142</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="3" t="n">
         <v>3180065599</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="3" t="n">
         <v>3551481726</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="3" t="n">
         <v>3510240138</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="3" t="n">
         <v>7214274</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="3" t="n">
         <v>4876697</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="3" t="n">
         <v>8672403</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="3" t="n">
         <v>2079457</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="3" t="n">
         <v>3895254</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="3" t="n">
         <v>5431021</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="3" t="n">
         <v>1955191</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="3" t="n">
         <v>1072328</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="3" t="n">
         <v>21539557.9598</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="3" t="n">
         <v>20276098.9585</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>24350</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="3" t="n">
         <v>-80850.1397</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="3" t="n">
         <v>-156352.7188</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="3" t="n">
         <v>2737500</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="3" t="n">
         <v>-1726780.56</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="3" t="n">
         <v>3044784.1893</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>-55505.6021</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5821,107 +5821,107 @@
       <c r="O10" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6058,89 +6058,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>1067300061.92932</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="3" t="n">
         <v>1980039296.78543</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="3" t="n">
         <v>1735803164.82232</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="3" t="n">
         <v>943452280.923279</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="3" t="n">
         <v>1365294944.37385</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="3" t="n">
         <v>2345394621.43312</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="3" t="n">
         <v>1173134600.77747</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="3" t="n">
         <v>786218590.139594</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="3" t="n">
         <v>1007022996.80712</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="3" t="n">
         <v>1517969221.59898</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>3038647762.85663</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="3" t="n">
         <v>4293864580.56261</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="3" t="n">
         <v>3784024293.89336</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="3" t="n">
         <v>2920829499.32719</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="3" t="n">
         <v>2684680578.07523</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="3" t="n">
         <v>1945804643.4017</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="3" t="n">
         <v>1371114125.80448</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>1900030170.9237</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="3" t="n">
         <v>1396736168.43512</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="3" t="n">
         <v>2151315647.77352</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="3" t="n">
         <v>2719145128.62949</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="3" t="n">
         <v>1569693163.58932</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="3" t="n">
         <v>1845506492.7888</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="3" t="n">
         <v>1989924566.11499</v>
       </c>
-      <c r="AX14" s="12"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6158,87 +6158,87 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>82188128.9178727</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="3" t="n">
         <v>70120713.9772589</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="3" t="n">
         <v>59113908.7197148</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="3" t="n">
         <v>20099301.1689583</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="3" t="n">
         <v>1214723.21914326</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="3" t="n">
         <v>107317024.854073</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="3" t="n">
         <v>4988655.35960114</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="3" t="n">
         <v>-159418.34416295</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="3" t="n">
         <v>-243211.793474198</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="3" t="n">
         <v>-1023271.44569922</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>2610873.22450948</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="3" t="n">
         <v>4088815.25621585</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="3" t="n">
         <v>-48243.6304895651</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="3" t="n">
         <v>-377151.693149625</v>
       </c>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12" t="n">
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="3" t="n">
         <v>65908.248819941</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="3" t="n">
         <v>11236233.2848408</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="3" t="n">
         <v>375646458.995172</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="3" t="n">
         <v>333876779.50999</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="3" t="n">
         <v>257495594.160858</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="3" t="n">
         <v>302908851.27</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="3" t="n">
         <v>93212258.6375883</v>
       </c>
-      <c r="AX15" s="12"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6256,89 +6256,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>11685177.8434874</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="3" t="n">
         <v>18912957.0956127</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="3" t="n">
         <v>7597217.59893507</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="3" t="n">
         <v>26701999.7232953</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="3" t="n">
         <v>52921713.5910614</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="3" t="n">
         <v>61324204.1460397</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="3" t="n">
         <v>73681326.9837042</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="3" t="n">
         <v>61162715.6724754</v>
       </c>
-      <c r="AH16" s="12" t="n">
+      <c r="AH16" s="3" t="n">
         <v>63669017.5034315</v>
       </c>
-      <c r="AI16" s="12" t="n">
+      <c r="AI16" s="3" t="n">
         <v>41642864.0022257</v>
       </c>
-      <c r="AJ16" s="12" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>78172361.6300856</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="3" t="n">
         <v>48159876.9351512</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="3" t="n">
         <v>58479211.1363485</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="3" t="n">
         <v>59378198.3477982</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="3" t="n">
         <v>45898841.9338893</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="3" t="n">
         <v>85411425.8750328</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="3" t="n">
         <v>106951737.617496</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>107320861.078089</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="3" t="n">
         <v>61604097.0290924</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="3" t="n">
         <v>54989344.3845532</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="3" t="n">
         <v>57684146.4046044</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="3" t="n">
         <v>-747511.548776512</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="3" t="n">
         <v>3842652.86</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="3" t="n">
         <v>2554630.56909366</v>
       </c>
-      <c r="AX16" s="12"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6356,89 +6356,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>229637861.415182</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="3" t="n">
         <v>133967542.663279</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="3" t="n">
         <v>235493678.142397</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="3" t="n">
         <v>1075991408.61165</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="3" t="n">
         <v>1314890200.59774</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="3" t="n">
         <v>725053994.959765</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="3" t="n">
         <v>1067251033.87698</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="3" t="n">
         <v>1346177582.53417</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="3" t="n">
         <v>1001802803.42841</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="3" t="n">
         <v>1166640557.60556</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>2236682253.33373</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="3" t="n">
         <v>3202149615.21338</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="3" t="n">
         <v>3312271881.77473</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="3" t="n">
         <v>3197449353.07318</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="3" t="n">
         <v>4119078645.01213</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="3" t="n">
         <v>2568227009.16391</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="3" t="n">
         <v>2345975694.72188</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>2202260364.95154</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="3" t="n">
         <v>2156866671.53281</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="3" t="n">
         <v>2412764766.57403</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="3" t="n">
         <v>2317953914.67607</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="3" t="n">
         <v>1486345383.78248</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="3" t="n">
         <v>1857568524.66</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="3" t="n">
         <v>2200782400.40538</v>
       </c>
-      <c r="AX17" s="12"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6456,89 +6456,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>3492351211.49943</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="3" t="n">
         <v>3596430612.8192</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="3" t="n">
         <v>4038015233.4985</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="3" t="n">
         <v>4688509945.51071</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="3" t="n">
         <v>4952286069.37678</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="3" t="n">
         <v>4703110844.41612</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="3" t="n">
         <v>6739369595.45452</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="3" t="n">
         <v>6720566571.705</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="3" t="n">
         <v>7227987577.92435</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="3" t="n">
         <v>8111987165.3643</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>5963003051.94534</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="3" t="n">
         <v>4814516816.71156</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="3" t="n">
         <v>2923478731.29809</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="3" t="n">
         <v>2484866926.63287</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="3" t="n">
         <v>2209807813.5781</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="3" t="n">
         <v>2323863323.4108</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="3" t="n">
         <v>2063733285.62645</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>2068986021.7901</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="3" t="n">
         <v>2579652563.54238</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="3" t="n">
         <v>2105063212.00615</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="3" t="n">
         <v>2139091069.97776</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="3" t="n">
         <v>514678837.983913</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="3" t="n">
         <v>620835873.2035</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="3" t="n">
         <v>605293752.365187</v>
       </c>
-      <c r="AX18" s="12"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6556,89 +6556,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>247649486.819092</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="3" t="n">
         <v>746174075.283847</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="3" t="n">
         <v>889188754.51405</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="3" t="n">
         <v>1302395029.51242</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="3" t="n">
         <v>1647032495.84528</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="3" t="n">
         <v>1465901897.22691</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="3" t="n">
         <v>2084187789.77436</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="3" t="n">
         <v>1993961846.37867</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="3" t="n">
         <v>2455647932.81759</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="3" t="n">
         <v>1310896668.59396</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>572731620.298622</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="3" t="n">
         <v>844871784.08587</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="3" t="n">
         <v>2448756530.16047</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="3" t="n">
         <v>700480789.288232</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="3" t="n">
         <v>460196742.87757</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="3" t="n">
         <v>231145612.222171</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="3" t="n">
         <v>1336326451.3266</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>792923002.969276</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="3" t="n">
         <v>582214959.527419</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="3" t="n">
         <v>977149256.772373</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="3" t="n">
         <v>518266581.82867</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="3" t="n">
         <v>9544714.49345426</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="3" t="n">
         <v>6310225.03</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="3" t="n">
         <v>2286455.96696452</v>
       </c>
-      <c r="AX19" s="12"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6656,61 +6656,61 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="3" t="n">
         <v>54391026.4913336</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="3" t="n">
         <v>263475744.259908</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="3" t="n">
         <v>982369603.463306</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="3" t="n">
         <v>1524008822.81389</v>
       </c>
-      <c r="AJ20" s="12" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>-917414.58404958</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="3" t="n">
         <v>-1053645.53326976</v>
       </c>
-      <c r="AL20" s="12" t="n">
+      <c r="AL20" s="3" t="n">
         <v>2426231.07430142</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="3" t="n">
         <v>415253.896564877</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6726,109 +6726,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="3" t="n">
         <v>10154930808.5306</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="3" t="n">
         <v>8705023523.2999</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="3" t="n">
         <v>6004528138.36198</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="3" t="n">
         <v>6907301236.64467</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="3" t="n">
         <v>6632410715.084</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="3" t="n">
         <v>6047222098.50706</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="3" t="n">
         <v>5076672539.04631</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="3" t="n">
         <v>5376821437.83218</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="3" t="n">
         <v>5930753132.00485</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="3" t="n">
         <v>5789712387.55746</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="3" t="n">
         <v>11656319.2890684</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="3" t="n">
         <v>7692878.03523481</v>
       </c>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="3" t="n">
         <v>13467945.613341</v>
       </c>
-      <c r="AC21" s="12" t="n">
+      <c r="AC21" s="3" t="n">
         <v>3168756.29398567</v>
       </c>
-      <c r="AD21" s="12" t="n">
+      <c r="AD21" s="3" t="n">
         <v>5794109.8049803</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="3" t="n">
         <v>7840519.02574275</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="3" t="n">
         <v>2733620.5451712</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="3" t="n">
         <v>1459242.11183679</v>
       </c>
-      <c r="AH21" s="12" t="n">
+      <c r="AH21" s="3" t="n">
         <v>28712570.4748276</v>
       </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AI21" s="3" t="n">
         <v>26756461.7354582</v>
       </c>
-      <c r="AJ21" s="12" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>31855.3448867188</v>
       </c>
-      <c r="AK21" s="12" t="n">
+      <c r="AK21" s="3" t="n">
         <v>-103680.835924263</v>
       </c>
-      <c r="AL21" s="12" t="n">
+      <c r="AL21" s="3" t="n">
         <v>-196894.978747272</v>
       </c>
-      <c r="AM21" s="12" t="n">
+      <c r="AM21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="12" t="n">
+      <c r="AN21" s="3" t="n">
         <v>3321130.78103472</v>
       </c>
-      <c r="AO21" s="12" t="n">
+      <c r="AO21" s="3" t="n">
         <v>-2071182.74156541</v>
       </c>
-      <c r="AP21" s="12" t="n">
+      <c r="AP21" s="3" t="n">
         <v>3622044.90051877</v>
       </c>
-      <c r="AQ21" s="12" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>-64870.7236746093</v>
       </c>
-      <c r="AR21" s="12" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="12" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="12" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="12" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="12" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6837,41 +6837,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -494,23 +494,29 @@
   <si>
     <t xml:space="preserve">Firm Fixed-Price</t>
   </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -548,18 +554,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,110 +979,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="1" t="n">
         <v>870648000</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="1" t="n">
         <v>604167000</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="1" t="n">
         <v>383787864</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="1" t="n">
         <v>347908293</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="1" t="n">
         <v>249118389</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="1" t="n">
         <v>262005028</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="1" t="n">
         <v>321493244</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="1" t="n">
         <v>392746576</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="1" t="n">
         <v>439513666</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="1" t="n">
         <v>313296174</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="1" t="n">
         <v>266733768</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="1" t="n">
         <v>414212179</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="1" t="n">
         <v>909008019.64</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="1" t="n">
         <v>826341315</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="1" t="n">
         <v>1194108794</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="1" t="n">
         <v>1174917874</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="1" t="n">
         <v>1477929696</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="1" t="n">
         <v>1612576359.3</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="1" t="n">
         <v>2930660645.3937</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="1" t="n">
         <v>3870303188.083</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="1" t="n">
         <v>3187840055.2305</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="1" t="n">
         <v>3297423372.5833</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>3953911174.6041</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="1" t="n">
         <v>1678877823.2501</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="1" t="n">
         <v>2099220070.6584</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="1" t="n">
         <v>1008265757.749</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="1" t="n">
         <v>1131256627.8225</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="1" t="n">
         <v>409163889.8859</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="1" t="n">
         <v>537632033.4166</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>1045878750.3076</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="1" t="n">
         <v>638338748.4582</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="1" t="n">
         <v>965171477.7469</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="1" t="n">
         <v>1344484786.9503</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="1" t="n">
         <v>1184193624.5482</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1085,110 +1091,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="1" t="n">
         <v>4106587000</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="1" t="n">
         <v>3750683000</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="1" t="n">
         <v>2620855895</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="1" t="n">
         <v>2947199869</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="1" t="n">
         <v>2690843713</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="1" t="n">
         <v>2609408255</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="1" t="n">
         <v>2110335168</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="1" t="n">
         <v>2158944110</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="1" t="n">
         <v>2540412634</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="1" t="n">
         <v>2735807547</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="1" t="n">
         <v>2818863207</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="1" t="n">
         <v>3586603395</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="1" t="n">
         <v>3461039703</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="1" t="n">
         <v>4389439418.71</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="1" t="n">
         <v>4976479731.22</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="1" t="n">
         <v>5167249626.15</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="1" t="n">
         <v>5935270525.6297</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="1" t="n">
         <v>6348624974.5731</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="1" t="n">
         <v>6003739105.7294</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="1" t="n">
         <v>5821558383.1191</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="1" t="n">
         <v>5642284614.4469</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="1" t="n">
         <v>6786111002.0385</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>5718545686.6909</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="1" t="n">
         <v>4331467986.14</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="1" t="n">
         <v>3059382573.7069</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="1" t="n">
         <v>2946748513.6683</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="1" t="n">
         <v>3083367103.8123</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="1" t="n">
         <v>3300802568.021</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="1" t="n">
         <v>3582223464.5132</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>4099219277.3881</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="1" t="n">
         <v>5142737649.2707</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="1" t="n">
         <v>1210400351.2346</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="1" t="n">
         <v>1076452408.5729</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="1" t="n">
         <v>1591223028.2597</v>
       </c>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1197,110 +1203,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="1" t="n">
         <v>132083000</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="1" t="n">
         <v>181191000</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="1" t="n">
         <v>202412248</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="1" t="n">
         <v>480788104</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="1" t="n">
         <v>764665627</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="1" t="n">
         <v>577899537</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="1" t="n">
         <v>518309730</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="1" t="n">
         <v>628374913</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="1" t="n">
         <v>571555426</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="1" t="n">
         <v>461136417</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="1" t="n">
         <v>97155149</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="1" t="n">
         <v>153500144</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="1" t="n">
         <v>123727814</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="1" t="n">
         <v>73703415</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="1" t="n">
         <v>108109992.9375</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="1" t="n">
         <v>180128355</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="1" t="n">
         <v>597284734.99</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="1" t="n">
         <v>249207071.4603</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="1" t="n">
         <v>643108304.0162</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="1" t="n">
         <v>689175302.6332</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="1" t="n">
         <v>259242737.7158</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="1" t="n">
         <v>214867335.3807</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>276873515.1988</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="1" t="n">
         <v>1560833859.9593</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="1" t="n">
         <v>2690882889.4998</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="1" t="n">
         <v>2008048248.0812</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="1" t="n">
         <v>1861241982.6474</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="1" t="n">
         <v>2340611920.8674</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="1" t="n">
         <v>1824835229.7761</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>2066605786.7409</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="1" t="n">
         <v>1535058337.7351</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="1" t="n">
         <v>1412808136.0296</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="1" t="n">
         <v>2216035424.2891</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="1" t="n">
         <v>2355703476.5392</v>
       </c>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1309,110 +1315,110 @@
       <c r="M5" t="s">
         <v>137</v>
       </c>
-      <c r="N5" s="12" t="str">
+      <c r="N5" s="1" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="12" t="str">
+      <c r="O5" s="1" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="12" t="str">
+      <c r="P5" s="1" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="12" t="str">
+      <c r="Q5" s="1" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="12" t="str">
+      <c r="R5" s="1" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="12" t="str">
+      <c r="S5" s="1" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="12" t="str">
+      <c r="T5" s="1" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="12" t="str">
+      <c r="U5" s="1" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="12" t="str">
+      <c r="V5" s="1" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="12" t="str">
+      <c r="W5" s="1" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="12" t="str">
+      <c r="X5" s="1" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="12" t="str">
+      <c r="Y5" s="1" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="12" t="str">
+      <c r="Z5" s="1" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="12" t="str">
+      <c r="AA5" s="1" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="12" t="str">
+      <c r="AB5" s="1" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="12" t="str">
+      <c r="AC5" s="1" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="12" t="str">
+      <c r="AD5" s="1" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="12" t="str">
+      <c r="AE5" s="1" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="12" t="str">
+      <c r="AF5" s="1" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="12" t="str">
+      <c r="AG5" s="1" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="12" t="str">
+      <c r="AH5" s="1" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="12" t="str">
+      <c r="AI5" s="1" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="12" t="str">
+      <c r="AJ5" s="1" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="12" t="str">
+      <c r="AK5" s="1" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="12" t="str">
+      <c r="AL5" s="1" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="12" t="str">
+      <c r="AM5" s="1" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="12" t="str">
+      <c r="AN5" s="1" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="12" t="str">
+      <c r="AO5" s="1" t="str">
         <f>Sum(AO2:AO4)</f>
       </c>
-      <c r="AP5" s="12" t="str">
+      <c r="AP5" s="1" t="str">
         <f>Sum(AP2:AP4)</f>
       </c>
-      <c r="AQ5" s="12" t="str">
+      <c r="AQ5" s="1" t="str">
         <f>Sum(AQ2:AQ4)</f>
       </c>
-      <c r="AR5" s="12" t="str">
+      <c r="AR5" s="1" t="str">
         <f>Sum(AR2:AR4)</f>
       </c>
-      <c r="AS5" s="12" t="str">
+      <c r="AS5" s="1" t="str">
         <f>Sum(AS2:AS4)</f>
       </c>
-      <c r="AT5" s="12" t="str">
+      <c r="AT5" s="1" t="str">
         <f>Sum(AT2:AT4)</f>
       </c>
-      <c r="AU5" s="12" t="str">
+      <c r="AU5" s="1" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1531,110 +1537,110 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="12" t="n">
+      <c r="N9" s="1" t="n">
         <v>1730440383.35167</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="1" t="n">
         <v>1159444534.78298</v>
       </c>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="1" t="n">
         <v>718560893.080731</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="1" t="n">
         <v>636433634.079564</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="1" t="n">
         <v>445997707.028463</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="1" t="n">
         <v>459338621.320394</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="1" t="n">
         <v>553233728.301702</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="1" t="n">
         <v>664051776.207396</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="1" t="n">
         <v>733960428.996568</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="1" t="n">
         <v>516743774.86198</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="1" t="n">
         <v>430969764.245759</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="1" t="n">
         <v>653410243.399549</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="1" t="n">
         <v>1411658403.16719</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="1" t="n">
         <v>1259210574.14827</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="1" t="n">
         <v>1776212147.27682</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="1" t="n">
         <v>1696175718.11676</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="1" t="n">
         <v>2066344915.30711</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="1" t="n">
         <v>2194421233.09567</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="1" t="n">
         <v>3906616861.66988</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="1" t="n">
         <v>5107275288.43278</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="1" t="n">
         <v>4170420714.7049</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="1" t="n">
         <v>4228559318.93509</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>4979160341.22892</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="1" t="n">
         <v>2076216087.4781</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="1" t="n">
         <v>2546770554.45826</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="1" t="n">
         <v>1209361910.09765</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="1" t="n">
         <v>1345731600.4142</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="1" t="n">
         <v>478199616.510718</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="1" t="n">
         <v>613928200.590969</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>1171358155.89873</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="1" t="n">
         <v>705511660.849656</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="1" t="n">
         <v>1032045888.12951</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="1" t="n">
         <v>1344484786.9503</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="1" t="n">
         <v>1129481960.03171</v>
       </c>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="12"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1643,110 +1649,110 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="1" t="n">
         <v>8161971293.27465</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="1" t="n">
         <v>7197859045.68346</v>
       </c>
-      <c r="P10" s="12" t="n">
+      <c r="P10" s="1" t="n">
         <v>4906993496.14426</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="1" t="n">
         <v>5391355022.93556</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="1" t="n">
         <v>4817428897.10946</v>
       </c>
-      <c r="S10" s="12" t="n">
+      <c r="S10" s="1" t="n">
         <v>4574728964.03253</v>
       </c>
-      <c r="T10" s="12" t="n">
+      <c r="T10" s="1" t="n">
         <v>3631518281.48164</v>
       </c>
-      <c r="U10" s="12" t="n">
+      <c r="U10" s="1" t="n">
         <v>3650319973.70741</v>
       </c>
-      <c r="V10" s="12" t="n">
+      <c r="V10" s="1" t="n">
         <v>4242330764.47489</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="1" t="n">
         <v>4512380413.34227</v>
       </c>
-      <c r="X10" s="12" t="n">
+      <c r="X10" s="1" t="n">
         <v>4554521989.7386</v>
       </c>
-      <c r="Y10" s="12" t="n">
+      <c r="Y10" s="1" t="n">
         <v>5657784865.14419</v>
       </c>
-      <c r="Z10" s="12" t="n">
+      <c r="Z10" s="1" t="n">
         <v>5374876431.09044</v>
       </c>
-      <c r="AA10" s="12" t="n">
+      <c r="AA10" s="1" t="n">
         <v>6688796058.34894</v>
       </c>
-      <c r="AB10" s="12" t="n">
+      <c r="AB10" s="1" t="n">
         <v>7402410729.81314</v>
       </c>
-      <c r="AC10" s="12" t="n">
+      <c r="AC10" s="1" t="n">
         <v>7459724240.54173</v>
       </c>
-      <c r="AD10" s="12" t="n">
+      <c r="AD10" s="1" t="n">
         <v>8298308170.40914</v>
       </c>
-      <c r="AE10" s="12" t="n">
+      <c r="AE10" s="1" t="n">
         <v>8639316435.97467</v>
       </c>
-      <c r="AF10" s="12" t="n">
+      <c r="AF10" s="1" t="n">
         <v>8003078916.82167</v>
       </c>
-      <c r="AG10" s="12" t="n">
+      <c r="AG10" s="1" t="n">
         <v>7682163341.05845</v>
       </c>
-      <c r="AH10" s="12" t="n">
+      <c r="AH10" s="1" t="n">
         <v>7381393114.67076</v>
       </c>
-      <c r="AI10" s="12" t="n">
+      <c r="AI10" s="1" t="n">
         <v>8702392648.63248</v>
       </c>
-      <c r="AJ10" s="12" t="n">
+      <c r="AJ10" s="1" t="n">
         <v>7201364581.87583</v>
       </c>
-      <c r="AK10" s="12" t="n">
+      <c r="AK10" s="1" t="n">
         <v>5356591998.94056</v>
       </c>
-      <c r="AL10" s="12" t="n">
+      <c r="AL10" s="1" t="n">
         <v>3711638223.37871</v>
       </c>
-      <c r="AM10" s="12" t="n">
+      <c r="AM10" s="1" t="n">
         <v>3534470335.50302</v>
       </c>
-      <c r="AN10" s="12" t="n">
+      <c r="AN10" s="1" t="n">
         <v>3667942750.76627</v>
       </c>
-      <c r="AO10" s="12" t="n">
+      <c r="AO10" s="1" t="n">
         <v>3857726845.45892</v>
       </c>
-      <c r="AP10" s="12" t="n">
+      <c r="AP10" s="1" t="n">
         <v>4090582162.12946</v>
       </c>
-      <c r="AQ10" s="12" t="n">
+      <c r="AQ10" s="1" t="n">
         <v>4591023512.0215</v>
       </c>
-      <c r="AR10" s="12" t="n">
+      <c r="AR10" s="1" t="n">
         <v>5683912168.91421</v>
       </c>
-      <c r="AS10" s="12" t="n">
+      <c r="AS10" s="1" t="n">
         <v>1294266080.46717</v>
       </c>
-      <c r="AT10" s="12" t="n">
+      <c r="AT10" s="1" t="n">
         <v>1076452408.5729</v>
       </c>
-      <c r="AU10" s="12" t="n">
+      <c r="AU10" s="1" t="n">
         <v>1517705945.67426</v>
       </c>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1755,151 +1761,151 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="1" t="n">
         <v>262519131.904327</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="1" t="n">
         <v>347719942.83346</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="1" t="n">
         <v>378973749.136993</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="1" t="n">
         <v>879512579.629551</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="1" t="n">
         <v>1368984110.94607</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="1" t="n">
         <v>1013154513.15413</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="1" t="n">
         <v>891920529.262968</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="1" t="n">
         <v>1062449687.91738</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="1" t="n">
         <v>954461938.533388</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="1" t="n">
         <v>760588199.353204</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="1" t="n">
         <v>156976493.729101</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="1" t="n">
         <v>242142968.11612</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="1" t="n">
         <v>192145068.651627</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="1" t="n">
         <v>112312089.247091</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="1" t="n">
         <v>160811379.718889</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="1" t="n">
         <v>260043147.403268</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="1" t="n">
         <v>835084563.546886</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="1" t="n">
         <v>339125205.387149</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="1" t="n">
         <v>857273512.134018</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="1" t="n">
         <v>909439860.77745</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="1" t="n">
         <v>339148534.674086</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="1" t="n">
         <v>275542194.828019</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>348666817.623323</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="1" t="n">
         <v>1930234782.45402</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="1" t="n">
         <v>3264574974.42098</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="1" t="n">
         <v>2408548585.73137</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="1" t="n">
         <v>2214114897.06577</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="1" t="n">
         <v>2735529089.01939</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="1" t="n">
         <v>2083800330.63122</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="1" t="n">
         <v>2314547018.58558</v>
       </c>
-      <c r="AR11" s="12" t="n">
+      <c r="AR11" s="1" t="n">
         <v>1696593791.26273</v>
       </c>
-      <c r="AS11" s="12" t="n">
+      <c r="AS11" s="1" t="n">
         <v>1510698213.86457</v>
       </c>
-      <c r="AT11" s="12" t="n">
+      <c r="AT11" s="1" t="n">
         <v>2216035424.2891</v>
       </c>
-      <c r="AU11" s="12" t="n">
+      <c r="AU11" s="1" t="n">
         <v>2246866158.35324</v>
       </c>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6891,6 +6897,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="N1" t="s">
         <v>59</v>
       </c>
@@ -6999,676 +7011,921 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="N2" t="s">
         <v>61</v>
       </c>
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="n">
-        <v>2929244710</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>3593094018</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>4246686727</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>4748712467.6601</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>5371395489.2227</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>5785723647.2656</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>7380482189.8882</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>7551341426.3594</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>8654047890.7439</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>9613301432.866</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>8072988204.8084</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>9575766614.535</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>9321612297.8177</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>6861138826.0051</v>
-      </c>
-      <c r="AN2" s="4" t="n">
-        <v>7511088989.0387</v>
-      </c>
-      <c r="AO2" s="4" t="n">
-        <v>5604032857.7569</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>5726535657.4099</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>5621746270.1064</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>5328489030.8624</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>6465802439.6925</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>5983338451.6949</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>2659503046.2681</v>
-      </c>
-      <c r="AV2" s="4" t="n">
-        <v>3139360053.2428</v>
-      </c>
-      <c r="AW2" s="4" t="n">
-        <v>2326489419.3368</v>
-      </c>
-      <c r="AX2" s="4"/>
+      <c r="P2" s="12" t="n">
+        <v>146161000</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>155034000</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>54014000</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>61145000</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>227723000</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>180833000</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>98010000</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>2174256568</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>586215222</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>827188281</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>2929244709</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>3593094023</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>4246686735.64</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>4748712477.71</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>5371395489.22</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>5785723606.15</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>7380482191.94</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>7551341401.82</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>8654047870.41</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>9613301540.6</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>8187094151.1456</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>9708516553.0017</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>9479517076.3262</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>7023508896.28</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>7666227374.0876</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>5622559130.2197</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>5664429347.2168</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>5601672367.335</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>5328483089.25</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>6462278914.15</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>5967795072.31</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>2660782693.18</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>3134292153.39</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>3194372041.98</v>
+      </c>
+      <c r="AX2" s="12" t="n">
+        <v>2588657842.81</v>
+      </c>
+      <c r="AY2" s="12" t="n">
+        <v>1144262610.82</v>
+      </c>
+      <c r="AZ2" s="12"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="N3" t="s">
         <v>61</v>
       </c>
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="n">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12" t="n">
+        <v>-284000</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>1622000</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>4764000</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12" t="n">
+        <v>-369000</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>163000</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>295588</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>449843</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>1133898</v>
+      </c>
+      <c r="Z3" s="12" t="n">
         <v>2746911</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="12" t="n">
         <v>3941884</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="12" t="n">
         <v>3749025</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="12" t="n">
         <v>16809462</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="12" t="n">
         <v>16266497</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="12" t="n">
         <v>16471041</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="12" t="n">
         <v>11620145</v>
       </c>
-      <c r="AG3" s="4" t="n">
-        <v>13220806.7762</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>14159994.0288</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>14903232.1958</v>
-      </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AG3" s="12" t="n">
+        <v>13220806.78</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>14159994.04</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>14903232.19</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
         <v>18135284.5837</v>
       </c>
-      <c r="AK3" s="4" t="n">
+      <c r="AK3" s="12" t="n">
         <v>15028409.0642</v>
       </c>
-      <c r="AL3" s="4" t="n">
-        <v>30219532.7448</v>
-      </c>
-      <c r="AM3" s="4" t="n">
-        <v>25152024.7</v>
-      </c>
-      <c r="AN3" s="4" t="n">
+      <c r="AL3" s="12" t="n">
+        <v>30299449.7448</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>25531725.7</v>
+      </c>
+      <c r="AN3" s="12" t="n">
         <v>34552124.64</v>
       </c>
-      <c r="AO3" s="4" t="n">
-        <v>21511607.5867</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>20269077.4434</v>
-      </c>
-      <c r="AQ3" s="4" t="n">
-        <v>19009075.8613</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>8026539.1409</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>22724990.4934</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>1442757.3984</v>
-      </c>
-      <c r="AU3" s="4" t="n">
-        <v>1416485.9096</v>
-      </c>
-      <c r="AV3" s="4" t="n">
-        <v>1238514.3926</v>
-      </c>
-      <c r="AW3" s="4" t="n">
-        <v>2462361.2812</v>
-      </c>
-      <c r="AX3" s="4"/>
+      <c r="AO3" s="12" t="n">
+        <v>21511607.58</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>20119128.4358</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>19009075.8597</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>8026539.13</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>22724990.49</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>1540197.4</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>1416485.91</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>1238514.38</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>2728083.78</v>
+      </c>
+      <c r="AX3" s="12" t="n">
+        <v>3037684</v>
+      </c>
+      <c r="AY3" s="12" t="n">
+        <v>137306</v>
+      </c>
+      <c r="AZ3" s="12"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="N4" t="s">
         <v>64</v>
       </c>
       <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4" t="n">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12" t="n">
         <v>-8990</v>
       </c>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4" t="n">
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12" t="n">
         <v>3801.12</v>
       </c>
-      <c r="AM4" s="4" t="n">
+      <c r="AM4" s="12" t="n">
         <v>631424.1</v>
       </c>
-      <c r="AN4" s="4" t="n">
+      <c r="AN4" s="12" t="n">
         <v>18016.7902</v>
       </c>
-      <c r="AO4" s="4" t="n">
+      <c r="AO4" s="12" t="n">
         <v>936877.2</v>
       </c>
-      <c r="AP4" s="4" t="n">
+      <c r="AP4" s="12" t="n">
         <v>13076623.2109</v>
       </c>
-      <c r="AQ4" s="4" t="n">
-        <v>3171330.6641</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>1557946.1904</v>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>7339874.48</v>
-      </c>
-      <c r="AT4" s="4" t="n">
+      <c r="AQ4" s="12" t="n">
+        <v>3171330.6616</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>1557946.2404</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>7339874.5</v>
+      </c>
+      <c r="AT4" s="12" t="n">
         <v>1339871</v>
       </c>
-      <c r="AU4" s="4" t="n">
+      <c r="AU4" s="12" t="n">
         <v>245418</v>
       </c>
-      <c r="AV4" s="4" t="n">
-        <v>3697414.5234</v>
-      </c>
-      <c r="AW4" s="4" t="n">
-        <v>1859469</v>
-      </c>
-      <c r="AX4" s="4"/>
+      <c r="AV4" s="12" t="n">
+        <v>3697414.52</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>6565850.625</v>
+      </c>
+      <c r="AX4" s="12" t="n">
+        <v>6811893.33</v>
+      </c>
+      <c r="AY4" s="12" t="n">
+        <v>62415</v>
+      </c>
+      <c r="AZ4" s="12"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="N5" t="s">
         <v>64</v>
       </c>
       <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12" t="n">
+        <v>452242</v>
+      </c>
+      <c r="Z5" s="12" t="n">
         <v>5387765</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="12" t="n">
         <v>3484273</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="12" t="n">
         <v>13430151</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="12" t="n">
         <v>11924872</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="12" t="n">
         <v>27711504</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="12" t="n">
         <v>29715201</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="AF5" s="12" t="n">
         <v>23051849</v>
       </c>
-      <c r="AG5" s="4" t="n">
+      <c r="AG5" s="12" t="n">
         <v>28381830.2364</v>
       </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AH5" s="12" t="n">
         <v>48133935.8389</v>
       </c>
-      <c r="AI5" s="4" t="n">
+      <c r="AI5" s="12" t="n">
         <v>25681037.0773</v>
       </c>
-      <c r="AJ5" s="4" t="n">
-        <v>45130096.6892</v>
-      </c>
-      <c r="AK5" s="4" t="n">
+      <c r="AJ5" s="12" t="n">
+        <v>45161554.1091</v>
+      </c>
+      <c r="AK5" s="12" t="n">
         <v>18708592.6554</v>
       </c>
-      <c r="AL5" s="4" t="n">
+      <c r="AL5" s="12" t="n">
         <v>18721760.7503</v>
       </c>
-      <c r="AM5" s="4" t="n">
-        <v>22289346.6809</v>
-      </c>
-      <c r="AN5" s="4" t="n">
-        <v>846488.3687</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>-171183.5012</v>
-      </c>
-      <c r="AP5" s="4" t="n">
+      <c r="AM5" s="12" t="n">
+        <v>22354229.1009</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>903081.3687</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>-171183.4481</v>
+      </c>
+      <c r="AP5" s="12" t="n">
         <v>-219671.1015</v>
       </c>
-      <c r="AQ5" s="4" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>-344970.4034</v>
       </c>
-      <c r="AR5" s="4" t="n">
+      <c r="AR5" s="12" t="n">
         <v>-77013.6016</v>
       </c>
-      <c r="AS5" s="4" t="n">
-        <v>1495616.338</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>4762040.8364</v>
-      </c>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4" t="n">
+      <c r="AS5" s="12" t="n">
+        <v>1495616.3311</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>4762040.8001</v>
+      </c>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AX5" s="4"/>
+      <c r="AX5" s="12" t="n">
+        <v>-42858.8</v>
+      </c>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="N6" t="s">
         <v>64</v>
       </c>
       <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="n">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="n">
+        <v>6474318</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>8253909</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>19140890</v>
+      </c>
+      <c r="Z6" s="12" t="n">
         <v>114826157</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="12" t="n">
         <v>417793085</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="12" t="n">
         <v>10274049</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AC6" s="12" t="n">
         <v>180840769</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="12" t="n">
         <v>642827161.9375</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="12" t="n">
         <v>472444461</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="12" t="n">
         <v>142571387.6797</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="12" t="n">
         <v>100777326.2937</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH6" s="12" t="n">
         <v>196008740.809</v>
       </c>
-      <c r="AI6" s="4" t="n">
-        <v>335543751.417</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="AI6" s="12" t="n">
+        <v>335542401.417</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
         <v>364760431.2007</v>
       </c>
-      <c r="AK6" s="4" t="n">
+      <c r="AK6" s="12" t="n">
         <v>316707870.6605</v>
       </c>
-      <c r="AL6" s="4" t="n">
+      <c r="AL6" s="12" t="n">
         <v>269018571.0573</v>
       </c>
-      <c r="AM6" s="4" t="n">
-        <v>446702176.8734</v>
-      </c>
-      <c r="AN6" s="4" t="n">
-        <v>139835359.5394</v>
-      </c>
-      <c r="AO6" s="4" t="n">
-        <v>162166524.7043</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>165592358.502</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>186738681.579</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>379030910.2695</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>409219407.9667</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>473398283.9077</v>
-      </c>
-      <c r="AU6" s="4" t="n">
-        <v>136913607.2687</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>140460649.3183</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>62817073.4815</v>
-      </c>
-      <c r="AX6" s="4"/>
+      <c r="AM6" s="12" t="n">
+        <v>446865176.8734</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>139835359.545</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>162124959.532</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>165592358.392</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>187149456.8762</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>291981928.9384</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>409219408.2338</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>473398285.7045</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>136913607.9734</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>140460649.3837</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>136315112.0383</v>
+      </c>
+      <c r="AX6" s="12" t="n">
+        <v>105633019.35</v>
+      </c>
+      <c r="AY6" s="12" t="n">
+        <v>277141908.72</v>
+      </c>
+      <c r="AZ6" s="12"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="N7" t="s">
         <v>64</v>
       </c>
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="n">
-        <v>106510072</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>125956007</v>
-      </c>
-      <c r="AB7" s="4" t="n">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12" t="n">
+        <v>10916144</v>
+      </c>
+      <c r="X7" s="12" t="n">
+        <v>14549558</v>
+      </c>
+      <c r="Y7" s="12" t="n">
+        <v>120631242</v>
+      </c>
+      <c r="Z7" s="12" t="n">
+        <v>132875413</v>
+      </c>
+      <c r="AA7" s="12" t="n">
+        <v>130947353</v>
+      </c>
+      <c r="AB7" s="12" t="n">
         <v>216574576</v>
       </c>
-      <c r="AC7" s="4" t="n">
-        <v>331067150</v>
-      </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AC7" s="12" t="n">
+        <v>331066499</v>
+      </c>
+      <c r="AD7" s="12" t="n">
         <v>220497864</v>
       </c>
-      <c r="AE7" s="4" t="n">
-        <v>217898600</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>452809014</v>
-      </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AE7" s="12" t="n">
+        <v>217950512</v>
+      </c>
+      <c r="AF7" s="12" t="n">
+        <v>452759365</v>
+      </c>
+      <c r="AG7" s="12" t="n">
         <v>516687037.568</v>
       </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="12" t="n">
         <v>665157508.1462</v>
       </c>
-      <c r="AI7" s="4" t="n">
+      <c r="AI7" s="12" t="n">
         <v>391607301.0968</v>
       </c>
-      <c r="AJ7" s="4" t="n">
-        <v>588321932.6913</v>
-      </c>
-      <c r="AK7" s="4" t="n">
+      <c r="AJ7" s="12" t="n">
+        <v>588321932.6932</v>
+      </c>
+      <c r="AK7" s="12" t="n">
         <v>372190223.0874</v>
       </c>
-      <c r="AL7" s="4" t="n">
-        <v>309754413.0037</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>215200988.57</v>
-      </c>
-      <c r="AN7" s="4" t="n">
+      <c r="AL7" s="12" t="n">
+        <v>309754413.0051</v>
+      </c>
+      <c r="AM7" s="12" t="n">
+        <v>216276254.57</v>
+      </c>
+      <c r="AN7" s="12" t="n">
         <v>163087962.4881</v>
       </c>
-      <c r="AO7" s="4" t="n">
-        <v>174585835.7518</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>150611668.8175</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>220257990.9669</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>228497197.291</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>309862951.1653</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>882475996.6106</v>
-      </c>
-      <c r="AU7" s="4" t="n">
-        <v>826989223.9312</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>1358299504.2231</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>188407356.5176</v>
-      </c>
-      <c r="AX7" s="4"/>
+      <c r="AO7" s="12" t="n">
+        <v>174761835.8814</v>
+      </c>
+      <c r="AP7" s="12" t="n">
+        <v>150854224.8692</v>
+      </c>
+      <c r="AQ7" s="12" t="n">
+        <v>220463113.7037</v>
+      </c>
+      <c r="AR7" s="12" t="n">
+        <v>228497197.2158</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>309862951.4077</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>874189038.4866</v>
+      </c>
+      <c r="AU7" s="12" t="n">
+        <v>826989223.8702</v>
+      </c>
+      <c r="AV7" s="12" t="n">
+        <v>1358299503.3081</v>
+      </c>
+      <c r="AW7" s="12" t="n">
+        <v>1791414834.5943</v>
+      </c>
+      <c r="AX7" s="12" t="n">
+        <v>3222834186.4</v>
+      </c>
+      <c r="AY7" s="12" t="n">
+        <v>141313098.96</v>
+      </c>
+      <c r="AZ7" s="12"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="N8" t="s">
         <v>64</v>
       </c>
       <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="n">
-        <v>24036509</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>10046446</v>
-      </c>
-      <c r="AB8" s="4" t="n">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12" t="n">
+        <v>11801</v>
+      </c>
+      <c r="X8" s="12" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Y8" s="12" t="n">
+        <v>-761336</v>
+      </c>
+      <c r="Z8" s="12" t="n">
+        <v>-2328832</v>
+      </c>
+      <c r="AA8" s="12" t="n">
+        <v>5055100</v>
+      </c>
+      <c r="AB8" s="12" t="n">
         <v>3061000</v>
       </c>
-      <c r="AC8" s="4" t="n">
-        <v>129417</v>
-      </c>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4" t="n">
-        <v>51912</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>-49649</v>
-      </c>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4" t="n">
-        <v>31457.4199</v>
-      </c>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4" t="n">
-        <v>64882.42</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>56593</v>
-      </c>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="AC8" s="12" t="n">
+        <v>130068</v>
+      </c>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="12" t="n">
         <v>5109318000</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="12" t="n">
         <v>4536041000</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="12" t="n">
         <v>3207056007</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="12" t="n">
         <v>3775896266</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="12" t="n">
         <v>3704627729</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="12" t="n">
         <v>3449312820</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="V9" s="12" t="n">
         <v>2950138142</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="12" t="n">
         <v>3180065599</v>
       </c>
-      <c r="X9" s="4" t="n">
+      <c r="X9" s="12" t="n">
         <v>3551481726</v>
       </c>
-      <c r="Y9" s="4" t="n">
+      <c r="Y9" s="12" t="n">
         <v>3510240138</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4" t="n">
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
+      <c r="AZ9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="12" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="12" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="12" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="12" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="12" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="12" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="12" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="12" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="12" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="12" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="12" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="12" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="12" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="12" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="12" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="12" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="12" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="12" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="12" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="12" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="12" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="12" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="12" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="12" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="12" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="12" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="12" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="12" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="12" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="12" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="12" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="12" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="12" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="12" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="12" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="12"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="N13" t="s">
         <v>59</v>
       </c>
@@ -7777,674 +8034,835 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="N14" t="s">
         <v>61</v>
       </c>
       <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="n">
-        <v>4732868701.07438</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>5668023674.54976</v>
-      </c>
-      <c r="AB14" s="4" t="n">
-        <v>6594959421.98872</v>
-      </c>
-      <c r="AC14" s="4" t="n">
-        <v>7236270103.31359</v>
-      </c>
-      <c r="AD14" s="4" t="n">
-        <v>7989839756.4144</v>
-      </c>
-      <c r="AE14" s="4" t="n">
-        <v>8352587171.74463</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>10318908867.4961</v>
-      </c>
-      <c r="AG14" s="4" t="n">
-        <v>10275993362.2934</v>
-      </c>
-      <c r="AH14" s="4" t="n">
-        <v>11535982326.9941</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <v>12685770199.9958</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
-        <v>10561306921.1739</v>
-      </c>
-      <c r="AK14" s="4" t="n">
-        <v>12279799279.1921</v>
-      </c>
-      <c r="AL14" s="4" t="n">
-        <v>11738706364.4021</v>
-      </c>
-      <c r="AM14" s="4" t="n">
-        <v>8484957399.33918</v>
-      </c>
-      <c r="AN14" s="4" t="n">
-        <v>9112441585.60271</v>
-      </c>
-      <c r="AO14" s="4" t="n">
-        <v>6721743577.04812</v>
-      </c>
-      <c r="AP14" s="4" t="n">
-        <v>6812229697.08372</v>
-      </c>
-      <c r="AQ14" s="4" t="n">
-        <v>6570269217.14696</v>
-      </c>
-      <c r="AR14" s="4" t="n">
-        <v>6084662890.70837</v>
-      </c>
-      <c r="AS14" s="4" t="n">
-        <v>7241537721.20929</v>
-      </c>
-      <c r="AT14" s="4" t="n">
-        <v>6612970086.30098</v>
-      </c>
-      <c r="AU14" s="4" t="n">
-        <v>2843773616.03785</v>
-      </c>
-      <c r="AV14" s="4" t="n">
-        <v>3139360053.2428</v>
-      </c>
-      <c r="AW14" s="4" t="n">
-        <v>2219001837.93686</v>
-      </c>
-      <c r="AX14" s="4"/>
+      <c r="P14" s="12" t="n">
+        <v>302302156.226526</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>309586134.135596</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>105226443.999558</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>116388120.203945</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>424204892.779453</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>329860793.885529</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>175477862.960007</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>3824924331.42112</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>1018492630.33126</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>1419582080.85303</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>4924568261.60197</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>5897660173.99366</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>6862497352.1443</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>7529228884.11174</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>8313506369.94444</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>8690331991.93318</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>10736926001.7799</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>10691164986.5557</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>12003177174.337</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>13198692142.4876</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>11144051992.2395</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>12954947708.6063</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>12423927957.3819</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>9041017933.94178</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>9691553185.30243</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>7035114729.54614</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>7031288292.7648</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>6837961460.11941</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>6363215911.59067</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>7577085653.39078</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>6907070677.62259</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>2977101222.3282</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>3277675346.26092</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>3194372041.98</v>
+      </c>
+      <c r="AX14" s="12" t="n">
+        <v>2521323410.07638</v>
+      </c>
+      <c r="AY14" s="12" t="n">
+        <v>1090569463.67903</v>
+      </c>
+      <c r="AZ14" s="12"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="N15" t="s">
         <v>61</v>
       </c>
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="n">
-        <v>4438266.64674148</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>6218231.89774627</v>
-      </c>
-      <c r="AB15" s="4" t="n">
-        <v>5822107.75987415</v>
-      </c>
-      <c r="AC15" s="4" t="n">
-        <v>25614902.5976555</v>
-      </c>
-      <c r="AD15" s="4" t="n">
-        <v>24196078.037628</v>
-      </c>
-      <c r="AE15" s="4" t="n">
-        <v>23778495.8545159</v>
-      </c>
-      <c r="AF15" s="4" t="n">
-        <v>16246528.9119418</v>
-      </c>
-      <c r="AG15" s="4" t="n">
-        <v>17991097.8733077</v>
-      </c>
-      <c r="AH15" s="4" t="n">
-        <v>18875495.3668897</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <v>19666394.5464918</v>
-      </c>
-      <c r="AJ15" s="4" t="n">
-        <v>23725081.9315219</v>
-      </c>
-      <c r="AK15" s="4" t="n">
-        <v>19272174.6699471</v>
-      </c>
-      <c r="AL15" s="4" t="n">
-        <v>38055457.5782657</v>
-      </c>
-      <c r="AM15" s="4" t="n">
-        <v>31104728.1652056</v>
-      </c>
-      <c r="AN15" s="4" t="n">
-        <v>41918584.3623935</v>
-      </c>
-      <c r="AO15" s="4" t="n">
-        <v>25802045.3837519</v>
-      </c>
-      <c r="AP15" s="4" t="n">
-        <v>24111892.3469467</v>
-      </c>
-      <c r="AQ15" s="4" t="n">
-        <v>22216361.2474006</v>
-      </c>
-      <c r="AR15" s="4" t="n">
-        <v>9165597.33323653</v>
-      </c>
-      <c r="AS15" s="4" t="n">
-        <v>25451423.4554783</v>
-      </c>
-      <c r="AT15" s="4" t="n">
-        <v>1594579.94803987</v>
-      </c>
-      <c r="AU15" s="4" t="n">
-        <v>1514630.81152034</v>
-      </c>
-      <c r="AV15" s="4" t="n">
-        <v>1238514.3926</v>
-      </c>
-      <c r="AW15" s="4" t="n">
-        <v>2348596.19959284</v>
-      </c>
-      <c r="AX15" s="4"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12" t="n">
+        <v>-567117.291010419</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>3159871.36977973</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>9068165.91138432</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12" t="n">
+        <v>-673099.671762124</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>291836.46222305</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>519994.627090443</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>781558.995931544</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>1945943.04499714</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>4618033.68168014</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>6470159.73656385</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>6058293.379567</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>26651916.1585061</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>25176255.7230392</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>24740002.1650865</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>16904672.8588011</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>18717975.9223027</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>19639932.6413274</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>20461562.843221</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>24685260.7975118</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>20053759.243997</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>39710691.7732984</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>32865736.1081215</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>43680383.749851</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>26915969.0164719</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>24973988.2978291</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>23204378.9063933</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>9585204.76682418</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>26645275.096095</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>1782610.18858557</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>1584880.24778594</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>1295172.19539506</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>2728083.78</v>
+      </c>
+      <c r="AX15" s="12" t="n">
+        <v>2958669.79982978</v>
+      </c>
+      <c r="AY15" s="12" t="n">
+        <v>130863.081047982</v>
+      </c>
+      <c r="AZ15" s="12"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="N16" t="s">
         <v>64</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4" t="n">
-        <v>-12978.4558081118</v>
-      </c>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4" t="n">
-        <v>4786.75041508669</v>
-      </c>
-      <c r="AM16" s="4" t="n">
-        <v>780862.583498481</v>
-      </c>
-      <c r="AN16" s="4" t="n">
-        <v>21857.9421036218</v>
-      </c>
-      <c r="AO16" s="4" t="n">
-        <v>1123735.07818858</v>
-      </c>
-      <c r="AP16" s="4" t="n">
-        <v>15555820.5351608</v>
-      </c>
-      <c r="AQ16" s="4" t="n">
-        <v>3706409.93716283</v>
-      </c>
-      <c r="AR16" s="4" t="n">
-        <v>1779036.66790755</v>
-      </c>
-      <c r="AS16" s="4" t="n">
-        <v>8220476.64023419</v>
-      </c>
-      <c r="AT16" s="4" t="n">
-        <v>1480866.72917395</v>
-      </c>
-      <c r="AU16" s="4" t="n">
-        <v>262422.422971131</v>
-      </c>
-      <c r="AV16" s="4" t="n">
-        <v>3697414.5234</v>
-      </c>
-      <c r="AW16" s="4" t="n">
-        <v>1773558.51881021</v>
-      </c>
-      <c r="AX16" s="4"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12" t="n">
+        <v>-13503.2521298519</v>
+      </c>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12" t="n">
+        <v>4981.7770944578</v>
+      </c>
+      <c r="AM16" s="12" t="n">
+        <v>812801.221772022</v>
+      </c>
+      <c r="AN16" s="12" t="n">
+        <v>22776.6112236551</v>
+      </c>
+      <c r="AO16" s="12" t="n">
+        <v>1172248.87046024</v>
+      </c>
+      <c r="AP16" s="12" t="n">
+        <v>16232086.597898</v>
+      </c>
+      <c r="AQ16" s="12" t="n">
+        <v>3871243.33935879</v>
+      </c>
+      <c r="AR16" s="12" t="n">
+        <v>1860482.26864346</v>
+      </c>
+      <c r="AS16" s="12" t="n">
+        <v>8606075.11846368</v>
+      </c>
+      <c r="AT16" s="12" t="n">
+        <v>1550754.27084238</v>
+      </c>
+      <c r="AU16" s="12" t="n">
+        <v>274593.723739286</v>
+      </c>
+      <c r="AV16" s="12" t="n">
+        <v>3866558.64355322</v>
+      </c>
+      <c r="AW16" s="12" t="n">
+        <v>6565850.625</v>
+      </c>
+      <c r="AX16" s="12" t="n">
+        <v>6634706.926439</v>
+      </c>
+      <c r="AY16" s="12" t="n">
+        <v>59486.2511733631</v>
+      </c>
+      <c r="AZ16" s="12"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="N17" t="s">
         <v>64</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="n">
-        <v>8705173.8115946</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>5496361.00632491</v>
-      </c>
-      <c r="AB17" s="4" t="n">
-        <v>20856565.7346594</v>
-      </c>
-      <c r="AC17" s="4" t="n">
-        <v>18171577.1016056</v>
-      </c>
-      <c r="AD17" s="4" t="n">
-        <v>41220289.3667912</v>
-      </c>
-      <c r="AE17" s="4" t="n">
-        <v>42898489.7672592</v>
-      </c>
-      <c r="AF17" s="4" t="n">
-        <v>32229591.9071764</v>
-      </c>
-      <c r="AG17" s="4" t="n">
-        <v>38622475.4850733</v>
-      </c>
-      <c r="AH17" s="4" t="n">
-        <v>64163295.6249432</v>
-      </c>
-      <c r="AI17" s="4" t="n">
-        <v>33888850.4781935</v>
-      </c>
-      <c r="AJ17" s="4" t="n">
-        <v>59040443.3184982</v>
-      </c>
-      <c r="AK17" s="4" t="n">
-        <v>23991579.1447717</v>
-      </c>
-      <c r="AL17" s="4" t="n">
-        <v>23576313.3083544</v>
-      </c>
-      <c r="AM17" s="4" t="n">
-        <v>27564543.1236167</v>
-      </c>
-      <c r="AN17" s="4" t="n">
-        <v>1026958.38432053</v>
-      </c>
-      <c r="AO17" s="4" t="n">
-        <v>-205325.63403782</v>
-      </c>
-      <c r="AP17" s="4" t="n">
-        <v>-261318.551172042</v>
-      </c>
-      <c r="AQ17" s="4" t="n">
-        <v>-403175.154726948</v>
-      </c>
-      <c r="AR17" s="4" t="n">
-        <v>-87942.7171607553</v>
-      </c>
-      <c r="AS17" s="4" t="n">
-        <v>1675053.05476036</v>
-      </c>
-      <c r="AT17" s="4" t="n">
-        <v>5263154.31679055</v>
-      </c>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4" t="n">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12" t="n">
+        <v>776116.700581178</v>
+      </c>
+      <c r="Z17" s="12" t="n">
+        <v>9057767.15699103</v>
+      </c>
+      <c r="AA17" s="12" t="n">
+        <v>5719042.69019497</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <v>21702654.6608478</v>
+      </c>
+      <c r="AC17" s="12" t="n">
+        <v>18907249.3066653</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>42890114.0284859</v>
+      </c>
+      <c r="AE17" s="12" t="n">
+        <v>44633131.3895692</v>
+      </c>
+      <c r="AF17" s="12" t="n">
+        <v>33535206.8442762</v>
+      </c>
+      <c r="AG17" s="12" t="n">
+        <v>40182904.4048565</v>
+      </c>
+      <c r="AH17" s="12" t="n">
+        <v>66761840.0804053</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>35259073.1552082</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
+        <v>61472690.7680333</v>
+      </c>
+      <c r="AK17" s="12" t="n">
+        <v>24964559.5420431</v>
+      </c>
+      <c r="AL17" s="12" t="n">
+        <v>24536883.5695173</v>
+      </c>
+      <c r="AM17" s="12" t="n">
+        <v>28775500.8479772</v>
+      </c>
+      <c r="AN17" s="12" t="n">
+        <v>1141664.69220507</v>
+      </c>
+      <c r="AO17" s="12" t="n">
+        <v>-214189.867868184</v>
+      </c>
+      <c r="AP17" s="12" t="n">
+        <v>-272678.984864489</v>
+      </c>
+      <c r="AQ17" s="12" t="n">
+        <v>-421105.371511274</v>
+      </c>
+      <c r="AR17" s="12" t="n">
+        <v>-91968.7961661527</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>1753624.87381053</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>5511541.86386656</v>
+      </c>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AX17" s="4"/>
+      <c r="AX17" s="12" t="n">
+        <v>-41743.9856209351</v>
+      </c>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="N18" t="s">
         <v>64</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="n">
-        <v>185528072.364413</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>659059040.754324</v>
-      </c>
-      <c r="AB18" s="4" t="n">
-        <v>15955247.1397836</v>
-      </c>
-      <c r="AC18" s="4" t="n">
-        <v>275572096.454968</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>956192115.299729</v>
-      </c>
-      <c r="AE18" s="4" t="n">
-        <v>682046669.507866</v>
-      </c>
-      <c r="AF18" s="4" t="n">
-        <v>199334016.223886</v>
-      </c>
-      <c r="AG18" s="4" t="n">
-        <v>137139493.183134</v>
-      </c>
-      <c r="AH18" s="4" t="n">
-        <v>261282742.880062</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <v>442785545.865438</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
-        <v>477189705.828606</v>
-      </c>
-      <c r="AK18" s="4" t="n">
-        <v>406140754.929011</v>
-      </c>
-      <c r="AL18" s="4" t="n">
-        <v>338775086.46782</v>
-      </c>
-      <c r="AM18" s="4" t="n">
-        <v>552422715.394865</v>
-      </c>
-      <c r="AN18" s="4" t="n">
-        <v>169648042.682506</v>
-      </c>
-      <c r="AO18" s="4" t="n">
-        <v>194510243.517674</v>
-      </c>
-      <c r="AP18" s="4" t="n">
-        <v>196987017.925542</v>
-      </c>
-      <c r="AQ18" s="4" t="n">
-        <v>218245959.934775</v>
-      </c>
-      <c r="AR18" s="4" t="n">
-        <v>432819754.491449</v>
-      </c>
-      <c r="AS18" s="4" t="n">
-        <v>458315546.551516</v>
-      </c>
-      <c r="AT18" s="4" t="n">
-        <v>523214375.329385</v>
-      </c>
-      <c r="AU18" s="4" t="n">
-        <v>146400021.828758</v>
-      </c>
-      <c r="AV18" s="4" t="n">
-        <v>140460649.3183</v>
-      </c>
-      <c r="AW18" s="4" t="n">
-        <v>59914822.8875241</v>
-      </c>
-      <c r="AX18" s="4"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12" t="n">
+        <v>11389537.3766017</v>
+      </c>
+      <c r="X18" s="12" t="n">
+        <v>14340373.9316836</v>
+      </c>
+      <c r="Y18" s="12" t="n">
+        <v>32848705.7659113</v>
+      </c>
+      <c r="Z18" s="12" t="n">
+        <v>193042679.782451</v>
+      </c>
+      <c r="AA18" s="12" t="n">
+        <v>685760412.224661</v>
+      </c>
+      <c r="AB18" s="12" t="n">
+        <v>16602504.1278858</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <v>286728570.695943</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>994927243.072312</v>
+      </c>
+      <c r="AE18" s="12" t="n">
+        <v>709625881.449942</v>
+      </c>
+      <c r="AF18" s="12" t="n">
+        <v>207409001.157097</v>
+      </c>
+      <c r="AG18" s="12" t="n">
+        <v>142680216.001124</v>
+      </c>
+      <c r="AH18" s="12" t="n">
+        <v>271864412.917519</v>
+      </c>
+      <c r="AI18" s="12" t="n">
+        <v>460686772.213488</v>
+      </c>
+      <c r="AJ18" s="12" t="n">
+        <v>496502072.037795</v>
+      </c>
+      <c r="AK18" s="12" t="n">
+        <v>422611825.494829</v>
+      </c>
+      <c r="AL18" s="12" t="n">
+        <v>352577807.403351</v>
+      </c>
+      <c r="AM18" s="12" t="n">
+        <v>575227587.496376</v>
+      </c>
+      <c r="AN18" s="12" t="n">
+        <v>176778193.247568</v>
+      </c>
+      <c r="AO18" s="12" t="n">
+        <v>202855615.106013</v>
+      </c>
+      <c r="AP18" s="12" t="n">
+        <v>205550734.162669</v>
+      </c>
+      <c r="AQ18" s="12" t="n">
+        <v>228453342.052663</v>
+      </c>
+      <c r="AR18" s="12" t="n">
+        <v>348681608.817731</v>
+      </c>
+      <c r="AS18" s="12" t="n">
+        <v>479813785.262042</v>
+      </c>
+      <c r="AT18" s="12" t="n">
+        <v>547906786.075463</v>
+      </c>
+      <c r="AU18" s="12" t="n">
+        <v>153190138.636924</v>
+      </c>
+      <c r="AV18" s="12" t="n">
+        <v>146886245.784972</v>
+      </c>
+      <c r="AW18" s="12" t="n">
+        <v>136315112.0383</v>
+      </c>
+      <c r="AX18" s="12" t="n">
+        <v>102885364.052245</v>
+      </c>
+      <c r="AY18" s="12" t="n">
+        <v>264137357.891263</v>
+      </c>
+      <c r="AZ18" s="12"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="N19" t="s">
         <v>64</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="n">
-        <v>172091523.933478</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>198692721.663081</v>
-      </c>
-      <c r="AB19" s="4" t="n">
-        <v>336332918.431073</v>
-      </c>
-      <c r="AC19" s="4" t="n">
-        <v>504492814.852338</v>
-      </c>
-      <c r="AD19" s="4" t="n">
-        <v>327986014.719352</v>
-      </c>
-      <c r="AE19" s="4" t="n">
-        <v>314570339.349214</v>
-      </c>
-      <c r="AF19" s="4" t="n">
-        <v>633088032.682799</v>
-      </c>
-      <c r="AG19" s="4" t="n">
-        <v>703116475.424892</v>
-      </c>
-      <c r="AH19" s="4" t="n">
-        <v>886665448.991684</v>
-      </c>
-      <c r="AI19" s="4" t="n">
-        <v>516767342.108975</v>
-      </c>
-      <c r="AJ19" s="4" t="n">
-        <v>769659058.328637</v>
-      </c>
-      <c r="AK19" s="4" t="n">
-        <v>477290374.459792</v>
-      </c>
-      <c r="AL19" s="4" t="n">
-        <v>390073732.221133</v>
-      </c>
-      <c r="AM19" s="4" t="n">
-        <v>266132382.191616</v>
-      </c>
-      <c r="AN19" s="4" t="n">
-        <v>197858064.743549</v>
-      </c>
-      <c r="AO19" s="4" t="n">
-        <v>209406555.938353</v>
-      </c>
-      <c r="AP19" s="4" t="n">
-        <v>179166138.906043</v>
-      </c>
-      <c r="AQ19" s="4" t="n">
-        <v>257420777.877453</v>
-      </c>
-      <c r="AR19" s="4" t="n">
-        <v>260923576.821626</v>
-      </c>
-      <c r="AS19" s="4" t="n">
-        <v>347038789.105884</v>
-      </c>
-      <c r="AT19" s="4" t="n">
-        <v>975339672.756007</v>
-      </c>
-      <c r="AU19" s="4" t="n">
-        <v>884289318.285702</v>
-      </c>
-      <c r="AV19" s="4" t="n">
-        <v>1358299504.2231</v>
-      </c>
-      <c r="AW19" s="4" t="n">
-        <v>179702631.320179</v>
-      </c>
-      <c r="AX19" s="4"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12" t="n">
+        <v>19203540.8357091</v>
+      </c>
+      <c r="X19" s="12" t="n">
+        <v>25278459.2440646</v>
+      </c>
+      <c r="Y19" s="12" t="n">
+        <v>207021730.684124</v>
+      </c>
+      <c r="Z19" s="12" t="n">
+        <v>223386608.703798</v>
+      </c>
+      <c r="AA19" s="12" t="n">
+        <v>214935368.719682</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>349976945.99618</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <v>524916060.623365</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>341272654.490264</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <v>327368266.447865</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>658662086.323668</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <v>731523853.990077</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>922574445.932786</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>537661716.539113</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
+        <v>800807964.959148</v>
+      </c>
+      <c r="AK19" s="12" t="n">
+        <v>496646923.495328</v>
+      </c>
+      <c r="AL19" s="12" t="n">
+        <v>405966515.031367</v>
+      </c>
+      <c r="AM19" s="12" t="n">
+        <v>278401796.755577</v>
+      </c>
+      <c r="AN19" s="12" t="n">
+        <v>206173856.475806</v>
+      </c>
+      <c r="AO19" s="12" t="n">
+        <v>218667254.055845</v>
+      </c>
+      <c r="AP19" s="12" t="n">
+        <v>187256205.386</v>
+      </c>
+      <c r="AQ19" s="12" t="n">
+        <v>269119322.949804</v>
+      </c>
+      <c r="AR19" s="12" t="n">
+        <v>272868840.291675</v>
+      </c>
+      <c r="AS19" s="12" t="n">
+        <v>363317361.385883</v>
+      </c>
+      <c r="AT19" s="12" t="n">
+        <v>1011778286.83261</v>
+      </c>
+      <c r="AU19" s="12" t="n">
+        <v>925303158.182285</v>
+      </c>
+      <c r="AV19" s="12" t="n">
+        <v>1420437080.19245</v>
+      </c>
+      <c r="AW19" s="12" t="n">
+        <v>1791414834.5943</v>
+      </c>
+      <c r="AX19" s="12" t="n">
+        <v>3139003983.67989</v>
+      </c>
+      <c r="AY19" s="12" t="n">
+        <v>134682151.707456</v>
+      </c>
+      <c r="AZ19" s="12"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="N20" t="s">
         <v>64</v>
       </c>
       <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="n">
-        <v>38836509.8828471</v>
-      </c>
-      <c r="AA20" s="4" t="n">
-        <v>15848038.9012425</v>
-      </c>
-      <c r="AB20" s="4" t="n">
-        <v>4753628.43752037</v>
-      </c>
-      <c r="AC20" s="4" t="n">
-        <v>197210.585887923</v>
-      </c>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4" t="n">
-        <v>74943.0031046386</v>
-      </c>
-      <c r="AF20" s="4" t="n">
-        <v>-69415.9938579939</v>
-      </c>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4" t="n">
-        <v>41153.4685897672</v>
-      </c>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4" t="n">
-        <v>80238.0747026183</v>
-      </c>
-      <c r="AN20" s="4" t="n">
-        <v>68658.5403803098</v>
-      </c>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12" t="n">
+        <v>20760.1681877963</v>
+      </c>
+      <c r="X20" s="12" t="n">
+        <v>347480.785932667</v>
+      </c>
+      <c r="Y20" s="12" t="n">
+        <v>-1306569.45695816</v>
+      </c>
+      <c r="Z20" s="12" t="n">
+        <v>-3915170.39138673</v>
+      </c>
+      <c r="AA20" s="12" t="n">
+        <v>8297378.7367421</v>
+      </c>
+      <c r="AB20" s="12" t="n">
+        <v>4946469.02457428</v>
+      </c>
+      <c r="AC20" s="12" t="n">
+        <v>206226.792440149</v>
+      </c>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4" t="n">
-        <v>10154930808.5306</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>8705023523.2999</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>6004528138.36198</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>6907301236.64467</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>6632410715.084</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>6047222098.50706</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>5076672539.04631</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>5376821437.83218</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>5930753132.00485</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>5789712387.55746</v>
-      </c>
-      <c r="Z21" s="4" t="n">
+      <c r="P21" s="12" t="n">
+        <v>10567510130.931</v>
+      </c>
+      <c r="Q21" s="12" t="n">
+        <v>9057983393.77532</v>
+      </c>
+      <c r="R21" s="12" t="n">
+        <v>6247770935.75796</v>
+      </c>
+      <c r="S21" s="12" t="n">
+        <v>7187332872.43168</v>
+      </c>
+      <c r="T21" s="12" t="n">
+        <v>6901021014.86558</v>
+      </c>
+      <c r="U21" s="12" t="n">
+        <v>6291954815.57422</v>
+      </c>
+      <c r="V21" s="12" t="n">
+        <v>5281950174.42063</v>
+      </c>
+      <c r="W21" s="12" t="n">
+        <v>5594330707.86078</v>
+      </c>
+      <c r="X21" s="12" t="n">
+        <v>6170358306.87992</v>
+      </c>
+      <c r="Y21" s="12" t="n">
+        <v>6024110971.89597</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4" t="n">
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
+      <c r="AZ21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8464,6 +8882,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>59</v>
       </c>
@@ -8572,99 +8996,143 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="O2" s="5" t="n">
+        <v>146161000</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>155034000</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>54014000</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>61145000</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>227723000</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>180833000</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>98010000</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>2174256568</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>586215222</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>827188281</v>
+      </c>
       <c r="Y2" s="5" t="n">
-        <v>2929244710</v>
+        <v>2929244709</v>
       </c>
       <c r="Z2" s="5" t="n">
-        <v>3593094018</v>
+        <v>3593094023</v>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>4246686727</v>
+        <v>4246686735.64</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>4748712467.6601</v>
+        <v>4748712477.71</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>5371395489.2227</v>
+        <v>5371395489.22</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>5785723647.2656</v>
+        <v>5785723606.15</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>7380482189.8882</v>
+        <v>7380482191.94</v>
       </c>
       <c r="AF2" s="5" t="n">
-        <v>7551341426.3594</v>
+        <v>7551341401.82</v>
       </c>
       <c r="AG2" s="5" t="n">
-        <v>8654047890.7439</v>
+        <v>8654047870.41</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>9613301432.866</v>
+        <v>9613301540.6</v>
       </c>
       <c r="AI2" s="5" t="n">
-        <v>8072988204.8084</v>
+        <v>8187094151.1456</v>
       </c>
       <c r="AJ2" s="5" t="n">
-        <v>9575766614.535</v>
+        <v>9708516553.0017</v>
       </c>
       <c r="AK2" s="5" t="n">
-        <v>9321612297.8177</v>
+        <v>9479517076.3262</v>
       </c>
       <c r="AL2" s="5" t="n">
-        <v>6861138826.0051</v>
+        <v>7023508896.28</v>
       </c>
       <c r="AM2" s="5" t="n">
-        <v>7511088989.0387</v>
+        <v>7666227374.0876</v>
       </c>
       <c r="AN2" s="5" t="n">
-        <v>5604032857.7569</v>
+        <v>5622559130.2197</v>
       </c>
       <c r="AO2" s="5" t="n">
-        <v>5726535657.4099</v>
+        <v>5664429347.2168</v>
       </c>
       <c r="AP2" s="5" t="n">
-        <v>5621746270.1064</v>
+        <v>5601672367.335</v>
       </c>
       <c r="AQ2" s="5" t="n">
-        <v>5328489030.8624</v>
+        <v>5328483089.25</v>
       </c>
       <c r="AR2" s="5" t="n">
-        <v>6465802439.6925</v>
+        <v>6462278914.15</v>
       </c>
       <c r="AS2" s="5" t="n">
-        <v>5983338451.6949</v>
+        <v>5967795072.31</v>
       </c>
       <c r="AT2" s="5" t="n">
-        <v>2659503046.2681</v>
+        <v>2660782693.18</v>
       </c>
       <c r="AU2" s="5" t="n">
-        <v>3139360053.2428</v>
+        <v>3134292153.39</v>
       </c>
       <c r="AV2" s="5" t="n">
-        <v>2326489419.3368</v>
-      </c>
-      <c r="AW2" s="5"/>
+        <v>3194372041.98</v>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>2588657842.81</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>1144262610.82</v>
+      </c>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>61</v>
       </c>
@@ -8672,15 +9140,31 @@
         <v>63</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="P3" s="5" t="n">
+        <v>-284000</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>1622000</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>4764000</v>
+      </c>
       <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="T3" s="5" t="n">
+        <v>-369000</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>163000</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>295588</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>449843</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>1133898</v>
+      </c>
       <c r="Y3" s="5" t="n">
         <v>2746911</v>
       </c>
@@ -8703,13 +9187,13 @@
         <v>11620145</v>
       </c>
       <c r="AF3" s="5" t="n">
-        <v>13220806.7762</v>
+        <v>13220806.78</v>
       </c>
       <c r="AG3" s="5" t="n">
-        <v>14159994.0288</v>
+        <v>14159994.04</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>14903232.1958</v>
+        <v>14903232.19</v>
       </c>
       <c r="AI3" s="5" t="n">
         <v>18135284.5837</v>
@@ -8718,44 +9202,56 @@
         <v>15028409.0642</v>
       </c>
       <c r="AK3" s="5" t="n">
-        <v>30219532.7448</v>
+        <v>30299449.7448</v>
       </c>
       <c r="AL3" s="5" t="n">
-        <v>25152024.7</v>
+        <v>25531725.7</v>
       </c>
       <c r="AM3" s="5" t="n">
         <v>34552124.64</v>
       </c>
       <c r="AN3" s="5" t="n">
-        <v>21511607.5867</v>
+        <v>21511607.58</v>
       </c>
       <c r="AO3" s="5" t="n">
-        <v>20269077.4434</v>
+        <v>20119128.4358</v>
       </c>
       <c r="AP3" s="5" t="n">
-        <v>19009075.8613</v>
+        <v>19009075.8597</v>
       </c>
       <c r="AQ3" s="5" t="n">
-        <v>8026539.1409</v>
+        <v>8026539.13</v>
       </c>
       <c r="AR3" s="5" t="n">
-        <v>22724990.4934</v>
+        <v>22724990.49</v>
       </c>
       <c r="AS3" s="5" t="n">
-        <v>1442757.3984</v>
+        <v>1540197.4</v>
       </c>
       <c r="AT3" s="5" t="n">
-        <v>1416485.9096</v>
+        <v>1416485.91</v>
       </c>
       <c r="AU3" s="5" t="n">
-        <v>1238514.3926</v>
+        <v>1238514.38</v>
       </c>
       <c r="AV3" s="5" t="n">
-        <v>2462361.2812</v>
-      </c>
-      <c r="AW3" s="5"/>
+        <v>2728083.78</v>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>3037684</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>137306</v>
+      </c>
+      <c r="AY3" s="5"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>64</v>
       </c>
@@ -8784,7 +9280,9 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
+      <c r="AI4" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5" t="n">
         <v>3801.12</v>
@@ -8802,13 +9300,13 @@
         <v>13076623.2109</v>
       </c>
       <c r="AP4" s="5" t="n">
-        <v>3171330.6641</v>
+        <v>3171330.6616</v>
       </c>
       <c r="AQ4" s="5" t="n">
-        <v>1557946.1904</v>
+        <v>1557946.2404</v>
       </c>
       <c r="AR4" s="5" t="n">
-        <v>7339874.48</v>
+        <v>7339874.5</v>
       </c>
       <c r="AS4" s="5" t="n">
         <v>1339871</v>
@@ -8817,14 +9315,26 @@
         <v>245418</v>
       </c>
       <c r="AU4" s="5" t="n">
-        <v>3697414.5234</v>
+        <v>3697414.52</v>
       </c>
       <c r="AV4" s="5" t="n">
-        <v>1859469</v>
-      </c>
-      <c r="AW4" s="5"/>
+        <v>6565850.625</v>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>6811893.33</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>62415</v>
+      </c>
+      <c r="AY4" s="5"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>64</v>
       </c>
@@ -8840,7 +9350,9 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="X5" s="5" t="n">
+        <v>452242</v>
+      </c>
       <c r="Y5" s="5" t="n">
         <v>5387765</v>
       </c>
@@ -8872,7 +9384,7 @@
         <v>25681037.0773</v>
       </c>
       <c r="AI5" s="5" t="n">
-        <v>45130096.6892</v>
+        <v>45161554.1091</v>
       </c>
       <c r="AJ5" s="5" t="n">
         <v>18708592.6554</v>
@@ -8881,13 +9393,13 @@
         <v>18721760.7503</v>
       </c>
       <c r="AL5" s="5" t="n">
-        <v>22289346.6809</v>
+        <v>22354229.1009</v>
       </c>
       <c r="AM5" s="5" t="n">
-        <v>846488.3687</v>
+        <v>903081.3687</v>
       </c>
       <c r="AN5" s="5" t="n">
-        <v>-171183.5012</v>
+        <v>-171183.4481</v>
       </c>
       <c r="AO5" s="5" t="n">
         <v>-219671.1015</v>
@@ -8899,19 +9411,29 @@
         <v>-77013.6016</v>
       </c>
       <c r="AR5" s="5" t="n">
-        <v>1495616.338</v>
+        <v>1495616.3311</v>
       </c>
       <c r="AS5" s="5" t="n">
-        <v>4762040.8364</v>
+        <v>4762040.8001</v>
       </c>
       <c r="AT5" s="5"/>
       <c r="AU5" s="5"/>
       <c r="AV5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW5" s="5"/>
+      <c r="AW5" s="5" t="n">
+        <v>-42858.8</v>
+      </c>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>64</v>
       </c>
@@ -8925,9 +9447,15 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="V6" s="5" t="n">
+        <v>6474318</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>8253909</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>19140890</v>
+      </c>
       <c r="Y6" s="5" t="n">
         <v>114826157</v>
       </c>
@@ -8956,7 +9484,7 @@
         <v>196008740.809</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>335543751.417</v>
+        <v>335542401.417</v>
       </c>
       <c r="AI6" s="5" t="n">
         <v>364760431.2007</v>
@@ -8968,41 +9496,53 @@
         <v>269018571.0573</v>
       </c>
       <c r="AL6" s="5" t="n">
-        <v>446702176.8734</v>
+        <v>446865176.8734</v>
       </c>
       <c r="AM6" s="5" t="n">
-        <v>139835359.5394</v>
+        <v>139835359.545</v>
       </c>
       <c r="AN6" s="5" t="n">
-        <v>162166524.7043</v>
+        <v>162124959.532</v>
       </c>
       <c r="AO6" s="5" t="n">
-        <v>165592358.502</v>
+        <v>165592358.392</v>
       </c>
       <c r="AP6" s="5" t="n">
-        <v>186738681.579</v>
+        <v>187149456.8762</v>
       </c>
       <c r="AQ6" s="5" t="n">
-        <v>379030910.2695</v>
+        <v>291981928.9384</v>
       </c>
       <c r="AR6" s="5" t="n">
-        <v>409219407.9667</v>
+        <v>409219408.2338</v>
       </c>
       <c r="AS6" s="5" t="n">
-        <v>473398283.9077</v>
+        <v>473398285.7045</v>
       </c>
       <c r="AT6" s="5" t="n">
-        <v>136913607.2687</v>
+        <v>136913607.9734</v>
       </c>
       <c r="AU6" s="5" t="n">
-        <v>140460649.3183</v>
+        <v>140460649.3837</v>
       </c>
       <c r="AV6" s="5" t="n">
-        <v>62817073.4815</v>
-      </c>
-      <c r="AW6" s="5"/>
+        <v>136315112.0383</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>105633019.35</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>277141908.72</v>
+      </c>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>64</v>
       </c>
@@ -9016,29 +9556,35 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="V7" s="5" t="n">
+        <v>10916144</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>14549558</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>120631242</v>
+      </c>
       <c r="Y7" s="5" t="n">
-        <v>106510072</v>
+        <v>132875413</v>
       </c>
       <c r="Z7" s="5" t="n">
-        <v>125956007</v>
+        <v>130947353</v>
       </c>
       <c r="AA7" s="5" t="n">
         <v>216574576</v>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>331067150</v>
+        <v>331066499</v>
       </c>
       <c r="AC7" s="5" t="n">
         <v>220497864</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>217898600</v>
+        <v>217950512</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>452809014</v>
+        <v>452759365</v>
       </c>
       <c r="AF7" s="5" t="n">
         <v>516687037.568</v>
@@ -9050,50 +9596,62 @@
         <v>391607301.0968</v>
       </c>
       <c r="AI7" s="5" t="n">
-        <v>588321932.6913</v>
+        <v>588321932.6932</v>
       </c>
       <c r="AJ7" s="5" t="n">
         <v>372190223.0874</v>
       </c>
       <c r="AK7" s="5" t="n">
-        <v>309754413.0037</v>
+        <v>309754413.0051</v>
       </c>
       <c r="AL7" s="5" t="n">
-        <v>215200988.57</v>
+        <v>216276254.57</v>
       </c>
       <c r="AM7" s="5" t="n">
         <v>163087962.4881</v>
       </c>
       <c r="AN7" s="5" t="n">
-        <v>174585835.7518</v>
+        <v>174761835.8814</v>
       </c>
       <c r="AO7" s="5" t="n">
-        <v>150611668.8175</v>
+        <v>150854224.8692</v>
       </c>
       <c r="AP7" s="5" t="n">
-        <v>220257990.9669</v>
+        <v>220463113.7037</v>
       </c>
       <c r="AQ7" s="5" t="n">
-        <v>228497197.291</v>
+        <v>228497197.2158</v>
       </c>
       <c r="AR7" s="5" t="n">
-        <v>309862951.1653</v>
+        <v>309862951.4077</v>
       </c>
       <c r="AS7" s="5" t="n">
-        <v>882475996.6106</v>
+        <v>874189038.4866</v>
       </c>
       <c r="AT7" s="5" t="n">
-        <v>826989223.9312</v>
+        <v>826989223.8702</v>
       </c>
       <c r="AU7" s="5" t="n">
-        <v>1358299504.2231</v>
+        <v>1358299503.3081</v>
       </c>
       <c r="AV7" s="5" t="n">
-        <v>188407356.5176</v>
-      </c>
-      <c r="AW7" s="5"/>
+        <v>1791414834.5943</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>3222834186.4</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>141313098.96</v>
+      </c>
+      <c r="AY7" s="5"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
       <c r="M8" t="s">
         <v>64</v>
       </c>
@@ -9107,42 +9665,38 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="V8" s="5" t="n">
+        <v>11801</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>200000</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>-761336</v>
+      </c>
       <c r="Y8" s="5" t="n">
-        <v>24036509</v>
+        <v>-2328832</v>
       </c>
       <c r="Z8" s="5" t="n">
-        <v>10046446</v>
+        <v>5055100</v>
       </c>
       <c r="AA8" s="5" t="n">
         <v>3061000</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>129417</v>
+        <v>130068</v>
       </c>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5" t="n">
-        <v>51912</v>
-      </c>
-      <c r="AE8" s="5" t="n">
-        <v>-49649</v>
-      </c>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AI8" s="5" t="n">
-        <v>31457.4199</v>
-      </c>
+      <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-      <c r="AL8" s="5" t="n">
-        <v>64882.42</v>
-      </c>
-      <c r="AM8" s="5" t="n">
-        <v>56593</v>
-      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
@@ -9153,8 +9707,16 @@
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="5" t="n">
@@ -9187,61 +9749,168 @@
       <c r="X9" s="5" t="n">
         <v>3510240138</v>
       </c>
-      <c r="Y9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
-      <c r="AS9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
       <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
+      <c r="AV9" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AW9" s="5"/>
+      <c r="AX9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="5" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="5" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="5" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="5" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="5" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="5" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="5" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="5" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="5" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="5" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="5" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="5" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="5" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="5" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="5" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="5" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="5" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="5" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="5" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="5" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="5" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="5" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="5" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="5" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="5" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="5" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="5" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="5" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="5"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>59</v>
       </c>
@@ -9350,99 +10019,143 @@
       <c r="AV13" t="s">
         <v>34</v>
       </c>
+      <c r="AW13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>61</v>
       </c>
       <c r="N14" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="O14" s="5" t="n">
+        <v>302302156.226526</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>309586134.135596</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>105226443.999558</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>116388120.203945</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>424204892.779453</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>329860793.885529</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>175477862.960007</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>3824924331.42112</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>1018492630.33126</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>1419582080.85303</v>
+      </c>
       <c r="Y14" s="5" t="n">
-        <v>4732868701.07438</v>
+        <v>4924568261.60197</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>5668023674.54976</v>
+        <v>5897660173.99366</v>
       </c>
       <c r="AA14" s="5" t="n">
-        <v>6594959421.98872</v>
+        <v>6862497352.1443</v>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>7236270103.31359</v>
+        <v>7529228884.11174</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>7989839756.4144</v>
+        <v>8313506369.94444</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>8352587171.74463</v>
+        <v>8690331991.93318</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>10318908867.4961</v>
+        <v>10736926001.7799</v>
       </c>
       <c r="AF14" s="5" t="n">
-        <v>10275993362.2934</v>
+        <v>10691164986.5557</v>
       </c>
       <c r="AG14" s="5" t="n">
-        <v>11535982326.9941</v>
+        <v>12003177174.337</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>12685770199.9958</v>
+        <v>13198692142.4876</v>
       </c>
       <c r="AI14" s="5" t="n">
-        <v>10561306921.1739</v>
+        <v>11144051992.2395</v>
       </c>
       <c r="AJ14" s="5" t="n">
-        <v>12279799279.1921</v>
+        <v>12954947708.6063</v>
       </c>
       <c r="AK14" s="5" t="n">
-        <v>11738706364.4021</v>
+        <v>12423927957.3819</v>
       </c>
       <c r="AL14" s="5" t="n">
-        <v>8484957399.33918</v>
+        <v>9041017933.94178</v>
       </c>
       <c r="AM14" s="5" t="n">
-        <v>9112441585.60271</v>
+        <v>9691553185.30243</v>
       </c>
       <c r="AN14" s="5" t="n">
-        <v>6721743577.04812</v>
+        <v>7035114729.54614</v>
       </c>
       <c r="AO14" s="5" t="n">
-        <v>6812229697.08372</v>
+        <v>7031288292.7648</v>
       </c>
       <c r="AP14" s="5" t="n">
-        <v>6570269217.14696</v>
+        <v>6837961460.11941</v>
       </c>
       <c r="AQ14" s="5" t="n">
-        <v>6084662890.70837</v>
+        <v>6363215911.59067</v>
       </c>
       <c r="AR14" s="5" t="n">
-        <v>7241537721.20929</v>
+        <v>7577085653.39078</v>
       </c>
       <c r="AS14" s="5" t="n">
-        <v>6612970086.30098</v>
+        <v>6907070677.62259</v>
       </c>
       <c r="AT14" s="5" t="n">
-        <v>2843773616.03785</v>
+        <v>2977101222.3282</v>
       </c>
       <c r="AU14" s="5" t="n">
-        <v>3139360053.2428</v>
+        <v>3277675346.26092</v>
       </c>
       <c r="AV14" s="5" t="n">
-        <v>2219001837.93686</v>
-      </c>
-      <c r="AW14" s="5"/>
+        <v>3194372041.98</v>
+      </c>
+      <c r="AW14" s="5" t="n">
+        <v>2521323410.07638</v>
+      </c>
+      <c r="AX14" s="5" t="n">
+        <v>1090569463.67903</v>
+      </c>
+      <c r="AY14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>61</v>
       </c>
@@ -9450,90 +10163,118 @@
         <v>63</v>
       </c>
       <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="P15" s="5" t="n">
+        <v>-567117.291010419</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>3159871.36977973</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>9068165.91138432</v>
+      </c>
       <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="T15" s="5" t="n">
+        <v>-673099.671762124</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>291836.46222305</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>519994.627090443</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>781558.995931544</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>1945943.04499714</v>
+      </c>
       <c r="Y15" s="5" t="n">
-        <v>4438266.64674148</v>
+        <v>4618033.68168014</v>
       </c>
       <c r="Z15" s="5" t="n">
-        <v>6218231.89774627</v>
+        <v>6470159.73656385</v>
       </c>
       <c r="AA15" s="5" t="n">
-        <v>5822107.75987415</v>
+        <v>6058293.379567</v>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>25614902.5976555</v>
+        <v>26651916.1585061</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>24196078.037628</v>
+        <v>25176255.7230392</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <v>23778495.8545159</v>
+        <v>24740002.1650865</v>
       </c>
       <c r="AE15" s="5" t="n">
-        <v>16246528.9119418</v>
+        <v>16904672.8588011</v>
       </c>
       <c r="AF15" s="5" t="n">
-        <v>17991097.8733077</v>
+        <v>18717975.9223027</v>
       </c>
       <c r="AG15" s="5" t="n">
-        <v>18875495.3668897</v>
+        <v>19639932.6413274</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>19666394.5464918</v>
+        <v>20461562.843221</v>
       </c>
       <c r="AI15" s="5" t="n">
-        <v>23725081.9315219</v>
+        <v>24685260.7975118</v>
       </c>
       <c r="AJ15" s="5" t="n">
-        <v>19272174.6699471</v>
+        <v>20053759.243997</v>
       </c>
       <c r="AK15" s="5" t="n">
-        <v>38055457.5782657</v>
+        <v>39710691.7732984</v>
       </c>
       <c r="AL15" s="5" t="n">
-        <v>31104728.1652056</v>
+        <v>32865736.1081215</v>
       </c>
       <c r="AM15" s="5" t="n">
-        <v>41918584.3623935</v>
+        <v>43680383.749851</v>
       </c>
       <c r="AN15" s="5" t="n">
-        <v>25802045.3837519</v>
+        <v>26915969.0164719</v>
       </c>
       <c r="AO15" s="5" t="n">
-        <v>24111892.3469467</v>
+        <v>24973988.2978291</v>
       </c>
       <c r="AP15" s="5" t="n">
-        <v>22216361.2474006</v>
+        <v>23204378.9063933</v>
       </c>
       <c r="AQ15" s="5" t="n">
-        <v>9165597.33323653</v>
+        <v>9585204.76682418</v>
       </c>
       <c r="AR15" s="5" t="n">
-        <v>25451423.4554783</v>
+        <v>26645275.096095</v>
       </c>
       <c r="AS15" s="5" t="n">
-        <v>1594579.94803987</v>
+        <v>1782610.18858557</v>
       </c>
       <c r="AT15" s="5" t="n">
-        <v>1514630.81152034</v>
+        <v>1584880.24778594</v>
       </c>
       <c r="AU15" s="5" t="n">
-        <v>1238514.3926</v>
+        <v>1295172.19539506</v>
       </c>
       <c r="AV15" s="5" t="n">
-        <v>2348596.19959284</v>
-      </c>
-      <c r="AW15" s="5"/>
+        <v>2728083.78</v>
+      </c>
+      <c r="AW15" s="5" t="n">
+        <v>2958669.79982978</v>
+      </c>
+      <c r="AX15" s="5" t="n">
+        <v>130863.081047982</v>
+      </c>
+      <c r="AY15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>64</v>
       </c>
@@ -9556,53 +10297,67 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5" t="n">
-        <v>-12978.4558081118</v>
+        <v>-13503.2521298519</v>
       </c>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
+      <c r="AI16" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5" t="n">
-        <v>4786.75041508669</v>
+        <v>4981.7770944578</v>
       </c>
       <c r="AL16" s="5" t="n">
-        <v>780862.583498481</v>
+        <v>812801.221772022</v>
       </c>
       <c r="AM16" s="5" t="n">
-        <v>21857.9421036218</v>
+        <v>22776.6112236551</v>
       </c>
       <c r="AN16" s="5" t="n">
-        <v>1123735.07818858</v>
+        <v>1172248.87046024</v>
       </c>
       <c r="AO16" s="5" t="n">
-        <v>15555820.5351608</v>
+        <v>16232086.597898</v>
       </c>
       <c r="AP16" s="5" t="n">
-        <v>3706409.93716283</v>
+        <v>3871243.33935879</v>
       </c>
       <c r="AQ16" s="5" t="n">
-        <v>1779036.66790755</v>
+        <v>1860482.26864346</v>
       </c>
       <c r="AR16" s="5" t="n">
-        <v>8220476.64023419</v>
+        <v>8606075.11846368</v>
       </c>
       <c r="AS16" s="5" t="n">
-        <v>1480866.72917395</v>
+        <v>1550754.27084238</v>
       </c>
       <c r="AT16" s="5" t="n">
-        <v>262422.422971131</v>
+        <v>274593.723739286</v>
       </c>
       <c r="AU16" s="5" t="n">
-        <v>3697414.5234</v>
+        <v>3866558.64355322</v>
       </c>
       <c r="AV16" s="5" t="n">
-        <v>1773558.51881021</v>
-      </c>
-      <c r="AW16" s="5"/>
+        <v>6565850.625</v>
+      </c>
+      <c r="AW16" s="5" t="n">
+        <v>6634706.926439</v>
+      </c>
+      <c r="AX16" s="5" t="n">
+        <v>59486.2511733631</v>
+      </c>
+      <c r="AY16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>64</v>
       </c>
@@ -9618,78 +10373,90 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="X17" s="5" t="n">
+        <v>776116.700581178</v>
+      </c>
       <c r="Y17" s="5" t="n">
-        <v>8705173.8115946</v>
+        <v>9057767.15699103</v>
       </c>
       <c r="Z17" s="5" t="n">
-        <v>5496361.00632491</v>
+        <v>5719042.69019497</v>
       </c>
       <c r="AA17" s="5" t="n">
-        <v>20856565.7346594</v>
+        <v>21702654.6608478</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>18171577.1016056</v>
+        <v>18907249.3066653</v>
       </c>
       <c r="AC17" s="5" t="n">
-        <v>41220289.3667912</v>
+        <v>42890114.0284859</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <v>42898489.7672592</v>
+        <v>44633131.3895692</v>
       </c>
       <c r="AE17" s="5" t="n">
-        <v>32229591.9071764</v>
+        <v>33535206.8442762</v>
       </c>
       <c r="AF17" s="5" t="n">
-        <v>38622475.4850733</v>
+        <v>40182904.4048565</v>
       </c>
       <c r="AG17" s="5" t="n">
-        <v>64163295.6249432</v>
+        <v>66761840.0804053</v>
       </c>
       <c r="AH17" s="5" t="n">
-        <v>33888850.4781935</v>
+        <v>35259073.1552082</v>
       </c>
       <c r="AI17" s="5" t="n">
-        <v>59040443.3184982</v>
+        <v>61472690.7680333</v>
       </c>
       <c r="AJ17" s="5" t="n">
-        <v>23991579.1447717</v>
+        <v>24964559.5420431</v>
       </c>
       <c r="AK17" s="5" t="n">
-        <v>23576313.3083544</v>
+        <v>24536883.5695173</v>
       </c>
       <c r="AL17" s="5" t="n">
-        <v>27564543.1236167</v>
+        <v>28775500.8479772</v>
       </c>
       <c r="AM17" s="5" t="n">
-        <v>1026958.38432053</v>
+        <v>1141664.69220507</v>
       </c>
       <c r="AN17" s="5" t="n">
-        <v>-205325.63403782</v>
+        <v>-214189.867868184</v>
       </c>
       <c r="AO17" s="5" t="n">
-        <v>-261318.551172042</v>
+        <v>-272678.984864489</v>
       </c>
       <c r="AP17" s="5" t="n">
-        <v>-403175.154726948</v>
+        <v>-421105.371511274</v>
       </c>
       <c r="AQ17" s="5" t="n">
-        <v>-87942.7171607553</v>
+        <v>-91968.7961661527</v>
       </c>
       <c r="AR17" s="5" t="n">
-        <v>1675053.05476036</v>
+        <v>1753624.87381053</v>
       </c>
       <c r="AS17" s="5" t="n">
-        <v>5263154.31679055</v>
+        <v>5511541.86386656</v>
       </c>
       <c r="AT17" s="5"/>
       <c r="AU17" s="5"/>
       <c r="AV17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW17" s="5"/>
+      <c r="AW17" s="5" t="n">
+        <v>-41743.9856209351</v>
+      </c>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
       <c r="M18" t="s">
         <v>64</v>
       </c>
@@ -9703,84 +10470,102 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="V18" s="5" t="n">
+        <v>11389537.3766017</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>14340373.9316836</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>32848705.7659113</v>
+      </c>
       <c r="Y18" s="5" t="n">
-        <v>185528072.364413</v>
+        <v>193042679.782451</v>
       </c>
       <c r="Z18" s="5" t="n">
-        <v>659059040.754324</v>
+        <v>685760412.224661</v>
       </c>
       <c r="AA18" s="5" t="n">
-        <v>15955247.1397836</v>
+        <v>16602504.1278858</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>275572096.454968</v>
+        <v>286728570.695943</v>
       </c>
       <c r="AC18" s="5" t="n">
-        <v>956192115.299729</v>
+        <v>994927243.072312</v>
       </c>
       <c r="AD18" s="5" t="n">
-        <v>682046669.507866</v>
+        <v>709625881.449942</v>
       </c>
       <c r="AE18" s="5" t="n">
-        <v>199334016.223886</v>
+        <v>207409001.157097</v>
       </c>
       <c r="AF18" s="5" t="n">
-        <v>137139493.183134</v>
+        <v>142680216.001124</v>
       </c>
       <c r="AG18" s="5" t="n">
-        <v>261282742.880062</v>
+        <v>271864412.917519</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>442785545.865438</v>
+        <v>460686772.213488</v>
       </c>
       <c r="AI18" s="5" t="n">
-        <v>477189705.828606</v>
+        <v>496502072.037795</v>
       </c>
       <c r="AJ18" s="5" t="n">
-        <v>406140754.929011</v>
+        <v>422611825.494829</v>
       </c>
       <c r="AK18" s="5" t="n">
-        <v>338775086.46782</v>
+        <v>352577807.403351</v>
       </c>
       <c r="AL18" s="5" t="n">
-        <v>552422715.394865</v>
+        <v>575227587.496376</v>
       </c>
       <c r="AM18" s="5" t="n">
-        <v>169648042.682506</v>
+        <v>176778193.247568</v>
       </c>
       <c r="AN18" s="5" t="n">
-        <v>194510243.517674</v>
+        <v>202855615.106013</v>
       </c>
       <c r="AO18" s="5" t="n">
-        <v>196987017.925542</v>
+        <v>205550734.162669</v>
       </c>
       <c r="AP18" s="5" t="n">
-        <v>218245959.934775</v>
+        <v>228453342.052663</v>
       </c>
       <c r="AQ18" s="5" t="n">
-        <v>432819754.491449</v>
+        <v>348681608.817731</v>
       </c>
       <c r="AR18" s="5" t="n">
-        <v>458315546.551516</v>
+        <v>479813785.262042</v>
       </c>
       <c r="AS18" s="5" t="n">
-        <v>523214375.329385</v>
+        <v>547906786.075463</v>
       </c>
       <c r="AT18" s="5" t="n">
-        <v>146400021.828758</v>
+        <v>153190138.636924</v>
       </c>
       <c r="AU18" s="5" t="n">
-        <v>140460649.3183</v>
+        <v>146886245.784972</v>
       </c>
       <c r="AV18" s="5" t="n">
-        <v>59914822.8875241</v>
-      </c>
-      <c r="AW18" s="5"/>
+        <v>136315112.0383</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>102885364.052245</v>
+      </c>
+      <c r="AX18" s="5" t="n">
+        <v>264137357.891263</v>
+      </c>
+      <c r="AY18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
       <c r="M19" t="s">
         <v>64</v>
       </c>
@@ -9794,84 +10579,102 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="V19" s="5" t="n">
+        <v>19203540.8357091</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>25278459.2440646</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>207021730.684124</v>
+      </c>
       <c r="Y19" s="5" t="n">
-        <v>172091523.933478</v>
+        <v>223386608.703798</v>
       </c>
       <c r="Z19" s="5" t="n">
-        <v>198692721.663081</v>
+        <v>214935368.719682</v>
       </c>
       <c r="AA19" s="5" t="n">
-        <v>336332918.431073</v>
+        <v>349976945.99618</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>504492814.852338</v>
+        <v>524916060.623365</v>
       </c>
       <c r="AC19" s="5" t="n">
-        <v>327986014.719352</v>
+        <v>341272654.490264</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <v>314570339.349214</v>
+        <v>327368266.447865</v>
       </c>
       <c r="AE19" s="5" t="n">
-        <v>633088032.682799</v>
+        <v>658662086.323668</v>
       </c>
       <c r="AF19" s="5" t="n">
-        <v>703116475.424892</v>
+        <v>731523853.990077</v>
       </c>
       <c r="AG19" s="5" t="n">
-        <v>886665448.991684</v>
+        <v>922574445.932786</v>
       </c>
       <c r="AH19" s="5" t="n">
-        <v>516767342.108975</v>
+        <v>537661716.539113</v>
       </c>
       <c r="AI19" s="5" t="n">
-        <v>769659058.328637</v>
+        <v>800807964.959148</v>
       </c>
       <c r="AJ19" s="5" t="n">
-        <v>477290374.459792</v>
+        <v>496646923.495328</v>
       </c>
       <c r="AK19" s="5" t="n">
-        <v>390073732.221133</v>
+        <v>405966515.031367</v>
       </c>
       <c r="AL19" s="5" t="n">
-        <v>266132382.191616</v>
+        <v>278401796.755577</v>
       </c>
       <c r="AM19" s="5" t="n">
-        <v>197858064.743549</v>
+        <v>206173856.475806</v>
       </c>
       <c r="AN19" s="5" t="n">
-        <v>209406555.938353</v>
+        <v>218667254.055845</v>
       </c>
       <c r="AO19" s="5" t="n">
-        <v>179166138.906043</v>
+        <v>187256205.386</v>
       </c>
       <c r="AP19" s="5" t="n">
-        <v>257420777.877453</v>
+        <v>269119322.949804</v>
       </c>
       <c r="AQ19" s="5" t="n">
-        <v>260923576.821626</v>
+        <v>272868840.291675</v>
       </c>
       <c r="AR19" s="5" t="n">
-        <v>347038789.105884</v>
+        <v>363317361.385883</v>
       </c>
       <c r="AS19" s="5" t="n">
-        <v>975339672.756007</v>
+        <v>1011778286.83261</v>
       </c>
       <c r="AT19" s="5" t="n">
-        <v>884289318.285702</v>
+        <v>925303158.182285</v>
       </c>
       <c r="AU19" s="5" t="n">
-        <v>1358299504.2231</v>
+        <v>1420437080.19245</v>
       </c>
       <c r="AV19" s="5" t="n">
-        <v>179702631.320179</v>
-      </c>
-      <c r="AW19" s="5"/>
+        <v>1791414834.5943</v>
+      </c>
+      <c r="AW19" s="5" t="n">
+        <v>3139003983.67989</v>
+      </c>
+      <c r="AX19" s="5" t="n">
+        <v>134682151.707456</v>
+      </c>
+      <c r="AY19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
       <c r="M20" t="s">
         <v>64</v>
       </c>
@@ -9885,42 +10688,38 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="V20" s="5" t="n">
+        <v>20760.1681877963</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>347480.785932667</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>-1306569.45695816</v>
+      </c>
       <c r="Y20" s="5" t="n">
-        <v>38836509.8828471</v>
+        <v>-3915170.39138673</v>
       </c>
       <c r="Z20" s="5" t="n">
-        <v>15848038.9012425</v>
+        <v>8297378.7367421</v>
       </c>
       <c r="AA20" s="5" t="n">
-        <v>4753628.43752037</v>
+        <v>4946469.02457428</v>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>197210.585887923</v>
+        <v>206226.792440149</v>
       </c>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="5" t="n">
-        <v>74943.0031046386</v>
-      </c>
-      <c r="AE20" s="5" t="n">
-        <v>-69415.9938579939</v>
-      </c>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-      <c r="AI20" s="5" t="n">
-        <v>41153.4685897672</v>
-      </c>
+      <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
-      <c r="AL20" s="5" t="n">
-        <v>80238.0747026183</v>
-      </c>
-      <c r="AM20" s="5" t="n">
-        <v>68658.5403803098</v>
-      </c>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
@@ -9931,93 +10730,124 @@
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
       <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="5" t="n">
-        <v>10154930808.5306</v>
+        <v>10567510130.931</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>8705023523.2999</v>
+        <v>9057983393.77532</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>6004528138.36198</v>
+        <v>6247770935.75796</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>6907301236.64467</v>
+        <v>7187332872.43168</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6632410715.084</v>
+        <v>6901021014.86558</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6047222098.50706</v>
+        <v>6291954815.57422</v>
       </c>
       <c r="U21" s="5" t="n">
-        <v>5076672539.04631</v>
+        <v>5281950174.42063</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>5376821437.83218</v>
+        <v>5594330707.86078</v>
       </c>
       <c r="W21" s="5" t="n">
-        <v>5930753132.00485</v>
+        <v>6170358306.87992</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>5789712387.55746</v>
-      </c>
-      <c r="Y21" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>6024110971.89597</v>
+      </c>
+      <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
-      <c r="AS21" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
+      <c r="AV21" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AW21" s="5"/>
+      <c r="AX21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -509,14 +509,14 @@
     <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -557,15 +557,15 @@
     <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -506,17 +506,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -554,18 +554,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,6 +971,12 @@
       <c r="AU1" t="s">
         <v>34</v>
       </c>
+      <c r="AV1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -980,34 +986,34 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>870648000</v>
+        <v>988482000</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>604167000</v>
+        <v>696008000</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>383787864</v>
+        <v>394353864</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>347908293</v>
+        <v>352212293</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>249118389</v>
+        <v>266756389</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>262005028</v>
+        <v>300439028</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>321493244</v>
+        <v>345659244</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>392746576</v>
+        <v>431676542</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>439513666</v>
+        <v>491550806</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>313296174</v>
+        <v>403464692</v>
       </c>
       <c r="X2" s="1" t="n">
         <v>266733768</v>
@@ -1031,58 +1037,64 @@
         <v>1477929696</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>1612576359.3</v>
+        <v>1612576360.3002</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>2930660645.3937</v>
+        <v>2930660645.3989</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>3870303188.083</v>
+        <v>3870303185.5442</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>3187840055.2305</v>
+        <v>3187840031.7252</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>3297423372.5833</v>
+        <v>3297423361.3847</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>3953911174.6041</v>
+        <v>3953911181.5325</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>1678877823.2501</v>
+        <v>1681007607.54</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>2099220070.6584</v>
+        <v>2069549876.679</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>1008265757.749</v>
+        <v>936202127.1475</v>
       </c>
       <c r="AN2" s="1" t="n">
-        <v>1131256627.8225</v>
+        <v>1088928826.8696</v>
       </c>
       <c r="AO2" s="1" t="n">
-        <v>409163889.8859</v>
+        <v>400644270.6419</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>537632033.4166</v>
+        <v>537632034.0415</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>1045878750.3076</v>
+        <v>1045878744.9713</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>638338748.4582</v>
+        <v>638436190.6472</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>965171477.7469</v>
+        <v>966451028.14</v>
       </c>
       <c r="AT2" s="1" t="n">
-        <v>1344484786.9503</v>
+        <v>1344484786.9534</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>1184193624.5482</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+        <v>1184193623.47</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>277739066.7</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>153649768.71</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1092,37 +1104,37 @@
         <v>36</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>4106587000</v>
+        <v>4134914000</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>3750683000</v>
+        <v>3813592000</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>2620855895</v>
+        <v>2665925895</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>2947199869</v>
+        <v>3008804869</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>2690843713</v>
+        <v>2900928713</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>2609408255</v>
+        <v>2751438255</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>2110335168</v>
+        <v>2184342168</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>2158944110</v>
+        <v>4259226766</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>2540412634</v>
+        <v>3048804600</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>2735807547</v>
+        <v>3545736631</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>2818863207</v>
+        <v>2818863206</v>
       </c>
       <c r="Y3" s="1" t="n">
         <v>3586603395</v>
@@ -1131,70 +1143,76 @@
         <v>3461039703</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>4389439418.71</v>
+        <v>4389439417.71</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>4976479731.22</v>
+        <v>4976479729.22</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>5167249626.15</v>
+        <v>5167249602.15</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>5935270525.6297</v>
+        <v>5935270507.6297</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>6348624974.5731</v>
+        <v>6348624970.9378</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>6003739105.7294</v>
+        <v>6003739099.8278</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>5821558383.1191</v>
+        <v>5821558374.2021</v>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>5642284614.4469</v>
+        <v>5756390584.2913</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>6786111002.0385</v>
+        <v>6918860951.7038</v>
       </c>
       <c r="AJ3" s="1" t="n">
-        <v>5718545686.6909</v>
+        <v>5876530375.2724</v>
       </c>
       <c r="AK3" s="1" t="n">
-        <v>4331467986.14</v>
+        <v>4486645009.17</v>
       </c>
       <c r="AL3" s="1" t="n">
-        <v>3059382573.7069</v>
+        <v>3244191142.4069</v>
       </c>
       <c r="AM3" s="1" t="n">
-        <v>2946748513.6683</v>
+        <v>3037472849.9092</v>
       </c>
       <c r="AN3" s="1" t="n">
-        <v>3083367103.8123</v>
+        <v>3063681194.0841</v>
       </c>
       <c r="AO3" s="1" t="n">
-        <v>3300802568.021</v>
+        <v>3289864177.656</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>3582223464.5132</v>
+        <v>3496002419.5086</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>4099219277.3881</v>
+        <v>4100437213.8102</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>5142737649.2707</v>
+        <v>5149529979.4903</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>1210400351.2346</v>
+        <v>1247088264.6782</v>
       </c>
       <c r="AT3" s="1" t="n">
-        <v>1076452408.5729</v>
+        <v>1077468024.9527</v>
       </c>
       <c r="AU3" s="1" t="n">
-        <v>1591223028.2597</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+        <v>1591223032.4363</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>1939415317.17</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>924342638.44</v>
+      </c>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1225,13 +1243,13 @@
         <v>518309730</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>628374913</v>
+        <v>681116710</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>571555426</v>
+        <v>620794852</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>461136417</v>
+        <v>528824032</v>
       </c>
       <c r="X4" s="1" t="n">
         <v>97155149</v>
@@ -1255,13 +1273,13 @@
         <v>597284734.99</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>249207071.4603</v>
+        <v>249207071.4601</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>643108304.0162</v>
+        <v>643108304.0174</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>689175302.6332</v>
+        <v>689173952.6348</v>
       </c>
       <c r="AH4" s="1" t="n">
         <v>259242737.7158</v>
@@ -1273,40 +1291,46 @@
         <v>276873515.1988</v>
       </c>
       <c r="AK4" s="1" t="n">
-        <v>1560833859.9593</v>
+        <v>1567515089.9143</v>
       </c>
       <c r="AL4" s="1" t="n">
-        <v>2690882889.4998</v>
+        <v>2690882899.8337</v>
       </c>
       <c r="AM4" s="1" t="n">
-        <v>2008048248.0812</v>
+        <v>2008048249.9083</v>
       </c>
       <c r="AN4" s="1" t="n">
-        <v>1861241982.6474</v>
+        <v>1861241990.0695</v>
       </c>
       <c r="AO4" s="1" t="n">
-        <v>2340611920.8674</v>
+        <v>2340611925.7349</v>
       </c>
       <c r="AP4" s="1" t="n">
-        <v>1824835229.7761</v>
+        <v>1824835233.6229</v>
       </c>
       <c r="AQ4" s="1" t="n">
-        <v>2066605786.7409</v>
+        <v>2066605796.3311</v>
       </c>
       <c r="AR4" s="1" t="n">
-        <v>1535058337.7351</v>
+        <v>1535058335.5637</v>
       </c>
       <c r="AS4" s="1" t="n">
-        <v>1412808136.0296</v>
+        <v>1412808136.1154</v>
       </c>
       <c r="AT4" s="1" t="n">
-        <v>2216035424.2891</v>
+        <v>2216035423.0757</v>
       </c>
       <c r="AU4" s="1" t="n">
-        <v>2355703476.5392</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+        <v>2355979267.1113</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>3709777383.22</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>484924932.35</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1417,8 +1441,16 @@
       <c r="AU5" s="1" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AV5" s="1" t="str">
+        <f>Sum(AV2:AV4)</f>
+      </c>
+      <c r="AW5" s="1" t="str">
+        <f>Sum(AW2:AW4)</f>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f>Sum(AX2:AX4)</f>
+      </c>
+      <c r="AY5" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1529,6 +1561,12 @@
       <c r="AU8" t="s">
         <v>34</v>
       </c>
+      <c r="AV8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1538,109 +1576,115 @@
         <v>35</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>1730440383.35167</v>
+        <v>2044459465.87057</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>1159444534.78298</v>
+        <v>1389852716.48444</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>718560893.080731</v>
+        <v>768253689.528736</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>636433634.079564</v>
+        <v>670428108.512407</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>445997707.028463</v>
+        <v>496916716.335105</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>459338621.320394</v>
+        <v>548036344.529354</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>553233728.301702</v>
+        <v>618870987.138982</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>664051776.207396</v>
+        <v>759399848.71166</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>733960428.996568</v>
+        <v>854022301.97358</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>516743774.86198</v>
+        <v>692407351.718861</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>430969764.245759</v>
+        <v>448425713.343263</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>653410243.399549</v>
+        <v>679882757.321163</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>1411658403.16719</v>
+        <v>1468925191.84543</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>1259210574.14827</v>
+        <v>1310189430.55344</v>
       </c>
       <c r="AB9" s="1" t="n">
-        <v>1776212147.27682</v>
+        <v>1848166102.31902</v>
       </c>
       <c r="AC9" s="1" t="n">
-        <v>1696175718.11676</v>
+        <v>1764762211.84556</v>
       </c>
       <c r="AD9" s="1" t="n">
-        <v>2066344915.30711</v>
+        <v>2150052173.97781</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>2194421233.09567</v>
+        <v>2283080449.41972</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>3906616861.66988</v>
+        <v>4064830642.41625</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>5107275288.43278</v>
+        <v>5313776960.84404</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>4170420714.7049</v>
+        <v>4339201968.44409</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>4228559318.93509</v>
+        <v>4400048862.94063</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>4979160341.22892</v>
+        <v>5182026391.61068</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>2076216087.4781</v>
+        <v>2163878504.50525</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>2546770554.45826</v>
+        <v>2616300263.57752</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>1209361910.09765</v>
+        <v>1171404199.04672</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>1345731600.4142</v>
+        <v>1351693532.16213</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>478199616.510718</v>
+        <v>489066461.266517</v>
       </c>
       <c r="AP9" s="1" t="n">
-        <v>613928200.590969</v>
+        <v>642034263.089921</v>
       </c>
       <c r="AQ9" s="1" t="n">
-        <v>1171358155.89873</v>
+        <v>1226303126.03131</v>
       </c>
       <c r="AR9" s="1" t="n">
-        <v>705511660.849656</v>
+        <v>738920126.867801</v>
       </c>
       <c r="AS9" s="1" t="n">
-        <v>1032045888.12951</v>
+        <v>1081344427.17577</v>
       </c>
       <c r="AT9" s="1" t="n">
-        <v>1344484786.9503</v>
+        <v>1405990387.60752</v>
       </c>
       <c r="AU9" s="1" t="n">
-        <v>1129481960.03171</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+        <v>1184193623.47</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>270514704.25436</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>146439938.063161</v>
+      </c>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1650,109 +1694,115 @@
         <v>36</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>8161971293.27465</v>
+        <v>8552167938.17263</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>7197859045.68346</v>
+        <v>7615330859.3627</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>4906993496.14426</v>
+        <v>5193577626.11893</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>5391355022.93556</v>
+        <v>5727191802.49222</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>4817428897.10946</v>
+        <v>5403881705.66435</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>4574728964.03253</v>
+        <v>5018949014.40177</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>3631518281.48164</v>
+        <v>3910863132.47698</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>3650319973.70741</v>
+        <v>7492777223.29663</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>4242330764.47489</v>
+        <v>5297005092.81565</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>4512380413.34227</v>
+        <v>6085028403.33614</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>4554521989.7386</v>
+        <v>4738997815.8582</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>5657784865.14419</v>
+        <v>5887006537.31875</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>5374876431.09044</v>
+        <v>5592919204.08731</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>6688796058.34894</v>
+        <v>6959590458.2579</v>
       </c>
       <c r="AB10" s="1" t="n">
-        <v>7402410729.81314</v>
+        <v>7702280722.35612</v>
       </c>
       <c r="AC10" s="1" t="n">
-        <v>7459724240.54173</v>
+        <v>7761365316.54152</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>8298308170.40914</v>
+        <v>8634471106.85543</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>8639316435.97467</v>
+        <v>8988362913.33678</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>8003078916.82167</v>
+        <v>8327194996.24321</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>7682163341.05845</v>
+        <v>7992775057.15463</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>7381393114.67076</v>
+        <v>7835443781.96797</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>8702392648.63248</v>
+        <v>9232459083.02308</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>7201364581.87583</v>
+        <v>7701825887.74297</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>5356591998.94056</v>
+        <v>5775437689.3608</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>3711638223.37871</v>
+        <v>4101267737.79202</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>3534470335.50302</v>
+        <v>3800577191.29007</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>3667942750.76627</v>
+        <v>3802964851.75716</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>3857726845.45892</v>
+        <v>4015937202.43614</v>
       </c>
       <c r="AP10" s="1" t="n">
-        <v>4090582162.12946</v>
+        <v>4174887646.2903</v>
       </c>
       <c r="AQ10" s="1" t="n">
-        <v>4591023512.0215</v>
+        <v>4807803005.43211</v>
       </c>
       <c r="AR10" s="1" t="n">
-        <v>5683912168.91421</v>
+        <v>5960018246.92487</v>
       </c>
       <c r="AS10" s="1" t="n">
-        <v>1294266080.46717</v>
+        <v>1395344312.27355</v>
       </c>
       <c r="AT10" s="1" t="n">
-        <v>1076452408.5729</v>
+        <v>1126758518.0125</v>
       </c>
       <c r="AU10" s="1" t="n">
-        <v>1517705945.67426</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+        <v>1591223032.4363</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>1888968545.8521</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>880968971.56919</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1762,109 +1812,115 @@
         <v>37</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>262519131.904327</v>
+        <v>273184883.114294</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>347719942.83346</v>
+        <v>361818834.772778</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>378973749.136993</v>
+        <v>394325935.479627</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>879512579.629551</v>
+        <v>915169247.54238</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>1368984110.94607</v>
+        <v>1424427485.64558</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>1013154513.15413</v>
+        <v>1054157150.85687</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>891920529.262968</v>
+        <v>927985754.226898</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>1062449687.91738</v>
+        <v>1198211800.2812</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>954461938.533388</v>
+        <v>1078571415.37957</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>760588199.353204</v>
+        <v>907543224.432661</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>156976493.729101</v>
+        <v>163334651.334045</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>242142968.11612</v>
+        <v>251953241.461583</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>192145068.651627</v>
+        <v>199939823.400617</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>112312089.247091</v>
+        <v>116859018.877319</v>
       </c>
       <c r="AB11" s="1" t="n">
-        <v>160811379.718889</v>
+        <v>167325812.583402</v>
       </c>
       <c r="AC11" s="1" t="n">
-        <v>260043147.403268</v>
+        <v>270558241.746437</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>835084563.546886</v>
+        <v>868913688.130542</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>339125205.387149</v>
+        <v>352826574.117568</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>857273512.134018</v>
+        <v>891992167.249531</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>909439860.77745</v>
+        <v>946209249.239913</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>339148534.674086</v>
+        <v>352874230.389928</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>275542194.828019</v>
+        <v>286716830.418741</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>348666817.623323</v>
+        <v>362872557.582869</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>1930234782.45402</v>
+        <v>2017785162.50556</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>3264574974.42098</v>
+        <v>3401782058.70954</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>2408548585.73137</v>
+        <v>2512530236.39028</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>2214114897.06577</v>
+        <v>2310370244.30504</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>2735529089.01939</v>
+        <v>2857184978.29346</v>
       </c>
       <c r="AP11" s="1" t="n">
-        <v>2083800330.63122</v>
+        <v>2179198169.55916</v>
       </c>
       <c r="AQ11" s="1" t="n">
-        <v>2314547018.58558</v>
+        <v>2423115643.66365</v>
       </c>
       <c r="AR11" s="1" t="n">
-        <v>1696593791.26273</v>
+        <v>1776662283.06129</v>
       </c>
       <c r="AS11" s="1" t="n">
-        <v>1510698213.86457</v>
+        <v>1580765253.66961</v>
       </c>
       <c r="AT11" s="1" t="n">
-        <v>2216035424.2891</v>
+        <v>2317411497.45728</v>
       </c>
       <c r="AU11" s="1" t="n">
-        <v>2246866158.35324</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+        <v>2355979267.1113</v>
+      </c>
+      <c r="AV11" s="1" t="n">
+        <v>3613281140.44271</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>462170412.977621</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1906,6 +1962,8 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3501,6 +3559,12 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -3515,109 +3579,115 @@
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>4730619000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>4139009000</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>2756495422</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>3425892281</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>3326827710</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>2805711765</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>2485253407</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>2731973004</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>3251230136</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>3198498920</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>2947261480</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>3838784962</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>4026203905</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>4384296455</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>5102620910</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>4993848600</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>6377188801.375</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>6083706599.1223</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>7476462323.4521</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>8425205638.3922</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>7473762009.8721</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>8225319522.8842</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>8583466441.7367</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>6101734807.8251</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>6941992227.363</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>5268919591.7151</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>5395368417.1677</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>5345623963.6777</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>4951115262.0264</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>6124294147.9996</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>6012810480.7936</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>3467671143.1012</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>4318615748.3492</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>2489142374.7178</v>
-      </c>
-      <c r="AW2" s="2"/>
+      <c r="O2" s="12" t="n">
+        <v>4876880000</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>4293768000</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>2808252422</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>3485991281</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>3554550710</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>2986544765</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>2583426407</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>4821393077</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>3791926519</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>3963892943</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>2947261479</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>3838784967</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>4026203913.64</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>4384296465</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>5102620909</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>4993848566</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>6377188800.38</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>6083706574.5737</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>7476462321.533</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>8425205720.1234</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>7473761993.8058</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>8225319510.0353</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>8583466438.0459</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>6113608024.8</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>6941988659.9375</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>5269225592.9449</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>5394397040.0481</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>5346950886.2841</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>4951115240.9665</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>6120770622.8614</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>5997909796.0004</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>3468950790.35</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>4314285919.5994</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>4938290602.7362</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>5647974083.39</v>
+      </c>
+      <c r="AX2" s="12" t="n">
+        <v>1409212633.81</v>
+      </c>
+      <c r="AY2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3632,109 +3702,115 @@
       <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>259325000</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>241453000</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>371499923</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>253464057</v>
-      </c>
-      <c r="S3" s="2" t="n">
+      <c r="O3" s="12" t="n">
+        <v>259225000</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>241444000</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>374499923</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>258213057</v>
+      </c>
+      <c r="S3" s="12" t="n">
         <v>137668221</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="12" t="n">
         <v>262957314</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="12" t="n">
         <v>260732470</v>
       </c>
-      <c r="V3" s="2" t="n">
-        <v>242204327</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>191663283</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>132784845</v>
-      </c>
-      <c r="Y3" s="2" t="n">
+      <c r="V3" s="12" t="n">
+        <v>278511419</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>210840874</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>170352914</v>
+      </c>
+      <c r="Y3" s="12" t="n">
         <v>121118986</v>
       </c>
-      <c r="Z3" s="2" t="n">
+      <c r="Z3" s="12" t="n">
         <v>166552028</v>
       </c>
-      <c r="AA3" s="2" t="n">
+      <c r="AA3" s="12" t="n">
         <v>345266551</v>
       </c>
-      <c r="AB3" s="2" t="n">
-        <v>527672265</v>
-      </c>
-      <c r="AC3" s="2" t="n">
+      <c r="AB3" s="12" t="n">
+        <v>527672266</v>
+      </c>
+      <c r="AC3" s="12" t="n">
         <v>606725161</v>
       </c>
-      <c r="AD3" s="2" t="n">
-        <v>542127732.5</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>575756666.2344</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>776655276.1534</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>1121498558.5148</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>774549917.6085</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>893798116.4873</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>824683356.5119</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>774459445.2034</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>615728844.46</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>442980800.4269</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>413776817.8238</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>386618334.8041</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>470439204.5872</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>725481043.1456</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>559093929.036</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>655642515.3959</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>62277174.3593</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>30712452.3515</v>
-      </c>
-      <c r="AV3" s="2" t="n">
+      <c r="AD3" s="12" t="n">
+        <v>542127731.39</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>575756666.19</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>776655284.96</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>1121498547.2053</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>774549924.8542</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>1007904078.8927</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>957433307.8275</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>932364227.4486</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>767521304.76</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>598203850.9769</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>430934495.7795</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>325333452.65</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>449579834.6139</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>638432061.056</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>559093928.9555</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>655629821.7379</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>62277174.37</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>30712452.2168</v>
+      </c>
+      <c r="AV3" s="12" t="n">
         <v>19576.8691</v>
       </c>
-      <c r="AW3" s="2"/>
+      <c r="AW3" s="12" t="n">
+        <v>-18492.32</v>
+      </c>
+      <c r="AX3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3749,85 +3825,87 @@
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2" t="n">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12" t="n">
         <v>457792</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Z4" s="12" t="n">
         <v>166969</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AA4" s="12" t="n">
         <v>2616567</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2" t="n">
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12" t="n">
         <v>59325</v>
       </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AD4" s="12" t="n">
         <v>1219878</v>
       </c>
-      <c r="AE4" s="2" t="n">
+      <c r="AE4" s="12" t="n">
         <v>12525</v>
       </c>
-      <c r="AF4" s="2" t="n">
+      <c r="AF4" s="12" t="n">
         <v>26595</v>
       </c>
-      <c r="AG4" s="2" t="n">
+      <c r="AG4" s="12" t="n">
         <v>14661</v>
       </c>
-      <c r="AH4" s="2" t="n">
+      <c r="AH4" s="12" t="n">
         <v>19756</v>
       </c>
-      <c r="AI4" s="2" t="n">
+      <c r="AI4" s="12" t="n">
         <v>12053</v>
       </c>
-      <c r="AJ4" s="2" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>4102399.7376</v>
       </c>
-      <c r="AK4" s="2" t="n">
+      <c r="AK4" s="12" t="n">
         <v>809585.1602</v>
       </c>
-      <c r="AL4" s="2" t="n">
+      <c r="AL4" s="12" t="n">
         <v>852850.8</v>
       </c>
-      <c r="AM4" s="2" t="n">
+      <c r="AM4" s="12" t="n">
         <v>25355612.11</v>
       </c>
-      <c r="AN4" s="2" t="n">
-        <v>-143816.5938</v>
-      </c>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2" t="n">
+      <c r="AN4" s="12" t="n">
+        <v>-143816.6</v>
+      </c>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12" t="n">
         <v>800</v>
       </c>
-      <c r="AQ4" s="2" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>35734</v>
       </c>
-      <c r="AR4" s="2" t="n">
+      <c r="AR4" s="12" t="n">
         <v>2141935.9693</v>
       </c>
-      <c r="AS4" s="2" t="n">
+      <c r="AS4" s="12" t="n">
         <v>86587.0703</v>
       </c>
-      <c r="AT4" s="2" t="n">
+      <c r="AT4" s="12" t="n">
         <v>372764.0703</v>
       </c>
-      <c r="AU4" s="2" t="n">
+      <c r="AU4" s="12" t="n">
         <v>681814.1094</v>
       </c>
-      <c r="AV4" s="2" t="n">
+      <c r="AV4" s="12" t="n">
         <v>44058.9922</v>
       </c>
-      <c r="AW4" s="2"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3842,109 +3920,115 @@
       <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="12" t="n">
         <v>111830000</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="12" t="n">
         <v>143370000</v>
       </c>
-      <c r="Q5" s="2" t="n">
-        <v>63852723</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>89945504</v>
-      </c>
-      <c r="S5" s="2" t="n">
+      <c r="Q5" s="12" t="n">
+        <v>64731723</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>91006504</v>
+      </c>
+      <c r="S5" s="12" t="n">
         <v>186251487</v>
       </c>
-      <c r="T5" s="2" t="n">
-        <v>379095635</v>
-      </c>
-      <c r="U5" s="2" t="n">
+      <c r="T5" s="12" t="n">
+        <v>378726635</v>
+      </c>
+      <c r="U5" s="12" t="n">
         <v>203762534</v>
       </c>
-      <c r="V5" s="2" t="n">
-        <v>204728600</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>107595878</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>177164653</v>
-      </c>
-      <c r="Y5" s="2" t="n">
+      <c r="V5" s="12" t="n">
+        <v>270955854</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>157390436</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>341987778</v>
+      </c>
+      <c r="Y5" s="12" t="n">
         <v>113222498</v>
       </c>
-      <c r="Z5" s="2" t="n">
+      <c r="Z5" s="12" t="n">
         <v>148811754</v>
       </c>
-      <c r="AA5" s="2" t="n">
+      <c r="AA5" s="12" t="n">
         <v>119688505</v>
       </c>
-      <c r="AB5" s="2" t="n">
-        <v>376943159.6601</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>565574116.2227</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>957453414.7656</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>1047308536.0885</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>1326292991.918</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>963684028.717</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>1169162785.4406</v>
-      </c>
-      <c r="AI5" s="2" t="n">
+      <c r="AB5" s="12" t="n">
+        <v>376943158.71</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>565574117.22</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>957453408.76</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>1047308539.1797</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>1326292983.1244</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>963684021.6229</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>1169162804.3443</v>
+      </c>
+      <c r="AI5" s="12" t="n">
         <v>730779193.1186</v>
       </c>
-      <c r="AJ5" s="2" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>1096046235.0507</v>
       </c>
-      <c r="AK5" s="2" t="n">
-        <v>611423800.4119</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>859766723.855</v>
-      </c>
-      <c r="AM5" s="2" t="n">
+      <c r="AK5" s="12" t="n">
+        <v>611423800.3671</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>860166723.855</v>
+      </c>
+      <c r="AM5" s="12" t="n">
         <v>442792804.0052</v>
       </c>
-      <c r="AN5" s="2" t="n">
-        <v>315235080.9479</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>325836721.4587</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>228890915.2323</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>275823456.9571</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>531924293.291</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>614883576.9794</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>82231383.9527</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>174678382.5758</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>90183342.1843</v>
-      </c>
-      <c r="AW5" s="2"/>
+      <c r="AN5" s="12" t="n">
+        <v>314935080.78</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>325836721.4849</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>228965842.2299</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>275823456.0692</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>531924293.4918</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>606064059.7368</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>82231384.2135</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>174678382.864</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>203585165.3616</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>290992440.42</v>
+      </c>
+      <c r="AX5" s="12" t="n">
+        <v>154837923.18</v>
+      </c>
+      <c r="AY5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3959,105 +4043,111 @@
       <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="12" t="n">
         <v>7544000</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="12" t="n">
         <v>12209000</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="12" t="n">
         <v>15207939</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="12" t="n">
         <v>6594424</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="12" t="n">
         <v>53880311</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="12" t="n">
         <v>1548106</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="12" t="n">
         <v>389731</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="12" t="n">
         <v>1159668</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="12" t="n">
         <v>992429</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="12" t="n">
         <v>1791720</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="12" t="n">
         <v>691368</v>
       </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2" t="n">
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12" t="n">
         <v>572258</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AC6" s="12" t="n">
         <v>3719003.9375</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AD6" s="12" t="n">
         <v>27646247</v>
       </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AE6" s="12" t="n">
         <v>10218407.87</v>
       </c>
-      <c r="AF6" s="2" t="n">
+      <c r="AF6" s="12" t="n">
         <v>23726965.04</v>
       </c>
-      <c r="AG6" s="2" t="n">
+      <c r="AG6" s="12" t="n">
         <v>15848497.8829</v>
       </c>
-      <c r="AH6" s="2" t="n">
-        <v>12098657.2116</v>
-      </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AH6" s="12" t="n">
+        <v>12097307.0592</v>
+      </c>
+      <c r="AI6" s="12" t="n">
         <v>-8983965.0848</v>
       </c>
-      <c r="AJ6" s="2" t="n">
+      <c r="AJ6" s="12" t="n">
         <v>148250195.8181</v>
       </c>
-      <c r="AK6" s="2" t="n">
-        <v>-20828896.0184</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>-6903557.5907</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>-3635910.04</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>-34725154.3945</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>-31957759.1483</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>5623495.2771</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>-6930885.9765</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>-1009026.16</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>63334241.2088</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>12515315.8941</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>118367738.3143</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>2646326.8537</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="AK6" s="12" t="n">
+        <v>-20748979.0181</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>-6981197.5907</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>-3717008.11</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>-33228125.9394</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>-31715203.1598</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>5623010.9049</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>-6936804.9187</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>-1009026.1654</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>63334241.1558</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>12515315.9298</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>117629666.1922</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>-10543480.9415</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>-12016264.4</v>
+      </c>
+      <c r="AX6" s="12" t="n">
+        <v>-1133217.49</v>
+      </c>
+      <c r="AY6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4072,107 +4162,115 @@
       <c r="N7" t="s">
         <v>138</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="2" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="2" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="2" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="2" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="2" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="2" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="2" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="2" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="2" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="2" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="2" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="2" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="2" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="2" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="2" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="2" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="2" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="2" t="str">
+      <c r="AT7" s="12" t="str">
         <f>Sum(AT2:AT6)</f>
       </c>
-      <c r="AU7" s="2" t="str">
+      <c r="AU7" s="12" t="str">
         <f>Sum(AU2:AU6)</f>
       </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
+      <c r="AV7" s="12" t="str">
+        <f>Sum(AV2:AV6)</f>
+      </c>
+      <c r="AW7" s="12" t="str">
+        <f>Sum(AW2:AW6)</f>
+      </c>
+      <c r="AX7" s="12" t="str">
+        <f>Sum(AX2:AX6)</f>
+      </c>
+      <c r="AY7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4289,6 +4387,12 @@
       <c r="AV10" t="s">
         <v>34</v>
       </c>
+      <c r="AW10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -4303,109 +4407,115 @@
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>9402254591.81058</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>7943087531.20838</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>5160949571.36338</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>6267033923.10904</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>5956033740.80407</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>4918881839.00619</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>4276687096.19639</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>4619191195.3342</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>5429351690.25013</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>5275533322.7043</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>4761978937.76316</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>6055595522.16582</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>6252557131.0237</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>6680959013.08866</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>7590043125.74444</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>7209393033.09245</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>8916169483.1218</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>8278811021.90622</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>9966242193.32424</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>11117951867.2898</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>9777382604.75286</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>10548009033.0233</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>10809159288.0166</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>7545826023.84185</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>8422014271.41518</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>6319792785.39953</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>6418276451.41415</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>6247558478.71626</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>5653735445.07346</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>6859056938.74395</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>6645543481.30207</v>
-      </c>
-      <c r="AT11" s="2" t="n">
-        <v>3707937736.59506</v>
-      </c>
-      <c r="AU11" s="2" t="n">
-        <v>4318615748.3492</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>2374139963.18962</v>
-      </c>
-      <c r="AW11" s="2"/>
+      <c r="O11" s="12" t="n">
+        <v>10086762814.0066</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>8574190409.81417</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>5470848598.88557</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>6635505311.03005</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>6621455903.94769</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>5447811113.88724</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>4625386644.37108</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>8481733003.81294</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>6588108035.10521</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>6802648830.44515</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>4954857575.92453</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>6300934256.51541</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>6506204817.19699</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>6951436149.42671</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>7897514066.04082</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>7500911711.34564</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>9277361894.29946</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>8613292295.70853</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>10369864279.2882</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>11567482416.6697</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>10173083477.3582</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
+        <v>10975784359.7784</v>
+      </c>
+      <c r="AK11" s="12" t="n">
+        <v>11249557102.1447</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>7869747245.9361</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>8775979243.31821</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>6593013203.36309</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>6696095657.51789</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>6527022948.14084</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>5912567376.8201</v>
+      </c>
+      <c r="AR11" s="12" t="n">
+        <v>7176663819.41966</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>6941925179.56952</v>
+      </c>
+      <c r="AT11" s="12" t="n">
+        <v>3881345765.14577</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>4511649809.06361</v>
+      </c>
+      <c r="AV11" s="12" t="n">
+        <v>4938290602.7362</v>
+      </c>
+      <c r="AW11" s="12" t="n">
+        <v>5501062767.14342</v>
+      </c>
+      <c r="AX11" s="12" t="n">
+        <v>1343087025.41854</v>
+      </c>
+      <c r="AY11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4420,109 +4530,115 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>515416623.494997</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>463367514.705297</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>695554345.226254</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>463665437.561328</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>246467999.183664</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>461008137.900598</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>448675047.328247</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>409516526.375693</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>320065736.962934</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>219012384.267938</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>195695585.277772</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>262732016.757451</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>536187159.542037</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>804087226.078935</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>902491135.181006</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>782645252.347399</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>804985421.80157</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>1056885659.3722</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>1494975266.38531</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>1022100714.49697</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>1169291468.57505</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>1057559827.27115</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>975276779.158559</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>761452748.191857</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>537423624.367188</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>496303597.451032</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>459917314.647575</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>549813541.189913</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>828435144.667266</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>626171277.977657</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>724636317.437806</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>66592209.9893369</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>30712452.3515</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>18672.3860219974</v>
-      </c>
-      <c r="AW12" s="2"/>
+      <c r="O12" s="12" t="n">
+        <v>536150385.176766</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>482137560.601125</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>729575576.246864</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>491502695.499945</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>256449866.409818</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>479665262.170325</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <v>466817433.321948</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>489953724.316735</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>366315763.021252</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>292351753.150015</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>203622016.453735</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>273376442.738714</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>557938680.085951</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>836640517.85839</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>939050848.313447</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>814292262.908097</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>837595235.534145</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>1099586066.54793</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>1555520140.91516</v>
+      </c>
+      <c r="AH12" s="12" t="n">
+        <v>1063427165.36689</v>
+      </c>
+      <c r="AI12" s="12" t="n">
+        <v>1371931878.51624</v>
+      </c>
+      <c r="AJ12" s="12" t="n">
+        <v>1277589461.75441</v>
+      </c>
+      <c r="AK12" s="12" t="n">
+        <v>1221963724.37473</v>
+      </c>
+      <c r="AL12" s="12" t="n">
+        <v>987992466.940974</v>
+      </c>
+      <c r="AM12" s="12" t="n">
+        <v>756242171.604694</v>
+      </c>
+      <c r="AN12" s="12" t="n">
+        <v>539198174.445778</v>
+      </c>
+      <c r="AO12" s="12" t="n">
+        <v>403838260.951504</v>
+      </c>
+      <c r="AP12" s="12" t="n">
+        <v>548802104.218613</v>
+      </c>
+      <c r="AQ12" s="12" t="n">
+        <v>762408546.923431</v>
+      </c>
+      <c r="AR12" s="12" t="n">
+        <v>655543136.448454</v>
+      </c>
+      <c r="AS12" s="12" t="n">
+        <v>758819876.056485</v>
+      </c>
+      <c r="AT12" s="12" t="n">
+        <v>69680794.4576971</v>
+      </c>
+      <c r="AU12" s="12" t="n">
+        <v>32117442.3211773</v>
+      </c>
+      <c r="AV12" s="12" t="n">
+        <v>19576.8691</v>
+      </c>
+      <c r="AW12" s="12" t="n">
+        <v>-18011.3101668206</v>
+      </c>
+      <c r="AX12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4537,85 +4653,87 @@
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2" t="n">
-        <v>739668.290943928</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>263389.780555388</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>4063439.17016575</v>
-      </c>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2" t="n">
-        <v>88244.7111742794</v>
-      </c>
-      <c r="AD13" s="2" t="n">
-        <v>1761082.61560488</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>17511.6381613199</v>
-      </c>
-      <c r="AF13" s="2" t="n">
-        <v>36190.9266234767</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <v>19543.3442281912</v>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>26070.1360319667</v>
-      </c>
-      <c r="AI13" s="2" t="n">
-        <v>15768.0686619968</v>
-      </c>
-      <c r="AJ13" s="2" t="n">
-        <v>5260847.23747045</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <v>1019510.59204534</v>
-      </c>
-      <c r="AL13" s="2" t="n">
-        <v>1054694.10975404</v>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>30761389.5344284</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>-172500.463538507</v>
-      </c>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2" t="n">
-        <v>934.979118795784</v>
-      </c>
-      <c r="AQ13" s="2" t="n">
-        <v>40805.0654655064</v>
-      </c>
-      <c r="AR13" s="2" t="n">
-        <v>2398914.9471815</v>
-      </c>
-      <c r="AS13" s="2" t="n">
-        <v>95698.6990418601</v>
-      </c>
-      <c r="AT13" s="2" t="n">
-        <v>398591.996205278</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>681814.1094</v>
-      </c>
-      <c r="AV13" s="2" t="n">
-        <v>42023.3953599134</v>
-      </c>
-      <c r="AW13" s="2"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12" t="n">
+        <v>769627.729185152</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>274060.855432156</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>4228280.82856035</v>
+      </c>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12" t="n">
+        <v>91819.4845988845</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>1832293.68205333</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>18221.0314549848</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>37653.115875402</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>20334.8286476045</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>27124.2258308179</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>16406.2188833712</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>5474201.31492448</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>1061048.5349311</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>1097832.93388587</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>32054262.3273302</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>-179947.646183974</v>
+      </c>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12" t="n">
+        <v>976.560000187597</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>42673.1498582622</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>2511441.01315835</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>100215.072247593</v>
+      </c>
+      <c r="AT13" s="12" t="n">
+        <v>417078.918986749</v>
+      </c>
+      <c r="AU13" s="12" t="n">
+        <v>713004.783136167</v>
+      </c>
+      <c r="AV13" s="12" t="n">
+        <v>44058.9922</v>
+      </c>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4630,109 +4748,115 @@
       <c r="N14" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>222265655.087035</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>275138435.154247</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>119550600.65296</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>164538601.498177</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>333446826.08975</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>664618032.938968</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>350639736.532138</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>346152961.675861</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>179678410.216128</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>292211457.275354</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>182936992.32853</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>234747140.06865</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>185872159.755733</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>574400437.060149</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>841279806.720952</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>1382232128.12693</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>1464278493.19309</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>1804841976.00059</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>1284606009.16898</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>1542834220.48742</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>956025594.777457</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>1405550940.08944</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>769965991.711796</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>1063246818.09807</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>537195547.398117</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>378107950.899832</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>387612113.695509</v>
-      </c>
-      <c r="AP14" s="2" t="n">
-        <v>267510282.780321</v>
-      </c>
-      <c r="AQ14" s="2" t="n">
-        <v>314965976.886348</v>
-      </c>
-      <c r="AR14" s="2" t="n">
-        <v>595741962.520829</v>
-      </c>
-      <c r="AS14" s="2" t="n">
-        <v>679588282.352753</v>
-      </c>
-      <c r="AT14" s="2" t="n">
-        <v>87928998.7740789</v>
-      </c>
-      <c r="AU14" s="2" t="n">
-        <v>174678382.5758</v>
-      </c>
-      <c r="AV14" s="2" t="n">
-        <v>86016725.6274462</v>
-      </c>
-      <c r="AW14" s="2"/>
+      <c r="O14" s="12" t="n">
+        <v>231295969.039706</v>
+      </c>
+      <c r="P14" s="12" t="n">
+        <v>286294387.366774</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>126105991.506913</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>173228815.55144</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>346951305.194683</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>690842205.165512</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>364818018.749472</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>476662071.053976</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>273450761.997826</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>586903529.306098</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>190346650.942809</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>244257775.991948</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>193412441.221857</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>597654907.840678</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>875359864.232777</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>1438124002.34398</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>1523596154.52834</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>1877761360.34276</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>1336631160.91236</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>1605215425.08743</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>994716949.947493</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>1462553170.07277</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>801336733.298385</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>1107250363.22969</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>559773380.136188</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>394056224.991556</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>404462971.412177</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>279498603.663731</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>329385338.200727</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>623686471.359443</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>701452922.737276</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>92007195.8838426</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>182669324.050985</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>203585165.3616</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>283423340.10036</v>
+      </c>
+      <c r="AX14" s="12" t="n">
+        <v>147572339.813304</v>
+      </c>
+      <c r="AY14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4747,105 +4871,111 @@
       <c r="N15" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>14993938.1380363</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>23430042.2319746</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>28473621.1193934</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>12063274.4761318</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>96462149.0065131</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>2714088.66129787</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>670658.989539297</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>1960754.44642674</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>1657294.57565635</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>2955223.30986304</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>1117064.05304881</v>
-      </c>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2" t="n">
-        <v>872028.678296138</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>5531941.48033199</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>39911634.588392</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>14286711.4733911</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>32288056.0541619</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>21126297.6349004</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>15965460.5846602</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>-11753072.1242934</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>190113514.774252</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>-26229828.7509665</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>-8537415.3688536</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>-4411080.45695605</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>-41651001.9548069</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>-38016631.5109902</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>6572313.32341902</v>
-      </c>
-      <c r="AQ15" s="2" t="n">
-        <v>-7914458.38711151</v>
-      </c>
-      <c r="AR15" s="2" t="n">
-        <v>-1130084.17245648</v>
-      </c>
-      <c r="AS15" s="2" t="n">
-        <v>69998955.5887021</v>
-      </c>
-      <c r="AT15" s="2" t="n">
-        <v>13382472.03212</v>
-      </c>
-      <c r="AU15" s="2" t="n">
-        <v>118367738.3143</v>
-      </c>
-      <c r="AV15" s="2" t="n">
-        <v>2524062.26451523</v>
-      </c>
-      <c r="AW15" s="2"/>
+      <c r="O15" s="12" t="n">
+        <v>15603118.9344142</v>
+      </c>
+      <c r="P15" s="12" t="n">
+        <v>24380052.8378388</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>29627084.487951</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>12552336.4655782</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>100368832.092843</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>2823928.56491321</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>697777.400359825</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>2040073.10583894</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>1724250.04451185</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>3074866.5863969</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>1162309.48524937</v>
+      </c>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12" t="n">
+        <v>907332.562876455</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>5756039.18689376</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>41525499.8537443</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>14865463.5703899</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>33592561.1589672</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>21981889.9645791</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>16609135.8887674</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>-12228731.2388445</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>197823583.461916</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>-27193771.4162552</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>-8986552.66904266</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>-4698997.3073363</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>-41576028.4271751</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>-39368261.6572363</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>6864009.41293001</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>-8283856.15473262</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>-1183093.11363944</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>73302463.4184323</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>14003158.7126347</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>123010822.858383</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>-10543480.9415</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>-11703705.3844474</v>
+      </c>
+      <c r="AX15" s="12" t="n">
+        <v>-1080042.62187276</v>
+      </c>
+      <c r="AY15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4854,41 +4984,43 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5025,6 +5157,12 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -5037,94 +5175,120 @@
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>121289000</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>91841000</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>9737000</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>7817000</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>17638000</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>38434000</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>24166000</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1733317246</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>32375530</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>39560431</v>
+      </c>
       <c r="Z2" s="3" t="n">
-        <v>660568306</v>
+        <v>142126379</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>1255193655</v>
+        <v>84925188</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>1117734286</v>
+        <v>151641248</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>619128853</v>
+        <v>706106010</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>917858095.9375</v>
+        <v>883972082</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>1624622987.39</v>
+        <v>502235051</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>839071178.8</v>
+        <v>763339162</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>577754850.6094</v>
+        <v>989242225.82</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>755447173.4112</v>
+        <v>751531095.68</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>1150320040.7216</v>
+        <v>884082493.0025</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>2322720827.1855</v>
+        <v>1709704073.2179</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>3348348304.6468</v>
+        <v>2471076994.0037</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>3004863253.0893</v>
+        <v>2576087215.6511</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>2361852362.8104</v>
+        <v>2574998946.53</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>2212894814.1546</v>
+        <v>3397974933.74</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>1622250690.0788</v>
+        <v>2096597526.27</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>1152593832.1133</v>
+        <v>2008544425.8726</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>1625730571.0706</v>
+        <v>1867007218.7972</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>1223156234.979</v>
+        <v>1888821223.8225</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>1920860250.8805</v>
+        <v>2154302159.9724</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>2460250899.6027</v>
+        <v>2110794259.8031</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>1467980336.6656</v>
+        <v>1429533118.9</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>1845506492.7888</v>
+        <v>1837524676.4</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>2086315734.0371</v>
-      </c>
-      <c r="AX2" s="3"/>
+        <v>2241900214.41</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>1249374074.92</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>655137133.17</v>
+      </c>
+      <c r="AZ2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5136,11 +5300,9 @@
       <c r="M3" t="s">
         <v>49</v>
       </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -5152,77 +5314,53 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
-        <v>50867488</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>44451176</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>38065170</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>13189917</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>816632</v>
-      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
       <c r="AE3" s="3" t="n">
-        <v>74337045</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>3568079</v>
+        <v>38902563</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>-117149</v>
+        <v>193615862</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>-182452.3</v>
+        <v>736952723.5569</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>-775437.1</v>
+        <v>1140578800.7506</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>1995733</v>
+        <v>-701265.21</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>3188451.1899</v>
+        <v>-821630.9967</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>-38309.8789</v>
+        <v>1926650.5795</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>-304973.85</v>
-      </c>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3" t="n">
+        <v>335784.2</v>
+      </c>
+      <c r="AN3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="3" t="n">
-        <v>55404.1707</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>9839846</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>335406081.49</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>302087828.4492</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>240810419.37</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>302908851.27</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>97727424</v>
-      </c>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5234,95 +5372,119 @@
       <c r="M4" t="s">
         <v>49</v>
       </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>24872000</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>62751000</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>41129000</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>42130000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>16745000</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>43749000</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>24955000</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>182113947</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>282932106</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>333813499</v>
+      </c>
       <c r="Z4" s="3" t="n">
-        <v>7232135</v>
+        <v>660568306</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>11989370</v>
+        <v>1255193655</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>4892070</v>
+        <v>1117734286</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17522856</v>
+        <v>619128853</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>35578117</v>
+        <v>917858095.9375</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>42478443</v>
+        <v>1624622963.39</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>52699731</v>
+        <v>839071178.8</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>44945586.5066</v>
+        <v>577754851.6143</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>47763138.9346</v>
+        <v>755447172.4327</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>31557043.6694</v>
+        <v>1164638105.4596</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>59754399.5352</v>
+        <v>2261281761.1265</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>37554990.2104</v>
+        <v>3227791376.3345</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>46437871.1566</v>
+        <v>2836866677.7479</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>48014626.7009</v>
+        <v>2729787925.7304</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>37832921.3988</v>
+        <v>2072266592.2502</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>71208970.0455</v>
+        <v>1390494473.6922</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>89906384.0068</v>
+        <v>1059293833.6573</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>91827386.448</v>
+        <v>1620631667.3273</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>53948223.7836</v>
+        <v>1222168596.9061</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>49098720.5711</v>
+        <v>1922060261.619</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>52191945.031</v>
+        <v>2462275578.687</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>-699074.3672</v>
+        <v>1463062865.5414</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>3842652.86</v>
+        <v>1895929923.3344</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>2678375.875</v>
-      </c>
-      <c r="AX4" s="3"/>
+        <v>2150703556.5433</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>3793886933.95</v>
+      </c>
+      <c r="AY4" s="3" t="n">
+        <v>456144700.6</v>
+      </c>
+      <c r="AZ4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5334,95 +5496,117 @@
       <c r="M5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="Q5" s="3" t="n">
+        <v>158000</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>3330000</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>15962000</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>193150000</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>98281000</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>49052000</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>271318280</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>285678910</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>556012643</v>
+      </c>
       <c r="Z5" s="3" t="n">
-        <v>142126379</v>
+        <v>2161469492</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>84925188</v>
+        <v>2279862270</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>151641248</v>
+        <v>2600195785.64</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>706106011</v>
+        <v>3076776477.71</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>883972083</v>
+        <v>3329314211.22</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>502235051</v>
+        <v>3257780980.76</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>763339162</v>
+        <v>4820257427.8197</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>989242225.82</v>
+        <v>4938626470.1672</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>751531095.68</v>
+        <v>5422282109.1998</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>884082493.0025</v>
+        <v>6147278352.9886</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>1709704072.0279</v>
+        <v>4672183243.6555</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>2497030829.4912</v>
+        <v>3913055809.1869</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>2630248457.4023</v>
+        <v>2656866130.2144</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>2585533770.8901</v>
+        <v>2256931799.173</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>3395222451.0736</v>
+        <v>2001151545.7006</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>2141174887.2238</v>
+        <v>2000718603.9947</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>1972087563.7815</v>
+        <v>1862278869.35</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>1884329025.6903</v>
+        <v>1864685119.2765</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>1888821222.5932</v>
+        <v>2173519674.2358</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>2154302154.4205</v>
+        <v>1882589679.7529</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>2097257753.4667</v>
+        <v>1928470612.9137</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>1390033318.2933</v>
+        <v>485275659.6572</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>1857568524.66</v>
+        <v>591471906.0574</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>2307387439.3751</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>635989140.9293</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>732102109.9</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>402493450.86</v>
+      </c>
+      <c r="AZ5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5434,95 +5618,105 @@
       <c r="M6" t="s">
         <v>53</v>
       </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="T6" s="3" t="n">
+        <v>190000</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="W6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>49992</v>
+      </c>
       <c r="Z6" s="3" t="n">
-        <v>2161469493</v>
+        <v>50867488</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>2279862270</v>
+        <v>44451176</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>2600195785.64</v>
+        <v>38065170</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>3076776476.71</v>
+        <v>13189917</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>3329314212.22</v>
+        <v>816632</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>3257780980.76</v>
+        <v>74337045</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>4820257442.8197</v>
+        <v>3568079</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>4938626463.8649</v>
+        <v>-117149</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>5422282115.2118</v>
+        <v>-182452.3</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>6147279716.624</v>
+        <v>-775437.1</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>4558077296.9564</v>
+        <v>1995733</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>3754352033.8076</v>
+        <v>3188451.1899</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>2321510944.0609</v>
+        <v>-38309.8789</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>2009322633.618</v>
-      </c>
-      <c r="AN6" s="3" t="n">
-        <v>1821472651.4881</v>
-      </c>
+        <v>-304973.85</v>
+      </c>
+      <c r="AN6" s="3"/>
       <c r="AO6" s="3" t="n">
-        <v>1937444693.0404</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="3" t="n">
-        <v>1734827328.6473</v>
+        <v>55404.1707</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>1770294955.4252</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>2259065232.564</v>
+        <v>10152000</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>1879562515.0211</v>
+        <v>332379305.49</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>1935424731.0431</v>
+        <v>299719396.45</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>481328728.0494</v>
+        <v>240248622.21</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>620835873.2035</v>
+        <v>302908851.27</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>634613945.0599</v>
-      </c>
-      <c r="AX6" s="3"/>
+        <v>97727424.29</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>124710297.76</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>48450252.48</v>
+      </c>
+      <c r="AZ6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5534,11 +5728,9 @@
       <c r="M7" t="s">
         <v>55</v>
       </c>
-      <c r="N7" t="s">
-        <v>55</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -5547,82 +5739,94 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3" t="n">
+        <v>3154946</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>7951793</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>6548417</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>153274049</v>
+        <v>7232135</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>473017362</v>
+        <v>11989370</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>572574574</v>
+        <v>4892070</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>854680578</v>
+        <v>17522856</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>1107264124</v>
+        <v>35578117</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>1015410327</v>
+        <v>42478443</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>1490691609</v>
+        <v>52699731</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>1465268238.5325</v>
+        <v>44945586.5066</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>1842174702.685</v>
+        <v>47763138.8949</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>993400055.6417</v>
+        <v>31557043.6796</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>437791993.8982</v>
+        <v>59754399.5342</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>658829581.793</v>
+        <v>37554990.1876</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>1944537862.8029</v>
+        <v>46437871.1681</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>566425464.98</v>
+        <v>48330551.9709</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>379325195.75</v>
+        <v>37832921.3988</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>192710059.67</v>
+        <v>71208969.7281</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>1123350417.3733</v>
+        <v>89906383.76</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>678451945.7423</v>
+        <v>91827386.4654</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>509859967.7861</v>
+        <v>53948223.6886</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>872474092.0534</v>
+        <v>49098720.5863</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>468921577.8713</v>
+        <v>52821945.0167</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>8926237</v>
+        <v>-699074.375</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>6310225.03</v>
+        <v>3842652.89</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>2397211</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>2678375.845</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>1696543</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>691802.39</v>
+      </c>
+      <c r="AZ7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5634,67 +5838,107 @@
       <c r="M8" t="s">
         <v>57</v>
       </c>
-      <c r="N8" t="s">
-        <v>57</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3" t="n">
+        <v>1440000</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+      <c r="W8" s="3" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>560193</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>31347993</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>153274049</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>473017362</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>572574574</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>854680577</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>1107264124</v>
+      </c>
       <c r="AE8" s="3" t="n">
+        <v>1015410327</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>1490691606</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>1465268227.59</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>1842174703.82</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>993400054.6417</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>499231058.4082</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>779386508.703</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>1989325189.2404</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>125087672.87</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>492660425.83</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>422705433.84</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>990878259.0233</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>587024487.7685</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>509859968.52</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>872491627.692</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>468942712.8307</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>8926237</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>6310225.03</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>2397211</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>25161807.56</v>
+      </c>
+      <c r="AY8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" s="3" t="n">
-        <v>38902563</v>
-      </c>
-      <c r="AG8" s="3" t="n">
-        <v>193615861</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>736952723.5569</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>1154896862.3176</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
-        <v>-701265.21</v>
-      </c>
-      <c r="AK8" s="3" t="n">
-        <v>-821630.9967</v>
-      </c>
-      <c r="AL8" s="3" t="n">
-        <v>1926650.5795</v>
-      </c>
-      <c r="AM8" s="3" t="n">
-        <v>335784.2</v>
-      </c>
-      <c r="AN8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AZ8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5706,9 +5950,7 @@
       <c r="M9" t="s">
         <v>57</v>
       </c>
-      <c r="N9" t="s">
-        <v>57</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
         <v>5109318000</v>
@@ -5738,7 +5980,7 @@
         <v>3551481726</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>3510240138</v>
+        <v>3510692380</v>
       </c>
       <c r="Z9" s="3" t="n">
         <v>7214274</v>
@@ -5786,10 +6028,10 @@
         <v>2737500</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>-1726780.56</v>
+        <v>-1780.56</v>
       </c>
       <c r="AP9" s="3" t="n">
-        <v>3044784.1893</v>
+        <v>2894835.1893</v>
       </c>
       <c r="AQ9" s="3" t="n">
         <v>-55505.6021</v>
@@ -5812,7 +6054,13 @@
       <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5926,8 +6174,16 @@
       <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="3" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6047,6 +6303,12 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -6059,94 +6321,120 @@
         <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>250859847.883903</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>183396546.210169</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>18968968.8825803</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>14879482.1430082</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>32856259.1343167</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <v>70108164.7276571</v>
+      </c>
+      <c r="V14" s="3" t="n">
+        <v>43266993.5342468</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>3049229518.66518</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>56249373.0469332</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>67891772.9474249</v>
+      </c>
       <c r="Z14" s="3" t="n">
-        <v>1067300061.92932</v>
+        <v>238939086.587529</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>1980039296.78543</v>
+        <v>139395155.214541</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>1735803164.82232</v>
+        <v>245046957.229594</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>943452280.923279</v>
+        <v>1119552676.79223</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>1365294944.37385</v>
+        <v>1368156105.67287</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>2345394621.43312</v>
+        <v>754372249.399557</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>1173134600.77747</v>
+        <v>1110485180.16956</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>786218590.139594</v>
+        <v>1400565976.97466</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>1007022996.80712</v>
+        <v>1042374739.37653</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>1517969221.59898</v>
+        <v>1213811155.76394</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>3038647762.85663</v>
+        <v>2327203123.78695</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>4293864580.56261</v>
+        <v>3297380507.77285</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>3784024293.89336</v>
+        <v>3376239709.41623</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>2920829499.32719</v>
+        <v>3314669632.97925</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>2684680578.07523</v>
+        <v>4295679372.09599</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>1945804643.4017</v>
+        <v>2623325748.53966</v>
       </c>
       <c r="AP14" s="3" t="n">
-        <v>1371114125.80448</v>
+        <v>2493217593.76788</v>
       </c>
       <c r="AQ14" s="3" t="n">
-        <v>1900030170.9237</v>
+        <v>2279055712.42355</v>
       </c>
       <c r="AR14" s="3" t="n">
-        <v>1396736168.43512</v>
+        <v>2255609535.44646</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>2151315647.77352</v>
+        <v>2525940493.47724</v>
       </c>
       <c r="AT14" s="3" t="n">
-        <v>2719145128.62949</v>
+        <v>2443013703.00517</v>
       </c>
       <c r="AU14" s="3" t="n">
-        <v>1569693163.58932</v>
+        <v>1599478531.84113</v>
       </c>
       <c r="AV14" s="3" t="n">
-        <v>1845506492.7888</v>
+        <v>1921585173.05676</v>
       </c>
       <c r="AW14" s="3" t="n">
-        <v>1989924566.11499</v>
-      </c>
-      <c r="AX14" s="3"/>
+        <v>2241900214.41</v>
+      </c>
+      <c r="AX14" s="3" t="n">
+        <v>1216876193.88853</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>624395610.938839</v>
+      </c>
+      <c r="AZ14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6158,11 +6446,9 @@
       <c r="M15" t="s">
         <v>49</v>
       </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -6174,77 +6460,53 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
-        <v>82188128.9178727</v>
-      </c>
-      <c r="AA15" s="3" t="n">
-        <v>70120713.9772589</v>
-      </c>
-      <c r="AB15" s="3" t="n">
-        <v>59113908.7197148</v>
-      </c>
-      <c r="AC15" s="3" t="n">
-        <v>20099301.1689583</v>
-      </c>
-      <c r="AD15" s="3" t="n">
-        <v>1214723.21914326</v>
-      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
       <c r="AE15" s="3" t="n">
-        <v>107317024.854073</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>4988655.35960114</v>
+        <v>56594397.1339343</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>-159418.34416295</v>
+        <v>274120717.698885</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>-243211.793474198</v>
+        <v>1022154515.71619</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>-1023271.44569922</v>
+        <v>1565970690.89911</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>2610873.22450948</v>
+        <v>-954543.31125473</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>4088815.25621585</v>
+        <v>-1096376.21153641</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>-48243.6304895651</v>
+        <v>2525083.06130218</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>-377151.693149625</v>
-      </c>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3" t="n">
+        <v>432238.503427001</v>
+      </c>
+      <c r="AN15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AP15" s="3" t="n">
-        <v>65908.248819941</v>
-      </c>
-      <c r="AQ15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="3" t="n">
-        <v>11236233.2848408</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>375646458.995172</v>
-      </c>
-      <c r="AT15" s="3" t="n">
-        <v>333876779.50999</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>257495594.160858</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>302908851.27</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>93212258.6375883</v>
-      </c>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6256,95 +6518,119 @@
       <c r="M16" t="s">
         <v>49</v>
       </c>
-      <c r="N16" t="s">
-        <v>49</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>51442308.3426233</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>125306961.718996</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>80124753.1243345</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>80193499.1281741</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>31192768.9763087</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>79803353.7667241</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>44679625.2440259</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>320372525.130363</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>491567352.792323</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>572875211.619749</v>
+      </c>
       <c r="Z16" s="3" t="n">
-        <v>11685177.8434874</v>
+        <v>1110529859.23402</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>18912957.0956127</v>
+        <v>2060259370.43592</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>7597217.59893507</v>
+        <v>1806219543.74507</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>26701999.7232953</v>
+        <v>981647733.964838</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>52921713.5910614</v>
+        <v>1420602735.84315</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>61324204.1460397</v>
+        <v>2440232868.81004</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>73681326.9837042</v>
+        <v>1220658071.20846</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>61162715.6724754</v>
+        <v>817983469.652526</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>63669017.5034315</v>
+        <v>1047806343.61478</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>41642864.0022257</v>
+        <v>1599003188.07765</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>78172361.6300856</v>
+        <v>3077995812.66211</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>48159876.9351512</v>
+        <v>4307132636.21876</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>58479211.1363485</v>
+        <v>3718019277.27488</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>59378198.3477982</v>
+        <v>3513921881.04981</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>45898841.9338893</v>
+        <v>2619734702.99118</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>85411425.8750328</v>
+        <v>1739828417.39225</v>
       </c>
       <c r="AP16" s="3" t="n">
-        <v>106951737.617496</v>
+        <v>1314907446.91734</v>
       </c>
       <c r="AQ16" s="3" t="n">
-        <v>107320861.078089</v>
+        <v>1978305076.68647</v>
       </c>
       <c r="AR16" s="3" t="n">
-        <v>61604097.0290924</v>
+        <v>1459500299.09431</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>54989344.3845532</v>
+        <v>2253634581.04182</v>
       </c>
       <c r="AT16" s="3" t="n">
-        <v>57684146.4046044</v>
+        <v>2849814922.21249</v>
       </c>
       <c r="AU16" s="3" t="n">
-        <v>-747511.548776512</v>
+        <v>1636994353.77064</v>
       </c>
       <c r="AV16" s="3" t="n">
-        <v>3842652.86</v>
+        <v>1982662261.15211</v>
       </c>
       <c r="AW16" s="3" t="n">
-        <v>2554630.56909366</v>
-      </c>
-      <c r="AX16" s="3"/>
+        <v>2150703556.5433</v>
+      </c>
+      <c r="AX16" s="3" t="n">
+        <v>3695202889.91438</v>
+      </c>
+      <c r="AY16" s="3" t="n">
+        <v>434740658.996877</v>
+      </c>
+      <c r="AZ16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6356,95 +6642,117 @@
       <c r="M17" t="s">
         <v>52</v>
       </c>
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="Q17" s="3" t="n">
+        <v>315508.915421289</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>6487282.15867232</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>30383304.844147</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>359801930.592656</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>179276175.719386</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>87823080.6439574</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>477299646.23537</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>496339660.855938</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>954203054.927628</v>
+      </c>
       <c r="Z17" s="3" t="n">
-        <v>229637861.415182</v>
+        <v>3633804996.22305</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>133967542.663279</v>
+        <v>3742137785.95845</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>235493678.142397</v>
+        <v>4201825518.29364</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>1075991408.61165</v>
+        <v>4878323215.9596</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>1314890200.59774</v>
+        <v>5152902063.91845</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>725053994.959765</v>
+        <v>4893285647.05656</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>1067251033.87698</v>
+        <v>7012380216.64086</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>1346177582.53417</v>
+        <v>6992091549.03302</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>1001802803.42841</v>
+        <v>7520713291.69562</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>1166640557.60556</v>
+        <v>8439976022.03691</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>2236682253.33373</v>
+        <v>6359649959.23266</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>3202149615.21338</v>
+        <v>5221542664.33225</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>3312271881.77473</v>
+        <v>3482109175.85944</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>3197449353.07318</v>
+        <v>2905237420.9726</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>4119078645.01213</v>
+        <v>2529831909.57283</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>2568227009.16391</v>
+        <v>2503359163.4438</v>
       </c>
       <c r="AP17" s="3" t="n">
-        <v>2345975694.72188</v>
+        <v>2311657328.43993</v>
       </c>
       <c r="AQ17" s="3" t="n">
-        <v>2202260364.95154</v>
+        <v>2276221125.53809</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>2156866671.53281</v>
+        <v>2595593294.30082</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>2412764766.57403</v>
+        <v>2207354935.18288</v>
       </c>
       <c r="AT17" s="3" t="n">
-        <v>2317953914.67607</v>
+        <v>2231994004.77356</v>
       </c>
       <c r="AU17" s="3" t="n">
-        <v>1486345383.78248</v>
+        <v>542966084.090445</v>
       </c>
       <c r="AV17" s="3" t="n">
-        <v>1857568524.66</v>
+        <v>618529731.631264</v>
       </c>
       <c r="AW17" s="3" t="n">
-        <v>2200782400.40538</v>
-      </c>
-      <c r="AX17" s="3"/>
+        <v>635989140.9293</v>
+      </c>
+      <c r="AX17" s="3" t="n">
+        <v>713059160.51597</v>
+      </c>
+      <c r="AY17" s="3" t="n">
+        <v>383606929.640177</v>
+      </c>
+      <c r="AZ17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6456,95 +6764,105 @@
       <c r="M18" t="s">
         <v>53</v>
       </c>
-      <c r="N18" t="s">
-        <v>53</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="3" t="n">
+        <v>353934.076171911</v>
+      </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="W18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>295358.668042767</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>85793.9468148784</v>
+      </c>
       <c r="Z18" s="3" t="n">
-        <v>3492351211.49943</v>
+        <v>85517067.3117768</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>3596430612.8192</v>
+        <v>72961611.5537934</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>4038015233.4985</v>
+        <v>61511984.4234414</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>4688509945.51071</v>
+        <v>20913016.8485853</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>4952286069.37678</v>
+        <v>1263931.38385093</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>4703110844.41612</v>
+        <v>111656491.793453</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>6739369595.45452</v>
+        <v>5190744.88565834</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>6720566571.705</v>
+        <v>-165859.179232467</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>7227987577.92435</v>
+        <v>-253061.609498761</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>8111987165.3643</v>
+        <v>-1064645.22261564</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>5963003051.94534</v>
+        <v>2716537.99309442</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>4814516816.71156</v>
+        <v>4254637.48360472</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>2923478731.29809</v>
+        <v>-50209.221807118</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>2484866926.63287</v>
-      </c>
-      <c r="AN18" s="3" t="n">
-        <v>2209807813.5781</v>
-      </c>
+        <v>-392577.853598742</v>
+      </c>
+      <c r="AN18" s="3"/>
       <c r="AO18" s="3" t="n">
-        <v>2323863323.4108</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="3" t="n">
-        <v>2063733285.62645</v>
+        <v>68773.5114932033</v>
       </c>
       <c r="AQ18" s="3" t="n">
-        <v>2068986021.7901</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="3" t="n">
-        <v>2579652563.54238</v>
+        <v>12123406.7655756</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>2105063212.00615</v>
+        <v>389718008.23975</v>
       </c>
       <c r="AT18" s="3" t="n">
-        <v>2139091069.97776</v>
+        <v>346892450.168068</v>
       </c>
       <c r="AU18" s="3" t="n">
-        <v>514678837.983913</v>
+        <v>268809801.220272</v>
       </c>
       <c r="AV18" s="3" t="n">
-        <v>620835873.2035</v>
+        <v>316765899.725735</v>
       </c>
       <c r="AW18" s="3" t="n">
-        <v>605293752.365187</v>
-      </c>
-      <c r="AX18" s="3"/>
+        <v>97727424.29</v>
+      </c>
+      <c r="AX18" s="3" t="n">
+        <v>121466417.082979</v>
+      </c>
+      <c r="AY18" s="3" t="n">
+        <v>46176782.6393998</v>
+      </c>
+      <c r="AZ18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6556,11 +6874,9 @@
       <c r="M19" t="s">
         <v>55</v>
       </c>
-      <c r="N19" t="s">
-        <v>55</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -6569,82 +6885,94 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="W19" s="3" t="n">
+        <v>5550140.63074443</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>13815476.4060694</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>11238088.8906154</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>247649486.819092</v>
+        <v>12158472.9248446</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>746174075.283847</v>
+        <v>19679203.913856</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>889188754.51405</v>
+        <v>7905414.15258056</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>1302395029.51242</v>
+        <v>27783024.1663639</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>1647032495.84528</v>
+        <v>55065560.3192383</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>1465901897.22691</v>
+        <v>63803907.2205275</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>2084187789.77436</v>
+        <v>76666144.2092005</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>1993961846.37867</v>
+        <v>63633817.5153568</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>2455647932.81759</v>
+        <v>66247544.1715794</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>1310896668.59396</v>
+        <v>43326603.5289763</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>572731620.298622</v>
+        <v>81336078.8187587</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>844871784.08587</v>
+        <v>50113004.5379749</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>2448756530.16047</v>
+        <v>60861830.9605124</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>700480789.288232</v>
+        <v>62213545.0497752</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>460196742.87757</v>
+        <v>47827927.8711682</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>231145612.222171</v>
+        <v>89098800.0672901</v>
       </c>
       <c r="AP19" s="3" t="n">
-        <v>1336326451.3266</v>
+        <v>111601304.355066</v>
       </c>
       <c r="AQ19" s="3" t="n">
-        <v>792923002.969276</v>
+        <v>112093690.679847</v>
       </c>
       <c r="AR19" s="3" t="n">
-        <v>582214959.527419</v>
+        <v>64424375.498144</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>977149256.772373</v>
+        <v>57568733.305475</v>
       </c>
       <c r="AT19" s="3" t="n">
-        <v>518266581.82867</v>
+        <v>61135629.3470409</v>
       </c>
       <c r="AU19" s="3" t="n">
-        <v>9544714.49345426</v>
+        <v>-782181.566967231</v>
       </c>
       <c r="AV19" s="3" t="n">
-        <v>6310225.03</v>
+        <v>4018441.17440321</v>
       </c>
       <c r="AW19" s="3" t="n">
-        <v>2286455.96696452</v>
-      </c>
-      <c r="AX19" s="3"/>
+        <v>2678375.845</v>
+      </c>
+      <c r="AX19" s="3" t="n">
+        <v>1652413.66060875</v>
+      </c>
+      <c r="AY19" s="3" t="n">
+        <v>659340.394678729</v>
+      </c>
+      <c r="AZ19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6656,67 +6984,107 @@
       <c r="M20" t="s">
         <v>57</v>
       </c>
-      <c r="N20" t="s">
-        <v>57</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3" t="n">
+        <v>2805311.20375019</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
+      <c r="W20" s="3" t="n">
+        <v>3606333.76705214</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>973281.519569893</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>53797968.558873</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>257680252.767378</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>776404858.770082</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>925260501.323036</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>1355122197.27839</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>1713753412.2295</v>
+      </c>
       <c r="AE20" s="3" t="n">
+        <v>1525177047.91283</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>2168617855.69723</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>2074522066.62873</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>2555099034.24946</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>1363899950.51874</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>679539867.05567</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>1040005587.86901</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>2607224886.66124</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>161019215.670347</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>622815432.707335</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <v>528901725.174169</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>1229982805.88476</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>716580792.356663</v>
+      </c>
+      <c r="AR20" s="3" t="n">
+        <v>608869167.834074</v>
+      </c>
+      <c r="AS20" s="3" t="n">
+        <v>1023005023.8799</v>
+      </c>
+      <c r="AT20" s="3" t="n">
+        <v>542749947.347634</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>9987403.7634134</v>
+      </c>
+      <c r="AV20" s="3" t="n">
+        <v>6598896.33703078</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>2397211</v>
+      </c>
+      <c r="AX20" s="3" t="n">
+        <v>24507315.4867</v>
+      </c>
+      <c r="AY20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="3" t="n">
-        <v>54391026.4913336</v>
-      </c>
-      <c r="AG20" s="3" t="n">
-        <v>263475744.259908</v>
-      </c>
-      <c r="AH20" s="3" t="n">
-        <v>982369603.463306</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>1524008822.81389</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
-        <v>-917414.58404958</v>
-      </c>
-      <c r="AK20" s="3" t="n">
-        <v>-1053645.53326976</v>
-      </c>
-      <c r="AL20" s="3" t="n">
-        <v>2426231.07430142</v>
-      </c>
-      <c r="AM20" s="3" t="n">
-        <v>415253.896564877</v>
-      </c>
-      <c r="AN20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AZ20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6728,93 +7096,91 @@
       <c r="M21" t="s">
         <v>57</v>
       </c>
-      <c r="N21" t="s">
-        <v>57</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>10154930808.5306</v>
+        <v>10567510130.931</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>8705023523.2999</v>
+        <v>9057983393.77532</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>6004528138.36198</v>
+        <v>6247770935.75796</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>6907301236.64467</v>
+        <v>7187332872.43168</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>6632410715.084</v>
+        <v>6901021014.86558</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>6047222098.50706</v>
+        <v>6291954815.57422</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>5076672539.04631</v>
+        <v>5281950174.42063</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>5376821437.83218</v>
+        <v>5594330707.86078</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>5930753132.00485</v>
+        <v>6170358306.87992</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>5789712387.55746</v>
+        <v>6024887088.59656</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>11656319.2890684</v>
+        <v>12128445.4869012</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>7692878.03523481</v>
+        <v>8004550.25485826</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>13467945.613341</v>
+        <v>14014300.1659997</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>3168756.29398567</v>
+        <v>3297042.67865436</v>
       </c>
       <c r="AD21" s="3" t="n">
-        <v>5794109.8049803</v>
+        <v>6028827.89147481</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>7840519.02574275</v>
+        <v>8157557.94054731</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>2733620.5451712</v>
+        <v>2844359.01888249</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>1459242.11183679</v>
+        <v>1518198.55011987</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>28712570.4748276</v>
+        <v>29875398.6943373</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>26756461.7354582</v>
+        <v>27838301.635876</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>31855.3448867188</v>
+        <v>33144.563993204</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>-103680.835924263</v>
+        <v>-107885.620457965</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>-196894.978747272</v>
+        <v>-204917.075276245</v>
       </c>
       <c r="AM21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>3321130.78103472</v>
+        <v>3460714.84057997</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>-2071182.74156541</v>
+        <v>-2227.89011066411</v>
       </c>
       <c r="AP21" s="3" t="n">
-        <v>3622044.90051877</v>
+        <v>3593375.34786443</v>
       </c>
       <c r="AQ21" s="3" t="n">
-        <v>-64870.7236746093</v>
+        <v>-67755.6884964859</v>
       </c>
       <c r="AR21" s="3" t="n">
         <v>0</v>
@@ -6834,7 +7200,13 @@
       <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6878,6 +7250,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7031,115 +7405,115 @@
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="4" t="n">
         <v>146161000</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="4" t="n">
         <v>155034000</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="4" t="n">
         <v>54014000</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="4" t="n">
         <v>61145000</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="4" t="n">
         <v>227723000</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="4" t="n">
         <v>180833000</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="4" t="n">
         <v>98010000</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="4" t="n">
         <v>2174256568</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="4" t="n">
         <v>586215222</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="4" t="n">
         <v>827188281</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="4" t="n">
         <v>2929244709</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="4" t="n">
         <v>3593094023</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="4" t="n">
         <v>4246686735.64</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="4" t="n">
         <v>4748712477.71</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="4" t="n">
         <v>5371395489.22</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="4" t="n">
         <v>5785723606.15</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="4" t="n">
         <v>7380482191.94</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="4" t="n">
         <v>7551341401.82</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="4" t="n">
         <v>8654047870.41</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="4" t="n">
         <v>9613301540.6</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>8187094151.1456</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="4" t="n">
         <v>9708516553.0017</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="4" t="n">
         <v>9479517076.3262</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="4" t="n">
         <v>7023508896.28</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="4" t="n">
         <v>7666227374.0876</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="4" t="n">
         <v>5622559130.2197</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="4" t="n">
         <v>5664429347.2168</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>5601672367.335</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="4" t="n">
         <v>5328483089.25</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="4" t="n">
         <v>6462278914.15</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="4" t="n">
         <v>5967795072.31</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="4" t="n">
         <v>2660782693.18</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="4" t="n">
         <v>3134292153.39</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="4" t="n">
         <v>3194372041.98</v>
       </c>
-      <c r="AX2" s="12" t="n">
+      <c r="AX2" s="4" t="n">
         <v>2588657842.81</v>
       </c>
-      <c r="AY2" s="12" t="n">
+      <c r="AY2" s="4" t="n">
         <v>1144262610.82</v>
       </c>
-      <c r="AZ2" s="12"/>
+      <c r="AZ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -7154,111 +7528,111 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="n">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="n">
         <v>-284000</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="4" t="n">
         <v>1622000</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="4" t="n">
         <v>4764000</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12" t="n">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="n">
         <v>-369000</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="4" t="n">
         <v>163000</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="4" t="n">
         <v>295588</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="4" t="n">
         <v>449843</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="4" t="n">
         <v>1133898</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="4" t="n">
         <v>2746911</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="4" t="n">
         <v>3941884</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="4" t="n">
         <v>3749025</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="4" t="n">
         <v>16809462</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="4" t="n">
         <v>16266497</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="4" t="n">
         <v>16471041</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="4" t="n">
         <v>11620145</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="4" t="n">
         <v>13220806.78</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="4" t="n">
         <v>14159994.04</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="4" t="n">
         <v>14903232.19</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>18135284.5837</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="4" t="n">
         <v>15028409.0642</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="4" t="n">
         <v>30299449.7448</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="4" t="n">
         <v>25531725.7</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="4" t="n">
         <v>34552124.64</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="4" t="n">
         <v>21511607.58</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="4" t="n">
         <v>20119128.4358</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>19009075.8597</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="4" t="n">
         <v>8026539.13</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="4" t="n">
         <v>22724990.49</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="4" t="n">
         <v>1540197.4</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="4" t="n">
         <v>1416485.91</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="4" t="n">
         <v>1238514.38</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="4" t="n">
         <v>2728083.78</v>
       </c>
-      <c r="AX3" s="12" t="n">
+      <c r="AX3" s="4" t="n">
         <v>3037684</v>
       </c>
-      <c r="AY3" s="12" t="n">
+      <c r="AY3" s="4" t="n">
         <v>137306</v>
       </c>
-      <c r="AZ3" s="12"/>
+      <c r="AZ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -7273,75 +7647,75 @@
       <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12" t="n">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4" t="n">
         <v>-8990</v>
       </c>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12" t="n">
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12" t="n">
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4" t="n">
         <v>3801.12</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="4" t="n">
         <v>631424.1</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="4" t="n">
         <v>18016.7902</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="4" t="n">
         <v>936877.2</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="4" t="n">
         <v>13076623.2109</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="4" t="n">
         <v>3171330.6616</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="4" t="n">
         <v>1557946.2404</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="4" t="n">
         <v>7339874.5</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="4" t="n">
         <v>1339871</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="4" t="n">
         <v>245418</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="4" t="n">
         <v>3697414.52</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="4" t="n">
         <v>6565850.625</v>
       </c>
-      <c r="AX4" s="12" t="n">
+      <c r="AX4" s="4" t="n">
         <v>6811893.33</v>
       </c>
-      <c r="AY4" s="12" t="n">
+      <c r="AY4" s="4" t="n">
         <v>62415</v>
       </c>
-      <c r="AZ4" s="12"/>
+      <c r="AZ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -7356,91 +7730,91 @@
       <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12" t="n">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="n">
         <v>452242</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="4" t="n">
         <v>5387765</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="4" t="n">
         <v>3484273</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="4" t="n">
         <v>13430151</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="4" t="n">
         <v>11924872</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="4" t="n">
         <v>27711504</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="4" t="n">
         <v>29715201</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="4" t="n">
         <v>23051849</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="4" t="n">
         <v>28381830.2364</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="4" t="n">
         <v>48133935.8389</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="4" t="n">
         <v>25681037.0773</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>45161554.1091</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="4" t="n">
         <v>18708592.6554</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="4" t="n">
         <v>18721760.7503</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="4" t="n">
         <v>22354229.1009</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="4" t="n">
         <v>903081.3687</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="4" t="n">
         <v>-171183.4481</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="4" t="n">
         <v>-219671.1015</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>-344970.4034</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="4" t="n">
         <v>-77013.6016</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="4" t="n">
         <v>1495616.3311</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="4" t="n">
         <v>4762040.8001</v>
       </c>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12" t="n">
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX5" s="12" t="n">
+      <c r="AX5" s="4" t="n">
         <v>-42858.8</v>
       </c>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -7455,101 +7829,101 @@
       <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
         <v>6474318</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="4" t="n">
         <v>8253909</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="4" t="n">
         <v>19140890</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="4" t="n">
         <v>114826157</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="4" t="n">
         <v>417793085</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="4" t="n">
         <v>10274049</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="4" t="n">
         <v>180840769</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="4" t="n">
         <v>642827161.9375</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="4" t="n">
         <v>472444461</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="4" t="n">
         <v>142571387.6797</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="4" t="n">
         <v>100777326.2937</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="4" t="n">
         <v>196008740.809</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="4" t="n">
         <v>335542401.417</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>364760431.2007</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="4" t="n">
         <v>316707870.6605</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="4" t="n">
         <v>269018571.0573</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="4" t="n">
         <v>446865176.8734</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="4" t="n">
         <v>139835359.545</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="4" t="n">
         <v>162124959.532</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="4" t="n">
         <v>165592358.392</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="4" t="n">
         <v>187149456.8762</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="4" t="n">
         <v>291981928.9384</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="4" t="n">
         <v>409219408.2338</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="4" t="n">
         <v>473398285.7045</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="4" t="n">
         <v>136913607.9734</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="4" t="n">
         <v>140460649.3837</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="4" t="n">
         <v>136315112.0383</v>
       </c>
-      <c r="AX6" s="12" t="n">
+      <c r="AX6" s="4" t="n">
         <v>105633019.35</v>
       </c>
-      <c r="AY6" s="12" t="n">
+      <c r="AY6" s="4" t="n">
         <v>277141908.72</v>
       </c>
-      <c r="AZ6" s="12"/>
+      <c r="AZ6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -7564,101 +7938,101 @@
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12" t="n">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="n">
         <v>10916144</v>
       </c>
-      <c r="X7" s="12" t="n">
+      <c r="X7" s="4" t="n">
         <v>14549558</v>
       </c>
-      <c r="Y7" s="12" t="n">
+      <c r="Y7" s="4" t="n">
         <v>120631242</v>
       </c>
-      <c r="Z7" s="12" t="n">
+      <c r="Z7" s="4" t="n">
         <v>132875413</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="4" t="n">
         <v>130947353</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="4" t="n">
         <v>216574576</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="4" t="n">
         <v>331066499</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="4" t="n">
         <v>220497864</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="4" t="n">
         <v>217950512</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="4" t="n">
         <v>452759365</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="4" t="n">
         <v>516687037.568</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="4" t="n">
         <v>665157508.1462</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="4" t="n">
         <v>391607301.0968</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>588321932.6932</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="4" t="n">
         <v>372190223.0874</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="4" t="n">
         <v>309754413.0051</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="4" t="n">
         <v>216276254.57</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="4" t="n">
         <v>163087962.4881</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="4" t="n">
         <v>174761835.8814</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="4" t="n">
         <v>150854224.8692</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="4" t="n">
         <v>220463113.7037</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="4" t="n">
         <v>228497197.2158</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="4" t="n">
         <v>309862951.4077</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="4" t="n">
         <v>874189038.4866</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="4" t="n">
         <v>826989223.8702</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="4" t="n">
         <v>1358299503.3081</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="4" t="n">
         <v>1791414834.5943</v>
       </c>
-      <c r="AX7" s="12" t="n">
+      <c r="AX7" s="4" t="n">
         <v>3222834186.4</v>
       </c>
-      <c r="AY7" s="12" t="n">
+      <c r="AY7" s="4" t="n">
         <v>141313098.96</v>
       </c>
-      <c r="AZ7" s="12"/>
+      <c r="AZ7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -7673,57 +8047,57 @@
       <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12" t="n">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="n">
         <v>11801</v>
       </c>
-      <c r="X8" s="12" t="n">
+      <c r="X8" s="4" t="n">
         <v>200000</v>
       </c>
-      <c r="Y8" s="12" t="n">
+      <c r="Y8" s="4" t="n">
         <v>-761336</v>
       </c>
-      <c r="Z8" s="12" t="n">
+      <c r="Z8" s="4" t="n">
         <v>-2328832</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="4" t="n">
         <v>5055100</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="4" t="n">
         <v>3061000</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="4" t="n">
         <v>130068</v>
       </c>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -7734,67 +8108,67 @@
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="4" t="n">
         <v>5109318000</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="4" t="n">
         <v>4536041000</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="4" t="n">
         <v>3207056007</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="4" t="n">
         <v>3775896266</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="4" t="n">
         <v>3704627729</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="4" t="n">
         <v>3449312820</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="4" t="n">
         <v>2950138142</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="4" t="n">
         <v>3180065599</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="4" t="n">
         <v>3551481726</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="4" t="n">
         <v>3510240138</v>
       </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="12" t="n">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12"/>
-      <c r="AY9" s="12" t="n">
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="12"/>
+      <c r="AZ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -7809,115 +8183,115 @@
       <c r="O10" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="4" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="4" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="4" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="4" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="4" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="4" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="4" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12" t="str">
+      <c r="AW10" s="4" t="str">
         <f>Sum(AW2:AW9)</f>
       </c>
-      <c r="AX10" s="12" t="str">
+      <c r="AX10" s="4" t="str">
         <f>Sum(AX2:AX9)</f>
       </c>
-      <c r="AY10" s="12" t="str">
+      <c r="AY10" s="4" t="str">
         <f>Sum(AY2:AY9)</f>
       </c>
-      <c r="AZ10" s="12"/>
+      <c r="AZ10" s="4"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -8054,115 +8428,115 @@
       <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="4" t="n">
         <v>302302156.226526</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="4" t="n">
         <v>309586134.135596</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="4" t="n">
         <v>105226443.999558</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="4" t="n">
         <v>116388120.203945</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="4" t="n">
         <v>424204892.779453</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="4" t="n">
         <v>329860793.885529</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="4" t="n">
         <v>175477862.960007</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="4" t="n">
         <v>3824924331.42112</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="4" t="n">
         <v>1018492630.33126</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="4" t="n">
         <v>1419582080.85303</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="4" t="n">
         <v>4924568261.60197</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="4" t="n">
         <v>5897660173.99366</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="4" t="n">
         <v>6862497352.1443</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="4" t="n">
         <v>7529228884.11174</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="4" t="n">
         <v>8313506369.94444</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="4" t="n">
         <v>8690331991.93318</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="4" t="n">
         <v>10736926001.7799</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="4" t="n">
         <v>10691164986.5557</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="4" t="n">
         <v>12003177174.337</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="4" t="n">
         <v>13198692142.4876</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>11144051992.2395</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="4" t="n">
         <v>12954947708.6063</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="4" t="n">
         <v>12423927957.3819</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="4" t="n">
         <v>9041017933.94178</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="4" t="n">
         <v>9691553185.30243</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="4" t="n">
         <v>7035114729.54614</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="4" t="n">
         <v>7031288292.7648</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>6837961460.11941</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="4" t="n">
         <v>6363215911.59067</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="4" t="n">
         <v>7577085653.39078</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="4" t="n">
         <v>6907070677.62259</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="4" t="n">
         <v>2977101222.3282</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="4" t="n">
         <v>3277675346.26092</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="4" t="n">
         <v>3194372041.98</v>
       </c>
-      <c r="AX14" s="12" t="n">
+      <c r="AX14" s="4" t="n">
         <v>2521323410.07638</v>
       </c>
-      <c r="AY14" s="12" t="n">
+      <c r="AY14" s="4" t="n">
         <v>1090569463.67903</v>
       </c>
-      <c r="AZ14" s="12"/>
+      <c r="AZ14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -8177,111 +8551,111 @@
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12" t="n">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4" t="n">
         <v>-567117.291010419</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="4" t="n">
         <v>3159871.36977973</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="4" t="n">
         <v>9068165.91138432</v>
       </c>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12" t="n">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="n">
         <v>-673099.671762124</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="4" t="n">
         <v>291836.46222305</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="4" t="n">
         <v>519994.627090443</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="4" t="n">
         <v>781558.995931544</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="4" t="n">
         <v>1945943.04499714</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="4" t="n">
         <v>4618033.68168014</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="4" t="n">
         <v>6470159.73656385</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="4" t="n">
         <v>6058293.379567</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="4" t="n">
         <v>26651916.1585061</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="4" t="n">
         <v>25176255.7230392</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="4" t="n">
         <v>24740002.1650865</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="4" t="n">
         <v>16904672.8588011</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="4" t="n">
         <v>18717975.9223027</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="4" t="n">
         <v>19639932.6413274</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="4" t="n">
         <v>20461562.843221</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="4" t="n">
         <v>24685260.7975118</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="4" t="n">
         <v>20053759.243997</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="4" t="n">
         <v>39710691.7732984</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="4" t="n">
         <v>32865736.1081215</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="4" t="n">
         <v>43680383.749851</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="4" t="n">
         <v>26915969.0164719</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="4" t="n">
         <v>24973988.2978291</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>23204378.9063933</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="4" t="n">
         <v>9585204.76682418</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="4" t="n">
         <v>26645275.096095</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="4" t="n">
         <v>1782610.18858557</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="4" t="n">
         <v>1584880.24778594</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="4" t="n">
         <v>1295172.19539506</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="4" t="n">
         <v>2728083.78</v>
       </c>
-      <c r="AX15" s="12" t="n">
+      <c r="AX15" s="4" t="n">
         <v>2958669.79982978</v>
       </c>
-      <c r="AY15" s="12" t="n">
+      <c r="AY15" s="4" t="n">
         <v>130863.081047982</v>
       </c>
-      <c r="AZ15" s="12"/>
+      <c r="AZ15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -8296,75 +8670,75 @@
       <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12" t="n">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4" t="n">
         <v>-13503.2521298519</v>
       </c>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12" t="n">
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12" t="n">
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4" t="n">
         <v>4981.7770944578</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="4" t="n">
         <v>812801.221772022</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="4" t="n">
         <v>22776.6112236551</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="4" t="n">
         <v>1172248.87046024</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="4" t="n">
         <v>16232086.597898</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>3871243.33935879</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="4" t="n">
         <v>1860482.26864346</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="4" t="n">
         <v>8606075.11846368</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="4" t="n">
         <v>1550754.27084238</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="4" t="n">
         <v>274593.723739286</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="4" t="n">
         <v>3866558.64355322</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="4" t="n">
         <v>6565850.625</v>
       </c>
-      <c r="AX16" s="12" t="n">
+      <c r="AX16" s="4" t="n">
         <v>6634706.926439</v>
       </c>
-      <c r="AY16" s="12" t="n">
+      <c r="AY16" s="4" t="n">
         <v>59486.2511733631</v>
       </c>
-      <c r="AZ16" s="12"/>
+      <c r="AZ16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -8379,91 +8753,91 @@
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12" t="n">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4" t="n">
         <v>776116.700581178</v>
       </c>
-      <c r="Z17" s="12" t="n">
+      <c r="Z17" s="4" t="n">
         <v>9057767.15699103</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="4" t="n">
         <v>5719042.69019497</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="4" t="n">
         <v>21702654.6608478</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="4" t="n">
         <v>18907249.3066653</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="4" t="n">
         <v>42890114.0284859</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="4" t="n">
         <v>44633131.3895692</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="4" t="n">
         <v>33535206.8442762</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="4" t="n">
         <v>40182904.4048565</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="4" t="n">
         <v>66761840.0804053</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="4" t="n">
         <v>35259073.1552082</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="4" t="n">
         <v>61472690.7680333</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="4" t="n">
         <v>24964559.5420431</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="4" t="n">
         <v>24536883.5695173</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="4" t="n">
         <v>28775500.8479772</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="4" t="n">
         <v>1141664.69220507</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="4" t="n">
         <v>-214189.867868184</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="4" t="n">
         <v>-272678.984864489</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>-421105.371511274</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="4" t="n">
         <v>-91968.7961661527</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="4" t="n">
         <v>1753624.87381053</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="4" t="n">
         <v>5511541.86386656</v>
       </c>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12" t="n">
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX17" s="12" t="n">
+      <c r="AX17" s="4" t="n">
         <v>-41743.9856209351</v>
       </c>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="12"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -8478,101 +8852,101 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="n">
         <v>11389537.3766017</v>
       </c>
-      <c r="X18" s="12" t="n">
+      <c r="X18" s="4" t="n">
         <v>14340373.9316836</v>
       </c>
-      <c r="Y18" s="12" t="n">
+      <c r="Y18" s="4" t="n">
         <v>32848705.7659113</v>
       </c>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="4" t="n">
         <v>193042679.782451</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="4" t="n">
         <v>685760412.224661</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="4" t="n">
         <v>16602504.1278858</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="4" t="n">
         <v>286728570.695943</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="4" t="n">
         <v>994927243.072312</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="4" t="n">
         <v>709625881.449942</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="4" t="n">
         <v>207409001.157097</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="4" t="n">
         <v>142680216.001124</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="4" t="n">
         <v>271864412.917519</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="4" t="n">
         <v>460686772.213488</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="4" t="n">
         <v>496502072.037795</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="4" t="n">
         <v>422611825.494829</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="4" t="n">
         <v>352577807.403351</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="4" t="n">
         <v>575227587.496376</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="4" t="n">
         <v>176778193.247568</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="4" t="n">
         <v>202855615.106013</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="4" t="n">
         <v>205550734.162669</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>228453342.052663</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="4" t="n">
         <v>348681608.817731</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="4" t="n">
         <v>479813785.262042</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="4" t="n">
         <v>547906786.075463</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="4" t="n">
         <v>153190138.636924</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="4" t="n">
         <v>146886245.784972</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="4" t="n">
         <v>136315112.0383</v>
       </c>
-      <c r="AX18" s="12" t="n">
+      <c r="AX18" s="4" t="n">
         <v>102885364.052245</v>
       </c>
-      <c r="AY18" s="12" t="n">
+      <c r="AY18" s="4" t="n">
         <v>264137357.891263</v>
       </c>
-      <c r="AZ18" s="12"/>
+      <c r="AZ18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -8587,101 +8961,101 @@
       <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12" t="n">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4" t="n">
         <v>19203540.8357091</v>
       </c>
-      <c r="X19" s="12" t="n">
+      <c r="X19" s="4" t="n">
         <v>25278459.2440646</v>
       </c>
-      <c r="Y19" s="12" t="n">
+      <c r="Y19" s="4" t="n">
         <v>207021730.684124</v>
       </c>
-      <c r="Z19" s="12" t="n">
+      <c r="Z19" s="4" t="n">
         <v>223386608.703798</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="4" t="n">
         <v>214935368.719682</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="4" t="n">
         <v>349976945.99618</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="4" t="n">
         <v>524916060.623365</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="4" t="n">
         <v>341272654.490264</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="4" t="n">
         <v>327368266.447865</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="4" t="n">
         <v>658662086.323668</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="4" t="n">
         <v>731523853.990077</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="4" t="n">
         <v>922574445.932786</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="4" t="n">
         <v>537661716.539113</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="4" t="n">
         <v>800807964.959148</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="4" t="n">
         <v>496646923.495328</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="4" t="n">
         <v>405966515.031367</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="4" t="n">
         <v>278401796.755577</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="4" t="n">
         <v>206173856.475806</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="4" t="n">
         <v>218667254.055845</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="4" t="n">
         <v>187256205.386</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>269119322.949804</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="4" t="n">
         <v>272868840.291675</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="4" t="n">
         <v>363317361.385883</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="4" t="n">
         <v>1011778286.83261</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="4" t="n">
         <v>925303158.182285</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="4" t="n">
         <v>1420437080.19245</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="4" t="n">
         <v>1791414834.5943</v>
       </c>
-      <c r="AX19" s="12" t="n">
+      <c r="AX19" s="4" t="n">
         <v>3139003983.67989</v>
       </c>
-      <c r="AY19" s="12" t="n">
+      <c r="AY19" s="4" t="n">
         <v>134682151.707456</v>
       </c>
-      <c r="AZ19" s="12"/>
+      <c r="AZ19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -8696,57 +9070,57 @@
       <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12" t="n">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4" t="n">
         <v>20760.1681877963</v>
       </c>
-      <c r="X20" s="12" t="n">
+      <c r="X20" s="4" t="n">
         <v>347480.785932667</v>
       </c>
-      <c r="Y20" s="12" t="n">
+      <c r="Y20" s="4" t="n">
         <v>-1306569.45695816</v>
       </c>
-      <c r="Z20" s="12" t="n">
+      <c r="Z20" s="4" t="n">
         <v>-3915170.39138673</v>
       </c>
-      <c r="AA20" s="12" t="n">
+      <c r="AA20" s="4" t="n">
         <v>8297378.7367421</v>
       </c>
-      <c r="AB20" s="12" t="n">
+      <c r="AB20" s="4" t="n">
         <v>4946469.02457428</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="4" t="n">
         <v>206226.792440149</v>
       </c>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
-      <c r="AY20" s="12"/>
-      <c r="AZ20" s="12"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -8757,67 +9131,67 @@
       </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="4" t="n">
         <v>10567510130.931</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="4" t="n">
         <v>9057983393.77532</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="4" t="n">
         <v>6247770935.75796</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="4" t="n">
         <v>7187332872.43168</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="4" t="n">
         <v>6901021014.86558</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="4" t="n">
         <v>6291954815.57422</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="4" t="n">
         <v>5281950174.42063</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="4" t="n">
         <v>5594330707.86078</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="4" t="n">
         <v>6170358306.87992</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="4" t="n">
         <v>6024110971.89597</v>
       </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12" t="n">
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12" t="n">
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="12"/>
+      <c r="AZ21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -8826,43 +9200,43 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -506,17 +506,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -554,18 +554,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
